--- a/AvlZen/App_Data/AvlZen.xlsx
+++ b/AvlZen/App_Data/AvlZen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Places" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="357">
   <si>
     <t>Code</t>
   </si>
@@ -360,255 +360,60 @@
     <t>Sunday</t>
   </si>
   <si>
-    <t>6:45am – 7:45am Vinyasa Flow with Jenne (All levels)* -</t>
-  </si>
-  <si>
-    <t>8:00am – 9:15am Intuitive Integrative Flow with Brian (Level 1 &amp; 2) -</t>
-  </si>
-  <si>
-    <t>9:30am – 11:00am Subtle Yoga with Kaoverii (Beginners welcome )*</t>
-  </si>
-  <si>
-    <t>10:00am – 11:00am Yoga for Seniors with Robert (All levels, Beginners Welcome)*</t>
-  </si>
-  <si>
-    <t>11:15am – 11:45am Guided Meditation with Jerome (All Levels)*</t>
-  </si>
-  <si>
-    <t>12:15pm – 1:45pm Vinyasa Flow with Kelly G (Level 1 &amp; 2)</t>
-  </si>
-  <si>
-    <t>12:00pm – 1:15pm Yoga for Health and Happiness with Eric (Level 1)</t>
-  </si>
-  <si>
-    <t>2:15pm – 3:30pm Yoga Basics for Beginners with Elle*</t>
-  </si>
-  <si>
-    <t>2:15pm – 3:15pm Playful Flow with Rich (Level 1 &amp; 2)</t>
-  </si>
-  <si>
-    <t>4:00pm – 4:45pm Kids Yoga with Cara (Ages 6-10)</t>
-  </si>
-  <si>
-    <t>4:00pm – 5:15pm Restorative Yoga and Live Music with Luna (All Levels)*</t>
-  </si>
-  <si>
-    <t>5:15pm – 6:15pm Gentle Yoga with Amber (Level 1, Beginners Welcome)</t>
-  </si>
-  <si>
-    <t>6:30pm – 7:45pm Warm Power Flow with Michael (level 1 &amp; 2, No Beginners Please)</t>
-  </si>
-  <si>
-    <t>7:45pm – 9:00pm Gentle Yoga with Lia (Level 1, Beginners Welcome)</t>
-  </si>
-  <si>
-    <t>8:00pm-9:30pm Ashtanga Yoga with Rich (Level 1 &amp; 2, No Beginners Please)</t>
-  </si>
-  <si>
-    <t>6:00am- 8:00am Mysore Practice with Nicky (Mysore Practitioners ONLY Please)</t>
-  </si>
-  <si>
-    <t>7:15am – 8:15am Vinyasa Flow with Michael Murphy (Level 1 and 2)</t>
-  </si>
-  <si>
-    <t>9:15am-10:00am Cultivating a Meditation Practice with Jerome (All Levels, Beginner’s Welcome)</t>
-  </si>
-  <si>
-    <t>9:30am – 11:00am Gentle Morning Flow with Amber (Beginners Welcome)</t>
-  </si>
-  <si>
-    <t>12:00-1:00pm Vinyasa Flow with Aubrey (Level 1 &amp; 2)</t>
-  </si>
-  <si>
-    <t>12:15pm – 1:45pm Yoga Tune Up with Mado (Level 1 &amp; 2)</t>
-  </si>
-  <si>
-    <t>2:15pm – 3:35pm Therapeutic Yoga with Margaret (Beginners Welcome)</t>
-  </si>
-  <si>
-    <t>4:00pm – 5:00pm Vinyasa Flow with Kelsey (Level 1 &amp; 2)</t>
-  </si>
-  <si>
-    <t>4:30pm – 5:30pm Tai Chi and Qigong with Liz*</t>
-  </si>
-  <si>
-    <t>5:15pm – 6:15pm Yoga for Beginners with Marilyn*</t>
-  </si>
-  <si>
-    <t>6:30pm – 8:00pm Vinyasa Flow with Leaflin (Level 1 &amp; 2)</t>
-  </si>
-  <si>
-    <t>8:00pm – 9:30pm Gentle Yoga with Margaret (Level 1, Beginners Welcome)</t>
-  </si>
-  <si>
-    <t>8:15pm – 9:30pm Hot Power Flow with Lea (Level 1 &amp; 2)</t>
-  </si>
-  <si>
-    <t>7:45am-9:00am Kundalini Yoga with Belle (Level 1 &amp; 2)</t>
-  </si>
-  <si>
-    <t>9:30am – 11:00am Gentle Flow with Michael  (Level 1 &amp; 2)*</t>
-  </si>
-  <si>
-    <t>10:00am – 11:00am Yoga for Senirs with Elle Jai (All Levels, Beginner’s Welcome)</t>
-  </si>
-  <si>
-    <t>11:15am-11:45am Guided Meditation with Elle (All Levels)</t>
-  </si>
-  <si>
-    <t>12:00 – 1:15pm Warm Vinyasa Flow with Michael (Level 1 &amp; 2)</t>
-  </si>
-  <si>
-    <t>12:15pm – 1:30pm Gentle Yoga for All with Susan R. (All levels)</t>
-  </si>
-  <si>
-    <t>2:15pm – 3:35pm Yin Yoga with Anna (All levels, Beginners Welcome)*</t>
-  </si>
-  <si>
-    <t>4:00pm – 5:15pm Restorative Yoga with Didgeridoo Meditation with Robin and Corey*</t>
-  </si>
-  <si>
-    <t>4:15pm – 5:15pm Warm Therapeutic Power Flow with Anna (Level 1 &amp; 2)</t>
-  </si>
-  <si>
-    <t>6:00pm – 7:00pm Warm Vinyasa Flow with Sonya (Level 1 &amp; 2)</t>
-  </si>
-  <si>
-    <t>8:30am – 9:45am Vinyasa Flow with Rebecca (Level 1 &amp; 2)</t>
-  </si>
-  <si>
-    <t>10:15am – 11:45am Beginner’s Flow with Kelly*</t>
-  </si>
-  <si>
-    <t>10:30am- 11:45am Vinyasa Flow with Alex (Level 1 &amp; 2)</t>
-  </si>
-  <si>
-    <t>12:15pm – 1:45pm Hot Flow with Lindsay (Level 1 &amp; 2)</t>
-  </si>
-  <si>
-    <t>2:15pm – 3:15pm Gentle Flow with Jessica (Level 1 &amp; 2)</t>
-  </si>
-  <si>
-    <t>3:30pm-5:00pm Hot Flow with Lia (Level 1 &amp; 2)</t>
-  </si>
-  <si>
-    <t>9:30am – 11:00am We Are All Beginners with Jenne*</t>
-  </si>
-  <si>
-    <t>11:15am – 12:30pm Deep Soul Flow with Leaflin (Level 1&amp;2)</t>
-  </si>
-  <si>
-    <t>12:45pm – 2:00pm Prenatal Yoga with Margaret (Beginners Welcome!)</t>
-  </si>
-  <si>
-    <t>2:15pm – 3:30pm Gentle Flow with Kelsey (Level 1 and 2)</t>
-  </si>
-  <si>
-    <t>4:00pm-5:30pm Warm Vinyasa Flow with Michael (Level 1 and 2)</t>
-  </si>
-  <si>
-    <t>4:15pm – 5:30pm Vinyasa Flow with Amber (Level 1 and 2)</t>
-  </si>
-  <si>
-    <t>6:00pm – 7:15pm Gentle Yoga and Live Music with Michael &amp; Mel(Beginners Welcome)*</t>
-  </si>
-  <si>
-    <t>7:00 am - 8:30 am</t>
-  </si>
-  <si>
-    <t>SIGN UP</t>
-  </si>
-  <si>
-    <t>8:45 am - 10:00 am</t>
-  </si>
-  <si>
     <t>Flow Level 1 &amp; 2 $7</t>
   </si>
   <si>
     <t>Paige Gilchrist</t>
   </si>
   <si>
-    <t>10:15 am - 11:45 am</t>
-  </si>
-  <si>
     <t>Kundalini All Levels</t>
   </si>
   <si>
     <t>Sierra Hollister</t>
   </si>
   <si>
-    <t>12:15 pm - 1:45 pm</t>
-  </si>
-  <si>
     <t>Mindful Alignment Level 1&amp;2</t>
   </si>
   <si>
     <t>Deirdre Smith-Gilmer</t>
   </si>
   <si>
-    <t>2:00 pm - 3:30 pm</t>
-  </si>
-  <si>
     <t>HOT Ashtanga 1st Series Level 1&amp;2 $7</t>
   </si>
   <si>
     <t>Stephanie Keach</t>
   </si>
   <si>
-    <t>4:00 pm - 5:00 pm</t>
-  </si>
-  <si>
     <t>Long Slow Deep All Levels $7</t>
   </si>
   <si>
-    <t>5:30 pm - 6:45 pm</t>
-  </si>
-  <si>
     <t>HOT Power Flow All Levels</t>
   </si>
   <si>
     <t>Candice Morrison</t>
   </si>
   <si>
-    <t>7:00 pm - 8:30 pm</t>
-  </si>
-  <si>
     <t>Bhakti Vinyasa Level 1 &amp; 2</t>
   </si>
   <si>
     <t>Michael Johnson</t>
   </si>
   <si>
-    <t>7:00 pm - 8:00 pm</t>
-  </si>
-  <si>
     <t>Liz Harrison</t>
   </si>
   <si>
-    <t>7:00 am - 8:00 am</t>
-  </si>
-  <si>
     <t>Ashtanga Flow Level 1&amp;2</t>
   </si>
   <si>
     <t>Tanya Neplioueva</t>
   </si>
   <si>
-    <t>8:15 am - 9:15 am</t>
-  </si>
-  <si>
-    <t>9:30 am - 11:00 am</t>
-  </si>
-  <si>
     <t>HOT Jivamukti Level 1&amp;2</t>
   </si>
   <si>
     <t>HOT Dynamic Flow 1&amp;2</t>
   </si>
   <si>
-    <t>2:30 pm - 3:30 pm</t>
-  </si>
-  <si>
     <t>Yin Level 1 $7</t>
   </si>
   <si>
@@ -618,27 +423,15 @@
     <t>Evaa Whitley</t>
   </si>
   <si>
-    <t>5:30 pm - 7:00 pm</t>
-  </si>
-  <si>
     <t>Bhakti Vinyasa Level 1&amp;2</t>
   </si>
   <si>
-    <t>5:30 pm - 6:30 pm</t>
-  </si>
-  <si>
     <t>Yoga for Beginners</t>
   </si>
   <si>
-    <t>6:45 pm - 8:15 pm</t>
-  </si>
-  <si>
     <t>Align &amp; Slow Flow Level 2&amp;3</t>
   </si>
   <si>
-    <t>7:15 pm - 8:15 pm</t>
-  </si>
-  <si>
     <t>Flow and Yin Level 1&amp;2</t>
   </si>
   <si>
@@ -651,24 +444,12 @@
     <t>Anna Levesque</t>
   </si>
   <si>
-    <t>8:15 am - 9:45 am</t>
-  </si>
-  <si>
-    <t>10:00 am - 11:30 am</t>
-  </si>
-  <si>
-    <t>2:15 pm - 3:15 pm</t>
-  </si>
-  <si>
     <t>Women's Dao Flow All Levels $7</t>
   </si>
   <si>
     <t>Saraswati Markus</t>
   </si>
   <si>
-    <t>3:30 pm - 5:00 pm</t>
-  </si>
-  <si>
     <t>Slow Flow All Levels</t>
   </si>
   <si>
@@ -678,9 +459,6 @@
     <t>HOT Kundalini All Levels $7</t>
   </si>
   <si>
-    <t>7:15 pm - 8:45 pm</t>
-  </si>
-  <si>
     <t>Roots Led Practice All Levels</t>
   </si>
   <si>
@@ -696,15 +474,9 @@
     <t>Slow Power Flow 1&amp;2</t>
   </si>
   <si>
-    <t>10:30 am - 12:00 pm</t>
-  </si>
-  <si>
     <t>HOT Ashtanga Mix 2&amp;3 $7</t>
   </si>
   <si>
-    <t>12:15 pm - 1:15 pm</t>
-  </si>
-  <si>
     <t>Back Care Level 1</t>
   </si>
   <si>
@@ -717,60 +489,30 @@
     <t>Hot Flow Level 1&amp;2</t>
   </si>
   <si>
-    <t>5:15 pm - 6:45 pm</t>
-  </si>
-  <si>
-    <t>7:45 am - 8:45 am</t>
-  </si>
-  <si>
     <t>HOT Dynamic Flow Level 1 &amp; 2</t>
   </si>
   <si>
     <t>Brian VanWyngarden</t>
   </si>
   <si>
-    <t>9:00 am - 10:30 am</t>
-  </si>
-  <si>
-    <t>11:00 am - 12:30 pm</t>
-  </si>
-  <si>
     <t>Align and Slow Flow All Levels</t>
   </si>
   <si>
-    <t>1:00 pm - 2:00 pm</t>
-  </si>
-  <si>
     <t>Izzy Shurte</t>
   </si>
   <si>
-    <t>2:15 pm - 3:45 pm</t>
-  </si>
-  <si>
     <t>Vinyasa Flow Yoga Level 1&amp;2</t>
   </si>
   <si>
     <t>Kate Lundquist</t>
   </si>
   <si>
-    <t>4:00 pm - 5:30 pm</t>
-  </si>
-  <si>
     <t>HOT Flow Level 1 &amp; 2</t>
   </si>
   <si>
-    <t>8:00 am - 9:00 am</t>
-  </si>
-  <si>
-    <t>11:15 am - 12:45 pm</t>
-  </si>
-  <si>
     <t>Roots Practice All Levels</t>
   </si>
   <si>
-    <t>1:00 pm - 2:30 pm</t>
-  </si>
-  <si>
     <t>Hot Vinyasa Flow 1&amp;2</t>
   </si>
   <si>
@@ -783,102 +525,12 @@
     <t>Mado Hesselink</t>
   </si>
   <si>
-    <t>5:45 pm - 6:45 pm</t>
-  </si>
-  <si>
     <t>Yoga Basics Level 1</t>
   </si>
   <si>
     <t>Gentle Level 1 $7</t>
   </si>
   <si>
-    <t>8:30 – 9:45 am Skillful Flow, Level 1&amp;2, with Meghan</t>
-  </si>
-  <si>
-    <t>10:00 – 11:30 HOT Bhakti Vinyasa, Level 1&amp;2, with Izzy</t>
-  </si>
-  <si>
-    <t>12:00 – 1:00 HOT Flow, Level 1&amp;2, with Lisa</t>
-  </si>
-  <si>
-    <t>1:30 – 3:00 Slow Flow &amp; Yin, Level 1&amp;2, with Anna</t>
-  </si>
-  <si>
-    <t>4:00 – 4:45 Family Yoga, All Levels, with Jane Anne</t>
-  </si>
-  <si>
-    <t>5:30 – 6:45 Slow Flow, Level 1&amp;2 with Tim</t>
-  </si>
-  <si>
-    <t>7:00 – 8:00 pm Gentle Yoga for Healing, All Levels, FREE to Veterans &amp; their families, with Ashley</t>
-  </si>
-  <si>
-    <t>9:00 – 10:00 am Restorative &amp; Yin, plus Live Music, All Levels, with Becca *New for February – Now with live music</t>
-  </si>
-  <si>
-    <t>12:15 – 1:15 Innercise Yoga Flow, Level 1&amp;2 with Kelsey *New for February – New class and new teacher</t>
-  </si>
-  <si>
-    <t>2:00 – 3:15 HOT Flow, Level 1&amp;2, with Lisa</t>
-  </si>
-  <si>
-    <t>3:30 – 5:00 Align &amp; Refine, Level 1&amp;2, with Michael</t>
-  </si>
-  <si>
-    <t>5:15 – 6:30 HOT Flow, Level 1&amp;2, with Izzy</t>
-  </si>
-  <si>
-    <t>6:45 – 8:15 pm Yoga &amp; Body Rolling, All Levels, with Ann-Lee</t>
-  </si>
-  <si>
-    <t>10:30 – 12:00 Prenatal Yoga &amp; Meditation, with Danielle</t>
-  </si>
-  <si>
-    <t>8:30 – 9:45 am HOT Dynamic Flow, Level 1&amp;2, with Tanya</t>
-  </si>
-  <si>
-    <t>10:30 – 11:45 Gentle &amp; Restorative, with Paige</t>
-  </si>
-  <si>
-    <t>12:00 – 1:15 Slow Power Flow, Level 1&amp;2, with Sara</t>
-  </si>
-  <si>
-    <t>1:30 – 3:00 Warm Jivamukti, Level 1&amp;2, with Kumiko</t>
-  </si>
-  <si>
-    <t>4:00 – 5:00 Vibrant Breath Yoga, All Levels, with Natalie</t>
-  </si>
-  <si>
-    <t>5:15 – 6:15 Slow Flow, Level 1, with Tanya</t>
-  </si>
-  <si>
-    <t>6:30 – 8:00 pm HOT Flow, Level 1&amp;2, with Alex</t>
-  </si>
-  <si>
-    <t>9:00 – 10:00 am Beginners’ Yoga, Level 1, with Paige</t>
-  </si>
-  <si>
-    <t>10:15 – 11:45 Kundalini Yoga, All Levels, with Krystal</t>
-  </si>
-  <si>
-    <t>12:00 – 1:00 HOT Flow, Level 1 &amp; 2, with Janelle</t>
-  </si>
-  <si>
-    <t>1:30 – 3:00 pm Tantra Vinyasa, Level 1&amp;2, with Jackie</t>
-  </si>
-  <si>
-    <t>4:15 – 5:45 pm Mindful Alignment, Level 1&amp;2, with Kimberly</t>
-  </si>
-  <si>
-    <t>6:00 – 7:30 HOT Flow, Level 1&amp;2, with Liz</t>
-  </si>
-  <si>
-    <t>7:45 – 8:45 pm Yoga Nidra, All Levels, with Alex</t>
-  </si>
-  <si>
-    <t>8:00 am</t>
-  </si>
-  <si>
     <t>Wake Up with Yoga/All Levels</t>
   </si>
   <si>
@@ -894,9 +546,6 @@
     <t> 1 hour &amp; 30 minutes</t>
   </si>
   <si>
-    <t>   9:30 am</t>
-  </si>
-  <si>
     <t>Take It Easy Yoga - Level I</t>
   </si>
   <si>
@@ -906,12 +555,6 @@
     <t>Sky</t>
   </si>
   <si>
-    <t>   10:00 am</t>
-  </si>
-  <si>
-    <t>   12:00 pm</t>
-  </si>
-  <si>
     <t>Core Strength Yoga</t>
   </si>
   <si>
@@ -921,12 +564,6 @@
     <t>Letitia Walker</t>
   </si>
   <si>
-    <t>   4:00 pm</t>
-  </si>
-  <si>
-    <t>   5:30 pm</t>
-  </si>
-  <si>
     <t>Therapeutic Yoga/Level I</t>
   </si>
   <si>
@@ -939,9 +576,6 @@
     <t>Laura Stone</t>
   </si>
   <si>
-    <t>   9:45 am</t>
-  </si>
-  <si>
     <t>Alignment - All Levels</t>
   </si>
   <si>
@@ -963,36 +597,18 @@
     <t>Yoga Secrets for Healing Back Pain</t>
   </si>
   <si>
-    <t>   5:45 pm</t>
-  </si>
-  <si>
     <t>Iyengar Yoga -Level II</t>
   </si>
   <si>
-    <t>7:00 am</t>
-  </si>
-  <si>
-    <t>   9:00 am</t>
-  </si>
-  <si>
     <t>8-Week Chakra Yoga - Level I</t>
   </si>
   <si>
     <t>Yoga Basics</t>
   </si>
   <si>
-    <t>   3:15 pm</t>
-  </si>
-  <si>
-    <t>   3:30 pm</t>
-  </si>
-  <si>
     <t>Yoga for your Knees</t>
   </si>
   <si>
-    <t>   5:15 pm</t>
-  </si>
-  <si>
     <t>Egg-Centric Yoga</t>
   </si>
   <si>
@@ -1008,9 +624,6 @@
     <t>Nicole Kintz (2)</t>
   </si>
   <si>
-    <t>9:30 am</t>
-  </si>
-  <si>
     <t>Women Over 50-Level 1/11</t>
   </si>
   <si>
@@ -1023,24 +636,15 @@
     <t> 1 hour</t>
   </si>
   <si>
-    <t>   5:00 pm</t>
-  </si>
-  <si>
     <t>Alignment -All Levels</t>
   </si>
   <si>
     <t>Nicole Kintz (3)</t>
   </si>
   <si>
-    <t>9:00 am</t>
-  </si>
-  <si>
     <t>Rachel Fagan</t>
   </si>
   <si>
-    <t>10:00 am</t>
-  </si>
-  <si>
     <t>Mindful Alignment Yoga - All Levels</t>
   </si>
   <si>
@@ -1270,6 +874,222 @@
   </si>
   <si>
     <t>Skillful Flow 1&amp;2 level</t>
+  </si>
+  <si>
+    <t>Intuitive Integrative Flow (Level 1 &amp; 2)</t>
+  </si>
+  <si>
+    <t>Subtle Yoga (Beginners welcome )*</t>
+  </si>
+  <si>
+    <t>Yoga for Seniors (All levels, Beginners Welcome)*</t>
+  </si>
+  <si>
+    <t>Guided Meditation (All Levels)*</t>
+  </si>
+  <si>
+    <t>Yoga for Health and Happiness (Level 1)</t>
+  </si>
+  <si>
+    <t>Yoga Basics for Beginners</t>
+  </si>
+  <si>
+    <t>Playful Flow (Level 1 &amp; 2)</t>
+  </si>
+  <si>
+    <t>Kids Yoga (Ages 6-10)</t>
+  </si>
+  <si>
+    <t>Restorative Yoga and Live Music (All Levels)*</t>
+  </si>
+  <si>
+    <t>Gentle Yoga (Level 1, Beginners Welcome)</t>
+  </si>
+  <si>
+    <t>Warm Power Flow (level 1 &amp; 2, No Beginners Please)</t>
+  </si>
+  <si>
+    <t>Ashtanga Yoga (Level 1 &amp; 2, No Beginners Please)</t>
+  </si>
+  <si>
+    <t>Mysore Practice (Mysore Practitioners ONLY Please)</t>
+  </si>
+  <si>
+    <t>Vinyasa Flow (Level 1 and 2)</t>
+  </si>
+  <si>
+    <t>Cultivating a Meditation Practice (All Levels, Beginner’s Welcome)</t>
+  </si>
+  <si>
+    <t>Gentle Morning Flow (Beginners Welcome)</t>
+  </si>
+  <si>
+    <t>Yoga Tune Up (Level 1 &amp; 2)</t>
+  </si>
+  <si>
+    <t>Therapeutic Yoga (Beginners Welcome)</t>
+  </si>
+  <si>
+    <t>Tai Chi and Qigong</t>
+  </si>
+  <si>
+    <t>Hot Power Flow (Level 1 &amp; 2)</t>
+  </si>
+  <si>
+    <t>Gentle Flow (Level 1 &amp; 2)</t>
+  </si>
+  <si>
+    <t>Yoga for Senirs (All Levels, Beginner’s Welcome)</t>
+  </si>
+  <si>
+    <t>Guided Meditation (All Levels)</t>
+  </si>
+  <si>
+    <t>Warm Vinyasa Flow (Level 1 &amp; 2)</t>
+  </si>
+  <si>
+    <t>Gentle Yoga for All (All levels)</t>
+  </si>
+  <si>
+    <t>Yin Yoga (All levels, Beginners Welcome)</t>
+  </si>
+  <si>
+    <t>Restorative Yoga with Didgeridoo Meditation</t>
+  </si>
+  <si>
+    <t>Warm Therapeutic Power Flow (Level 1 &amp; 2)</t>
+  </si>
+  <si>
+    <t>Beginner’s Flow</t>
+  </si>
+  <si>
+    <t>Hot Flow (Level 1 &amp; 2)</t>
+  </si>
+  <si>
+    <t>We Are All Beginners</t>
+  </si>
+  <si>
+    <t>Deep Soul Flow (Level 1&amp;2)</t>
+  </si>
+  <si>
+    <t>Prenatal Yoga (Beginners Welcome!)</t>
+  </si>
+  <si>
+    <t>Gentle Flow (Level 1 and 2)</t>
+  </si>
+  <si>
+    <t>Warm Vinyasa Flow (Level 1 and 2)</t>
+  </si>
+  <si>
+    <t>Gentle Yoga and Live Music (Beginners Welcome)</t>
+  </si>
+  <si>
+    <t>Izzy</t>
+  </si>
+  <si>
+    <t>Anne</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Ashley</t>
+  </si>
+  <si>
+    <t>Becca</t>
+  </si>
+  <si>
+    <t>Ann-Lee</t>
+  </si>
+  <si>
+    <t>Tanya</t>
+  </si>
+  <si>
+    <t>Paige</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Natalie</t>
+  </si>
+  <si>
+    <t>Krystal</t>
+  </si>
+  <si>
+    <t>Janelle</t>
+  </si>
+  <si>
+    <t>Kimberly</t>
+  </si>
+  <si>
+    <t>Skillful Flow, Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>HOT Bhakti Vinyasa, Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>HOT Flow, Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>Slow Flow &amp; Yin, Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>Family Yoga, All Levels</t>
+  </si>
+  <si>
+    <t>Gentle Yoga for Healing, All Levels, FREE to Veterans &amp; their families</t>
+  </si>
+  <si>
+    <t>Restorative &amp; Yin, plus Live Music, All Levels *New for February – Now with live music</t>
+  </si>
+  <si>
+    <t>Prenatal Yoga &amp; Meditation</t>
+  </si>
+  <si>
+    <t>Innercise Yoga Flow, Level 1&amp;2 *New for February – New class and new teacher</t>
+  </si>
+  <si>
+    <t>Align &amp; Refine, Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>Yoga &amp; Body Rolling, All Levels</t>
+  </si>
+  <si>
+    <t>HOT Dynamic Flow, Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>Gentle &amp; Restorative</t>
+  </si>
+  <si>
+    <t>Slow Power Flow, Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>Warm Jivamukti, Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>Vibrant Breath Yoga, All Levels</t>
+  </si>
+  <si>
+    <t>Slow Flow, Level 1</t>
+  </si>
+  <si>
+    <t>Beginners’ Yoga, Level 1</t>
+  </si>
+  <si>
+    <t>Kundalini Yoga, All Levels</t>
+  </si>
+  <si>
+    <t>HOT Flow, Level 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>Tantra Vinyasa, Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>Mindful Alignment, Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>Yoga Nidra, All Levels</t>
   </si>
 </sst>
 </file>
@@ -1384,14 +1204,14 @@
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1775,14 +1595,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
     <col min="4" max="4" width="51.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
   </cols>
@@ -1805,7 +1626,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="7">
@@ -1815,14 +1636,14 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>376</v>
+        <v>244</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B3" s="7">
@@ -1832,14 +1653,14 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>377</v>
+        <v>245</v>
       </c>
       <c r="E3" t="s">
-        <v>341</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B4" s="7">
@@ -1849,14 +1670,14 @@
         <v>0.40625</v>
       </c>
       <c r="D4" t="s">
-        <v>378</v>
+        <v>246</v>
       </c>
       <c r="E4" t="s">
-        <v>342</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B5" s="7">
@@ -1866,14 +1687,14 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D5" t="s">
-        <v>379</v>
+        <v>247</v>
       </c>
       <c r="E5" t="s">
-        <v>343</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B6" s="7">
@@ -1890,7 +1711,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B7" s="7">
@@ -1900,14 +1721,14 @@
         <v>0.53125</v>
       </c>
       <c r="D7" t="s">
-        <v>380</v>
+        <v>248</v>
       </c>
       <c r="E7" t="s">
-        <v>344</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="7">
@@ -1917,14 +1738,14 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D8" t="s">
-        <v>381</v>
+        <v>249</v>
       </c>
       <c r="E8" t="s">
-        <v>345</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B9" s="7">
@@ -1934,14 +1755,14 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D9" t="s">
-        <v>382</v>
+        <v>250</v>
       </c>
       <c r="E9" t="s">
-        <v>346</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B10" s="7">
@@ -1951,14 +1772,14 @@
         <v>0.71875</v>
       </c>
       <c r="D10" t="s">
-        <v>383</v>
+        <v>251</v>
       </c>
       <c r="E10" t="s">
-        <v>347</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B11" s="7">
@@ -1968,14 +1789,14 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D11" t="s">
-        <v>384</v>
+        <v>252</v>
       </c>
       <c r="E11" t="s">
-        <v>348</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B12" s="7">
@@ -1985,14 +1806,14 @@
         <v>0.8125</v>
       </c>
       <c r="D12" t="s">
-        <v>385</v>
+        <v>253</v>
       </c>
       <c r="E12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B13" s="7">
@@ -2005,11 +1826,11 @@
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>345</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B14" s="7">
@@ -2019,10 +1840,10 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="D14" t="s">
-        <v>386</v>
+        <v>254</v>
       </c>
       <c r="E14" t="s">
-        <v>349</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1"/>
@@ -2265,564 +2086,870 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B31" t="s">
-        <v>113</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>349</v>
+      <c r="B31" s="7">
+        <v>0.28125</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D31" t="s">
+        <v>244</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B32" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" s="10" t="s">
+      <c r="B32" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D32" t="s">
+        <v>285</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B33" t="s">
-        <v>115</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>350</v>
+      <c r="B33" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D33" t="s">
+        <v>286</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B34" t="s">
-        <v>116</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>351</v>
+      <c r="B34" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D34" t="s">
+        <v>287</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B35" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>352</v>
+      <c r="B35" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D35" t="s">
+        <v>288</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B36" t="s">
-        <v>118</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>353</v>
+      <c r="B36" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B37" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>354</v>
+      <c r="B37" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B38" t="s">
-        <v>120</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>355</v>
+      <c r="B38" s="7">
+        <v>0.59375</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D38" t="s">
+        <v>290</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B39" t="s">
-        <v>121</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>356</v>
+      <c r="B39" s="7">
+        <v>0.59375</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D39" t="s">
+        <v>291</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B40" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>357</v>
+      <c r="B40" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="D40" t="s">
+        <v>292</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B41" t="s">
-        <v>123</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>358</v>
+      <c r="B41" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="D41" t="s">
+        <v>293</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B42" t="s">
-        <v>124</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>345</v>
+      <c r="B42" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D42" t="s">
+        <v>294</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B43" t="s">
-        <v>125</v>
-      </c>
-      <c r="E43" s="10" t="s">
+      <c r="B43" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D43" t="s">
+        <v>295</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B44" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>359</v>
+      <c r="B44" s="7">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="D44" t="s">
+        <v>294</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B45" t="s">
-        <v>127</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>356</v>
+      <c r="B45" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D45" t="s">
+        <v>296</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B47" t="s">
-        <v>128</v>
-      </c>
-      <c r="E47" s="10" t="s">
+      <c r="B47" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D47" t="s">
+        <v>297</v>
+      </c>
+      <c r="E47" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B48" t="s">
-        <v>129</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>360</v>
+      <c r="B48" s="7">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0.34375</v>
+      </c>
+      <c r="D48" t="s">
+        <v>298</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B49" t="s">
-        <v>130</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>352</v>
+      <c r="B49" s="7">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D49" t="s">
+        <v>299</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B50" t="s">
-        <v>131</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>345</v>
+      <c r="B50" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D50" t="s">
+        <v>300</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B51" t="s">
-        <v>132</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>361</v>
+      <c r="B51" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B52" t="s">
-        <v>133</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>362</v>
+      <c r="B52" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D52" t="s">
+        <v>301</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B53" t="s">
-        <v>134</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>363</v>
+      <c r="B53" s="7">
+        <v>0.59375</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="D53" t="s">
+        <v>302</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D55" t="s">
+        <v>303</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D56" t="s">
         <v>135</v>
       </c>
-      <c r="E54" s="10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="10" t="s">
+      <c r="E56" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B55" t="s">
-        <v>136</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="10" t="s">
+      <c r="B57" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B56" t="s">
-        <v>137</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="10" t="s">
+      <c r="B58" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C58" s="7">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D58" t="s">
+        <v>294</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B57" t="s">
-        <v>138</v>
-      </c>
-      <c r="E57" s="10" t="s">
+      <c r="B59" s="7">
+        <v>0.84375</v>
+      </c>
+      <c r="C59" s="7">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D59" t="s">
+        <v>304</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="7">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="C61" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="D61" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C62" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C63" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D63" t="s">
+        <v>306</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="C64" s="7">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D64" t="s">
+        <v>307</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C65" s="7">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D65" t="s">
+        <v>308</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B66" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C66" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="D66" t="s">
+        <v>309</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B67" s="7">
+        <v>0.59375</v>
+      </c>
+      <c r="C67" s="7">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="D67" t="s">
+        <v>310</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C68" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="D68" t="s">
+        <v>311</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" s="7">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C69" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="D69" t="s">
+        <v>312</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B70" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="C70" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D70" t="s">
+        <v>308</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C72" s="7">
+        <v>0.40625</v>
+      </c>
+      <c r="D72" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73" s="7">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C73" s="7">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D73" t="s">
+        <v>313</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B74" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="C74" s="7">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D74" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C75" s="7">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D75" t="s">
+        <v>314</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76" s="7">
+        <v>0.59375</v>
+      </c>
+      <c r="C76" s="7">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D76" t="s">
+        <v>305</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B77" s="7">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C77" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D77" t="s">
+        <v>314</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C79" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D79" t="s">
+        <v>315</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B80" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="C80" s="7">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D80" t="s">
+        <v>316</v>
+      </c>
+      <c r="E80" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B58" t="s">
-        <v>139</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B59" t="s">
-        <v>140</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B61" t="s">
-        <v>141</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B62" t="s">
-        <v>142</v>
-      </c>
-      <c r="E62" s="10" t="s">
+    <row r="81" spans="1:5">
+      <c r="A81" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B81" s="7">
+        <v>0.53125</v>
+      </c>
+      <c r="C81" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D81" t="s">
+        <v>317</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" s="7">
+        <v>0.59375</v>
+      </c>
+      <c r="C82" s="7">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D82" t="s">
+        <v>318</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B83" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C83" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D83" t="s">
+        <v>319</v>
+      </c>
+      <c r="E83" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B63" t="s">
-        <v>143</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B64" t="s">
-        <v>144</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B65" t="s">
-        <v>145</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B66" t="s">
-        <v>146</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B67" t="s">
-        <v>147</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B68" t="s">
-        <v>148</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B69" t="s">
-        <v>149</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B70" t="s">
-        <v>150</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B72" t="s">
-        <v>151</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B73" t="s">
-        <v>152</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B74" t="s">
-        <v>153</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B75" t="s">
-        <v>154</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B76" t="s">
-        <v>155</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B77" t="s">
-        <v>156</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="10" t="s">
+    <row r="84" spans="1:5">
+      <c r="A84" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B79" t="s">
-        <v>157</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="10" t="s">
+      <c r="B84" s="7">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C84" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D84" t="s">
+        <v>298</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B80" t="s">
-        <v>158</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B81" t="s">
-        <v>159</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B82" t="s">
-        <v>160</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B83" t="s">
-        <v>161</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B84" t="s">
-        <v>162</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B85" t="s">
-        <v>163</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>375</v>
+      <c r="B85" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="C85" s="7">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="D85" t="s">
+        <v>320</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2835,13 +2962,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
@@ -2864,14 +2992,14 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" t="s">
-        <v>165</v>
+      <c r="B2" s="7">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.35416666666666669</v>
       </c>
       <c r="D2" t="s">
         <v>65</v>
@@ -2881,116 +3009,116 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" t="s">
-        <v>165</v>
+      <c r="B3" s="7">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" t="s">
-        <v>165</v>
+      <c r="B4" s="7">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.48958333333333331</v>
       </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" t="s">
-        <v>165</v>
+      <c r="B5" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.57291666666666663</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" t="s">
-        <v>165</v>
+      <c r="B6" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.64583333333333337</v>
       </c>
       <c r="D6" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" t="s">
-        <v>165</v>
+      <c r="B7" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.70833333333333337</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" t="s">
-        <v>165</v>
+      <c r="B8" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.78125</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" t="s">
-        <v>165</v>
+      <c r="B9" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.78125</v>
       </c>
       <c r="D9" t="s">
         <v>59</v>
@@ -3000,37 +3128,37 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" t="s">
-        <v>165</v>
+      <c r="B10" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.85416666666666663</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B11" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" t="s">
-        <v>165</v>
+      <c r="B11" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.83333333333333337</v>
       </c>
       <c r="D11" t="s">
         <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1"/>
@@ -3222,25 +3350,31 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B25" t="s">
-        <v>188</v>
+      <c r="B25" s="7">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.33333333333333331</v>
       </c>
       <c r="D25" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>190</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B26" t="s">
-        <v>191</v>
+      <c r="B26" s="7">
+        <v>0.34375</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.38541666666666669</v>
       </c>
       <c r="D26" t="s">
         <v>57</v>
@@ -3250,175 +3384,184 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B27" t="s">
-        <v>192</v>
+      <c r="B27" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.45833333333333331</v>
       </c>
       <c r="D27" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="E27" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B28" t="s">
-        <v>172</v>
+      <c r="B28" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.57291666666666663</v>
       </c>
       <c r="D28" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="E28" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B29" t="s">
-        <v>195</v>
+      <c r="B29" s="7">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.64583333333333337</v>
       </c>
       <c r="D29" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="E29" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B30" t="s">
-        <v>178</v>
-      </c>
-      <c r="C30" t="s">
-        <v>165</v>
+      <c r="B30" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.70833333333333337</v>
       </c>
       <c r="D30" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="E30" t="s">
-        <v>198</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C31" t="s">
-        <v>165</v>
+      <c r="B31" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.79166666666666663</v>
       </c>
       <c r="D31" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="E31" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B32" t="s">
-        <v>201</v>
-      </c>
-      <c r="C32" t="s">
-        <v>165</v>
+      <c r="B32" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.77083333333333337</v>
       </c>
       <c r="D32" t="s">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="E32" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B33" t="s">
-        <v>203</v>
-      </c>
-      <c r="C33" t="s">
-        <v>165</v>
+      <c r="B33" s="7">
+        <v>0.78125</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.84375</v>
       </c>
       <c r="D33" t="s">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="E33" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B34" t="s">
-        <v>205</v>
-      </c>
-      <c r="C34" t="s">
-        <v>165</v>
+      <c r="B34" s="7">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.84375</v>
       </c>
       <c r="D34" t="s">
-        <v>206</v>
+        <v>137</v>
       </c>
       <c r="E34" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B36" t="s">
-        <v>188</v>
-      </c>
-      <c r="C36" t="s">
-        <v>165</v>
+      <c r="B36" s="7">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.33333333333333331</v>
       </c>
       <c r="D36" t="s">
-        <v>208</v>
+        <v>139</v>
       </c>
       <c r="E36" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B37" t="s">
-        <v>210</v>
-      </c>
-      <c r="C37" t="s">
-        <v>165</v>
+      <c r="B37" s="7">
+        <v>0.34375</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.40625</v>
       </c>
       <c r="D37" t="s">
-        <v>206</v>
+        <v>137</v>
       </c>
       <c r="E37" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B38" t="s">
-        <v>211</v>
-      </c>
-      <c r="C38" t="s">
-        <v>165</v>
+      <c r="B38" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.47916666666666669</v>
       </c>
       <c r="D38" t="s">
         <v>65</v>
@@ -3428,14 +3571,14 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B39" t="s">
-        <v>172</v>
-      </c>
-      <c r="C39" t="s">
-        <v>165</v>
+      <c r="B39" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.57291666666666663</v>
       </c>
       <c r="D39" t="s">
         <v>59</v>
@@ -3445,65 +3588,65 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B40" t="s">
-        <v>212</v>
-      </c>
-      <c r="C40" t="s">
-        <v>165</v>
+      <c r="B40" s="7">
+        <v>0.59375</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.63541666666666663</v>
       </c>
       <c r="D40" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="E40" t="s">
-        <v>214</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B41" t="s">
-        <v>215</v>
-      </c>
-      <c r="C41" t="s">
-        <v>165</v>
+      <c r="B41" s="7">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.70833333333333337</v>
       </c>
       <c r="D41" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="E41" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B42" t="s">
-        <v>199</v>
-      </c>
-      <c r="C42" t="s">
-        <v>165</v>
+      <c r="B42" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0.79166666666666663</v>
       </c>
       <c r="D42" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
       <c r="E42" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B43" t="s">
-        <v>180</v>
-      </c>
-      <c r="C43" t="s">
-        <v>165</v>
+      <c r="B43" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0.78125</v>
       </c>
       <c r="D43" t="s">
         <v>59</v>
@@ -3513,201 +3656,201 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B44" t="s">
-        <v>183</v>
-      </c>
-      <c r="C44" t="s">
-        <v>165</v>
+      <c r="B44" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.85416666666666663</v>
       </c>
       <c r="D44" t="s">
-        <v>218</v>
+        <v>145</v>
       </c>
       <c r="E44" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B45" t="s">
-        <v>219</v>
-      </c>
-      <c r="C45" t="s">
-        <v>165</v>
+      <c r="B45" s="7">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0.86458333333333337</v>
       </c>
       <c r="D45" t="s">
-        <v>220</v>
+        <v>146</v>
       </c>
       <c r="E45" t="s">
-        <v>221</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B47" t="s">
-        <v>164</v>
-      </c>
-      <c r="C47" t="s">
-        <v>165</v>
+      <c r="B47" s="7">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.35416666666666669</v>
       </c>
       <c r="D47" t="s">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c r="E47" t="s">
-        <v>223</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B48" t="s">
-        <v>166</v>
-      </c>
-      <c r="C48" t="s">
-        <v>165</v>
+      <c r="B48" s="7">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D48" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="E48" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B49" t="s">
-        <v>225</v>
-      </c>
-      <c r="C49" t="s">
-        <v>165</v>
+      <c r="B49" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0.5</v>
       </c>
       <c r="D49" t="s">
-        <v>226</v>
+        <v>151</v>
       </c>
       <c r="E49" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B50" t="s">
-        <v>227</v>
-      </c>
-      <c r="C50" t="s">
-        <v>165</v>
+      <c r="B50" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0.55208333333333337</v>
       </c>
       <c r="D50" t="s">
-        <v>228</v>
+        <v>152</v>
       </c>
       <c r="E50" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B51" t="s">
-        <v>175</v>
-      </c>
-      <c r="C51" t="s">
-        <v>165</v>
+      <c r="B51" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0.64583333333333337</v>
       </c>
       <c r="D51" t="s">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="E51" t="s">
-        <v>230</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B52" t="s">
-        <v>178</v>
-      </c>
-      <c r="C52" t="s">
-        <v>165</v>
+      <c r="B52" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0.70833333333333337</v>
       </c>
       <c r="D52" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
       <c r="E52" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B53" t="s">
-        <v>232</v>
-      </c>
-      <c r="C53" t="s">
-        <v>165</v>
+      <c r="B53" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0.78125</v>
       </c>
       <c r="D53" t="s">
-        <v>206</v>
+        <v>137</v>
       </c>
       <c r="E53" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B54" t="s">
-        <v>186</v>
-      </c>
-      <c r="C54" t="s">
-        <v>165</v>
+      <c r="B54" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0.83333333333333337</v>
       </c>
       <c r="D54" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="E54" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B56" t="s">
-        <v>233</v>
-      </c>
-      <c r="C56" t="s">
-        <v>165</v>
+      <c r="B56" s="7">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0.36458333333333331</v>
       </c>
       <c r="D56" t="s">
-        <v>234</v>
+        <v>156</v>
       </c>
       <c r="E56" t="s">
-        <v>235</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B57" t="s">
-        <v>236</v>
-      </c>
-      <c r="C57" t="s">
-        <v>165</v>
+      <c r="B57" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0.4375</v>
       </c>
       <c r="D57" t="s">
         <v>65</v>
@@ -3717,190 +3860,190 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B58" t="s">
-        <v>237</v>
-      </c>
-      <c r="C58" t="s">
-        <v>165</v>
+      <c r="B58" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C58" s="7">
+        <v>0.52083333333333337</v>
       </c>
       <c r="D58" t="s">
-        <v>238</v>
+        <v>158</v>
       </c>
       <c r="E58" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B59" t="s">
-        <v>239</v>
-      </c>
-      <c r="C59" t="s">
-        <v>165</v>
+      <c r="B59" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C59" s="7">
+        <v>0.58333333333333337</v>
       </c>
       <c r="D59" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="E59" t="s">
-        <v>240</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B60" t="s">
-        <v>241</v>
-      </c>
-      <c r="C60" t="s">
-        <v>165</v>
+      <c r="B60" s="7">
+        <v>0.59375</v>
+      </c>
+      <c r="C60" s="7">
+        <v>0.65625</v>
       </c>
       <c r="D60" t="s">
-        <v>242</v>
+        <v>160</v>
       </c>
       <c r="E60" t="s">
-        <v>243</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B61" t="s">
-        <v>244</v>
-      </c>
-      <c r="C61" t="s">
-        <v>165</v>
+      <c r="B61" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C61" s="7">
+        <v>0.72916666666666663</v>
       </c>
       <c r="D61" t="s">
-        <v>245</v>
+        <v>162</v>
       </c>
       <c r="E61" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B63" t="s">
-        <v>246</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B63" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C63" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="D63" t="s">
+        <v>153</v>
+      </c>
+      <c r="E63" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C64" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D64" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="C65" s="7">
+        <v>0.53125</v>
+      </c>
+      <c r="D65" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C66" s="7">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D66" t="s">
+        <v>164</v>
+      </c>
+      <c r="E66" t="s">
         <v>165</v>
       </c>
-      <c r="D63" t="s">
-        <v>229</v>
-      </c>
-      <c r="E63" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="10" t="s">
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B64" t="s">
-        <v>192</v>
-      </c>
-      <c r="C64" t="s">
-        <v>165</v>
-      </c>
-      <c r="D64" t="s">
-        <v>200</v>
-      </c>
-      <c r="E64" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="10" t="s">
+      <c r="B67" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C67" s="7">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="D67" t="s">
+        <v>166</v>
+      </c>
+      <c r="E67" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B65" t="s">
-        <v>247</v>
-      </c>
-      <c r="C65" t="s">
-        <v>165</v>
-      </c>
-      <c r="D65" t="s">
-        <v>248</v>
-      </c>
-      <c r="E65" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B66" t="s">
-        <v>249</v>
-      </c>
-      <c r="C66" t="s">
-        <v>165</v>
-      </c>
-      <c r="D66" t="s">
-        <v>250</v>
-      </c>
-      <c r="E66" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B67" t="s">
-        <v>244</v>
-      </c>
-      <c r="C67" t="s">
-        <v>165</v>
-      </c>
-      <c r="D67" t="s">
-        <v>252</v>
-      </c>
-      <c r="E67" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B68" t="s">
-        <v>254</v>
-      </c>
-      <c r="C68" t="s">
-        <v>165</v>
+      <c r="B68" s="7">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="C68" s="7">
+        <v>0.78125</v>
       </c>
       <c r="D68" t="s">
-        <v>255</v>
+        <v>168</v>
       </c>
       <c r="E68" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B69" t="s">
-        <v>186</v>
-      </c>
-      <c r="C69" t="s">
-        <v>165</v>
+      <c r="B69" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C69" s="7">
+        <v>0.83333333333333337</v>
       </c>
       <c r="D69" t="s">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c r="E69" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3912,13 +4055,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="2" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3940,59 +4083,122 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B2" t="s">
-        <v>257</v>
+      <c r="B2" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.40625</v>
+      </c>
+      <c r="D2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B3" t="s">
-        <v>258</v>
+      <c r="B3" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E3" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B4" t="s">
-        <v>259</v>
+      <c r="B4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B5" t="s">
-        <v>260</v>
+      <c r="B5" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="D5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B6" t="s">
-        <v>261</v>
+      <c r="B6" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="D6" t="s">
+        <v>338</v>
+      </c>
+      <c r="E6" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B7" t="s">
-        <v>262</v>
+      <c r="B7" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.78125</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B8" t="s">
-        <v>263</v>
+      <c r="B8" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D8" t="s">
+        <v>339</v>
+      </c>
+      <c r="E8" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1"/>
@@ -4000,7 +4206,7 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>0.35416666666666669</v>
       </c>
       <c r="C10" s="7">
@@ -4017,7 +4223,7 @@
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="10">
         <v>0.41666666666666669</v>
       </c>
       <c r="C11" s="7">
@@ -4034,7 +4240,7 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="10">
         <v>0.5</v>
       </c>
       <c r="C12" s="7">
@@ -4051,7 +4257,7 @@
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="10">
         <v>0.5625</v>
       </c>
       <c r="C13" s="7">
@@ -4068,7 +4274,7 @@
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="10">
         <v>0.67708333333333337</v>
       </c>
       <c r="C14" s="7">
@@ -4085,7 +4291,7 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="10">
         <v>0.73958333333333337</v>
       </c>
       <c r="C15" s="7">
@@ -4102,7 +4308,7 @@
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="10">
         <v>0.8125</v>
       </c>
       <c r="C16" s="7">
@@ -4115,172 +4321,361 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B18" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="10" t="s">
+      <c r="B18" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D18" t="s">
+        <v>340</v>
+      </c>
+      <c r="E18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B19" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="10" t="s">
+      <c r="B19" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>341</v>
+      </c>
+      <c r="E19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
+      <c r="B20" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D20" t="s">
+        <v>342</v>
+      </c>
+      <c r="E20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B21" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="10" t="s">
+      <c r="B21" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D21" t="s">
+        <v>336</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B22" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="10" t="s">
+      <c r="B22" s="7">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D22" t="s">
+        <v>343</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B23" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="10" t="s">
+      <c r="B23" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D23" t="s">
+        <v>336</v>
+      </c>
+      <c r="E23" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B24" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="10" t="s">
+      <c r="B24" s="7">
+        <v>0.78125</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.84375</v>
+      </c>
+      <c r="D24" t="s">
+        <v>344</v>
+      </c>
+      <c r="E24" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B26" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="10" t="s">
+      <c r="B26" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.40625</v>
+      </c>
+      <c r="D26" t="s">
+        <v>345</v>
+      </c>
+      <c r="E26" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B27" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="10" t="s">
+      <c r="B27" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D27" t="s">
+        <v>346</v>
+      </c>
+      <c r="E27" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B28" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="10" t="s">
+      <c r="B28" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D28" t="s">
+        <v>347</v>
+      </c>
+      <c r="E28" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B29" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="10" t="s">
+      <c r="B29" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="D29" t="s">
+        <v>348</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B30" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="10" t="s">
+      <c r="B30" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D30" t="s">
+        <v>349</v>
+      </c>
+      <c r="E30" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B31" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="10" t="s">
+      <c r="B31" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D31" t="s">
+        <v>350</v>
+      </c>
+      <c r="E31" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B32" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="10" t="s">
+      <c r="B32" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D32" t="s">
+        <v>336</v>
+      </c>
+      <c r="E32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B34" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="10" t="s">
+      <c r="B34" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D34" t="s">
+        <v>351</v>
+      </c>
+      <c r="E34" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B35" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="10" t="s">
+      <c r="B35" s="7">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D35" t="s">
+        <v>352</v>
+      </c>
+      <c r="E35" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B36" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="10" t="s">
+      <c r="B36" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D36" t="s">
+        <v>353</v>
+      </c>
+      <c r="E36" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B37" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="10" t="s">
+      <c r="B37" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="D37" t="s">
+        <v>354</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B39" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="10" t="s">
+      <c r="B39" s="7">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D39" t="s">
+        <v>355</v>
+      </c>
+      <c r="E39" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B40" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="10" t="s">
+      <c r="B40" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="D40" t="s">
+        <v>336</v>
+      </c>
+      <c r="E40" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B41" t="s">
-        <v>284</v>
+      <c r="B41" s="7">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="D41" t="s">
+        <v>356</v>
+      </c>
+      <c r="E41" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4292,8 +4687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4321,7 +4716,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="7">
@@ -4331,23 +4726,23 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D2" t="s">
-        <v>286</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
-        <v>287</v>
+        <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G2" t="s">
-        <v>289</v>
+        <v>173</v>
       </c>
       <c r="H2" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B3" s="7">
@@ -4357,23 +4752,23 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D3" t="s">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="E3" t="s">
-        <v>293</v>
+        <v>176</v>
       </c>
       <c r="F3" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G3" t="s">
-        <v>294</v>
+        <v>177</v>
       </c>
       <c r="H3" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B4" s="7">
@@ -4389,17 +4784,17 @@
         <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G4" t="s">
-        <v>289</v>
+        <v>173</v>
       </c>
       <c r="H4" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B5" s="7">
@@ -4409,23 +4804,23 @@
         <v>0.5625</v>
       </c>
       <c r="D5" t="s">
-        <v>297</v>
+        <v>178</v>
       </c>
       <c r="E5" t="s">
-        <v>304</v>
+        <v>183</v>
       </c>
       <c r="F5" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G5" t="s">
-        <v>289</v>
+        <v>173</v>
       </c>
       <c r="H5" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B6" s="7">
@@ -4435,23 +4830,23 @@
         <v>0.71875</v>
       </c>
       <c r="D6" t="s">
-        <v>298</v>
+        <v>179</v>
       </c>
       <c r="E6" t="s">
-        <v>299</v>
+        <v>180</v>
       </c>
       <c r="F6" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G6" t="s">
-        <v>294</v>
+        <v>177</v>
       </c>
       <c r="H6" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B7" s="7">
@@ -4467,17 +4862,17 @@
         <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G7" t="s">
-        <v>289</v>
+        <v>173</v>
       </c>
       <c r="H7" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="7">
@@ -4487,23 +4882,23 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D8" t="s">
-        <v>302</v>
+        <v>181</v>
       </c>
       <c r="E8" t="s">
         <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G8" t="s">
-        <v>294</v>
+        <v>177</v>
       </c>
       <c r="H8" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B9" s="7">
@@ -4513,19 +4908,19 @@
         <v>0.8125</v>
       </c>
       <c r="D9" t="s">
-        <v>303</v>
+        <v>182</v>
       </c>
       <c r="E9" t="s">
         <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G9" t="s">
-        <v>289</v>
+        <v>173</v>
       </c>
       <c r="H9" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1"/>
@@ -4683,245 +5078,245 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B21" t="s">
-        <v>285</v>
+      <c r="B21" s="7">
+        <v>0.33333333333333331</v>
       </c>
       <c r="C21" s="7">
         <v>0.39583333333333331</v>
       </c>
       <c r="D21" t="s">
-        <v>286</v>
+        <v>170</v>
       </c>
       <c r="E21" t="s">
-        <v>287</v>
+        <v>171</v>
       </c>
       <c r="F21" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G21" t="s">
-        <v>294</v>
+        <v>177</v>
       </c>
       <c r="H21" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B22" t="s">
-        <v>291</v>
+      <c r="B22" s="7">
+        <v>0.39583333333333331</v>
       </c>
       <c r="C22" s="7">
         <v>0.45833333333333331</v>
       </c>
       <c r="D22" t="s">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="E22" t="s">
-        <v>305</v>
+        <v>184</v>
       </c>
       <c r="F22" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G22" t="s">
-        <v>289</v>
+        <v>173</v>
       </c>
       <c r="H22" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B23" t="s">
-        <v>306</v>
+      <c r="B23" s="7">
+        <v>0.40625</v>
       </c>
       <c r="C23" s="7">
         <v>0.46875</v>
       </c>
       <c r="D23" t="s">
-        <v>307</v>
+        <v>185</v>
       </c>
       <c r="E23" t="s">
-        <v>308</v>
+        <v>186</v>
       </c>
       <c r="F23" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G23" t="s">
-        <v>294</v>
+        <v>177</v>
       </c>
       <c r="H23" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B24" t="s">
-        <v>296</v>
+      <c r="B24" s="7">
+        <v>0.5</v>
       </c>
       <c r="C24" s="7">
         <v>0.5625</v>
       </c>
       <c r="D24" t="s">
-        <v>309</v>
+        <v>187</v>
       </c>
       <c r="E24" t="s">
         <v>74</v>
       </c>
       <c r="F24" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G24" t="s">
-        <v>289</v>
+        <v>173</v>
       </c>
       <c r="H24" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B25" t="s">
-        <v>300</v>
+      <c r="B25" s="7">
+        <v>0.66666666666666663</v>
       </c>
       <c r="C25" s="7">
         <v>0.72916666666666663</v>
       </c>
       <c r="D25" t="s">
-        <v>310</v>
+        <v>188</v>
       </c>
       <c r="E25" t="s">
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="F25" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G25" t="s">
-        <v>294</v>
+        <v>177</v>
       </c>
       <c r="H25" t="s">
-        <v>312</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B26" t="s">
-        <v>301</v>
+      <c r="B26" s="7">
+        <v>0.72916666666666663</v>
       </c>
       <c r="C26" s="7">
         <v>0.79166666666666663</v>
       </c>
       <c r="D26" t="s">
-        <v>313</v>
+        <v>191</v>
       </c>
       <c r="E26" t="s">
         <v>72</v>
       </c>
       <c r="F26" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G26" t="s">
-        <v>289</v>
+        <v>173</v>
       </c>
       <c r="H26" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B27" t="s">
-        <v>314</v>
+      <c r="B27" s="7">
+        <v>0.73958333333333337</v>
       </c>
       <c r="C27" s="7">
         <v>0.80208333333333337</v>
       </c>
       <c r="D27" t="s">
-        <v>315</v>
+        <v>192</v>
       </c>
       <c r="E27" t="s">
         <v>74</v>
       </c>
       <c r="F27" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G27" t="s">
-        <v>294</v>
+        <v>177</v>
       </c>
       <c r="H27" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B29" t="s">
-        <v>316</v>
+      <c r="B29" s="7">
+        <v>0.29166666666666669</v>
       </c>
       <c r="C29" s="7">
         <v>0.35416666666666669</v>
       </c>
       <c r="D29" t="s">
-        <v>286</v>
+        <v>170</v>
       </c>
       <c r="E29" t="s">
-        <v>287</v>
+        <v>171</v>
       </c>
       <c r="F29" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G29" t="s">
-        <v>289</v>
+        <v>173</v>
       </c>
       <c r="H29" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B30" t="s">
-        <v>317</v>
+      <c r="B30" s="7">
+        <v>0.375</v>
       </c>
       <c r="C30" s="7">
         <v>0.4375</v>
       </c>
       <c r="D30" t="s">
-        <v>318</v>
+        <v>193</v>
       </c>
       <c r="E30" t="s">
-        <v>305</v>
+        <v>184</v>
       </c>
       <c r="F30" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G30" t="s">
-        <v>289</v>
+        <v>173</v>
       </c>
       <c r="H30" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B31" t="s">
-        <v>291</v>
+      <c r="B31" s="7">
+        <v>0.39583333333333331</v>
       </c>
       <c r="C31" s="7">
         <v>0.45833333333333331</v>
@@ -4933,325 +5328,325 @@
         <v>82</v>
       </c>
       <c r="F31" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G31" t="s">
-        <v>294</v>
+        <v>177</v>
       </c>
       <c r="H31" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B32" t="s">
-        <v>296</v>
+      <c r="B32" s="7">
+        <v>0.5</v>
       </c>
       <c r="C32" s="7">
         <v>0.5625</v>
       </c>
       <c r="D32" t="s">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="E32" t="s">
-        <v>328</v>
+        <v>200</v>
       </c>
       <c r="F32" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G32" t="s">
-        <v>294</v>
+        <v>177</v>
       </c>
       <c r="H32" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B33" t="s">
-        <v>320</v>
+      <c r="B33" s="7">
+        <v>0.63541666666666663</v>
       </c>
       <c r="C33" s="7">
         <v>0.69791666666666663</v>
       </c>
       <c r="D33" t="s">
-        <v>298</v>
+        <v>179</v>
       </c>
       <c r="E33" t="s">
-        <v>299</v>
+        <v>180</v>
       </c>
       <c r="F33" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G33" t="s">
-        <v>294</v>
+        <v>177</v>
       </c>
       <c r="H33" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B34" t="s">
-        <v>321</v>
+      <c r="B34" s="7">
+        <v>0.64583333333333337</v>
       </c>
       <c r="C34" s="7">
         <v>0.70833333333333337</v>
       </c>
       <c r="D34" t="s">
-        <v>322</v>
+        <v>195</v>
       </c>
       <c r="E34" t="s">
-        <v>287</v>
+        <v>171</v>
       </c>
       <c r="F34" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G34" t="s">
-        <v>289</v>
+        <v>173</v>
       </c>
       <c r="H34" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B35" t="s">
-        <v>323</v>
+      <c r="B35" s="7">
+        <v>0.71875</v>
       </c>
       <c r="C35" s="7">
         <v>0.78125</v>
       </c>
       <c r="D35" t="s">
-        <v>324</v>
+        <v>196</v>
       </c>
       <c r="E35" t="s">
-        <v>325</v>
+        <v>197</v>
       </c>
       <c r="F35" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G35" t="s">
-        <v>294</v>
+        <v>177</v>
       </c>
       <c r="H35" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B36" t="s">
-        <v>301</v>
+      <c r="B36" s="7">
+        <v>0.72916666666666663</v>
       </c>
       <c r="C36" s="7">
         <v>0.79166666666666663</v>
       </c>
       <c r="D36" t="s">
-        <v>326</v>
+        <v>198</v>
       </c>
       <c r="E36" t="s">
-        <v>327</v>
+        <v>199</v>
       </c>
       <c r="F36" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G36" t="s">
-        <v>289</v>
+        <v>173</v>
       </c>
       <c r="H36" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B38" t="s">
-        <v>329</v>
+      <c r="B38" s="7">
+        <v>0.39583333333333331</v>
       </c>
       <c r="C38" s="7">
         <v>0.45833333333333331</v>
       </c>
       <c r="D38" t="s">
-        <v>330</v>
+        <v>201</v>
       </c>
       <c r="E38" t="s">
         <v>74</v>
       </c>
       <c r="F38" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G38" t="s">
-        <v>289</v>
+        <v>173</v>
       </c>
       <c r="H38" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B39" t="s">
-        <v>295</v>
+      <c r="B39" s="7">
+        <v>0.41666666666666669</v>
       </c>
       <c r="C39" s="7">
         <v>0.47916666666666669</v>
       </c>
       <c r="D39" t="s">
-        <v>331</v>
+        <v>202</v>
       </c>
       <c r="E39" t="s">
-        <v>336</v>
+        <v>206</v>
       </c>
       <c r="F39" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G39" t="s">
-        <v>294</v>
+        <v>177</v>
       </c>
       <c r="H39" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B40" t="s">
-        <v>296</v>
+      <c r="B40" s="7">
+        <v>0.5</v>
       </c>
       <c r="C40" s="7">
         <v>0.54166666666666663</v>
       </c>
       <c r="D40" t="s">
-        <v>332</v>
+        <v>203</v>
       </c>
       <c r="E40" t="s">
-        <v>305</v>
+        <v>184</v>
       </c>
       <c r="F40" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G40" t="s">
-        <v>294</v>
+        <v>177</v>
       </c>
       <c r="H40" t="s">
-        <v>333</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B41" t="s">
-        <v>334</v>
+      <c r="B41" s="7">
+        <v>0.70833333333333337</v>
       </c>
       <c r="C41" s="7">
         <v>0.77083333333333337</v>
       </c>
       <c r="D41" t="s">
-        <v>335</v>
+        <v>205</v>
       </c>
       <c r="E41" t="s">
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="F41" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G41" t="s">
-        <v>294</v>
+        <v>177</v>
       </c>
       <c r="H41" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B43" t="s">
-        <v>337</v>
+      <c r="B43" s="7">
+        <v>0.375</v>
       </c>
       <c r="C43" s="7">
         <v>0.4375</v>
       </c>
       <c r="D43" t="s">
-        <v>307</v>
+        <v>185</v>
       </c>
       <c r="E43" t="s">
-        <v>338</v>
+        <v>207</v>
       </c>
       <c r="F43" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G43" t="s">
-        <v>294</v>
+        <v>177</v>
       </c>
       <c r="H43" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B45" t="s">
-        <v>339</v>
+      <c r="B45" s="7">
+        <v>0.41666666666666669</v>
       </c>
       <c r="C45" s="7">
         <v>0.47916666666666669</v>
       </c>
       <c r="D45" t="s">
-        <v>340</v>
+        <v>208</v>
       </c>
       <c r="E45" t="s">
         <v>80</v>
       </c>
       <c r="F45" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G45" t="s">
-        <v>294</v>
+        <v>177</v>
       </c>
       <c r="H45" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>112</v>
       </c>
-      <c r="B46" t="s">
-        <v>300</v>
+      <c r="B46" s="7">
+        <v>0.66666666666666663</v>
       </c>
       <c r="C46" s="7">
         <v>0.72916666666666663</v>
       </c>
       <c r="D46" t="s">
-        <v>307</v>
+        <v>185</v>
       </c>
       <c r="E46" t="s">
-        <v>287</v>
+        <v>171</v>
       </c>
       <c r="F46" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G46" t="s">
-        <v>289</v>
+        <v>173</v>
       </c>
       <c r="H46" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5263,14 +5658,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="64.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
   </cols>
@@ -5293,7 +5688,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="7">
@@ -5303,14 +5698,14 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>387</v>
+        <v>255</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B3" s="7">
@@ -5320,14 +5715,14 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D3" t="s">
-        <v>389</v>
+        <v>257</v>
       </c>
       <c r="E3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B4" s="7">
@@ -5344,7 +5739,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B5" s="7">
@@ -5354,14 +5749,14 @@
         <v>0.6875</v>
       </c>
       <c r="D5" t="s">
-        <v>390</v>
+        <v>258</v>
       </c>
       <c r="E5" t="s">
-        <v>388</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B6" s="7">
@@ -5371,14 +5766,14 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D6" t="s">
-        <v>391</v>
+        <v>259</v>
       </c>
       <c r="E6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B7" s="7">
@@ -5498,7 +5893,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B16" s="7">
@@ -5508,14 +5903,14 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E16" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B17" s="7">
@@ -5525,14 +5920,14 @@
         <v>0.4375</v>
       </c>
       <c r="D17" t="s">
-        <v>400</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>392</v>
+        <v>268</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B18" s="7">
@@ -5542,14 +5937,14 @@
         <v>0.5</v>
       </c>
       <c r="D18" t="s">
-        <v>401</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>393</v>
+        <v>269</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B19" s="7">
@@ -5559,14 +5954,14 @@
         <v>0.5625</v>
       </c>
       <c r="D19" t="s">
-        <v>402</v>
-      </c>
-      <c r="E19" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B20" s="7">
@@ -5576,14 +5971,14 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D20" t="s">
-        <v>404</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>403</v>
+        <v>272</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B21" s="7">
@@ -5593,14 +5988,14 @@
         <v>0.84375</v>
       </c>
       <c r="D21" t="s">
-        <v>405</v>
-      </c>
-      <c r="E21" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="8" t="s">
         <v>109</v>
       </c>
       <c r="B23" s="7">
@@ -5610,14 +6005,14 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D23" t="s">
-        <v>406</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>394</v>
+        <v>274</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="8" t="s">
         <v>109</v>
       </c>
       <c r="B24" s="7">
@@ -5627,14 +6022,14 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D24" t="s">
-        <v>389</v>
-      </c>
-      <c r="E24" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="8" t="s">
         <v>109</v>
       </c>
       <c r="B25" s="7">
@@ -5644,14 +6039,14 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D25" t="s">
-        <v>407</v>
-      </c>
-      <c r="E25" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="8" t="s">
         <v>109</v>
       </c>
       <c r="B26" s="7">
@@ -5661,14 +6056,14 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D26" t="s">
-        <v>408</v>
-      </c>
-      <c r="E26" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="8" t="s">
         <v>109</v>
       </c>
       <c r="B27" s="7">
@@ -5678,14 +6073,14 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="26.25">
-      <c r="A28" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="8" t="s">
         <v>109</v>
       </c>
       <c r="B28" s="7">
@@ -5695,14 +6090,14 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D28" t="s">
-        <v>410</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>185</v>
+        <v>278</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="8" t="s">
         <v>109</v>
       </c>
       <c r="B29" s="7">
@@ -5712,14 +6107,14 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D29" t="s">
-        <v>411</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>396</v>
+        <v>279</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="8" t="s">
         <v>110</v>
       </c>
       <c r="B31" s="7">
@@ -5731,12 +6126,12 @@
       <c r="D31" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>110</v>
       </c>
       <c r="B32" s="7">
@@ -5746,14 +6141,14 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D32" t="s">
-        <v>412</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>397</v>
+        <v>280</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="8" t="s">
         <v>110</v>
       </c>
       <c r="B33" s="7">
@@ -5763,14 +6158,14 @@
         <v>0.5</v>
       </c>
       <c r="D33" t="s">
-        <v>413</v>
-      </c>
-      <c r="E33" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="8" t="s">
         <v>110</v>
       </c>
       <c r="B34" s="7">
@@ -5780,14 +6175,14 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D34" t="s">
-        <v>414</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>398</v>
+        <v>282</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="8" t="s">
         <v>111</v>
       </c>
       <c r="B36" s="7">
@@ -5797,14 +6192,14 @@
         <v>0.4375</v>
       </c>
       <c r="D36" t="s">
-        <v>415</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>392</v>
+        <v>283</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="8" t="s">
         <v>111</v>
       </c>
       <c r="B37" s="7">
@@ -5814,14 +6209,14 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D37" t="s">
-        <v>416</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>399</v>
+        <v>284</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="8" t="s">
         <v>112</v>
       </c>
       <c r="B39" s="7">
@@ -5831,10 +6226,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D39" t="s">
-        <v>416</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>399</v>
+        <v>284</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/AvlZen/App_Data/AvlZen.xlsx
+++ b/AvlZen/App_Data/AvlZen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Places" sheetId="1" r:id="rId1"/>
@@ -1595,7 +1595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -2962,8 +2962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4003,7 +4003,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C67" s="7">
-        <v>0.74305555555555547</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D67" t="s">
         <v>166</v>

--- a/AvlZen/App_Data/AvlZen.xlsx
+++ b/AvlZen/App_Data/AvlZen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Places" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,45 @@
     <sheet name="AvlYogDon" sheetId="4" r:id="rId4"/>
     <sheet name="OneCtrYog" sheetId="5" r:id="rId5"/>
     <sheet name="WstAvlYog" sheetId="6" r:id="rId6"/>
+    <sheet name="HotYogAvl" sheetId="7" r:id="rId7"/>
+    <sheet name="GoYogAvl" sheetId="8" r:id="rId8"/>
+    <sheet name="AvlYogSng" sheetId="9" r:id="rId9"/>
+    <sheet name="GoodYoga" sheetId="10" r:id="rId10"/>
+    <sheet name="AvlHapBod" sheetId="11" r:id="rId11"/>
+    <sheet name="YmcaWdfn" sheetId="13" r:id="rId12"/>
   </sheets>
+  <definedNames>
+    <definedName name="_cid31" localSheetId="10">AvlHapBod!$J$3</definedName>
+    <definedName name="_cid33" localSheetId="10">AvlHapBod!$J$18</definedName>
+    <definedName name="_cid39" localSheetId="10">AvlHapBod!$J$11</definedName>
+    <definedName name="_cid56" localSheetId="10">AvlHapBod!$J$12</definedName>
+    <definedName name="_cid60" localSheetId="10">AvlHapBod!$J$28</definedName>
+    <definedName name="_cid72" localSheetId="10">AvlHapBod!$J$9</definedName>
+    <definedName name="_cid75" localSheetId="10">AvlHapBod!$J$8</definedName>
+    <definedName name="_cid76" localSheetId="10">AvlHapBod!$J$34</definedName>
+    <definedName name="_cid8" localSheetId="10">AvlHapBod!$J$16</definedName>
+    <definedName name="bio100000000" localSheetId="10">AvlHapBod!$K$4</definedName>
+    <definedName name="bio100000001" localSheetId="10">AvlHapBod!$K$18</definedName>
+    <definedName name="bio100000002" localSheetId="10">AvlHapBod!$K$3</definedName>
+    <definedName name="bio100000003" localSheetId="10">AvlHapBod!$K$7</definedName>
+    <definedName name="bio100000005" localSheetId="10">AvlHapBod!$K$16</definedName>
+    <definedName name="bio100000014" localSheetId="10">AvlHapBod!$K$28</definedName>
+    <definedName name="bio100000030" localSheetId="10">AvlHapBod!$K$25</definedName>
+    <definedName name="bio100000032" localSheetId="10">AvlHapBod!$K$13</definedName>
+    <definedName name="Fri" localSheetId="6">HotYogAvl!#REF!</definedName>
+    <definedName name="Mon" localSheetId="6">HotYogAvl!#REF!</definedName>
+    <definedName name="Sat" localSheetId="6">HotYogAvl!#REF!</definedName>
+    <definedName name="Sun" localSheetId="6">HotYogAvl!#REF!</definedName>
+    <definedName name="Thu" localSheetId="6">HotYogAvl!#REF!</definedName>
+    <definedName name="Tue" localSheetId="6">HotYogAvl!#REF!</definedName>
+    <definedName name="Wed" localSheetId="6">HotYogAvl!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="437">
   <si>
     <t>Code</t>
   </si>
@@ -30,18 +62,12 @@
     <t>Link</t>
   </si>
   <si>
-    <t>http://ashevillecommunityyoga.com/</t>
-  </si>
-  <si>
     <t>AvlComYog</t>
   </si>
   <si>
     <t>Asheville Community Yoga</t>
   </si>
   <si>
-    <t>http://www.youryoga.com/index.html</t>
-  </si>
-  <si>
     <t>AvlYogCtr</t>
   </si>
   <si>
@@ -66,9 +92,6 @@
     <t>One Center Yoga</t>
   </si>
   <si>
-    <t>http://westashevilleyoga.com/</t>
-  </si>
-  <si>
     <t>WstAvlYog</t>
   </si>
   <si>
@@ -852,9 +875,6 @@
     <t>Women's Yoga all level</t>
   </si>
   <si>
-    <t>Freedom of Movement TM Therapeutics all level Foam rollers, therapy balls, simple yoga for strength and flexibility February focus: low back</t>
-  </si>
-  <si>
     <t>Bhakti Vinyasa Yoga: Vinyasa yoga with live music</t>
   </si>
   <si>
@@ -1090,13 +1110,268 @@
   </si>
   <si>
     <t>Yoga Nidra, All Levels</t>
+  </si>
+  <si>
+    <t>http://ashevillecommunityyoga.com/class-schedules/</t>
+  </si>
+  <si>
+    <t>http://westashevilleyoga.com/class-schedule/</t>
+  </si>
+  <si>
+    <t>Hot Yoga Asheville</t>
+  </si>
+  <si>
+    <t>http://hotyogaasheville.com/index.php/schedule-a-rates/schedule</t>
+  </si>
+  <si>
+    <t>Go Yoga Asheville</t>
+  </si>
+  <si>
+    <t>Asheville Yoga Sangha</t>
+  </si>
+  <si>
+    <t>GoYogAvl</t>
+  </si>
+  <si>
+    <t>AvlHapBod</t>
+  </si>
+  <si>
+    <t>Asheville Happy Body</t>
+  </si>
+  <si>
+    <t>https://clients.mindbodyonline.com/ASP/home.asp?studioid=14787</t>
+  </si>
+  <si>
+    <t>GoodYoga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good Yoga </t>
+  </si>
+  <si>
+    <t>http://www.goodyoga.net/schedule</t>
+  </si>
+  <si>
+    <t>YMCA Woodfin/Downtown</t>
+  </si>
+  <si>
+    <t>http://www.ymcawnc.org/read-pdf?pdf=sites/default/files/February%20Schedule%20Asheville.pdf</t>
+  </si>
+  <si>
+    <t>HotYogAvl</t>
+  </si>
+  <si>
+    <t>http://youryoga.com/class-schedule/</t>
+  </si>
+  <si>
+    <t>http://www.goyogainc.com</t>
+  </si>
+  <si>
+    <t>Bikram Yoga</t>
+  </si>
+  <si>
+    <t>Erin Porter</t>
+  </si>
+  <si>
+    <t>Sean Heeney</t>
+  </si>
+  <si>
+    <t>Advanced Class- *No beginners</t>
+  </si>
+  <si>
+    <t>Booie Young</t>
+  </si>
+  <si>
+    <t>Lex Keklak</t>
+  </si>
+  <si>
+    <t>Camille Schiele</t>
+  </si>
+  <si>
+    <t>Adi Westerman</t>
+  </si>
+  <si>
+    <t>Ross Randall</t>
+  </si>
+  <si>
+    <t>Janet Horn</t>
+  </si>
+  <si>
+    <t>Mary Hill</t>
+  </si>
+  <si>
+    <t>Power Hour</t>
+  </si>
+  <si>
+    <t>Savannah</t>
+  </si>
+  <si>
+    <t>Power Vinyasa</t>
+  </si>
+  <si>
+    <t>Leslie (sub)</t>
+  </si>
+  <si>
+    <t>Power Flex</t>
+  </si>
+  <si>
+    <t>Donna</t>
+  </si>
+  <si>
+    <t>Cassie</t>
+  </si>
+  <si>
+    <t>Power Vinyasa *M</t>
+  </si>
+  <si>
+    <t>Jonna</t>
+  </si>
+  <si>
+    <t>Jonna (sub)</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>Sharlie</t>
+  </si>
+  <si>
+    <t>Samantha</t>
+  </si>
+  <si>
+    <t>Leslie</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>Aloha Friday Power Hour</t>
+  </si>
+  <si>
+    <t>Neva</t>
+  </si>
+  <si>
+    <t>Sunday Funday</t>
+  </si>
+  <si>
+    <t>Candlelight Vinyasa</t>
+  </si>
+  <si>
+    <t>http://208.131.135.54/~whizzkid/ashevilleyogasangha.com/wordpress/?page_id=7</t>
+  </si>
+  <si>
+    <t>Gentle Flow</t>
+  </si>
+  <si>
+    <t>Yoga Therapy</t>
+  </si>
+  <si>
+    <t>Re-Creative Yoga</t>
+  </si>
+  <si>
+    <t>Kelly McKibben</t>
+  </si>
+  <si>
+    <t>Yoga Sangha</t>
+  </si>
+  <si>
+    <t>Rosie</t>
+  </si>
+  <si>
+    <t>Dale</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Restorative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freedom of Movement TM Therapeutics all level </t>
+  </si>
+  <si>
+    <t>Power Core Yoga</t>
+  </si>
+  <si>
+    <t>Jackaline</t>
+  </si>
+  <si>
+    <t>Flow Yoga (1,2)</t>
+  </si>
+  <si>
+    <t>Stephanie</t>
+  </si>
+  <si>
+    <t>Jamie/Susan</t>
+  </si>
+  <si>
+    <t>Yoga</t>
+  </si>
+  <si>
+    <t>New To Yoga</t>
+  </si>
+  <si>
+    <t>Yoga (2)</t>
+  </si>
+  <si>
+    <t>Shonna</t>
+  </si>
+  <si>
+    <t>Gentle Yoga</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Wes</t>
+  </si>
+  <si>
+    <t>Gentle Flow Yoga</t>
+  </si>
+  <si>
+    <t>Yin Yang Yoga</t>
+  </si>
+  <si>
+    <t>Flow Yoga (power style)</t>
+  </si>
+  <si>
+    <t>Restorative Yoga</t>
+  </si>
+  <si>
+    <t>Greta</t>
+  </si>
+  <si>
+    <t>Yoga Synergy</t>
+  </si>
+  <si>
+    <t>Yoga (1)</t>
+  </si>
+  <si>
+    <t>Cynthia</t>
+  </si>
+  <si>
+    <t>Gayle</t>
+  </si>
+  <si>
+    <t>YmcaWdfn</t>
+  </si>
+  <si>
+    <t>AvlYogSng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1106,20 +1381,70 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="56"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="23"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="16"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1129,61 +1454,114 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="22"/>
       </left>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="22"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="22"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="22"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="22"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="22"/>
       </left>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="22"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="22"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -1213,8 +1591,50 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1507,10 +1927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1533,61 +1953,1063 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
         <v>6</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>360</v>
+      </c>
+      <c r="B10" t="s">
+        <v>361</v>
+      </c>
+      <c r="C10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>363</v>
+      </c>
+      <c r="B11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>435</v>
+      </c>
+      <c r="B12" t="s">
+        <v>366</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C8" r:id="rId3"/>
+    <hyperlink ref="C12" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D6" t="s">
+        <v>403</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D8" t="s">
+        <v>403</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D11" t="s">
+        <v>405</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D14" t="s">
+        <v>404</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75">
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75">
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="5:5" ht="15.75">
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="5:5" ht="15.75">
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="5:5" ht="15.75">
+      <c r="E19" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1"/>
+    <col min="10" max="10" width="37.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="L2" s="21"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E3" t="s">
+        <v>408</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="23"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E4" t="s">
+        <v>408</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="23"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="D5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E5" t="s">
+        <v>409</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="23"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D6" t="s">
+        <v>410</v>
+      </c>
+      <c r="E6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="23"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="H7" s="22"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="23"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="H8" s="22"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="23"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="H9" s="22"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="23"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="H10" s="20"/>
+      <c r="L10" s="21"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="H11" s="22"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="23"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="H12" s="22"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="23"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="H13" s="22"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="23"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="H14" s="22"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="23"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="H15" s="20"/>
+      <c r="L15" s="21"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="H16" s="22"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="23"/>
+    </row>
+    <row r="17" spans="8:12">
+      <c r="H17" s="22"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="23"/>
+    </row>
+    <row r="18" spans="8:12">
+      <c r="H18" s="22"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="23"/>
+    </row>
+    <row r="19" spans="8:12">
+      <c r="H19" s="22"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="23"/>
+    </row>
+    <row r="20" spans="8:12">
+      <c r="H20" s="22"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="23"/>
+    </row>
+    <row r="21" spans="8:12">
+      <c r="H21" s="22"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="23"/>
+    </row>
+    <row r="22" spans="8:12">
+      <c r="H22" s="20"/>
+      <c r="L22" s="21"/>
+    </row>
+    <row r="23" spans="8:12">
+      <c r="H23" s="22"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="23"/>
+    </row>
+    <row r="24" spans="8:12">
+      <c r="H24" s="22"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="23"/>
+    </row>
+    <row r="25" spans="8:12">
+      <c r="H25" s="22"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="23"/>
+    </row>
+    <row r="26" spans="8:12">
+      <c r="H26" s="20"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="8:12">
+      <c r="H27" s="22"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="23"/>
+    </row>
+    <row r="28" spans="8:12">
+      <c r="H28" s="22"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="23"/>
+    </row>
+    <row r="29" spans="8:12">
+      <c r="H29" s="22"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="23"/>
+    </row>
+    <row r="30" spans="8:12">
+      <c r="H30" s="22"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="23"/>
+    </row>
+    <row r="31" spans="8:12">
+      <c r="H31" s="22"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="23"/>
+    </row>
+    <row r="32" spans="8:12">
+      <c r="H32" s="20"/>
+      <c r="L32" s="21"/>
+    </row>
+    <row r="33" spans="8:12">
+      <c r="H33" s="22"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="23"/>
+    </row>
+    <row r="34" spans="8:12">
+      <c r="H34" s="22"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="23"/>
+    </row>
+    <row r="35" spans="8:12">
+      <c r="H35" s="20"/>
+      <c r="L35" s="21"/>
+    </row>
+    <row r="36" spans="8:12" ht="15.75" thickBot="1">
+      <c r="H36" s="24"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.3125</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.84375</v>
+      </c>
+      <c r="D4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.40625</v>
+      </c>
+      <c r="D6" t="s">
+        <v>419</v>
+      </c>
+      <c r="E6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D8" t="s">
+        <v>421</v>
+      </c>
+      <c r="E8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D10" t="s">
+        <v>423</v>
+      </c>
+      <c r="E10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="D11" t="s">
+        <v>420</v>
+      </c>
+      <c r="E11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D12" t="s">
+        <v>426</v>
+      </c>
+      <c r="E12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D14" t="s">
+        <v>427</v>
+      </c>
+      <c r="E14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D15" t="s">
+        <v>421</v>
+      </c>
+      <c r="E15" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.3125</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D17" t="s">
+        <v>428</v>
+      </c>
+      <c r="E17" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="D18" t="s">
+        <v>419</v>
+      </c>
+      <c r="E18" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.78125</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.84375</v>
+      </c>
+      <c r="D19" t="s">
+        <v>419</v>
+      </c>
+      <c r="E19" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.40625</v>
+      </c>
+      <c r="D21" t="s">
+        <v>429</v>
+      </c>
+      <c r="E21" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>431</v>
+      </c>
+      <c r="E22" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D23" t="s">
+        <v>419</v>
+      </c>
+      <c r="E23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D25" t="s">
+        <v>432</v>
+      </c>
+      <c r="E25" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D26" t="s">
+        <v>421</v>
+      </c>
+      <c r="E26" t="s">
+        <v>434</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -1596,7 +3018,7 @@
   <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1610,24 +3032,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B2" s="7">
         <v>0.28125</v>
@@ -1636,15 +3058,15 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B3" s="7">
         <v>0.33333333333333331</v>
@@ -1653,15 +3075,15 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B4" s="7">
         <v>0.35416666666666669</v>
@@ -1670,15 +3092,15 @@
         <v>0.40625</v>
       </c>
       <c r="D4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B5" s="7">
         <v>0.39583333333333331</v>
@@ -1687,15 +3109,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B6" s="7">
         <v>0.41666666666666669</v>
@@ -1704,15 +3126,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B7" s="7">
         <v>0.48958333333333331</v>
@@ -1721,15 +3143,15 @@
         <v>0.53125</v>
       </c>
       <c r="D7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B8" s="7">
         <v>0.51041666666666663</v>
@@ -1738,15 +3160,15 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B9" s="7">
         <v>0.59375</v>
@@ -1755,15 +3177,15 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B10" s="7">
         <v>0.66666666666666663</v>
@@ -1772,15 +3194,15 @@
         <v>0.71875</v>
       </c>
       <c r="D10" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B11" s="7">
         <v>0.70833333333333337</v>
@@ -1789,15 +3211,15 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D11" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B12" s="7">
         <v>0.75</v>
@@ -1806,15 +3228,15 @@
         <v>0.8125</v>
       </c>
       <c r="D12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B13" s="7">
         <v>0.75</v>
@@ -1823,15 +3245,15 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B14" s="7">
         <v>0.83333333333333337</v>
@@ -1840,16 +3262,16 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="D14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:5" ht="15.75" thickBot="1">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>0.28125</v>
@@ -1858,15 +3280,15 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1">
       <c r="A17" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5">
         <v>0.34375</v>
@@ -1875,15 +3297,15 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1">
       <c r="A18" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B18" s="5">
         <v>0.375</v>
@@ -1892,15 +3314,15 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1">
       <c r="A19" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19" s="5">
         <v>0.39583333333333331</v>
@@ -1909,15 +3331,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1">
       <c r="A20" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B20" s="5">
         <v>0.4375</v>
@@ -1926,15 +3348,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1">
       <c r="A21" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B21" s="5">
         <v>0.5</v>
@@ -1943,15 +3365,15 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1">
       <c r="A22" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B22" s="5">
         <v>0.51041666666666663</v>
@@ -1960,15 +3382,15 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1">
       <c r="A23" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B23" s="5">
         <v>0.5625</v>
@@ -1977,15 +3399,15 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1">
       <c r="A24" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B24" s="5">
         <v>0.59375</v>
@@ -1994,15 +3416,15 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1">
       <c r="A25" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B25" s="5">
         <v>0.66666666666666663</v>
@@ -2011,15 +3433,15 @@
         <v>0.71875</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1">
       <c r="A26" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B26" s="5">
         <v>0.66666666666666663</v>
@@ -2028,15 +3450,15 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1">
       <c r="A27" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B27" s="5">
         <v>0.75</v>
@@ -2045,15 +3467,15 @@
         <v>0.8125</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1">
       <c r="A28" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B28" s="5">
         <v>0.75</v>
@@ -2062,15 +3484,15 @@
         <v>0.80902777777777779</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1">
       <c r="A29" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B29" s="5">
         <v>0.83333333333333337</v>
@@ -2079,15 +3501,15 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B31" s="7">
         <v>0.28125</v>
@@ -2096,15 +3518,15 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D31" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B32" s="7">
         <v>0.33333333333333331</v>
@@ -2113,15 +3535,15 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="D32" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B33" s="7">
         <v>0.39583333333333331</v>
@@ -2130,15 +3552,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D33" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B34" s="7">
         <v>0.41666666666666669</v>
@@ -2147,15 +3569,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D34" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B35" s="7">
         <v>0.46875</v>
@@ -2164,15 +3586,15 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D35" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B36" s="7">
         <v>0.51041666666666663</v>
@@ -2181,15 +3603,15 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B37" s="7">
         <v>0.5</v>
@@ -2198,15 +3620,15 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D37" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B38" s="7">
         <v>0.59375</v>
@@ -2215,15 +3637,15 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D38" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B39" s="7">
         <v>0.59375</v>
@@ -2232,15 +3654,15 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D39" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B40" s="7">
         <v>0.66666666666666663</v>
@@ -2249,15 +3671,15 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="D40" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B41" s="7">
         <v>0.66666666666666663</v>
@@ -2266,15 +3688,15 @@
         <v>0.71875</v>
       </c>
       <c r="D41" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B42" s="7">
         <v>0.71875</v>
@@ -2283,15 +3705,15 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D42" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B43" s="7">
         <v>0.77083333333333337</v>
@@ -2300,15 +3722,15 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D43" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B44" s="7">
         <v>0.82291666666666663</v>
@@ -2317,15 +3739,15 @@
         <v>0.875</v>
       </c>
       <c r="D44" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B45" s="7">
         <v>0.83333333333333337</v>
@@ -2334,15 +3756,15 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="D45" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B47" s="7">
         <v>0.25</v>
@@ -2351,15 +3773,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D47" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B48" s="7">
         <v>0.30208333333333331</v>
@@ -2368,15 +3790,15 @@
         <v>0.34375</v>
       </c>
       <c r="D48" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B49" s="7">
         <v>0.38541666666666669</v>
@@ -2385,15 +3807,15 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D49" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B50" s="7">
         <v>0.39583333333333331</v>
@@ -2402,15 +3824,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D50" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B51" s="7">
         <v>0.5</v>
@@ -2419,15 +3841,15 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D51" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B52" s="7">
         <v>0.51041666666666663</v>
@@ -2436,15 +3858,15 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D52" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B53" s="7">
         <v>0.59375</v>
@@ -2453,15 +3875,15 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="D53" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B54" s="7">
         <v>0.66666666666666663</v>
@@ -2470,15 +3892,15 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D54" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B55" s="7">
         <v>0.6875</v>
@@ -2487,15 +3909,15 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D55" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B56" s="7">
         <v>0.71875</v>
@@ -2504,15 +3926,15 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D56" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B57" s="7">
         <v>0.77083333333333337</v>
@@ -2521,15 +3943,15 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D57" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B58" s="7">
         <v>0.83333333333333337</v>
@@ -2538,15 +3960,15 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="D58" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B59" s="7">
         <v>0.84375</v>
@@ -2555,15 +3977,15 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="D59" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B61" s="7">
         <v>0.32291666666666669</v>
@@ -2572,15 +3994,15 @@
         <v>0.375</v>
       </c>
       <c r="D61" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B62" s="7">
         <v>0.39583333333333331</v>
@@ -2589,15 +4011,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D62" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B63" s="7">
         <v>0.41666666666666669</v>
@@ -2606,15 +4028,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D63" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B64" s="7">
         <v>0.46875</v>
@@ -2623,15 +4045,15 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D64" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B65" s="7">
         <v>0.5</v>
@@ -2640,15 +4062,15 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D65" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B66" s="7">
         <v>0.51041666666666663</v>
@@ -2657,15 +4079,15 @@
         <v>0.5625</v>
       </c>
       <c r="D66" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B67" s="7">
         <v>0.59375</v>
@@ -2674,15 +4096,15 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="D67" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B68" s="7">
         <v>0.66666666666666663</v>
@@ -2691,15 +4113,15 @@
         <v>0.71875</v>
       </c>
       <c r="D68" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B69" s="7">
         <v>0.67708333333333337</v>
@@ -2708,15 +4130,15 @@
         <v>0.71875</v>
       </c>
       <c r="D69" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B70" s="7">
         <v>0.75</v>
@@ -2725,15 +4147,15 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D70" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B72" s="7">
         <v>0.35416666666666669</v>
@@ -2742,15 +4164,15 @@
         <v>0.40625</v>
       </c>
       <c r="D72" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B73" s="7">
         <v>0.42708333333333331</v>
@@ -2759,15 +4181,15 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D73" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B74" s="7">
         <v>0.4375</v>
@@ -2776,15 +4198,15 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D74" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B75" s="7">
         <v>0.51041666666666663</v>
@@ -2793,15 +4215,15 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D75" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B76" s="7">
         <v>0.59375</v>
@@ -2810,15 +4232,15 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D76" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B77" s="7">
         <v>0.64583333333333337</v>
@@ -2827,15 +4249,15 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D77" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B79" s="7">
         <v>0.39583333333333331</v>
@@ -2844,15 +4266,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D79" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B80" s="7">
         <v>0.46875</v>
@@ -2861,15 +4283,15 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D80" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B81" s="7">
         <v>0.53125</v>
@@ -2878,15 +4300,15 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D81" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B82" s="7">
         <v>0.59375</v>
@@ -2895,15 +4317,15 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D82" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B83" s="7">
         <v>0.66666666666666663</v>
@@ -2912,15 +4334,15 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D83" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B84" s="7">
         <v>0.67708333333333337</v>
@@ -2929,15 +4351,15 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D84" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B85" s="7">
         <v>0.75</v>
@@ -2946,13 +4368,14 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D85" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2962,8 +4385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2976,24 +4399,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B2" s="7">
         <v>0.29166666666666669</v>
@@ -3002,15 +4425,15 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B3" s="7">
         <v>0.36458333333333331</v>
@@ -3019,15 +4442,15 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B4" s="7">
         <v>0.42708333333333331</v>
@@ -3036,15 +4459,15 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B5" s="7">
         <v>0.51041666666666663</v>
@@ -3053,15 +4476,15 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B6" s="7">
         <v>0.58333333333333337</v>
@@ -3070,15 +4493,15 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B7" s="7">
         <v>0.66666666666666663</v>
@@ -3087,15 +4510,15 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B8" s="7">
         <v>0.72916666666666663</v>
@@ -3104,15 +4527,15 @@
         <v>0.78125</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B9" s="7">
         <v>0.72916666666666663</v>
@@ -3121,15 +4544,15 @@
         <v>0.78125</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B10" s="7">
         <v>0.79166666666666663</v>
@@ -3138,15 +4561,15 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B11" s="7">
         <v>0.79166666666666663</v>
@@ -3155,16 +4578,16 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="13" spans="1:5" ht="15.75" thickBot="1">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
         <v>0.29166666666666669</v>
@@ -3173,15 +4596,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1">
       <c r="A14" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="5">
         <v>0.34375</v>
@@ -3190,15 +4613,15 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" s="5">
         <v>0.39583333333333331</v>
@@ -3207,15 +4630,15 @@
         <v>0.4375</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1">
       <c r="A16" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16" s="5">
         <v>0.45833333333333331</v>
@@ -3224,15 +4647,15 @@
         <v>0.5</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1">
       <c r="A17" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5">
         <v>0.51041666666666663</v>
@@ -3241,15 +4664,15 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1">
       <c r="A18" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B18" s="5">
         <v>0.59375</v>
@@ -3258,15 +4681,15 @@
         <v>0.65625</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1">
       <c r="A19" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19" s="5">
         <v>0.66666666666666663</v>
@@ -3275,15 +4698,15 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1">
       <c r="A20" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B20" s="5">
         <v>0.72916666666666663</v>
@@ -3292,15 +4715,15 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1">
       <c r="A21" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B21" s="5">
         <v>0.72916666666666663</v>
@@ -3309,15 +4732,15 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1">
       <c r="A22" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B22" s="5">
         <v>0.78125</v>
@@ -3326,15 +4749,15 @@
         <v>0.84375</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1">
       <c r="A23" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B23" s="5">
         <v>0.80208333333333337</v>
@@ -3343,15 +4766,15 @@
         <v>0.84375</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B25" s="7">
         <v>0.29166666666666669</v>
@@ -3360,15 +4783,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B26" s="7">
         <v>0.34375</v>
@@ -3377,15 +4800,15 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B27" s="7">
         <v>0.39583333333333331</v>
@@ -3394,15 +4817,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B28" s="7">
         <v>0.51041666666666663</v>
@@ -3411,15 +4834,15 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B29" s="7">
         <v>0.60416666666666663</v>
@@ -3428,15 +4851,15 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B30" s="7">
         <v>0.66666666666666663</v>
@@ -3445,15 +4868,15 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B31" s="7">
         <v>0.72916666666666663</v>
@@ -3462,15 +4885,15 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B32" s="7">
         <v>0.72916666666666663</v>
@@ -3479,15 +4902,15 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B33" s="7">
         <v>0.78125</v>
@@ -3496,15 +4919,15 @@
         <v>0.84375</v>
       </c>
       <c r="D33" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B34" s="7">
         <v>0.80208333333333337</v>
@@ -3513,15 +4936,15 @@
         <v>0.84375</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E34" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B36" s="7">
         <v>0.29166666666666669</v>
@@ -3530,15 +4953,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B37" s="7">
         <v>0.34375</v>
@@ -3547,15 +4970,15 @@
         <v>0.40625</v>
       </c>
       <c r="D37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B38" s="7">
         <v>0.41666666666666669</v>
@@ -3564,15 +4987,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B39" s="7">
         <v>0.51041666666666663</v>
@@ -3581,15 +5004,15 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E39" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B40" s="7">
         <v>0.59375</v>
@@ -3598,15 +5021,15 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E40" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B41" s="7">
         <v>0.64583333333333337</v>
@@ -3615,15 +5038,15 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B42" s="7">
         <v>0.72916666666666663</v>
@@ -3632,15 +5055,15 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D42" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B43" s="7">
         <v>0.72916666666666663</v>
@@ -3649,15 +5072,15 @@
         <v>0.78125</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E43" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B44" s="7">
         <v>0.79166666666666663</v>
@@ -3666,15 +5089,15 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E44" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B45" s="7">
         <v>0.80208333333333337</v>
@@ -3683,15 +5106,15 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="D45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E45" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B47" s="7">
         <v>0.29166666666666669</v>
@@ -3700,15 +5123,15 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D47" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E47" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B48" s="7">
         <v>0.36458333333333331</v>
@@ -3717,15 +5140,15 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D48" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E48" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B49" s="7">
         <v>0.4375</v>
@@ -3734,15 +5157,15 @@
         <v>0.5</v>
       </c>
       <c r="D49" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E49" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B50" s="7">
         <v>0.51041666666666663</v>
@@ -3751,15 +5174,15 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D50" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E50" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B51" s="7">
         <v>0.58333333333333337</v>
@@ -3768,15 +5191,15 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E51" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B52" s="7">
         <v>0.66666666666666663</v>
@@ -3785,15 +5208,15 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D52" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E52" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B53" s="7">
         <v>0.71875</v>
@@ -3802,15 +5225,15 @@
         <v>0.78125</v>
       </c>
       <c r="D53" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E53" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B54" s="7">
         <v>0.79166666666666663</v>
@@ -3819,15 +5242,15 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D54" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E54" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B56" s="7">
         <v>0.32291666666666669</v>
@@ -3836,15 +5259,15 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D56" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E56" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B57" s="7">
         <v>0.375</v>
@@ -3853,15 +5276,15 @@
         <v>0.4375</v>
       </c>
       <c r="D57" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E57" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B58" s="7">
         <v>0.45833333333333331</v>
@@ -3870,15 +5293,15 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D58" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E58" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B59" s="7">
         <v>0.54166666666666663</v>
@@ -3887,15 +5310,15 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D59" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E59" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B60" s="7">
         <v>0.59375</v>
@@ -3904,15 +5327,15 @@
         <v>0.65625</v>
       </c>
       <c r="D60" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E60" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B61" s="7">
         <v>0.66666666666666663</v>
@@ -3921,15 +5344,15 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D61" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E61" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B63" s="7">
         <v>0.33333333333333331</v>
@@ -3938,15 +5361,15 @@
         <v>0.375</v>
       </c>
       <c r="D63" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E63" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B64" s="7">
         <v>0.39583333333333331</v>
@@ -3955,15 +5378,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D64" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B65" s="7">
         <v>0.46875</v>
@@ -3972,15 +5395,15 @@
         <v>0.53125</v>
       </c>
       <c r="D65" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E65" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B66" s="7">
         <v>0.54166666666666663</v>
@@ -3989,15 +5412,15 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D66" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E66" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B67" s="7">
         <v>0.66666666666666663</v>
@@ -4006,15 +5429,15 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D67" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E67" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B68" s="7">
         <v>0.73958333333333337</v>
@@ -4023,15 +5446,15 @@
         <v>0.78125</v>
       </c>
       <c r="D68" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E68" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B69" s="7">
         <v>0.79166666666666663</v>
@@ -4040,13 +5463,14 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D69" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E69" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4055,7 +5479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -4067,24 +5491,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B2" s="7">
         <v>0.35416666666666669</v>
@@ -4093,15 +5517,15 @@
         <v>0.40625</v>
       </c>
       <c r="D2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B3" s="7">
         <v>0.41666666666666669</v>
@@ -4110,15 +5534,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B4" s="7">
         <v>0.5</v>
@@ -4127,15 +5551,15 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B5" s="7">
         <v>0.5625</v>
@@ -4144,15 +5568,15 @@
         <v>0.625</v>
       </c>
       <c r="D5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B6" s="7">
         <v>0.66666666666666663</v>
@@ -4161,15 +5585,15 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="D6" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B7" s="7">
         <v>0.72916666666666663</v>
@@ -4178,15 +5602,15 @@
         <v>0.78125</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B8" s="7">
         <v>0.79166666666666663</v>
@@ -4195,16 +5619,16 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D8" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E8" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:5" ht="15.75" thickBot="1">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" s="9">
         <v>0.35416666666666669</v>
@@ -4213,15 +5637,15 @@
         <v>0.40625</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1">
       <c r="A11" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" s="10">
         <v>0.41666666666666669</v>
@@ -4230,15 +5654,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B12" s="10">
         <v>0.5</v>
@@ -4247,15 +5671,15 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" s="10">
         <v>0.5625</v>
@@ -4264,15 +5688,15 @@
         <v>0.625</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1">
       <c r="A14" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="10">
         <v>0.67708333333333337</v>
@@ -4281,15 +5705,15 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" s="10">
         <v>0.73958333333333337</v>
@@ -4298,15 +5722,15 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1">
       <c r="A16" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16" s="10">
         <v>0.8125</v>
@@ -4315,15 +5739,15 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B18" s="7">
         <v>0.375</v>
@@ -4332,15 +5756,15 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D18" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E18" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B19" s="7">
         <v>0.4375</v>
@@ -4349,15 +5773,15 @@
         <v>0.5</v>
       </c>
       <c r="D19" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B20" s="7">
         <v>0.51041666666666663</v>
@@ -4366,15 +5790,15 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B21" s="7">
         <v>0.58333333333333337</v>
@@ -4383,15 +5807,15 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D21" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B22" s="7">
         <v>0.64583333333333337</v>
@@ -4400,15 +5824,15 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D22" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B23" s="7">
         <v>0.71875</v>
@@ -4417,15 +5841,15 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D23" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E23" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B24" s="7">
         <v>0.78125</v>
@@ -4434,15 +5858,15 @@
         <v>0.84375</v>
       </c>
       <c r="D24" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E24" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B26" s="7">
         <v>0.35416666666666669</v>
@@ -4451,15 +5875,15 @@
         <v>0.40625</v>
       </c>
       <c r="D26" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E26" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B27" s="7">
         <v>0.4375</v>
@@ -4468,15 +5892,15 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D27" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E27" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B28" s="7">
         <v>0.5</v>
@@ -4485,15 +5909,15 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D28" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E28" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B29" s="7">
         <v>0.5625</v>
@@ -4502,15 +5926,15 @@
         <v>0.625</v>
       </c>
       <c r="D29" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B30" s="7">
         <v>0.66666666666666663</v>
@@ -4519,15 +5943,15 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D30" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E30" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B31" s="7">
         <v>0.71875</v>
@@ -4536,15 +5960,15 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D31" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E31" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B32" s="7">
         <v>0.77083333333333337</v>
@@ -4553,15 +5977,15 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D32" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B34" s="7">
         <v>0.375</v>
@@ -4570,15 +5994,15 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D34" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E34" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B35" s="7">
         <v>0.42708333333333331</v>
@@ -4587,15 +6011,15 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D35" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E35" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B36" s="7">
         <v>0.5</v>
@@ -4604,15 +6028,15 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D36" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E36" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B37" s="7">
         <v>0.5625</v>
@@ -4621,15 +6045,15 @@
         <v>0.625</v>
       </c>
       <c r="D37" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E37" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B39" s="7">
         <v>0.67708333333333337</v>
@@ -4638,15 +6062,15 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="D39" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E39" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B40" s="7">
         <v>0.75</v>
@@ -4655,15 +6079,15 @@
         <v>0.8125</v>
       </c>
       <c r="D40" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E40" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B41" s="7">
         <v>0.82291666666666663</v>
@@ -4672,13 +6096,14 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="D41" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4687,8 +6112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4700,24 +6125,24 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B2" s="7">
         <v>0.33333333333333331</v>
@@ -4726,24 +6151,24 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" t="s">
         <v>170</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>171</v>
-      </c>
-      <c r="F2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B3" s="7">
         <v>0.39583333333333331</v>
@@ -4752,24 +6177,24 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B4" s="7">
         <v>0.41666666666666669</v>
@@ -4778,24 +6203,24 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B5" s="7">
         <v>0.5</v>
@@ -4804,24 +6229,24 @@
         <v>0.5625</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B6" s="7">
         <v>0.65625</v>
@@ -4830,24 +6255,24 @@
         <v>0.71875</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B7" s="7">
         <v>0.66666666666666663</v>
@@ -4856,24 +6281,24 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B8" s="7">
         <v>0.72916666666666663</v>
@@ -4882,24 +6307,24 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B9" s="7">
         <v>0.75</v>
@@ -4908,25 +6333,25 @@
         <v>0.8125</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:8" ht="15.75" thickBot="1">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
         <v>0.38541666666666669</v>
@@ -4935,15 +6360,15 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B12" s="5">
         <v>0.39583333333333331</v>
@@ -4952,15 +6377,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" s="5">
         <v>0.47916666666666669</v>
@@ -4969,15 +6394,15 @@
         <v>0.53125</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1">
       <c r="A14" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="5">
         <v>0.5</v>
@@ -4986,15 +6411,15 @@
         <v>0.5625</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" s="5">
         <v>0.65625</v>
@@ -5003,15 +6428,15 @@
         <v>0.71875</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1">
       <c r="A16" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16" s="5">
         <v>0.66666666666666663</v>
@@ -5020,15 +6445,15 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1">
       <c r="A17" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5">
         <v>0.72916666666666663</v>
@@ -5037,15 +6462,15 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1">
       <c r="A18" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B18" s="5">
         <v>0.75</v>
@@ -5054,15 +6479,15 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1">
       <c r="A19" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19" s="5">
         <v>0.80208333333333337</v>
@@ -5071,15 +6496,15 @@
         <v>0.84375</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B21" s="7">
         <v>0.33333333333333331</v>
@@ -5088,24 +6513,24 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E21" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" t="s">
         <v>171</v>
-      </c>
-      <c r="F21" t="s">
-        <v>172</v>
-      </c>
-      <c r="G21" t="s">
-        <v>177</v>
-      </c>
-      <c r="H21" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B22" s="7">
         <v>0.39583333333333331</v>
@@ -5114,24 +6539,24 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E22" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F22" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G22" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B23" s="7">
         <v>0.40625</v>
@@ -5140,24 +6565,24 @@
         <v>0.46875</v>
       </c>
       <c r="D23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F23" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G23" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B24" s="7">
         <v>0.5</v>
@@ -5166,24 +6591,24 @@
         <v>0.5625</v>
       </c>
       <c r="D24" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H24" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B25" s="7">
         <v>0.66666666666666663</v>
@@ -5192,24 +6617,24 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D25" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E25" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F25" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G25" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B26" s="7">
         <v>0.72916666666666663</v>
@@ -5218,24 +6643,24 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F26" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G26" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H26" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B27" s="7">
         <v>0.73958333333333337</v>
@@ -5244,24 +6669,24 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D27" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G27" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H27" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B29" s="7">
         <v>0.29166666666666669</v>
@@ -5270,24 +6695,24 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" t="s">
         <v>170</v>
       </c>
-      <c r="E29" t="s">
+      <c r="H29" t="s">
         <v>171</v>
-      </c>
-      <c r="F29" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" t="s">
-        <v>173</v>
-      </c>
-      <c r="H29" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B30" s="7">
         <v>0.375</v>
@@ -5296,24 +6721,24 @@
         <v>0.4375</v>
       </c>
       <c r="D30" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E30" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G30" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B31" s="7">
         <v>0.39583333333333331</v>
@@ -5322,24 +6747,24 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G31" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H31" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B32" s="7">
         <v>0.5</v>
@@ -5348,24 +6773,24 @@
         <v>0.5625</v>
       </c>
       <c r="D32" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E32" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F32" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G32" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H32" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B33" s="7">
         <v>0.63541666666666663</v>
@@ -5374,24 +6799,24 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="D33" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F33" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G33" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H33" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B34" s="7">
         <v>0.64583333333333337</v>
@@ -5400,24 +6825,24 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D34" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" t="s">
+        <v>170</v>
+      </c>
+      <c r="H34" t="s">
         <v>171</v>
-      </c>
-      <c r="F34" t="s">
-        <v>172</v>
-      </c>
-      <c r="G34" t="s">
-        <v>173</v>
-      </c>
-      <c r="H34" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B35" s="7">
         <v>0.71875</v>
@@ -5426,24 +6851,24 @@
         <v>0.78125</v>
       </c>
       <c r="D35" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E35" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F35" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G35" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H35" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B36" s="7">
         <v>0.72916666666666663</v>
@@ -5452,24 +6877,24 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E36" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F36" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G36" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H36" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B38" s="7">
         <v>0.39583333333333331</v>
@@ -5478,24 +6903,24 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D38" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G38" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H38" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B39" s="7">
         <v>0.41666666666666669</v>
@@ -5504,24 +6929,24 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D39" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E39" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F39" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G39" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B40" s="7">
         <v>0.5</v>
@@ -5530,24 +6955,24 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D40" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E40" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F40" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G40" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H40" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B41" s="7">
         <v>0.70833333333333337</v>
@@ -5556,24 +6981,24 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D41" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E41" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F41" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G41" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H41" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B43" s="7">
         <v>0.375</v>
@@ -5582,24 +7007,24 @@
         <v>0.4375</v>
       </c>
       <c r="D43" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E43" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F43" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G43" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H43" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B45" s="7">
         <v>0.41666666666666669</v>
@@ -5608,24 +7033,24 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D45" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E45" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F45" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G45" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H45" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B46" s="7">
         <v>0.66666666666666663</v>
@@ -5634,22 +7059,23 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D46" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E46" t="s">
+        <v>168</v>
+      </c>
+      <c r="F46" t="s">
+        <v>169</v>
+      </c>
+      <c r="G46" t="s">
+        <v>170</v>
+      </c>
+      <c r="H46" t="s">
         <v>171</v>
       </c>
-      <c r="F46" t="s">
-        <v>172</v>
-      </c>
-      <c r="G46" t="s">
-        <v>173</v>
-      </c>
-      <c r="H46" t="s">
-        <v>174</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5658,8 +7084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5672,24 +7098,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B2" s="7">
         <v>0.3125</v>
@@ -5698,15 +7124,15 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B3" s="7">
         <v>0.38541666666666669</v>
@@ -5715,15 +7141,15 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B4" s="7">
         <v>0.45833333333333331</v>
@@ -5732,15 +7158,15 @@
         <v>0.5</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B5" s="7">
         <v>0.64583333333333337</v>
@@ -5749,15 +7175,15 @@
         <v>0.6875</v>
       </c>
       <c r="D5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B6" s="7">
         <v>0.72916666666666663</v>
@@ -5766,15 +7192,15 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B7" s="7">
         <v>0.80208333333333337</v>
@@ -5783,16 +7209,16 @@
         <v>0.84375</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:5" ht="15.75" thickBot="1">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2">
         <v>0.3125</v>
@@ -5801,15 +7227,15 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1">
       <c r="A10" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" s="5">
         <v>0.38541666666666669</v>
@@ -5818,15 +7244,15 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1">
       <c r="A11" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5">
         <v>0.45833333333333331</v>
@@ -5835,15 +7261,15 @@
         <v>0.5</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B12" s="5">
         <v>0.64583333333333337</v>
@@ -5852,15 +7278,15 @@
         <v>0.6875</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" s="5">
         <v>0.72916666666666663</v>
@@ -5869,15 +7295,15 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1">
       <c r="A14" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="5">
         <v>0.80208333333333337</v>
@@ -5886,15 +7312,15 @@
         <v>0.84375</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B16" s="7">
         <v>0.3125</v>
@@ -5903,15 +7329,15 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B17" s="7">
         <v>0.39583333333333331</v>
@@ -5920,15 +7346,15 @@
         <v>0.4375</v>
       </c>
       <c r="D17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B18" s="7">
         <v>0.45833333333333331</v>
@@ -5937,15 +7363,15 @@
         <v>0.5</v>
       </c>
       <c r="D18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B19" s="7">
         <v>0.52083333333333337</v>
@@ -5954,15 +7380,15 @@
         <v>0.5625</v>
       </c>
       <c r="D19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B20" s="7">
         <v>0.75</v>
@@ -5971,15 +7397,15 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D20" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B21" s="7">
         <v>0.80208333333333337</v>
@@ -5988,15 +7414,15 @@
         <v>0.84375</v>
       </c>
       <c r="D21" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B23" s="7">
         <v>0.3125</v>
@@ -6005,15 +7431,15 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D23" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B24" s="7">
         <v>0.38541666666666669</v>
@@ -6022,15 +7448,15 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D24" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B25" s="7">
         <v>0.44791666666666669</v>
@@ -6039,15 +7465,15 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D25" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B26" s="7">
         <v>0.44791666666666669</v>
@@ -6056,15 +7482,15 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D26" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B27" s="7">
         <v>0.53125</v>
@@ -6073,15 +7499,15 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D27" t="s">
-        <v>277</v>
+        <v>413</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B28" s="7">
         <v>0.73958333333333337</v>
@@ -6090,15 +7516,15 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D28" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B29" s="7">
         <v>0.80208333333333337</v>
@@ -6107,15 +7533,15 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D29" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B31" s="7">
         <v>0.3125</v>
@@ -6124,15 +7550,15 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B32" s="7">
         <v>0.375</v>
@@ -6141,15 +7567,15 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D32" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B33" s="7">
         <v>0.4375</v>
@@ -6158,15 +7584,15 @@
         <v>0.5</v>
       </c>
       <c r="D33" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B34" s="7">
         <v>0.52083333333333337</v>
@@ -6175,15 +7601,15 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D34" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B36" s="7">
         <v>0.38541666666666669</v>
@@ -6192,15 +7618,15 @@
         <v>0.4375</v>
       </c>
       <c r="D36" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B37" s="7">
         <v>0.45833333333333331</v>
@@ -6209,15 +7635,15 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D37" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B39" s="7">
         <v>0.39583333333333331</v>
@@ -6226,13 +7652,1295 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D39" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="12"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.5625</v>
+      </c>
+      <c r="D4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>371</v>
+      </c>
+      <c r="E6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D9" t="s">
+        <v>371</v>
+      </c>
+      <c r="E9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D10" t="s">
+        <v>371</v>
+      </c>
+      <c r="E10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.5625</v>
+      </c>
+      <c r="D11" t="s">
+        <v>371</v>
+      </c>
+      <c r="E11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>371</v>
+      </c>
+      <c r="E12" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D13" t="s">
+        <v>371</v>
+      </c>
+      <c r="E13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D15" t="s">
+        <v>371</v>
+      </c>
+      <c r="E15" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E16" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.5625</v>
+      </c>
+      <c r="D17" t="s">
+        <v>371</v>
+      </c>
+      <c r="E17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>371</v>
+      </c>
+      <c r="E18" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D19" t="s">
+        <v>371</v>
+      </c>
+      <c r="E19" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D21" t="s">
+        <v>371</v>
+      </c>
+      <c r="E21" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D22" t="s">
+        <v>371</v>
+      </c>
+      <c r="E22" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D23" t="s">
+        <v>371</v>
+      </c>
+      <c r="E23" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0.5625</v>
+      </c>
+      <c r="D24" t="s">
+        <v>371</v>
+      </c>
+      <c r="E24" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>371</v>
+      </c>
+      <c r="E25" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C26" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D26" t="s">
+        <v>371</v>
+      </c>
+      <c r="E26" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C28" s="12">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D28" t="s">
+        <v>371</v>
+      </c>
+      <c r="E28" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C29" s="12">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D29" t="s">
+        <v>371</v>
+      </c>
+      <c r="E29" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="12">
+        <v>0.5625</v>
+      </c>
+      <c r="D30" t="s">
+        <v>371</v>
+      </c>
+      <c r="E30" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="C31" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D31" t="s">
+        <v>371</v>
+      </c>
+      <c r="E31" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C32" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D32" t="s">
+        <v>371</v>
+      </c>
+      <c r="E32" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C34" s="12">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D34" t="s">
+        <v>371</v>
+      </c>
+      <c r="E34" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C35" s="12">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D35" t="s">
+        <v>371</v>
+      </c>
+      <c r="E35" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C36" s="12">
+        <v>0.5625</v>
+      </c>
+      <c r="D36" t="s">
+        <v>371</v>
+      </c>
+      <c r="E36" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="C37" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>371</v>
+      </c>
+      <c r="E37" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C39" s="12">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D39" t="s">
+        <v>371</v>
+      </c>
+      <c r="E39" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C40" s="12">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D40" t="s">
+        <v>371</v>
+      </c>
+      <c r="E40" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C41" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D41" t="s">
+        <v>371</v>
+      </c>
+      <c r="E41" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="C42" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D42" t="s">
+        <v>371</v>
+      </c>
+      <c r="E42" t="s">
+        <v>380</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="12"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1"/>
+      <c r="I1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E3" t="s">
+        <v>385</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E4" t="s">
+        <v>387</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.78125</v>
+      </c>
+      <c r="D5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E5" t="s">
+        <v>388</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="D7" t="s">
+        <v>382</v>
+      </c>
+      <c r="E7" t="s">
+        <v>383</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.46875</v>
+      </c>
+      <c r="D8" t="s">
+        <v>389</v>
+      </c>
+      <c r="E8" t="s">
+        <v>390</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0.6875</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D9" t="s">
+        <v>382</v>
+      </c>
+      <c r="E9" t="s">
+        <v>391</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="D10" t="s">
+        <v>384</v>
+      </c>
+      <c r="E10" t="s">
+        <v>392</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="H11"/>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D12" t="s">
+        <v>382</v>
+      </c>
+      <c r="E12" t="s">
+        <v>393</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D13" t="s">
+        <v>384</v>
+      </c>
+      <c r="E13" t="s">
+        <v>394</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="12">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D14" t="s">
+        <v>386</v>
+      </c>
+      <c r="E14" t="s">
+        <v>387</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D15" t="s">
+        <v>389</v>
+      </c>
+      <c r="E15" t="s">
+        <v>392</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="H16"/>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="D17" t="s">
+        <v>382</v>
+      </c>
+      <c r="E17" t="s">
+        <v>388</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0.46875</v>
+      </c>
+      <c r="D18" t="s">
+        <v>384</v>
+      </c>
+      <c r="E18" t="s">
+        <v>395</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="12">
+        <v>0.6875</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="D19" t="s">
+        <v>382</v>
+      </c>
+      <c r="E19" t="s">
+        <v>396</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="D20" t="s">
+        <v>384</v>
+      </c>
+      <c r="E20" t="s">
+        <v>397</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="H21"/>
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D22" t="s">
+        <v>382</v>
+      </c>
+      <c r="E22" t="s">
+        <v>393</v>
+      </c>
+      <c r="H22"/>
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="12">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D23" t="s">
+        <v>382</v>
+      </c>
+      <c r="E23" t="s">
+        <v>206</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="12">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D24" t="s">
+        <v>398</v>
+      </c>
+      <c r="E24" t="s">
+        <v>392</v>
+      </c>
+      <c r="H24"/>
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="12">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D25" t="s">
+        <v>382</v>
+      </c>
+      <c r="E25" t="s">
+        <v>383</v>
+      </c>
+      <c r="H25"/>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="H26"/>
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0.46875</v>
+      </c>
+      <c r="D27" t="s">
+        <v>384</v>
+      </c>
+      <c r="E27" t="s">
+        <v>388</v>
+      </c>
+      <c r="H27"/>
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C28" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D28" t="s">
+        <v>382</v>
+      </c>
+      <c r="E28" t="s">
+        <v>399</v>
+      </c>
+      <c r="H28"/>
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="H29"/>
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C30" s="12">
+        <v>0.46875</v>
+      </c>
+      <c r="D30" t="s">
+        <v>400</v>
+      </c>
+      <c r="E30" t="s">
+        <v>388</v>
+      </c>
+      <c r="H30"/>
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C31" s="12">
+        <v>0.46875</v>
+      </c>
+      <c r="D31" t="s">
+        <v>401</v>
+      </c>
+      <c r="E31" t="s">
+        <v>390</v>
+      </c>
+      <c r="H31"/>
+      <c r="I31"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.78125</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.84375</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="E2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="E3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="E4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/AvlZen/App_Data/AvlZen.xlsx
+++ b/AvlZen/App_Data/AvlZen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Places" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="GoodYoga" sheetId="10" r:id="rId10"/>
     <sheet name="AvlHapBod" sheetId="11" r:id="rId11"/>
     <sheet name="YmcaWdfn" sheetId="13" r:id="rId12"/>
+    <sheet name="YmcaReut" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_cid31" localSheetId="10">AvlHapBod!$J$3</definedName>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="450">
   <si>
     <t>Code</t>
   </si>
@@ -1362,6 +1363,45 @@
   </si>
   <si>
     <t>AvlYogSng</t>
+  </si>
+  <si>
+    <t>YmcaReut</t>
+  </si>
+  <si>
+    <t>http://www.ymcawnc.org/sites/default/files/Retuer%20GEX%20schedulle%20February%202014%20%20-%208%205x14.pdf</t>
+  </si>
+  <si>
+    <t>YMCA Reuter</t>
+  </si>
+  <si>
+    <t>Flow Yoga</t>
+  </si>
+  <si>
+    <t>Power Yoga</t>
+  </si>
+  <si>
+    <t>Jenna</t>
+  </si>
+  <si>
+    <t>Dynamic Flow Yoga</t>
+  </si>
+  <si>
+    <t>Kids Yoga 4-7 yrs</t>
+  </si>
+  <si>
+    <t>Kristine</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>Mindful Yoga Flow(Yin)</t>
+  </si>
+  <si>
+    <t>Slow Power Flow Yoga</t>
+  </si>
+  <si>
+    <t>Lynn</t>
   </si>
 </sst>
 </file>
@@ -1927,10 +1967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2072,6 +2112,17 @@
         <v>367</v>
       </c>
     </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>437</v>
+      </c>
+      <c r="B13" t="s">
+        <v>439</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>438</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -2079,9 +2130,10 @@
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C8" r:id="rId3"/>
     <hyperlink ref="C12" r:id="rId4"/>
+    <hyperlink ref="C13" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -2656,8 +2708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3010,6 +3062,281 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="D2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D5" t="s">
+        <v>441</v>
+      </c>
+      <c r="E5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="D6" t="s">
+        <v>443</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.28125</v>
+      </c>
+      <c r="D8" t="s">
+        <v>441</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="D9" t="s">
+        <v>440</v>
+      </c>
+      <c r="E9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D11" t="s">
+        <v>441</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="D12" t="s">
+        <v>444</v>
+      </c>
+      <c r="E12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="D13" t="s">
+        <v>441</v>
+      </c>
+      <c r="E13" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D15" t="s">
+        <v>447</v>
+      </c>
+      <c r="E15" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D16" t="s">
+        <v>419</v>
+      </c>
+      <c r="E16" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D18" t="s">
+        <v>441</v>
+      </c>
+      <c r="E18" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D20" t="s">
+        <v>448</v>
+      </c>
+      <c r="E20" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D21" t="s">
+        <v>419</v>
+      </c>
+      <c r="E21" t="s">
+        <v>442</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8859,7 +9186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>

--- a/AvlZen/App_Data/AvlZen.xlsx
+++ b/AvlZen/App_Data/AvlZen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Places" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="AvlHapBod" sheetId="11" r:id="rId11"/>
     <sheet name="YmcaWdfn" sheetId="13" r:id="rId12"/>
     <sheet name="YmcaReut" sheetId="14" r:id="rId13"/>
+    <sheet name="NrshLifeCtr" sheetId="15" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_cid31" localSheetId="10">AvlHapBod!$J$3</definedName>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="460">
   <si>
     <t>Code</t>
   </si>
@@ -1402,6 +1403,36 @@
   </si>
   <si>
     <t>Lynn</t>
+  </si>
+  <si>
+    <t>NrshLifeCtr</t>
+  </si>
+  <si>
+    <t>Nourishing Life Center of Health</t>
+  </si>
+  <si>
+    <t>http://nourishinglife.com/yoga</t>
+  </si>
+  <si>
+    <t>Dao Flow All - Levels 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>Self Practice (sub)</t>
+  </si>
+  <si>
+    <t>Margaret Kirschner</t>
+  </si>
+  <si>
+    <t>Dao Flow Yoga for Women Level 1</t>
+  </si>
+  <si>
+    <t>Dr. Robin Saraswati</t>
+  </si>
+  <si>
+    <t>Dao Flow Yoga for Women Levels 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>Dao Flow Yoga for Women Level 2</t>
   </si>
 </sst>
 </file>
@@ -1967,10 +1998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2123,6 +2154,17 @@
         <v>438</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>450</v>
+      </c>
+      <c r="B14" t="s">
+        <v>451</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>452</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -2131,9 +2173,10 @@
     <hyperlink ref="C8" r:id="rId3"/>
     <hyperlink ref="C12" r:id="rId4"/>
     <hyperlink ref="C13" r:id="rId5"/>
+    <hyperlink ref="C14" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -3069,7 +3112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -3333,6 +3376,145 @@
       </c>
       <c r="E21" t="s">
         <v>442</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="D2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="D4" t="s">
+        <v>403</v>
+      </c>
+      <c r="E4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="D8" t="s">
+        <v>458</v>
+      </c>
+      <c r="E8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="D9" t="s">
+        <v>453</v>
+      </c>
+      <c r="E9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D11" t="s">
+        <v>459</v>
+      </c>
+      <c r="E11" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/AvlZen/App_Data/AvlZen.xlsx
+++ b/AvlZen/App_Data/AvlZen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Places" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="473">
   <si>
     <t>Code</t>
   </si>
@@ -1433,6 +1433,45 @@
   </si>
   <si>
     <t>Dao Flow Yoga for Women Level 2</t>
+  </si>
+  <si>
+    <t>8 Brookdale Rd. Suite A Asheville, NC. 28804</t>
+  </si>
+  <si>
+    <t>239 S Liberty St. Asheville, NC 28801</t>
+  </si>
+  <si>
+    <t>120 Coxe Avenue, St. 3B, Asheville, NC 28801</t>
+  </si>
+  <si>
+    <t>602 Haywood Road, Asheville, NC 28806</t>
+  </si>
+  <si>
+    <t>802 Fairview Rd. Ste 100 Asheville, NC. 28803</t>
+  </si>
+  <si>
+    <t>65A Biltmore Avenue Asheville, NC 28801</t>
+  </si>
+  <si>
+    <t>4 Richmond Ave, Asheville, NC 28806</t>
+  </si>
+  <si>
+    <t>1378 Hendersonville Rd.  Asheville, NC, 28803</t>
+  </si>
+  <si>
+    <t>19 Olney Rd. Asheville, NC 28806</t>
+  </si>
+  <si>
+    <t>207 Weaverville Hwy Asheville, NC 28804</t>
+  </si>
+  <si>
+    <t>30 Woodfin Street, Asheville, NC 28801</t>
+  </si>
+  <si>
+    <t>3 Town Square Boulevard, Asheville, NC 28803</t>
+  </si>
+  <si>
+    <t>Address</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1671,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -1702,6 +1741,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1998,10 +2040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2009,9 +2051,10 @@
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" customWidth="1"/>
     <col min="3" max="3" width="63.85546875" customWidth="1"/>
+    <col min="4" max="4" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2021,8 +2064,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2032,8 +2078,11 @@
       <c r="C2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2043,8 +2092,11 @@
       <c r="C3" s="11" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="28" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2054,8 +2106,11 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2065,8 +2120,11 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2076,8 +2134,11 @@
       <c r="C6" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>368</v>
       </c>
@@ -2087,8 +2148,11 @@
       <c r="C7" s="11" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>359</v>
       </c>
@@ -2098,8 +2162,11 @@
       <c r="C8" s="11" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>436</v>
       </c>
@@ -2109,8 +2176,11 @@
       <c r="C9" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>360</v>
       </c>
@@ -2120,8 +2190,11 @@
       <c r="C10" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>363</v>
       </c>
@@ -2131,8 +2204,11 @@
       <c r="C11" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>435</v>
       </c>
@@ -2142,8 +2218,11 @@
       <c r="C12" s="11" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>437</v>
       </c>
@@ -2153,8 +2232,11 @@
       <c r="C13" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>450</v>
       </c>
@@ -2163,6 +2245,9 @@
       </c>
       <c r="C14" s="11" t="s">
         <v>452</v>
+      </c>
+      <c r="D14" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -3387,7 +3472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>

--- a/AvlZen/App_Data/AvlZen.xlsx
+++ b/AvlZen/App_Data/AvlZen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="907" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Places" sheetId="1" r:id="rId1"/>
@@ -48,12 +48,12 @@
     <definedName name="Tue" localSheetId="6">HotYogAvl!#REF!</definedName>
     <definedName name="Wed" localSheetId="6">HotYogAvl!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="472">
   <si>
     <t>Code</t>
   </si>
@@ -151,12 +151,6 @@
     <t>Lisa</t>
   </si>
   <si>
-    <t>Yin Flow (Level 1 &amp; 2) -</t>
-  </si>
-  <si>
-    <t>Flow Yoga (Level 1 and 2)</t>
-  </si>
-  <si>
     <t>Alex</t>
   </si>
   <si>
@@ -166,9 +160,6 @@
     <t>Nicky</t>
   </si>
   <si>
-    <t>Beginner Yoga</t>
-  </si>
-  <si>
     <t>Leaflin</t>
   </si>
   <si>
@@ -271,12 +262,6 @@
     <t>Cindy Dollar</t>
   </si>
   <si>
-    <t>Gentle Yoga &amp; Qigong</t>
-  </si>
-  <si>
-    <t>Linda Cammarata</t>
-  </si>
-  <si>
     <t>Yoga for Women''s Health/All Levels</t>
   </si>
   <si>
@@ -298,9 +283,6 @@
     <t>6-Week - Iyengar Slow Yoga</t>
   </si>
   <si>
-    <t>Deeply Rest Through Sleep</t>
-  </si>
-  <si>
     <t>Surya Yoga: Morning Practice all level, not great for beginners</t>
   </si>
   <si>
@@ -316,15 +298,6 @@
     <t>Jaime</t>
   </si>
   <si>
-    <t>Gentle Therapeutics for Pain Managementn</t>
-  </si>
-  <si>
-    <t>Anna Ferguso</t>
-  </si>
-  <si>
-    <t>Living in Alignment Yoga 2 level</t>
-  </si>
-  <si>
     <t>Deirdre</t>
   </si>
   <si>
@@ -646,9 +619,6 @@
     <t>Deirdre Smith Gilmer</t>
   </si>
   <si>
-    <t>Nicole Kintz (2)</t>
-  </si>
-  <si>
     <t>Women Over 50-Level 1/11</t>
   </si>
   <si>
@@ -664,9 +634,6 @@
     <t>Alignment -All Levels</t>
   </si>
   <si>
-    <t>Nicole Kintz (3)</t>
-  </si>
-  <si>
     <t>Rachel Fagan</t>
   </si>
   <si>
@@ -751,12 +718,6 @@
     <t>Lea</t>
   </si>
   <si>
-    <t>Belle</t>
-  </si>
-  <si>
-    <t>Elle Jai</t>
-  </si>
-  <si>
     <t>Susan R.</t>
   </si>
   <si>
@@ -781,9 +742,6 @@
     <t>Vinyasa Flow (All levels)*</t>
   </si>
   <si>
-    <t>Vinyasa Flow (Level 1 &amp; 2) – Cancelled February 3rd and 10th</t>
-  </si>
-  <si>
     <t>Yin and Flow (Level 1 and 2)</t>
   </si>
   <si>
@@ -862,18 +820,9 @@
     <t>Kimberly Drye</t>
   </si>
   <si>
-    <t>Focused Flow 1&amp;2 level</t>
-  </si>
-  <si>
-    <t>Gentle Yoga all level</t>
-  </si>
-  <si>
     <t>Rise and Shine Kundalini Yoga all level</t>
   </si>
   <si>
-    <t>Living in Alignment Yoga 1&amp;2 level</t>
-  </si>
-  <si>
     <t>Women's Yoga all level</t>
   </si>
   <si>
@@ -910,9 +859,6 @@
     <t>Guided Meditation (All Levels)*</t>
   </si>
   <si>
-    <t>Yoga for Health and Happiness (Level 1)</t>
-  </si>
-  <si>
     <t>Yoga Basics for Beginners</t>
   </si>
   <si>
@@ -961,21 +907,12 @@
     <t>Gentle Flow (Level 1 &amp; 2)</t>
   </si>
   <si>
-    <t>Yoga for Senirs (All Levels, Beginner’s Welcome)</t>
-  </si>
-  <si>
     <t>Guided Meditation (All Levels)</t>
   </si>
   <si>
     <t>Warm Vinyasa Flow (Level 1 &amp; 2)</t>
   </si>
   <si>
-    <t>Gentle Yoga for All (All levels)</t>
-  </si>
-  <si>
-    <t>Yin Yoga (All levels, Beginners Welcome)</t>
-  </si>
-  <si>
     <t>Restorative Yoga with Didgeridoo Meditation</t>
   </si>
   <si>
@@ -1387,9 +1324,6 @@
     <t>Dynamic Flow Yoga</t>
   </si>
   <si>
-    <t>Kids Yoga 4-7 yrs</t>
-  </si>
-  <si>
     <t>Kristine</t>
   </si>
   <si>
@@ -1472,6 +1406,69 @@
   </si>
   <si>
     <t>Address</t>
+  </si>
+  <si>
+    <t>Yoga Lab</t>
+  </si>
+  <si>
+    <t>Jivamukti</t>
+  </si>
+  <si>
+    <t>Mommy and Baby Fitness</t>
+  </si>
+  <si>
+    <t>Lizzy</t>
+  </si>
+  <si>
+    <t>Prenatal Yoga with Therapeutics</t>
+  </si>
+  <si>
+    <t>Freedom of Movements w/ Therapeutics</t>
+  </si>
+  <si>
+    <t>Focused Flow 1&amp;2 level</t>
+  </si>
+  <si>
+    <t>Gentle Yoga all level</t>
+  </si>
+  <si>
+    <t>Yoga Basics level 1</t>
+  </si>
+  <si>
+    <t>Mili Perez</t>
+  </si>
+  <si>
+    <t>2-Hour Building Core Strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinyasa Flow (Level 1 &amp; 2) </t>
+  </si>
+  <si>
+    <t>Yoga for Women (All Levels)</t>
+  </si>
+  <si>
+    <t>Kripalu Vinyasa (Level 1 &amp; 2)</t>
+  </si>
+  <si>
+    <t>Gentle Flow (Level 1 - Beginners Welcome)</t>
+  </si>
+  <si>
+    <t>Gentle Yoga for All (All levels - Beginners Welcome)</t>
+  </si>
+  <si>
+    <t>Yin Yoga (All levels - Beginners Welcome)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO MARCH SCHEDULE UP </t>
+  </si>
+  <si>
+    <t>MARCH SCHEDULE NOT UPDATED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHANGE CONTACT LINK TO: </t>
+  </si>
+  <si>
+    <t>http://www.ymcawnc.org/schedules</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1478,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1531,6 +1528,20 @@
       <sz val="8"/>
       <color indexed="16"/>
       <name val="Inherit"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1666,12 +1677,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -1701,7 +1712,7 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1714,7 +1725,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1736,7 +1747,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1744,6 +1755,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2042,7 +2068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2065,7 +2091,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2076,10 +2102,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="D2" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2090,10 +2116,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2107,7 +2133,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2121,7 +2147,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2132,122 +2158,122 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="D6" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="B7" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="D7" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="B8" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="B9" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="C9" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="D9" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="B10" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="C10" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="D10" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="B11" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="C11" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="D11" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="B12" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="D12" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="B13" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="D13" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="B14" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="D14" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -2270,7 +2296,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:IV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2283,24 +2309,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B2" s="7">
         <v>0.41666666666666669</v>
@@ -2309,15 +2335,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B3" s="7">
         <v>0.77083333333333337</v>
@@ -2326,10 +2352,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D3" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75">
@@ -2348,10 +2374,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D5" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75">
@@ -2365,10 +2391,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D6" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75">
@@ -2378,7 +2404,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B8" s="7">
         <v>0.41666666666666669</v>
@@ -2387,15 +2413,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D8" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B9" s="7">
         <v>0.58333333333333337</v>
@@ -2404,10 +2430,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D9" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75">
@@ -2417,7 +2443,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B11" s="7">
         <v>0.41666666666666669</v>
@@ -2426,15 +2452,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D11" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B12" s="7">
         <v>0.77083333333333337</v>
@@ -2443,10 +2469,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75">
@@ -2456,7 +2482,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.75">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B14" s="7">
         <v>0.41666666666666669</v>
@@ -2465,10 +2491,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D14" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75">
@@ -2498,7 +2524,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2511,19 +2537,19 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2537,17 +2563,17 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D2" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="H2" s="20"/>
       <c r="L2" s="21"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B3" s="7">
         <v>0.25</v>
@@ -2556,10 +2582,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="E3" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="H3" s="22"/>
       <c r="I3" s="17"/>
@@ -2569,7 +2595,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B4" s="7">
         <v>0.25</v>
@@ -2578,10 +2604,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D4" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="E4" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="H4" s="22"/>
       <c r="I4" s="17"/>
@@ -2591,7 +2617,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B5" s="7">
         <v>0.35416666666666669</v>
@@ -2600,10 +2626,10 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D5" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="E5" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="17"/>
@@ -2613,7 +2639,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B6" s="7">
         <v>0.39583333333333331</v>
@@ -2622,10 +2648,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D6" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="E6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="H6" s="22"/>
       <c r="I6" s="17"/>
@@ -2834,10 +2860,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2846,26 +2872,26 @@
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B2" s="7">
         <v>0.3125</v>
@@ -2874,15 +2900,20 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="E2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>394</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B3" s="7">
         <v>0.66666666666666663</v>
@@ -2891,15 +2922,18 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D3" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="E3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>396</v>
+      </c>
+      <c r="G3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B4" s="7">
         <v>0.79166666666666663</v>
@@ -2908,13 +2942,13 @@
         <v>0.84375</v>
       </c>
       <c r="D4" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="E4" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2925,13 +2959,13 @@
         <v>0.40625</v>
       </c>
       <c r="D6" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2942,32 +2976,32 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="D7" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="E7" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="7">
-        <v>0.60416666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="C8" s="7">
         <v>0.82291666666666663</v>
       </c>
       <c r="D8" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="E8" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B10" s="7">
         <v>0.46875</v>
@@ -2976,15 +3010,15 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D10" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="E10" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B11" s="7">
         <v>0.5625</v>
@@ -2993,15 +3027,15 @@
         <v>0.625</v>
       </c>
       <c r="D11" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="E11" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B12" s="7">
         <v>0.71875</v>
@@ -3010,15 +3044,15 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D12" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="E12" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B14" s="7">
         <v>0.35416666666666669</v>
@@ -3027,15 +3061,15 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D14" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="E14" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B15" s="7">
         <v>0.77083333333333337</v>
@@ -3044,15 +3078,15 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D15" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="E15" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B17" s="7">
         <v>0.3125</v>
@@ -3061,15 +3095,15 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D17" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="E17" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B18" s="7">
         <v>0.5625</v>
@@ -3078,15 +3112,15 @@
         <v>0.625</v>
       </c>
       <c r="D18" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="E18" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B19" s="7">
         <v>0.78125</v>
@@ -3095,15 +3129,15 @@
         <v>0.84375</v>
       </c>
       <c r="D19" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="E19" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B21" s="7">
         <v>0.35416666666666669</v>
@@ -3112,15 +3146,15 @@
         <v>0.40625</v>
       </c>
       <c r="D21" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="E21" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B22" s="7">
         <v>0.45833333333333331</v>
@@ -3129,15 +3163,15 @@
         <v>0.5</v>
       </c>
       <c r="D22" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E22" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B23" s="7">
         <v>0.47916666666666669</v>
@@ -3146,15 +3180,15 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D23" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="E23" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B25" s="7">
         <v>0.55208333333333337</v>
@@ -3163,15 +3197,15 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D25" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="E25" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B26" s="7">
         <v>0.67708333333333337</v>
@@ -3180,10 +3214,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D26" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="E26" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -3195,10 +3229,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3208,26 +3242,29 @@
     <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" s="32" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B2" s="7">
         <v>0.39583333333333331</v>
@@ -3236,15 +3273,18 @@
         <v>0.4375</v>
       </c>
       <c r="D2" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="G2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B3" s="7">
         <v>0.4375</v>
@@ -3253,13 +3293,13 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3270,13 +3310,13 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D5" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="E5" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3287,32 +3327,19 @@
         <v>0.8125</v>
       </c>
       <c r="D6" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="7">
-        <v>0.23958333333333334</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.28125</v>
-      </c>
-      <c r="D8" t="s">
-        <v>441</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    <row r="8" spans="1:7">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B9" s="7">
         <v>0.39583333333333331</v>
@@ -3321,15 +3348,15 @@
         <v>0.4375</v>
       </c>
       <c r="D9" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="E9" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B11" s="7">
         <v>0.4375</v>
@@ -3338,133 +3365,101 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D11" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B12" s="7">
-        <v>0.67708333333333337</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="C12" s="7">
-        <v>0.71875</v>
+        <v>0.8125</v>
       </c>
       <c r="D12" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="E12" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="7">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.8125</v>
-      </c>
-      <c r="D13" t="s">
-        <v>441</v>
-      </c>
-      <c r="E13" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="7">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="7">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C14" s="7">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D15" t="s">
-        <v>447</v>
-      </c>
-      <c r="E15" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="D14" t="s">
+        <v>425</v>
+      </c>
+      <c r="E14" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B16" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.46875</v>
       </c>
       <c r="C16" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D16" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E16" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B18" s="7">
-        <v>0.46875</v>
+        <v>0.5625</v>
       </c>
       <c r="C18" s="7">
-        <v>0.51041666666666663</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="D18" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="E18" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" s="7">
-        <v>0.5625</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="D20" t="s">
-        <v>448</v>
-      </c>
-      <c r="E20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="7">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="7">
         <v>0.625</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C19" s="7">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D21" t="s">
-        <v>419</v>
-      </c>
-      <c r="E21" t="s">
-        <v>442</v>
+      <c r="D19" t="s">
+        <v>398</v>
+      </c>
+      <c r="E19" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3473,7 +3468,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3485,24 +3480,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B2" s="7">
         <v>0.66666666666666663</v>
@@ -3511,10 +3506,10 @@
         <v>0.71875</v>
       </c>
       <c r="D2" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="E2" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3528,15 +3523,15 @@
         <v>0.4375</v>
       </c>
       <c r="D4" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="E4" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B6" s="7">
         <v>0.72916666666666663</v>
@@ -3545,15 +3540,15 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D6" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="E6" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B8" s="7">
         <v>0.39583333333333331</v>
@@ -3562,15 +3557,15 @@
         <v>0.4375</v>
       </c>
       <c r="D8" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="E8" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B9" s="7">
         <v>0.66666666666666663</v>
@@ -3579,15 +3574,15 @@
         <v>0.71875</v>
       </c>
       <c r="D9" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="E9" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B11" s="7">
         <v>0.45833333333333331</v>
@@ -3596,23 +3591,24 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D11" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="E11" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3624,26 +3620,27 @@
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B2" s="7">
         <v>0.28125</v>
@@ -3652,15 +3649,16 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>35</v>
+      </c>
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B3" s="7">
         <v>0.33333333333333331</v>
@@ -3669,15 +3667,16 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>242</v>
+        <v>462</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>195</v>
+      </c>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B4" s="7">
         <v>0.35416666666666669</v>
@@ -3686,15 +3685,15 @@
         <v>0.40625</v>
       </c>
       <c r="D4" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="E4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B5" s="7">
         <v>0.39583333333333331</v>
@@ -3703,15 +3702,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D5" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="E5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B6" s="7">
         <v>0.41666666666666669</v>
@@ -3723,12 +3722,12 @@
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B7" s="7">
         <v>0.48958333333333331</v>
@@ -3737,15 +3736,15 @@
         <v>0.53125</v>
       </c>
       <c r="D7" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="E7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B8" s="7">
         <v>0.51041666666666663</v>
@@ -3754,15 +3753,15 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D8" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="E8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B9" s="7">
         <v>0.59375</v>
@@ -3771,15 +3770,15 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D9" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="E9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B10" s="7">
         <v>0.66666666666666663</v>
@@ -3788,15 +3787,15 @@
         <v>0.71875</v>
       </c>
       <c r="D10" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="E10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B11" s="7">
         <v>0.70833333333333337</v>
@@ -3805,15 +3804,15 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D11" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="E11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B12" s="7">
         <v>0.75</v>
@@ -3822,18 +3821,18 @@
         <v>0.8125</v>
       </c>
       <c r="D12" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B13" s="7">
-        <v>0.75</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="C13" s="7">
         <v>0.82291666666666663</v>
@@ -3842,12 +3841,12 @@
         <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B14" s="7">
         <v>0.83333333333333337</v>
@@ -3856,14 +3855,14 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="D14" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="E14" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -3879,8 +3878,9 @@
       <c r="E16" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F16" s="31"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -3896,8 +3896,9 @@
       <c r="E17" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F17" s="31"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1">
       <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
@@ -3913,8 +3914,9 @@
       <c r="E18" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F18" s="31"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1">
       <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
@@ -3930,8 +3932,9 @@
       <c r="E19" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F19" s="31"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1">
       <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
@@ -3947,8 +3950,9 @@
       <c r="E20" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F20" s="31"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -3964,8 +3968,9 @@
       <c r="E21" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F21" s="31"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1">
       <c r="A22" s="4" t="s">
         <v>15</v>
       </c>
@@ -3981,8 +3986,9 @@
       <c r="E22" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F22" s="31"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1">
       <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
@@ -3998,25 +4004,27 @@
       <c r="E23" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F23" s="31"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1">
       <c r="A24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="5">
-        <v>0.59375</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C24" s="5">
-        <v>0.64583333333333337</v>
+        <v>0.71875</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F24" s="31"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" thickBot="1">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -4024,7 +4032,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C25" s="5">
-        <v>0.71875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>33</v>
@@ -4032,25 +4040,27 @@
       <c r="E25" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F25" s="33"/>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickBot="1">
       <c r="A26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="5">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="C26" s="5">
-        <v>0.72916666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>35</v>
+        <v>463</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1">
+        <v>199</v>
+      </c>
+      <c r="F26" s="33"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" thickBot="1">
       <c r="A27" s="4" t="s">
         <v>15</v>
       </c>
@@ -4058,137 +4068,144 @@
         <v>0.75</v>
       </c>
       <c r="C27" s="5">
-        <v>0.8125</v>
+        <v>0.80902777777777779</v>
       </c>
       <c r="D27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F27" s="33"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1">
       <c r="A28" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="5">
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C28" s="5">
-        <v>0.80902777777777779</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="D28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C29" s="5">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F28" s="31"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.28125</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D30" t="s">
+        <v>228</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B31" s="7">
-        <v>0.28125</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C31" s="7">
-        <v>0.32291666666666669</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="D31" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>88</v>
+      </c>
+      <c r="F31" s="31"/>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B32" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C32" s="7">
-        <v>0.38541666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D32" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>204</v>
+      </c>
+      <c r="F32" s="31"/>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B33" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C33" s="7">
         <v>0.45833333333333331</v>
       </c>
       <c r="D33" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>205</v>
+      </c>
+      <c r="F33" s="31"/>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B34" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.46875</v>
       </c>
       <c r="C34" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="D34" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="8" t="s">
-        <v>105</v>
+        <v>206</v>
+      </c>
+      <c r="F34" s="31"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75">
+      <c r="A35" s="34" t="s">
+        <v>96</v>
       </c>
       <c r="B35" s="7">
-        <v>0.46875</v>
+        <v>0.5</v>
       </c>
       <c r="C35" s="7">
-        <v>0.48958333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D35" t="s">
-        <v>284</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>465</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="33"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75">
       <c r="A36" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B36" s="7">
         <v>0.51041666666666663</v>
@@ -4200,773 +4217,749 @@
         <v>26</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>207</v>
+      </c>
+      <c r="F36" s="33"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75">
       <c r="A37" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B37" s="7">
-        <v>0.5</v>
+        <v>0.59375</v>
       </c>
       <c r="C37" s="7">
-        <v>0.55208333333333337</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="D37" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>209</v>
+      </c>
+      <c r="F37" s="33"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75">
       <c r="A38" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B38" s="7">
         <v>0.59375</v>
       </c>
       <c r="C38" s="7">
-        <v>0.64583333333333337</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="D38" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>210</v>
+      </c>
+      <c r="F38" s="33"/>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B39" s="7">
-        <v>0.59375</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C39" s="7">
-        <v>0.63541666666666663</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="D39" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>211</v>
+      </c>
+      <c r="F39" s="31"/>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B40" s="7">
         <v>0.66666666666666663</v>
       </c>
       <c r="C40" s="7">
-        <v>0.69791666666666663</v>
+        <v>0.71875</v>
       </c>
       <c r="D40" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>212</v>
+      </c>
+      <c r="F40" s="31"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75">
       <c r="A41" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B41" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D41" t="s">
+        <v>272</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" s="33"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D42" t="s">
+        <v>273</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="31"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="D43" t="s">
+        <v>272</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F43" s="31"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D44" t="s">
+        <v>274</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F44" s="31"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="F45" s="31"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D46" t="s">
+        <v>275</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="31"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75">
+      <c r="A47" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="7">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.34375</v>
+      </c>
+      <c r="D47" t="s">
+        <v>276</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F47" s="33"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D48" t="s">
+        <v>277</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F48" s="31"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D49" t="s">
+        <v>278</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F49" s="31"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75">
+      <c r="A50" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F50" s="33"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D51" t="s">
+        <v>279</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F51" s="31"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="7">
+        <v>0.59375</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="D52" t="s">
+        <v>280</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F52" s="31"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="7">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C53" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F53" s="31"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D54" t="s">
+        <v>281</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F54" s="31"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="7">
         <v>0.71875</v>
       </c>
-      <c r="D41" t="s">
-        <v>289</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" s="7">
-        <v>0.71875</v>
-      </c>
-      <c r="C42" s="7">
+      <c r="C55" s="7">
         <v>0.76041666666666663</v>
       </c>
-      <c r="D42" t="s">
-        <v>290</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B43" s="7">
+      <c r="D55" t="s">
+        <v>465</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F55" s="31"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="7">
         <v>0.77083333333333337</v>
       </c>
-      <c r="C43" s="7">
-        <v>0.82291666666666663</v>
-      </c>
-      <c r="D43" t="s">
-        <v>291</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="7">
-        <v>0.82291666666666663</v>
-      </c>
-      <c r="C44" s="7">
-        <v>0.875</v>
-      </c>
-      <c r="D44" t="s">
-        <v>290</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B45" s="7">
+      <c r="C56" s="7">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C45" s="7">
+      <c r="D56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" s="31"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C57" s="7">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D45" t="s">
-        <v>292</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B47" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="C47" s="7">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D47" t="s">
-        <v>293</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" s="7">
-        <v>0.30208333333333331</v>
-      </c>
-      <c r="C48" s="7">
-        <v>0.34375</v>
-      </c>
-      <c r="D48" t="s">
-        <v>294</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B49" s="7">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="C49" s="7">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D49" t="s">
-        <v>295</v>
-      </c>
-      <c r="E49" s="8" t="s">
+      <c r="D57" t="s">
+        <v>272</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" s="7">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C50" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D50" t="s">
-        <v>296</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B51" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C51" s="7">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B52" s="7">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="C52" s="7">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="D52" t="s">
-        <v>297</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B53" s="7">
-        <v>0.59375</v>
-      </c>
-      <c r="C53" s="7">
-        <v>0.64930555555555558</v>
-      </c>
-      <c r="D53" t="s">
-        <v>298</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" s="7">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C54" s="7">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D54" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B55" s="7">
-        <v>0.6875</v>
-      </c>
-      <c r="C55" s="7">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D55" t="s">
-        <v>299</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B56" s="7">
-        <v>0.71875</v>
-      </c>
-      <c r="C56" s="7">
-        <v>0.76041666666666663</v>
-      </c>
-      <c r="D56" t="s">
-        <v>132</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B57" s="7">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="C57" s="7">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D57" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" s="31"/>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B58" s="7">
-        <v>0.83333333333333337</v>
+        <v>0.84375</v>
       </c>
       <c r="C58" s="7">
         <v>0.89583333333333337</v>
       </c>
       <c r="D58" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B59" s="7">
-        <v>0.84375</v>
-      </c>
-      <c r="C59" s="7">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="D59" t="s">
-        <v>300</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>220</v>
+      </c>
+      <c r="F58" s="31"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="8"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="31"/>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B61" s="7">
-        <v>0.32291666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C61" s="7">
-        <v>0.375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>283</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="F61" s="31"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.75">
       <c r="A62" s="8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B62" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.46875</v>
       </c>
       <c r="C62" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="D62" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>209</v>
+      </c>
+      <c r="F62" s="33"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.75">
       <c r="A63" s="8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B63" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="C63" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="D63" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="F63" s="33"/>
+    </row>
+    <row r="64" spans="1:6" ht="15.75">
       <c r="A64" s="8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B64" s="7">
-        <v>0.46875</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="C64" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="D64" t="s">
+        <v>466</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F64" s="33"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.75">
+      <c r="A65" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" s="7">
+        <v>0.59375</v>
+      </c>
+      <c r="C65" s="7">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="D65" t="s">
+        <v>467</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F65" s="33"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C66" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="D66" t="s">
+        <v>286</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F66" s="31"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.75">
+      <c r="A67" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="7">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C67" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="D67" t="s">
+        <v>287</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F67" s="33"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="8"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="E68" s="8"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B70" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C70" s="7">
+        <v>0.40625</v>
+      </c>
+      <c r="D70" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" s="7">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C71" s="7">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D64" t="s">
-        <v>303</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B65" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C65" s="7">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="D65" t="s">
-        <v>304</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B66" s="7">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="C66" s="7">
-        <v>0.5625</v>
-      </c>
-      <c r="D66" t="s">
-        <v>305</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B67" s="7">
-        <v>0.59375</v>
-      </c>
-      <c r="C67" s="7">
-        <v>0.64930555555555558</v>
-      </c>
-      <c r="D67" t="s">
-        <v>306</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B68" s="7">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C68" s="7">
-        <v>0.71875</v>
-      </c>
-      <c r="D68" t="s">
-        <v>307</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B69" s="7">
-        <v>0.67708333333333337</v>
-      </c>
-      <c r="C69" s="7">
-        <v>0.71875</v>
-      </c>
-      <c r="D69" t="s">
-        <v>308</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B70" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="C70" s="7">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D70" t="s">
-        <v>304</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="D71" t="s">
+        <v>288</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F71" s="31"/>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B72" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="C72" s="7">
-        <v>0.40625</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="D72" t="s">
         <v>26</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>32</v>
+      </c>
+      <c r="F72" s="31"/>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B73" s="7">
-        <v>0.42708333333333331</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="C73" s="7">
-        <v>0.48958333333333331</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="D73" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>39</v>
+      </c>
+      <c r="F73" s="31"/>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B74" s="7">
-        <v>0.4375</v>
+        <v>0.59375</v>
       </c>
       <c r="C74" s="7">
-        <v>0.48958333333333331</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="D74" t="s">
-        <v>26</v>
+        <v>283</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>226</v>
+      </c>
+      <c r="F74" s="31"/>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B75" s="7">
-        <v>0.51041666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="C75" s="7">
-        <v>0.57291666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D75" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B76" s="7">
+        <v>213</v>
+      </c>
+      <c r="F75" s="31"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="F76" s="31"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C77" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D77" t="s">
+        <v>290</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="C78" s="7">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D78" t="s">
+        <v>291</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F78" s="31"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" s="7">
+        <v>0.53125</v>
+      </c>
+      <c r="C79" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D79" t="s">
+        <v>292</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F79" s="31"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80" s="7">
         <v>0.59375</v>
       </c>
-      <c r="C76" s="7">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="D76" t="s">
-        <v>301</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B77" s="7">
+      <c r="C80" s="7">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C77" s="7">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D77" t="s">
-        <v>310</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B79" s="7">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C79" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D79" t="s">
-        <v>311</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B80" s="7">
-        <v>0.46875</v>
-      </c>
-      <c r="C80" s="7">
-        <v>0.52083333333333337</v>
-      </c>
       <c r="D80" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>218</v>
+      </c>
+      <c r="F80" s="31"/>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="8" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B81" s="7">
-        <v>0.53125</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C81" s="7">
-        <v>0.58333333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D81" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="F81" s="31"/>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="8" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B82" s="7">
-        <v>0.59375</v>
+        <v>0.75</v>
       </c>
       <c r="C82" s="7">
-        <v>0.64583333333333337</v>
+        <v>0.80208333333333337</v>
       </c>
       <c r="D82" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B83" s="7">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C83" s="7">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D83" t="s">
-        <v>315</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B84" s="7">
-        <v>0.67708333333333337</v>
-      </c>
-      <c r="C84" s="7">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D84" t="s">
-        <v>294</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B85" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="C85" s="7">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="D85" t="s">
-        <v>316</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>240</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="F82" s="31"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="F83" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4979,8 +4972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4993,24 +4986,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B2" s="7">
         <v>0.29166666666666669</v>
@@ -5019,15 +5012,15 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B3" s="7">
         <v>0.36458333333333331</v>
@@ -5036,15 +5029,15 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B4" s="7">
         <v>0.42708333333333331</v>
@@ -5053,15 +5046,15 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B5" s="7">
         <v>0.51041666666666663</v>
@@ -5070,15 +5063,15 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B6" s="7">
         <v>0.58333333333333337</v>
@@ -5087,15 +5080,15 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B7" s="7">
         <v>0.66666666666666663</v>
@@ -5104,15 +5097,15 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B8" s="7">
         <v>0.72916666666666663</v>
@@ -5121,15 +5114,15 @@
         <v>0.78125</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B9" s="7">
         <v>0.72916666666666663</v>
@@ -5138,15 +5131,15 @@
         <v>0.78125</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B10" s="7">
         <v>0.79166666666666663</v>
@@ -5155,15 +5148,15 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B11" s="7">
         <v>0.79166666666666663</v>
@@ -5172,10 +5165,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1"/>
@@ -5190,10 +5183,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1">
@@ -5207,10 +5200,10 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1">
@@ -5224,10 +5217,10 @@
         <v>0.4375</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1">
@@ -5241,10 +5234,10 @@
         <v>0.5</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1">
@@ -5258,10 +5251,10 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1">
@@ -5275,10 +5268,10 @@
         <v>0.65625</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1">
@@ -5292,10 +5285,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1">
@@ -5309,10 +5302,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1">
@@ -5326,10 +5319,10 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1">
@@ -5343,10 +5336,10 @@
         <v>0.84375</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1">
@@ -5360,15 +5353,15 @@
         <v>0.84375</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B25" s="7">
         <v>0.29166666666666669</v>
@@ -5377,15 +5370,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E25" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B26" s="7">
         <v>0.34375</v>
@@ -5394,15 +5387,15 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B27" s="7">
         <v>0.39583333333333331</v>
@@ -5411,15 +5404,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B28" s="7">
         <v>0.51041666666666663</v>
@@ -5428,15 +5421,15 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B29" s="7">
         <v>0.60416666666666663</v>
@@ -5445,15 +5438,15 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B30" s="7">
         <v>0.66666666666666663</v>
@@ -5462,15 +5455,15 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B31" s="7">
         <v>0.72916666666666663</v>
@@ -5479,15 +5472,15 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B32" s="7">
         <v>0.72916666666666663</v>
@@ -5496,15 +5489,15 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B33" s="7">
         <v>0.78125</v>
@@ -5513,15 +5506,15 @@
         <v>0.84375</v>
       </c>
       <c r="D33" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B34" s="7">
         <v>0.80208333333333337</v>
@@ -5530,15 +5523,15 @@
         <v>0.84375</v>
       </c>
       <c r="D34" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B36" s="7">
         <v>0.29166666666666669</v>
@@ -5547,15 +5540,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D36" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E36" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B37" s="7">
         <v>0.34375</v>
@@ -5564,15 +5557,15 @@
         <v>0.40625</v>
       </c>
       <c r="D37" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B38" s="7">
         <v>0.41666666666666669</v>
@@ -5581,15 +5574,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E38" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B39" s="7">
         <v>0.51041666666666663</v>
@@ -5598,15 +5591,15 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B40" s="7">
         <v>0.59375</v>
@@ -5615,15 +5608,15 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E40" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B41" s="7">
         <v>0.64583333333333337</v>
@@ -5632,15 +5625,15 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D41" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E41" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B42" s="7">
         <v>0.72916666666666663</v>
@@ -5649,15 +5642,15 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D42" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E42" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B43" s="7">
         <v>0.72916666666666663</v>
@@ -5666,15 +5659,15 @@
         <v>0.78125</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B44" s="7">
         <v>0.79166666666666663</v>
@@ -5683,15 +5676,15 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D44" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E44" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B45" s="7">
         <v>0.80208333333333337</v>
@@ -5700,15 +5693,15 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="D45" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E45" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B47" s="7">
         <v>0.29166666666666669</v>
@@ -5717,15 +5710,15 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D47" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E47" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B48" s="7">
         <v>0.36458333333333331</v>
@@ -5734,15 +5727,15 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E48" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B49" s="7">
         <v>0.4375</v>
@@ -5751,15 +5744,15 @@
         <v>0.5</v>
       </c>
       <c r="D49" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E49" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B50" s="7">
         <v>0.51041666666666663</v>
@@ -5768,15 +5761,15 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D50" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E50" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B51" s="7">
         <v>0.58333333333333337</v>
@@ -5785,15 +5778,15 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D51" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E51" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B52" s="7">
         <v>0.66666666666666663</v>
@@ -5802,15 +5795,15 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D52" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E52" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B53" s="7">
         <v>0.71875</v>
@@ -5819,15 +5812,15 @@
         <v>0.78125</v>
       </c>
       <c r="D53" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E53" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B54" s="7">
         <v>0.79166666666666663</v>
@@ -5836,15 +5829,15 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D54" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B56" s="7">
         <v>0.32291666666666669</v>
@@ -5853,15 +5846,15 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D56" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E56" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B57" s="7">
         <v>0.375</v>
@@ -5870,15 +5863,15 @@
         <v>0.4375</v>
       </c>
       <c r="D57" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E57" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B58" s="7">
         <v>0.45833333333333331</v>
@@ -5887,15 +5880,15 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D58" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E58" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B59" s="7">
         <v>0.54166666666666663</v>
@@ -5904,15 +5897,15 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D59" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E59" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B60" s="7">
         <v>0.59375</v>
@@ -5921,15 +5914,15 @@
         <v>0.65625</v>
       </c>
       <c r="D60" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E60" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B61" s="7">
         <v>0.66666666666666663</v>
@@ -5938,15 +5931,15 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D61" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E61" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="8" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B63" s="7">
         <v>0.33333333333333331</v>
@@ -5955,15 +5948,15 @@
         <v>0.375</v>
       </c>
       <c r="D63" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E63" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="8" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B64" s="7">
         <v>0.39583333333333331</v>
@@ -5972,15 +5965,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D64" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E64" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="8" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B65" s="7">
         <v>0.46875</v>
@@ -5989,15 +5982,15 @@
         <v>0.53125</v>
       </c>
       <c r="D65" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E65" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="8" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B66" s="7">
         <v>0.54166666666666663</v>
@@ -6006,15 +5999,15 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D66" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E66" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="8" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B67" s="7">
         <v>0.66666666666666663</v>
@@ -6023,15 +6016,15 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D67" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E67" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="8" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B68" s="7">
         <v>0.73958333333333337</v>
@@ -6040,15 +6033,15 @@
         <v>0.78125</v>
       </c>
       <c r="D68" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E68" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="8" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B69" s="7">
         <v>0.79166666666666663</v>
@@ -6057,10 +6050,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D69" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E69" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -6071,10 +6064,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6083,26 +6076,29 @@
     <col min="4" max="4" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="H1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B2" s="7">
         <v>0.35416666666666669</v>
@@ -6111,15 +6107,15 @@
         <v>0.40625</v>
       </c>
       <c r="D2" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="E2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B3" s="7">
         <v>0.41666666666666669</v>
@@ -6128,15 +6124,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="E3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B4" s="7">
         <v>0.5</v>
@@ -6145,15 +6141,15 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D4" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B5" s="7">
         <v>0.5625</v>
@@ -6162,15 +6158,15 @@
         <v>0.625</v>
       </c>
       <c r="D5" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="E5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B6" s="7">
         <v>0.66666666666666663</v>
@@ -6179,15 +6175,15 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="D6" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="E6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B7" s="7">
         <v>0.72916666666666663</v>
@@ -6196,15 +6192,15 @@
         <v>0.78125</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B8" s="7">
         <v>0.79166666666666663</v>
@@ -6213,14 +6209,14 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D8" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="E8" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -6231,13 +6227,13 @@
         <v>0.40625</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -6248,13 +6244,13 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -6265,13 +6261,13 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -6282,13 +6278,13 @@
         <v>0.625</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -6299,13 +6295,13 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -6316,13 +6312,13 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -6333,15 +6329,15 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B18" s="7">
         <v>0.375</v>
@@ -6350,15 +6346,15 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D18" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="E18" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B19" s="7">
         <v>0.4375</v>
@@ -6367,15 +6363,15 @@
         <v>0.5</v>
       </c>
       <c r="D19" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="E19" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B20" s="7">
         <v>0.51041666666666663</v>
@@ -6384,15 +6380,15 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D20" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="E20" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B21" s="7">
         <v>0.58333333333333337</v>
@@ -6401,7 +6397,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D21" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E21" t="s">
         <v>31</v>
@@ -6409,7 +6405,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B22" s="7">
         <v>0.64583333333333337</v>
@@ -6418,15 +6414,15 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D22" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B23" s="7">
         <v>0.71875</v>
@@ -6435,15 +6431,15 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D23" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E23" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B24" s="7">
         <v>0.78125</v>
@@ -6452,15 +6448,15 @@
         <v>0.84375</v>
       </c>
       <c r="D24" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="E24" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B26" s="7">
         <v>0.35416666666666669</v>
@@ -6469,15 +6465,15 @@
         <v>0.40625</v>
       </c>
       <c r="D26" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="E26" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B27" s="7">
         <v>0.4375</v>
@@ -6486,15 +6482,15 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D27" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="E27" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B28" s="7">
         <v>0.5</v>
@@ -6503,15 +6499,15 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D28" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="E28" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B29" s="7">
         <v>0.5625</v>
@@ -6520,7 +6516,7 @@
         <v>0.625</v>
       </c>
       <c r="D29" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="E29" t="s">
         <v>27</v>
@@ -6528,7 +6524,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B30" s="7">
         <v>0.66666666666666663</v>
@@ -6537,15 +6533,15 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D30" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="E30" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B31" s="7">
         <v>0.71875</v>
@@ -6554,15 +6550,15 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D31" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="E31" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B32" s="7">
         <v>0.77083333333333337</v>
@@ -6571,15 +6567,15 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D32" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B34" s="7">
         <v>0.375</v>
@@ -6588,15 +6584,15 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D34" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="E34" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B35" s="7">
         <v>0.42708333333333331</v>
@@ -6605,15 +6601,15 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D35" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="E35" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B36" s="7">
         <v>0.5</v>
@@ -6622,15 +6618,15 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D36" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="E36" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B37" s="7">
         <v>0.5625</v>
@@ -6639,7 +6635,7 @@
         <v>0.625</v>
       </c>
       <c r="D37" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="E37" t="s">
         <v>23</v>
@@ -6647,7 +6643,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="8" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B39" s="7">
         <v>0.67708333333333337</v>
@@ -6656,15 +6652,15 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="D39" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="E39" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="8" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B40" s="7">
         <v>0.75</v>
@@ -6673,15 +6669,15 @@
         <v>0.8125</v>
       </c>
       <c r="D40" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E40" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="8" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B41" s="7">
         <v>0.82291666666666663</v>
@@ -6690,10 +6686,10 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="D41" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -6704,10 +6700,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6719,24 +6715,24 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B2" s="7">
         <v>0.33333333333333331</v>
@@ -6745,24 +6741,24 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B3" s="7">
         <v>0.39583333333333331</v>
@@ -6771,24 +6767,24 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B4" s="7">
         <v>0.41666666666666669</v>
@@ -6797,24 +6793,24 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B5" s="7">
         <v>0.5</v>
@@ -6823,24 +6819,24 @@
         <v>0.5625</v>
       </c>
       <c r="D5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F5" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H5" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B6" s="7">
         <v>0.65625</v>
@@ -6849,24 +6845,24 @@
         <v>0.71875</v>
       </c>
       <c r="D6" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F6" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G6" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H6" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B7" s="7">
         <v>0.66666666666666663</v>
@@ -6875,24 +6871,24 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H7" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B8" s="7">
         <v>0.72916666666666663</v>
@@ -6901,24 +6897,24 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G8" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H8" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B9" s="7">
         <v>0.75</v>
@@ -6927,19 +6923,19 @@
         <v>0.8125</v>
       </c>
       <c r="D9" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G9" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H9" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1"/>
@@ -6954,10 +6950,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1">
@@ -6971,10 +6967,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1">
@@ -6982,16 +6978,16 @@
         <v>15</v>
       </c>
       <c r="B13" s="5">
-        <v>0.47916666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="C13" s="5">
-        <v>0.53125</v>
+        <v>0.5625</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1">
@@ -6999,16 +6995,16 @@
         <v>15</v>
       </c>
       <c r="B14" s="5">
-        <v>0.5</v>
+        <v>0.65625</v>
       </c>
       <c r="C14" s="5">
-        <v>0.5625</v>
+        <v>0.71875</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1">
@@ -7016,16 +7012,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="5">
-        <v>0.65625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C15" s="5">
-        <v>0.71875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1">
@@ -7033,16 +7029,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="5">
-        <v>0.66666666666666663</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="C16" s="5">
-        <v>0.72916666666666663</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1">
@@ -7050,622 +7046,605 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>0.72916666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="C17" s="5">
         <v>0.79166666666666663</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="5">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0.84375</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" t="s">
+        <v>165</v>
+      </c>
+      <c r="H19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" t="s">
+        <v>161</v>
+      </c>
+      <c r="H20" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B21" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.40625</v>
       </c>
       <c r="C21" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.46875</v>
       </c>
       <c r="D21" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E21" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F21" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G21" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H21" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B22" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="C22" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.5625</v>
       </c>
       <c r="D22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E22" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="F22" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G22" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H22" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B23" s="7">
-        <v>0.40625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C23" s="7">
-        <v>0.46875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D23" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E23" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F23" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G23" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H23" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B24" s="7">
-        <v>0.5</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="C24" s="7">
-        <v>0.5625</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D24" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G24" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H24" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B25" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="C25" s="7">
-        <v>0.72916666666666663</v>
+        <v>0.80208333333333337</v>
       </c>
       <c r="D25" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E25" t="s">
-        <v>186</v>
+        <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G25" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="7">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D26" t="s">
-        <v>188</v>
-      </c>
-      <c r="E26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" t="s">
-        <v>169</v>
-      </c>
-      <c r="G26" t="s">
-        <v>170</v>
-      </c>
-      <c r="H26" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B27" s="7">
-        <v>0.73958333333333337</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="C27" s="7">
-        <v>0.80208333333333337</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="D27" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="F27" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G27" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="H27" t="s">
-        <v>171</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="D28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E28" t="s">
+        <v>172</v>
+      </c>
+      <c r="F28" t="s">
+        <v>160</v>
+      </c>
+      <c r="G28" t="s">
+        <v>161</v>
+      </c>
+      <c r="H28" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B29" s="7">
-        <v>0.29166666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C29" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D29" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="F29" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G29" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H29" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B30" s="7">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="C30" s="7">
-        <v>0.4375</v>
+        <v>0.5625</v>
       </c>
       <c r="D30" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E30" t="s">
-        <v>181</v>
+        <v>460</v>
       </c>
       <c r="F30" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G30" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H30" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B31" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="C31" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="F31" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G31" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H31" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B32" s="7">
-        <v>0.5</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="C32" s="7">
-        <v>0.5625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D32" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E32" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="F32" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G32" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="H32" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B33" s="7">
-        <v>0.63541666666666663</v>
+        <v>0.71875</v>
       </c>
       <c r="C33" s="7">
-        <v>0.69791666666666663</v>
+        <v>0.78125</v>
       </c>
       <c r="D33" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E33" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F33" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G33" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H33" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B34" s="7">
-        <v>0.64583333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="C34" s="7">
-        <v>0.70833333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D34" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E34" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="F34" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G34" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H34" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B35" s="7">
-        <v>0.71875</v>
-      </c>
-      <c r="C35" s="7">
-        <v>0.78125</v>
-      </c>
-      <c r="D35" t="s">
-        <v>193</v>
-      </c>
-      <c r="E35" t="s">
-        <v>194</v>
-      </c>
-      <c r="F35" t="s">
-        <v>169</v>
-      </c>
-      <c r="G35" t="s">
-        <v>174</v>
-      </c>
-      <c r="H35" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="8" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B36" s="7">
-        <v>0.72916666666666663</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C36" s="7">
-        <v>0.79166666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D36" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E36" t="s">
-        <v>196</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G36" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H36" t="s">
-        <v>171</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D37" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" t="s">
+        <v>460</v>
+      </c>
+      <c r="F37" t="s">
+        <v>160</v>
+      </c>
+      <c r="G37" t="s">
+        <v>165</v>
+      </c>
+      <c r="H37" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B38" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="C38" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D38" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="F38" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G38" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H38" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B39" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C39" s="7">
-        <v>0.47916666666666669</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D39" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E39" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="F39" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G39" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H39" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C40" s="7">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D40" t="s">
-        <v>200</v>
-      </c>
-      <c r="E40" t="s">
-        <v>181</v>
-      </c>
-      <c r="F40" t="s">
-        <v>169</v>
-      </c>
-      <c r="G40" t="s">
-        <v>174</v>
-      </c>
-      <c r="H40" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B41" s="7">
-        <v>0.70833333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="C41" s="7">
-        <v>0.77083333333333337</v>
+        <v>0.4375</v>
       </c>
       <c r="D41" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="E41" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F41" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G41" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H41" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43" s="7">
-        <v>0.375</v>
-      </c>
-      <c r="C43" s="7">
-        <v>0.4375</v>
-      </c>
-      <c r="D43" t="s">
-        <v>182</v>
-      </c>
-      <c r="E43" t="s">
-        <v>204</v>
-      </c>
-      <c r="F43" t="s">
-        <v>169</v>
-      </c>
-      <c r="G43" t="s">
-        <v>174</v>
-      </c>
-      <c r="H43" t="s">
-        <v>171</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D42" t="s">
+        <v>461</v>
+      </c>
+      <c r="E42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D44" t="s">
+        <v>194</v>
+      </c>
+      <c r="E44" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" t="s">
+        <v>160</v>
+      </c>
+      <c r="G44" t="s">
+        <v>165</v>
+      </c>
+      <c r="H44" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="8" t="s">
-        <v>109</v>
+      <c r="A45" t="s">
+        <v>100</v>
       </c>
       <c r="B45" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C45" s="7">
-        <v>0.47916666666666669</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D45" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="E45" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="F45" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G45" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="H45" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" t="s">
-        <v>109</v>
-      </c>
-      <c r="B46" s="7">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C46" s="7">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D46" t="s">
-        <v>182</v>
-      </c>
-      <c r="E46" t="s">
-        <v>168</v>
-      </c>
-      <c r="F46" t="s">
-        <v>169</v>
-      </c>
-      <c r="G46" t="s">
-        <v>170</v>
-      </c>
-      <c r="H46" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -7676,40 +7655,40 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="56" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B2" s="7">
         <v>0.3125</v>
@@ -7718,7 +7697,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -7726,7 +7705,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B3" s="7">
         <v>0.38541666666666669</v>
@@ -7735,15 +7714,15 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D3" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B4" s="7">
         <v>0.45833333333333331</v>
@@ -7752,15 +7731,15 @@
         <v>0.5</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B5" s="7">
         <v>0.64583333333333337</v>
@@ -7769,15 +7748,15 @@
         <v>0.6875</v>
       </c>
       <c r="D5" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="E5" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B6" s="7">
         <v>0.72916666666666663</v>
@@ -7786,15 +7765,15 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D6" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B7" s="7">
         <v>0.80208333333333337</v>
@@ -7803,14 +7782,14 @@
         <v>0.84375</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1">
+    <row r="9" spans="1:5" ht="27" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -7821,7 +7800,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
@@ -7832,16 +7811,16 @@
         <v>15</v>
       </c>
       <c r="B10" s="5">
-        <v>0.38541666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C10" s="5">
-        <v>0.42708333333333331</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>83</v>
+        <v>451</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1">
@@ -7849,16 +7828,16 @@
         <v>15</v>
       </c>
       <c r="B11" s="5">
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="C11" s="5">
-        <v>0.5</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>85</v>
+        <v>452</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
@@ -7866,16 +7845,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="5">
-        <v>0.64583333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="C12" s="5">
-        <v>0.6875</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>87</v>
+        <v>453</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>88</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1">
@@ -7883,19 +7862,19 @@
         <v>15</v>
       </c>
       <c r="B13" s="5">
-        <v>0.72916666666666663</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="C13" s="5">
         <v>0.79166666666666663</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>89</v>
+        <v>455</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="27" thickBot="1">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -7903,18 +7882,18 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C14" s="5">
-        <v>0.84375</v>
+        <v>0.4375</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>83</v>
+        <v>456</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>84</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B16" s="7">
         <v>0.3125</v>
@@ -7923,7 +7902,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D16" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>27</v>
@@ -7931,7 +7910,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B17" s="7">
         <v>0.39583333333333331</v>
@@ -7940,15 +7919,15 @@
         <v>0.4375</v>
       </c>
       <c r="D17" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B18" s="7">
         <v>0.45833333333333331</v>
@@ -7957,15 +7936,15 @@
         <v>0.5</v>
       </c>
       <c r="D18" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B19" s="7">
         <v>0.52083333333333337</v>
@@ -7974,15 +7953,15 @@
         <v>0.5625</v>
       </c>
       <c r="D19" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B20" s="7">
         <v>0.75</v>
@@ -7991,15 +7970,15 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D20" t="s">
-        <v>269</v>
+        <v>457</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B21" s="7">
         <v>0.80208333333333337</v>
@@ -8008,15 +7987,15 @@
         <v>0.84375</v>
       </c>
       <c r="D21" t="s">
-        <v>270</v>
+        <v>458</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B23" s="7">
         <v>0.3125</v>
@@ -8025,15 +8004,15 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D23" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B24" s="7">
         <v>0.38541666666666669</v>
@@ -8042,15 +8021,15 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D24" t="s">
-        <v>254</v>
+        <v>459</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B25" s="7">
         <v>0.44791666666666669</v>
@@ -8059,197 +8038,180 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D25" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B26" s="7">
-        <v>0.44791666666666669</v>
+        <v>0.53125</v>
       </c>
       <c r="C26" s="7">
-        <v>0.51041666666666663</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="D26" t="s">
-        <v>273</v>
+        <v>392</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>90</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B27" s="7">
-        <v>0.53125</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="C27" s="7">
-        <v>0.57291666666666663</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D27" t="s">
-        <v>413</v>
+        <v>257</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>260</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B28" s="7">
-        <v>0.73958333333333337</v>
+        <v>0.80208333333333337</v>
       </c>
       <c r="C28" s="7">
-        <v>0.79166666666666663</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D28" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="7">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D29" t="s">
-        <v>275</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>261</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.3125</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B31" s="7">
-        <v>0.3125</v>
+        <v>0.375</v>
       </c>
       <c r="C31" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>259</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>27</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B32" s="7">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="C32" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="D32" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>262</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B33" s="7">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D33" t="s">
+        <v>261</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C35" s="7">
         <v>0.4375</v>
       </c>
-      <c r="C33" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D33" t="s">
-        <v>277</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="7">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="C34" s="7">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="D34" t="s">
-        <v>278</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>263</v>
+      <c r="D35" t="s">
+        <v>262</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B36" s="7">
-        <v>0.38541666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C36" s="7">
-        <v>0.4375</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D36" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C37" s="7">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D37" t="s">
-        <v>280</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B39" s="7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="7">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C38" s="7">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D39" t="s">
-        <v>280</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>264</v>
+      <c r="D38" t="s">
+        <v>263</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -8260,10 +8222,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8273,26 +8235,29 @@
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="H1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B2" s="7">
         <v>0.33333333333333331</v>
@@ -8301,15 +8266,15 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D2" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B3" s="7">
         <v>0.41666666666666669</v>
@@ -8318,15 +8283,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B4" s="7">
         <v>0.5</v>
@@ -8335,15 +8300,15 @@
         <v>0.5625</v>
       </c>
       <c r="D4" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B5" s="7">
         <v>0.58333333333333337</v>
@@ -8352,15 +8317,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D5" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="E5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B6" s="7">
         <v>0.6875</v>
@@ -8369,15 +8334,15 @@
         <v>0.75</v>
       </c>
       <c r="D6" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E6" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B7" s="7">
         <v>0.77083333333333337</v>
@@ -8386,16 +8351,16 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D7" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -8406,13 +8371,13 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D9" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -8423,13 +8388,13 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D10" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -8440,13 +8405,13 @@
         <v>0.5625</v>
       </c>
       <c r="D11" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E11" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -8457,13 +8422,13 @@
         <v>0.75</v>
       </c>
       <c r="D12" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E12" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -8474,18 +8439,18 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D13" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E13" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="B14" s="7"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B15" s="7">
         <v>0.33333333333333331</v>
@@ -8494,15 +8459,15 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D15" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E15" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B16" s="7">
         <v>0.41666666666666669</v>
@@ -8511,15 +8476,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D16" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E16" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B17" s="7">
         <v>0.5</v>
@@ -8528,15 +8493,15 @@
         <v>0.5625</v>
       </c>
       <c r="D17" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E17" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B18" s="7">
         <v>0.6875</v>
@@ -8545,15 +8510,15 @@
         <v>0.75</v>
       </c>
       <c r="D18" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E18" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B19" s="7">
         <v>0.77083333333333337</v>
@@ -8562,10 +8527,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D19" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E19" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8573,7 +8538,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B21" s="7">
         <v>0.26041666666666669</v>
@@ -8582,15 +8547,15 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D21" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E21" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B22" s="7">
         <v>0.33333333333333331</v>
@@ -8599,15 +8564,15 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D22" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E22" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B23" s="7">
         <v>0.41666666666666669</v>
@@ -8616,15 +8581,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D23" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E23" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B24" s="7">
         <v>0.5</v>
@@ -8633,15 +8598,15 @@
         <v>0.5625</v>
       </c>
       <c r="D24" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E24" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B25" s="7">
         <v>0.6875</v>
@@ -8650,15 +8615,15 @@
         <v>0.75</v>
       </c>
       <c r="D25" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E25" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B26" s="7">
         <v>0.77083333333333337</v>
@@ -8667,10 +8632,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D26" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E26" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -8678,7 +8643,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B28" s="7">
         <v>0.33333333333333331</v>
@@ -8687,15 +8652,15 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D28" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E28" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B29" s="7">
         <v>0.41666666666666669</v>
@@ -8704,15 +8669,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D29" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E29" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B30" s="7">
         <v>0.5</v>
@@ -8721,15 +8686,15 @@
         <v>0.5625</v>
       </c>
       <c r="D30" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E30" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B31" s="7">
         <v>0.6875</v>
@@ -8738,15 +8703,15 @@
         <v>0.75</v>
       </c>
       <c r="D31" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E31" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B32" s="7">
         <v>0.77083333333333337</v>
@@ -8755,10 +8720,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D32" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E32" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -8766,7 +8731,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B34" s="7">
         <v>0.33333333333333331</v>
@@ -8775,15 +8740,15 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D34" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E34" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B35" s="7">
         <v>0.41666666666666669</v>
@@ -8792,15 +8757,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D35" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E35" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B36" s="7">
         <v>0.5</v>
@@ -8809,15 +8774,15 @@
         <v>0.5625</v>
       </c>
       <c r="D36" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E36" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B37" s="7">
         <v>0.6875</v>
@@ -8826,10 +8791,10 @@
         <v>0.75</v>
       </c>
       <c r="D37" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E37" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -8837,7 +8802,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B39" s="7">
         <v>0.33333333333333331</v>
@@ -8846,15 +8811,15 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D39" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E39" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B40" s="7">
         <v>0.41666666666666669</v>
@@ -8863,15 +8828,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D40" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E40" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B41" s="7">
         <v>0.60416666666666663</v>
@@ -8880,15 +8845,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D41" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E41" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B42" s="7">
         <v>0.6875</v>
@@ -8897,10 +8862,10 @@
         <v>0.75</v>
       </c>
       <c r="D42" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E42" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -8913,10 +8878,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8931,28 +8896,28 @@
     <col min="10" max="10" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
       </c>
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B2" s="12">
         <v>0.25</v>
@@ -8961,17 +8926,17 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="E2" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B3" s="12">
         <v>0.39583333333333331</v>
@@ -8980,17 +8945,19 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="E3" t="s">
-        <v>385</v>
-      </c>
-      <c r="H3"/>
-      <c r="I3"/>
-    </row>
-    <row r="4" spans="1:9">
+        <v>364</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B4" s="12">
         <v>0.51041666666666663</v>
@@ -8999,17 +8966,19 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D4" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="E4" t="s">
-        <v>387</v>
-      </c>
-      <c r="H4"/>
-      <c r="I4"/>
-    </row>
-    <row r="5" spans="1:9">
+        <v>366</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B5" s="12">
         <v>0.72916666666666663</v>
@@ -9018,21 +8987,25 @@
         <v>0.78125</v>
       </c>
       <c r="D5" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="E5" t="s">
-        <v>388</v>
-      </c>
-      <c r="H5"/>
-      <c r="I5"/>
-    </row>
-    <row r="6" spans="1:9">
+        <v>367</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
-      <c r="H6"/>
-      <c r="I6"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -9043,15 +9016,17 @@
         <v>0.3125</v>
       </c>
       <c r="D7" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="E7" t="s">
-        <v>383</v>
-      </c>
-      <c r="H7"/>
-      <c r="I7"/>
-    </row>
-    <row r="8" spans="1:9">
+        <v>362</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -9062,15 +9037,17 @@
         <v>0.46875</v>
       </c>
       <c r="D8" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="E8" t="s">
-        <v>390</v>
-      </c>
-      <c r="H8"/>
-      <c r="I8"/>
-    </row>
-    <row r="9" spans="1:9">
+        <v>369</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -9081,15 +9058,17 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D9" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="E9" t="s">
-        <v>391</v>
-      </c>
-      <c r="H9"/>
-      <c r="I9"/>
-    </row>
-    <row r="10" spans="1:9">
+        <v>370</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -9100,23 +9079,27 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D10" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="E10" t="s">
-        <v>392</v>
-      </c>
-      <c r="H10"/>
-      <c r="I10"/>
-    </row>
-    <row r="11" spans="1:9">
+        <v>371</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
-      <c r="H11"/>
-      <c r="I11"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="G11" s="28"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B12" s="12">
         <v>0.25</v>
@@ -9125,17 +9108,19 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D12" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="E12" t="s">
-        <v>393</v>
-      </c>
-      <c r="H12"/>
-      <c r="I12"/>
-    </row>
-    <row r="13" spans="1:9">
+        <v>372</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B13" s="12">
         <v>0.39583333333333331</v>
@@ -9144,17 +9129,19 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D13" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="E13" t="s">
-        <v>394</v>
-      </c>
-      <c r="H13"/>
-      <c r="I13"/>
-    </row>
-    <row r="14" spans="1:9">
+        <v>373</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B14" s="12">
         <v>0.51041666666666663</v>
@@ -9163,17 +9150,19 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D14" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="E14" t="s">
-        <v>387</v>
-      </c>
-      <c r="H14"/>
-      <c r="I14"/>
-    </row>
-    <row r="15" spans="1:9">
+        <v>366</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B15" s="12">
         <v>0.72916666666666663</v>
@@ -9182,23 +9171,27 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D15" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="E15" t="s">
-        <v>392</v>
-      </c>
-      <c r="H15"/>
-      <c r="I15"/>
-    </row>
-    <row r="16" spans="1:9">
+        <v>371</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-      <c r="H16"/>
-      <c r="I16"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="G16" s="28"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B17" s="12">
         <v>0.27083333333333331</v>
@@ -9207,17 +9200,19 @@
         <v>0.3125</v>
       </c>
       <c r="D17" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="E17" t="s">
-        <v>388</v>
-      </c>
-      <c r="H17"/>
-      <c r="I17"/>
-    </row>
-    <row r="18" spans="1:9">
+        <v>367</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B18" s="12">
         <v>0.41666666666666669</v>
@@ -9226,17 +9221,19 @@
         <v>0.46875</v>
       </c>
       <c r="D18" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="E18" t="s">
-        <v>395</v>
-      </c>
-      <c r="H18"/>
-      <c r="I18"/>
-    </row>
-    <row r="19" spans="1:9">
+        <v>374</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B19" s="12">
         <v>0.6875</v>
@@ -9245,17 +9242,19 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="D19" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="E19" t="s">
-        <v>396</v>
-      </c>
-      <c r="H19"/>
-      <c r="I19"/>
-    </row>
-    <row r="20" spans="1:9">
+        <v>375</v>
+      </c>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B20" s="12">
         <v>0.75</v>
@@ -9264,23 +9263,27 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D20" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="E20" t="s">
-        <v>397</v>
-      </c>
-      <c r="H20"/>
-      <c r="I20"/>
-    </row>
-    <row r="21" spans="1:9">
+        <v>376</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
-      <c r="H21"/>
-      <c r="I21"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="G21" s="28"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B22" s="12">
         <v>0.25</v>
@@ -9289,17 +9292,19 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D22" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="E22" t="s">
-        <v>393</v>
-      </c>
-      <c r="H22"/>
-      <c r="I22"/>
-    </row>
-    <row r="23" spans="1:9">
+        <v>372</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B23" s="12">
         <v>0.39583333333333331</v>
@@ -9308,17 +9313,19 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D23" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="E23" t="s">
-        <v>206</v>
-      </c>
-      <c r="H23"/>
-      <c r="I23"/>
-    </row>
-    <row r="24" spans="1:9">
+        <v>195</v>
+      </c>
+      <c r="G23" s="28"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B24" s="12">
         <v>0.51041666666666663</v>
@@ -9327,17 +9334,19 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D24" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="E24" t="s">
-        <v>392</v>
-      </c>
-      <c r="H24"/>
-      <c r="I24"/>
-    </row>
-    <row r="25" spans="1:9">
+        <v>371</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B25" s="12">
         <v>0.72916666666666663</v>
@@ -9346,23 +9355,27 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D25" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="E25" t="s">
-        <v>383</v>
-      </c>
-      <c r="H25"/>
-      <c r="I25"/>
-    </row>
-    <row r="26" spans="1:9">
+        <v>362</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
-      <c r="H26"/>
-      <c r="I26"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B27" s="12">
         <v>0.41666666666666669</v>
@@ -9371,17 +9384,19 @@
         <v>0.46875</v>
       </c>
       <c r="D27" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="E27" t="s">
-        <v>388</v>
-      </c>
-      <c r="H27"/>
-      <c r="I27"/>
-    </row>
-    <row r="28" spans="1:9">
+        <v>367</v>
+      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B28" s="12">
         <v>0.66666666666666663</v>
@@ -9390,23 +9405,27 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D28" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="E28" t="s">
-        <v>399</v>
-      </c>
-      <c r="H28"/>
-      <c r="I28"/>
-    </row>
-    <row r="29" spans="1:9">
+        <v>378</v>
+      </c>
+      <c r="G28" s="28"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
-      <c r="H29"/>
-      <c r="I29"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="G29" s="28"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B30" s="12">
         <v>0.41666666666666669</v>
@@ -9415,17 +9434,19 @@
         <v>0.46875</v>
       </c>
       <c r="D30" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="E30" t="s">
-        <v>388</v>
-      </c>
-      <c r="H30"/>
-      <c r="I30"/>
-    </row>
-    <row r="31" spans="1:9">
+        <v>367</v>
+      </c>
+      <c r="G30" s="28"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B31" s="12">
         <v>0.66666666666666663</v>
@@ -9434,15 +9455,62 @@
         <v>0.46875</v>
       </c>
       <c r="D31" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="E31" t="s">
-        <v>390</v>
-      </c>
-      <c r="H31"/>
-      <c r="I31"/>
+        <v>369</v>
+      </c>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="G32" s="28"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+    </row>
+    <row r="33" spans="7:10">
+      <c r="G33" s="28"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+    </row>
+    <row r="34" spans="7:10">
+      <c r="G34" s="28"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+    </row>
+    <row r="35" spans="7:10">
+      <c r="G35" s="28"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+    </row>
+    <row r="36" spans="7:10">
+      <c r="G36" s="28"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+    </row>
+    <row r="37" spans="7:10">
+      <c r="G37" s="28"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G14:H14"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -9466,19 +9534,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -9492,15 +9560,15 @@
         <v>0.84375</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B3" s="7">
         <v>0.375</v>
@@ -9509,15 +9577,15 @@
         <v>0.4375</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B4" s="7">
         <v>0.41666666666666669</v>
@@ -9526,10 +9594,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="E4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/AvlZen/App_Data/AvlZen.xlsx
+++ b/AvlZen/App_Data/AvlZen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="-15" windowWidth="11655" windowHeight="12060" tabRatio="907" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="7440" yWindow="-15" windowWidth="15645" windowHeight="12060" tabRatio="907" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Places" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="472">
   <si>
     <t>Code</t>
   </si>
@@ -787,9 +787,6 @@
     <t>Gentle Flow (Level 1 &amp; 2)</t>
   </si>
   <si>
-    <t>Guided Meditation (All Levels)</t>
-  </si>
-  <si>
     <t>Warm Vinyasa Flow (Level 1 &amp; 2)</t>
   </si>
   <si>
@@ -1168,9 +1165,6 @@
     <t>Yin Yoga (All levels - Beginners Welcome)</t>
   </si>
   <si>
-    <t xml:space="preserve">NO MARCH SCHEDULE UP </t>
-  </si>
-  <si>
     <t>MARCH SCHEDULE NOT UPDATED</t>
   </si>
   <si>
@@ -1300,9 +1294,6 @@
     <t>Lisa Sherman</t>
   </si>
   <si>
-    <t>Cultivating a Meditation Practice (Beginners Welcome)</t>
-  </si>
-  <si>
     <t>Sarah</t>
   </si>
   <si>
@@ -1325,6 +1316,159 @@
   </si>
   <si>
     <t>Yoga Sangha (Level 1 &amp; 2)</t>
+  </si>
+  <si>
+    <t>HOT Bhakti Vinyasa, Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>HOT Flow, Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>Slow Flow &amp; Yin, Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>Family Yoga, All Levels</t>
+  </si>
+  <si>
+    <t>Slow Flow, Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>Yoga &amp; Body Rolling, All Levels</t>
+  </si>
+  <si>
+    <t>Paige</t>
+  </si>
+  <si>
+    <t>Warm Jivamukti, Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>Vibrant Breath Yoga, All Levels</t>
+  </si>
+  <si>
+    <t>Beginners’ Yoga, Level 1</t>
+  </si>
+  <si>
+    <t>Kundalini Yoga, All Levels</t>
+  </si>
+  <si>
+    <t>Krystal</t>
+  </si>
+  <si>
+    <t>HOT Flow, Level 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>Tantra Vinyasa, Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>Mindful Alignment, Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>Yoga Nidra, All Levels</t>
+  </si>
+  <si>
+    <t>Slow Flow &amp; Deep Stretch Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>Alex Moody</t>
+  </si>
+  <si>
+    <t>Jane-Anne Tager</t>
+  </si>
+  <si>
+    <t>Tim Burgin</t>
+  </si>
+  <si>
+    <t>Vinyasa Flow All Levels</t>
+  </si>
+  <si>
+    <t>Julia Albertson</t>
+  </si>
+  <si>
+    <t>Deep Core Align &amp; Flow Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>Gayle Jann</t>
+  </si>
+  <si>
+    <t>Warm Jivamukti Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>Adam Shirley</t>
+  </si>
+  <si>
+    <t>Yoga for Women Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>HOT Align &amp; Flow Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>Adam Taylor</t>
+  </si>
+  <si>
+    <t>Nicole Killeen</t>
+  </si>
+  <si>
+    <t>Intuitive Yoga for Beginners Level 1</t>
+  </si>
+  <si>
+    <t>Brian Winslett</t>
+  </si>
+  <si>
+    <t>Restorative &amp; Yin, plus Live Music, All Levels</t>
+  </si>
+  <si>
+    <t>Rebecca Odom</t>
+  </si>
+  <si>
+    <t>Prenatal Yoga &amp; Meditation All Levels</t>
+  </si>
+  <si>
+    <t>Danielle Marie Goldstein</t>
+  </si>
+  <si>
+    <t>Innercise Yoga Flow, Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>Kelsey Armbruster</t>
+  </si>
+  <si>
+    <t>Corey Brown</t>
+  </si>
+  <si>
+    <t>Ann-Lee Waite</t>
+  </si>
+  <si>
+    <t>Tanya Naplioueva</t>
+  </si>
+  <si>
+    <t>Gentle &amp; Restorative All Levels</t>
+  </si>
+  <si>
+    <t>Therapeutic Flow All Levels</t>
+  </si>
+  <si>
+    <t>Evan Hart Marsh</t>
+  </si>
+  <si>
+    <t>Natalie Epstein</t>
+  </si>
+  <si>
+    <t>Slow Flow &amp; Yin Level 1</t>
+  </si>
+  <si>
+    <t>Warm Kripalu Flow Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>Meditation in Motion</t>
+  </si>
+  <si>
+    <t>Andrea Rich</t>
+  </si>
+  <si>
+    <t>Janelle Railey</t>
+  </si>
+  <si>
+    <t>Jackie Dobrinska</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +1682,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -1620,6 +1764,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1948,7 +2098,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1959,24 +2109,24 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" t="s">
         <v>264</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>265</v>
       </c>
-      <c r="C3" t="s">
-        <v>266</v>
-      </c>
       <c r="D3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1987,10 +2137,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2004,77 +2154,77 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" t="s">
         <v>267</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>268</v>
       </c>
-      <c r="C7" t="s">
-        <v>269</v>
-      </c>
       <c r="D7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>260</v>
-      </c>
       <c r="D9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B10" t="s">
         <v>339</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>341</v>
-      </c>
       <c r="D10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2088,7 +2238,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2099,38 +2249,38 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>330</v>
+      </c>
+      <c r="B13" t="s">
         <v>331</v>
       </c>
-      <c r="B13" t="s">
-        <v>332</v>
-      </c>
       <c r="C13" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -2192,10 +2342,10 @@
         <v>0.71875</v>
       </c>
       <c r="D2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2209,10 +2359,10 @@
         <v>0.4375</v>
       </c>
       <c r="D4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2226,10 +2376,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2243,10 +2393,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2260,10 +2410,10 @@
         <v>0.4375</v>
       </c>
       <c r="D10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2277,10 +2427,10 @@
         <v>0.71875</v>
       </c>
       <c r="D11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2294,10 +2444,10 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -2310,7 +2460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -2505,7 +2655,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E8" t="s">
         <v>65</v>
@@ -2807,7 +2957,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D24" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E24" t="s">
         <v>65</v>
@@ -2940,7 +3090,7 @@
         <v>159</v>
       </c>
       <c r="E30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F30" t="s">
         <v>139</v>
@@ -2963,10 +3113,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D31" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E31" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G31" t="s">
         <v>140</v>
@@ -3116,7 +3266,7 @@
         <v>166</v>
       </c>
       <c r="E38" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F38" t="s">
         <v>139</v>
@@ -3268,8 +3418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3325,7 +3475,7 @@
         <v>0.5</v>
       </c>
       <c r="D3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E3" t="s">
         <v>77</v>
@@ -3342,10 +3492,10 @@
         <v>0.5625</v>
       </c>
       <c r="D4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3359,7 +3509,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E5" t="s">
         <v>213</v>
@@ -3411,10 +3561,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1">
@@ -3428,7 +3578,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>78</v>
@@ -3445,7 +3595,7 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>98</v>
@@ -3462,10 +3612,10 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1">
@@ -3479,7 +3629,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>218</v>
@@ -3496,7 +3646,7 @@
         <v>0.4375</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>218</v>
@@ -3513,7 +3663,7 @@
         <v>0.375</v>
       </c>
       <c r="D16" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>27</v>
@@ -3530,7 +3680,7 @@
         <v>0.4375</v>
       </c>
       <c r="D17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>215</v>
@@ -3547,7 +3697,7 @@
         <v>0.5</v>
       </c>
       <c r="D18" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>216</v>
@@ -3564,7 +3714,7 @@
         <v>0.5625</v>
       </c>
       <c r="D19" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>218</v>
@@ -3581,7 +3731,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D20" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>213</v>
@@ -3598,7 +3748,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>222</v>
@@ -3615,7 +3765,7 @@
         <v>0.84375</v>
       </c>
       <c r="D22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>76</v>
@@ -3666,7 +3816,7 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>78</v>
@@ -3683,7 +3833,7 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D27" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>218</v>
@@ -3700,10 +3850,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D28" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3717,7 +3867,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D30" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>219</v>
@@ -3734,7 +3884,7 @@
         <v>0.5</v>
       </c>
       <c r="D31" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>51</v>
@@ -3751,7 +3901,7 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D32" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>220</v>
@@ -3768,7 +3918,7 @@
         <v>0.4375</v>
       </c>
       <c r="D34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>215</v>
@@ -3785,7 +3935,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D35" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>221</v>
@@ -3802,10 +3952,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D37" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3819,7 +3969,7 @@
         <v>0.71875</v>
       </c>
       <c r="D38" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E38" s="32" t="s">
         <v>217</v>
@@ -3863,7 +4013,7 @@
         <v>44</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3877,13 +4027,13 @@
         <v>0.4375</v>
       </c>
       <c r="D2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3897,7 +4047,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
@@ -3914,7 +4064,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
@@ -3931,10 +4081,10 @@
         <v>0.8125</v>
       </c>
       <c r="D6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3948,10 +4098,10 @@
         <v>0.4375</v>
       </c>
       <c r="D8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3965,7 +4115,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -3982,10 +4132,10 @@
         <v>0.8125</v>
       </c>
       <c r="D11" t="s">
+        <v>333</v>
+      </c>
+      <c r="E11" t="s">
         <v>334</v>
-      </c>
-      <c r="E11" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3999,10 +4149,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E13" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4016,10 +4166,10 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4037,10 +4187,10 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D16" t="s">
+        <v>333</v>
+      </c>
+      <c r="E16" t="s">
         <v>334</v>
-      </c>
-      <c r="E16" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4054,10 +4204,10 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D18" t="s">
+        <v>336</v>
+      </c>
+      <c r="E18" t="s">
         <v>337</v>
-      </c>
-      <c r="E18" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4071,10 +4221,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E19" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -4129,13 +4279,13 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E2" t="s">
         <v>308</v>
       </c>
-      <c r="E2" t="s">
-        <v>309</v>
-      </c>
       <c r="G2" s="30" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
@@ -4151,13 +4301,13 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E3" t="s">
         <v>310</v>
       </c>
-      <c r="E3" t="s">
-        <v>311</v>
-      </c>
       <c r="G3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4171,10 +4321,10 @@
         <v>0.84375</v>
       </c>
       <c r="D4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4188,7 +4338,7 @@
         <v>0.40625</v>
       </c>
       <c r="D6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E6" t="s">
         <v>184</v>
@@ -4205,10 +4355,10 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="D7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4222,10 +4372,10 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E8" t="s">
         <v>315</v>
-      </c>
-      <c r="E8" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4239,10 +4389,10 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D10" t="s">
+        <v>316</v>
+      </c>
+      <c r="E10" t="s">
         <v>317</v>
-      </c>
-      <c r="E10" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4256,10 +4406,10 @@
         <v>0.625</v>
       </c>
       <c r="D11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4273,10 +4423,10 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4290,10 +4440,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4307,10 +4457,10 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D15" t="s">
+        <v>314</v>
+      </c>
+      <c r="E15" t="s">
         <v>315</v>
-      </c>
-      <c r="E15" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4324,10 +4474,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4341,10 +4491,10 @@
         <v>0.625</v>
       </c>
       <c r="D18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4358,10 +4508,10 @@
         <v>0.84375</v>
       </c>
       <c r="D19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4375,10 +4525,10 @@
         <v>0.40625</v>
       </c>
       <c r="D21" t="s">
+        <v>322</v>
+      </c>
+      <c r="E21" t="s">
         <v>323</v>
-      </c>
-      <c r="E21" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4392,10 +4542,10 @@
         <v>0.5</v>
       </c>
       <c r="D22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4409,10 +4559,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4426,10 +4576,10 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D25" t="s">
+        <v>325</v>
+      </c>
+      <c r="E25" t="s">
         <v>326</v>
-      </c>
-      <c r="E25" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4443,10 +4593,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -4460,7 +4610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
@@ -4835,7 +4985,7 @@
         <v>0.71875</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>32</v>
@@ -4871,7 +5021,7 @@
         <v>0.8125</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>175</v>
@@ -4999,7 +5149,7 @@
         <v>227</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F32" s="29"/>
     </row>
@@ -5014,7 +5164,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E33" s="32" t="s">
         <v>37</v>
@@ -5359,7 +5509,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D53" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>173</v>
@@ -5398,7 +5548,7 @@
         <v>232</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F55" s="29"/>
     </row>
@@ -5456,10 +5606,10 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D60" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F60" s="31"/>
     </row>
@@ -5474,7 +5624,7 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D61" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>37</v>
@@ -5492,7 +5642,7 @@
         <v>0.5625</v>
       </c>
       <c r="D62" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>197</v>
@@ -5510,7 +5660,7 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="D63" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>198</v>
@@ -5528,7 +5678,7 @@
         <v>0.71875</v>
       </c>
       <c r="D64" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>199</v>
@@ -5546,7 +5696,7 @@
         <v>0.71875</v>
       </c>
       <c r="D65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>198</v>
@@ -5564,7 +5714,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D66" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>17</v>
@@ -5598,7 +5748,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D69" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>201</v>
@@ -5616,7 +5766,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D70" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>32</v>
@@ -5634,7 +5784,7 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D71" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>39</v>
@@ -5670,7 +5820,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D73" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>189</v>
@@ -5691,7 +5841,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D75" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>179</v>
@@ -5708,7 +5858,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D76" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>35</v>
@@ -5726,7 +5876,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D77" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>193</v>
@@ -5744,7 +5894,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D78" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>194</v>
@@ -5762,7 +5912,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D79" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>37</v>
@@ -5780,7 +5930,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D80" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>203</v>
@@ -5841,7 +5991,7 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E2" t="s">
         <v>172</v>
@@ -5860,10 +6010,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H3" s="20"/>
       <c r="I3" s="15"/>
@@ -5882,10 +6032,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="15"/>
@@ -5904,10 +6054,10 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="15"/>
@@ -5926,10 +6076,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="15"/>
@@ -5948,7 +6098,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E7" t="s">
         <v>172</v>
@@ -6849,10 +6999,10 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D43" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E43" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -6866,10 +7016,10 @@
         <v>0.84375</v>
       </c>
       <c r="D44" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E44" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -6883,7 +7033,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D45" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E45" t="s">
         <v>89</v>
@@ -6903,7 +7053,7 @@
         <v>117</v>
       </c>
       <c r="E47" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -7192,7 +7342,7 @@
         <v>132</v>
       </c>
       <c r="E66" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -7254,20 +7404,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="C58" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:XFD79"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="91.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -7283,1295 +7433,619 @@
       <c r="E1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="32" t="s">
         <v>80</v>
       </c>
       <c r="B2" s="7">
-        <v>0.28125</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="C2" s="7">
-        <v>0.32291666666666669</v>
+        <v>0.40625</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>437</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="29"/>
-    </row>
-    <row r="3" spans="1:8">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="32" t="s">
         <v>80</v>
       </c>
       <c r="B3" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C3" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>421</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="32" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="C4" s="7">
-        <v>0.47916666666666669</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>422</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="32" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="7">
-        <v>0.48958333333333331</v>
+        <v>0.5625</v>
       </c>
       <c r="C5" s="7">
-        <v>0.53125</v>
+        <v>0.625</v>
       </c>
       <c r="D5" t="s">
-        <v>206</v>
+        <v>423</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="32" t="s">
         <v>80</v>
       </c>
       <c r="B6" s="7">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C6" s="7">
-        <v>0.55208333333333337</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="D6" t="s">
-        <v>207</v>
+        <v>424</v>
       </c>
       <c r="E6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="32" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="7">
-        <v>0.59375</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="C7" s="7">
-        <v>0.64583333333333337</v>
+        <v>0.78125</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>425</v>
       </c>
       <c r="E7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="32" t="s">
         <v>80</v>
       </c>
       <c r="B8" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C8" s="7">
-        <v>0.71875</v>
+        <v>0.84375</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>441</v>
       </c>
       <c r="E8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="7">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.76041666666666663</v>
-      </c>
-      <c r="D9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="7">
-        <v>0.75</v>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="34">
+        <v>0.35416666666666669</v>
       </c>
       <c r="C10" s="7">
-        <v>0.8125</v>
+        <v>0.40625</v>
       </c>
       <c r="D10" t="s">
-        <v>211</v>
+        <v>443</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="7">
-        <v>0.77083333333333337</v>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="35">
+        <v>0.41666666666666669</v>
       </c>
       <c r="C11" s="7">
-        <v>0.82291666666666663</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>445</v>
       </c>
       <c r="E11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0.83333333333333337</v>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="35">
+        <v>0.5</v>
       </c>
       <c r="C12" s="7">
-        <v>0.88541666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D12" t="s">
-        <v>212</v>
+        <v>447</v>
       </c>
       <c r="E12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A14" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2">
-        <v>0.28125</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.32291666666666669</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="29"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B13" s="35">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D13" t="s">
+        <v>448</v>
+      </c>
+      <c r="E13" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="35">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D14" t="s">
+        <v>425</v>
+      </c>
+      <c r="E14" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5">
-        <v>0.34375</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="29"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B15" s="35">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="D15" t="s">
+        <v>425</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="35">
+        <v>0.8125</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D16" t="s">
+        <v>451</v>
+      </c>
+      <c r="E16" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="7">
         <v>0.375</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C18" s="7">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="29"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="29"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="5">
+      <c r="D18" t="s">
+        <v>453</v>
+      </c>
+      <c r="E18" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="7">
         <v>0.4375</v>
       </c>
-      <c r="C18" s="5">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="29"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="5">
+      <c r="C19" s="7">
         <v>0.5</v>
       </c>
-      <c r="C19" s="5">
+      <c r="D19" t="s">
+        <v>455</v>
+      </c>
+      <c r="E19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D20" t="s">
+        <v>457</v>
+      </c>
+      <c r="E20" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D21" t="s">
+        <v>422</v>
+      </c>
+      <c r="E21" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D22" t="s">
+        <v>441</v>
+      </c>
+      <c r="E22" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D23" t="s">
+        <v>422</v>
+      </c>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.78125</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.84375</v>
+      </c>
+      <c r="D24" t="s">
+        <v>426</v>
+      </c>
+      <c r="E24" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.40625</v>
+      </c>
+      <c r="D26" t="s">
+        <v>422</v>
+      </c>
+      <c r="E26" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D27" t="s">
+        <v>462</v>
+      </c>
+      <c r="E27" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D28" t="s">
+        <v>428</v>
+      </c>
+      <c r="E28" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="D29" t="s">
+        <v>463</v>
+      </c>
+      <c r="E29" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D30" t="s">
+        <v>429</v>
+      </c>
+      <c r="E30" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D31" t="s">
+        <v>466</v>
+      </c>
+      <c r="E31" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D32" t="s">
+        <v>467</v>
+      </c>
+      <c r="E32" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D34" t="s">
+        <v>468</v>
+      </c>
+      <c r="E34" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D36" t="s">
+        <v>431</v>
+      </c>
+      <c r="E36" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C37" s="7">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="29"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="5">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="29"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="5">
+      <c r="D37" t="s">
+        <v>433</v>
+      </c>
+      <c r="E37" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="7">
         <v>0.5625</v>
       </c>
-      <c r="C21" s="5">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="29"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0.71875</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="29"/>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="31"/>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="5">
+      <c r="C38" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="D38" t="s">
+        <v>434</v>
+      </c>
+      <c r="E38" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D40" t="s">
+        <v>435</v>
+      </c>
+      <c r="E40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="7">
         <v>0.75</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C41" s="7">
         <v>0.8125</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="F24" s="31"/>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="C25" s="5">
-        <v>0.80902777777777779</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="31"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="5">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C26" s="5">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="29"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="7">
-        <v>0.28125</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0.32291666666666669</v>
-      </c>
-      <c r="D28" t="s">
-        <v>204</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="7">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="D29" t="s">
-        <v>224</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" s="29"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="7">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D30" t="s">
-        <v>225</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="F30" s="29"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="7">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D31" t="s">
-        <v>226</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="F31" s="29"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="7">
-        <v>0.46875</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="D32" t="s">
-        <v>227</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="F32" s="29"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75">
-      <c r="A33" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C33" s="7">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D33" t="s">
-        <v>368</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="31"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75">
-      <c r="A34" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="7">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="C34" s="7">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="D34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="F34" s="31"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75">
-      <c r="A35" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="7">
-        <v>0.59375</v>
-      </c>
-      <c r="C35" s="7">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="D35" t="s">
-        <v>228</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="F35" s="31"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75">
-      <c r="A36" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="7">
-        <v>0.59375</v>
-      </c>
-      <c r="C36" s="7">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="D36" t="s">
-        <v>229</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="F36" s="31"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="7">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C37" s="7">
-        <v>0.69791666666666663</v>
-      </c>
-      <c r="D37" t="s">
-        <v>230</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="F37" s="29"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="7">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0.71875</v>
-      </c>
-      <c r="D38" t="s">
-        <v>231</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="F38" s="29"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75">
-      <c r="A39" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="7">
-        <v>0.71875</v>
-      </c>
-      <c r="C39" s="7">
-        <v>0.76041666666666663</v>
-      </c>
-      <c r="D39" t="s">
-        <v>232</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F39" s="31"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="7">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="C40" s="7">
+      <c r="D41" t="s">
+        <v>422</v>
+      </c>
+      <c r="E41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="7">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D40" t="s">
-        <v>233</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F40" s="29"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="7">
-        <v>0.82291666666666663</v>
-      </c>
-      <c r="C41" s="7">
-        <v>0.875</v>
-      </c>
-      <c r="D41" t="s">
-        <v>232</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="F41" s="29"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="7">
-        <v>0.83333333333333337</v>
-      </c>
       <c r="C42" s="7">
-        <v>0.89583333333333337</v>
+        <v>0.86458333333333337</v>
       </c>
       <c r="D42" t="s">
-        <v>234</v>
-      </c>
-      <c r="E42" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="F42" s="29"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="C44" s="7">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D44" t="s">
-        <v>235</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="29"/>
-    </row>
-    <row r="45" spans="1:6" ht="15.75">
-      <c r="A45" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" s="7">
-        <v>0.30208333333333331</v>
-      </c>
-      <c r="C45" s="7">
-        <v>0.34375</v>
-      </c>
-      <c r="D45" t="s">
-        <v>236</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="F45" s="31"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B46" s="7">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C46" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D46" t="s">
-        <v>238</v>
-      </c>
-      <c r="E46" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F46" s="29"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" s="7">
-        <v>0.46875</v>
-      </c>
-      <c r="C47" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D47" t="s">
-        <v>415</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="F47" s="29"/>
-    </row>
-    <row r="48" spans="1:6" ht="15.75">
-      <c r="A48" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C48" s="7">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D48" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="F48" s="31"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49" s="7">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="C49" s="7">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="D49" t="s">
-        <v>239</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="F49" s="29"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B50" s="7">
-        <v>0.59375</v>
-      </c>
-      <c r="C50" s="7">
-        <v>0.64930555555555558</v>
-      </c>
-      <c r="D50" t="s">
-        <v>240</v>
-      </c>
-      <c r="E50" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="F50" s="29"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B51" s="7">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C51" s="7">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="F51" s="29"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B52" s="7">
-        <v>0.6875</v>
-      </c>
-      <c r="C52" s="7">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D52" t="s">
-        <v>241</v>
-      </c>
-      <c r="E52" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="F52" s="29"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B53" s="7">
-        <v>0.71875</v>
-      </c>
-      <c r="C53" s="7">
-        <v>0.76041666666666663</v>
-      </c>
-      <c r="D53" t="s">
-        <v>368</v>
-      </c>
-      <c r="E53" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="F53" s="29"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B54" s="7">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="C54" s="7">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D54" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="F54" s="29"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B55" s="7">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C55" s="7">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="D55" t="s">
-        <v>232</v>
-      </c>
-      <c r="E55" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="F55" s="29"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B56" s="7">
-        <v>0.84375</v>
-      </c>
-      <c r="C56" s="7">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="D56" t="s">
-        <v>242</v>
-      </c>
-      <c r="E56" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F56" s="29"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="B58" s="7">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C58" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D58" t="s">
-        <v>243</v>
-      </c>
-      <c r="E58" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F58" s="29"/>
-    </row>
-    <row r="59" spans="1:6" ht="15.75">
-      <c r="A59" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="B59" s="7">
-        <v>0.46875</v>
-      </c>
-      <c r="C59" s="7">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="D59" t="s">
-        <v>244</v>
-      </c>
-      <c r="E59" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="F59" s="31"/>
-    </row>
-    <row r="60" spans="1:6" ht="15.75">
-      <c r="A60" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="B60" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C60" s="7">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="D60" t="s">
-        <v>245</v>
-      </c>
-      <c r="E60" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F60" s="31"/>
-    </row>
-    <row r="61" spans="1:6" ht="15.75">
-      <c r="A61" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="B61" s="7">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="C61" s="7">
-        <v>0.5625</v>
-      </c>
-      <c r="D61" t="s">
-        <v>369</v>
-      </c>
-      <c r="E61" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="F61" s="31"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.75">
-      <c r="A62" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="B62" s="7">
-        <v>0.59375</v>
-      </c>
-      <c r="C62" s="7">
-        <v>0.64930555555555558</v>
-      </c>
-      <c r="D62" t="s">
-        <v>370</v>
-      </c>
-      <c r="E62" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="F62" s="31"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="B63" s="7">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C63" s="7">
-        <v>0.71875</v>
-      </c>
-      <c r="D63" t="s">
-        <v>246</v>
-      </c>
-      <c r="E63" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="F63" s="29"/>
-    </row>
-    <row r="64" spans="1:6" ht="15.75">
-      <c r="A64" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="B64" s="7">
-        <v>0.67708333333333337</v>
-      </c>
-      <c r="C64" s="7">
-        <v>0.71875</v>
-      </c>
-      <c r="D64" t="s">
-        <v>247</v>
-      </c>
-      <c r="E64" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="F64" s="31"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="B65" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="C65" s="7">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D65" t="s">
-        <v>245</v>
-      </c>
-      <c r="E65" s="32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B67" s="7">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="C67" s="7">
-        <v>0.40625</v>
-      </c>
-      <c r="D67" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" s="32" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B68" s="7">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="C68" s="7">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="D68" t="s">
-        <v>248</v>
-      </c>
-      <c r="E68" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="F68" s="29"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B69" s="7">
-        <v>0.4375</v>
-      </c>
-      <c r="C69" s="7">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="D69" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F69" s="29"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B70" s="7">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="C70" s="7">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="D70" t="s">
-        <v>249</v>
-      </c>
-      <c r="E70" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="F70" s="29"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B71" s="7">
-        <v>0.59375</v>
-      </c>
-      <c r="C71" s="7">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="D71" t="s">
-        <v>243</v>
-      </c>
-      <c r="E71" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="F71" s="29"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B72" s="7">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="C72" s="7">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D72" t="s">
-        <v>249</v>
-      </c>
-      <c r="E72" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="F72" s="29"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="F73" s="29"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B74" s="7">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C74" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D74" t="s">
-        <v>250</v>
-      </c>
-      <c r="E74" s="32" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B75" s="7">
-        <v>0.46875</v>
-      </c>
-      <c r="C75" s="7">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D75" t="s">
-        <v>251</v>
-      </c>
-      <c r="E75" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="F75" s="29"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B76" s="7">
-        <v>0.53125</v>
-      </c>
-      <c r="C76" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D76" t="s">
-        <v>252</v>
-      </c>
-      <c r="E76" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="F76" s="29"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B77" s="7">
-        <v>0.59375</v>
-      </c>
-      <c r="C77" s="7">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="D77" t="s">
-        <v>253</v>
-      </c>
-      <c r="E77" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="F77" s="29"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B78" s="7">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C78" s="7">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D78" t="s">
-        <v>254</v>
-      </c>
-      <c r="E78" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F78" s="29"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B79" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="C79" s="7">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="D79" t="s">
-        <v>255</v>
-      </c>
-      <c r="E79" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="F79" s="29"/>
+        <v>436</v>
+      </c>
+      <c r="E42" t="s">
+        <v>411</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -8622,7 +8096,7 @@
         <v>0.84375</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E2" t="s">
         <v>147</v>
@@ -8639,7 +8113,7 @@
         <v>0.4375</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E3" t="s">
         <v>147</v>
@@ -8656,7 +8130,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E4" t="s">
         <v>147</v>
@@ -8713,10 +8187,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75">
@@ -8730,10 +8204,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75">
@@ -8752,10 +8226,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75">
@@ -8769,10 +8243,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75">
@@ -8791,10 +8265,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75">
@@ -8808,10 +8282,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D9" t="s">
+        <v>302</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>303</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75">
@@ -8830,10 +8304,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>303</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75">
@@ -8850,7 +8324,7 @@
         <v>108</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75">
@@ -8869,10 +8343,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75">
@@ -8947,10 +8421,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E2" t="s">
         <v>284</v>
-      </c>
-      <c r="E2" t="s">
-        <v>285</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -8966,10 +8440,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G3" s="33"/>
       <c r="H3" s="33"/>
@@ -8987,10 +8461,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E4" t="s">
         <v>287</v>
-      </c>
-      <c r="E4" t="s">
-        <v>288</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
@@ -9008,10 +8482,10 @@
         <v>0.78125</v>
       </c>
       <c r="D5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
@@ -9037,10 +8511,10 @@
         <v>0.3125</v>
       </c>
       <c r="D7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" t="s">
         <v>284</v>
-      </c>
-      <c r="E7" t="s">
-        <v>285</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="28"/>
@@ -9058,10 +8532,10 @@
         <v>0.46875</v>
       </c>
       <c r="D8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E8" t="s">
         <v>290</v>
-      </c>
-      <c r="E8" t="s">
-        <v>291</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="28"/>
@@ -9079,10 +8553,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
@@ -9100,10 +8574,10 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="28"/>
@@ -9129,10 +8603,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E12" t="s">
         <v>284</v>
-      </c>
-      <c r="E12" t="s">
-        <v>285</v>
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="28"/>
@@ -9150,10 +8624,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="28"/>
@@ -9171,10 +8645,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
@@ -9192,10 +8666,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="28"/>
@@ -9221,10 +8695,10 @@
         <v>0.3125</v>
       </c>
       <c r="D17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="28"/>
@@ -9242,10 +8716,10 @@
         <v>0.46875</v>
       </c>
       <c r="D18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="28"/>
@@ -9263,10 +8737,10 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="D19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
@@ -9284,10 +8758,10 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G20" s="26"/>
       <c r="H20" s="28"/>
@@ -9313,10 +8787,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D22" t="s">
+        <v>283</v>
+      </c>
+      <c r="E22" t="s">
         <v>284</v>
-      </c>
-      <c r="E22" t="s">
-        <v>285</v>
       </c>
       <c r="G22" s="26"/>
       <c r="H22" s="28"/>
@@ -9334,7 +8808,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E23" t="s">
         <v>172</v>
@@ -9355,10 +8829,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="28"/>
@@ -9376,10 +8850,10 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D25" t="s">
+        <v>283</v>
+      </c>
+      <c r="E25" t="s">
         <v>284</v>
-      </c>
-      <c r="E25" t="s">
-        <v>285</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="28"/>
@@ -9405,10 +8879,10 @@
         <v>0.46875</v>
       </c>
       <c r="D27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G27" s="26"/>
       <c r="H27" s="28"/>
@@ -9426,10 +8900,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G28" s="26"/>
       <c r="H28" s="28"/>
@@ -9455,10 +8929,10 @@
         <v>0.46875</v>
       </c>
       <c r="D30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G30" s="26"/>
       <c r="H30" s="28"/>
@@ -9476,10 +8950,10 @@
         <v>0.46875</v>
       </c>
       <c r="D31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
@@ -9571,7 +9045,7 @@
         <v>44</v>
       </c>
       <c r="H1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -9585,10 +9059,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -9602,10 +9076,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -9619,10 +9093,10 @@
         <v>0.5625</v>
       </c>
       <c r="D4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -9636,10 +9110,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E5" t="s">
         <v>277</v>
-      </c>
-      <c r="E5" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -9653,10 +9127,10 @@
         <v>0.75</v>
       </c>
       <c r="D6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -9670,10 +9144,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -9690,10 +9164,10 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -9707,10 +9181,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -9724,10 +9198,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D11" t="s">
+        <v>273</v>
+      </c>
+      <c r="E11" t="s">
         <v>274</v>
-      </c>
-      <c r="E11" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -9741,10 +9215,10 @@
         <v>0.75</v>
       </c>
       <c r="D12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -9758,10 +9232,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -9778,10 +9252,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -9795,10 +9269,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -9812,10 +9286,10 @@
         <v>0.5625</v>
       </c>
       <c r="D17" t="s">
+        <v>273</v>
+      </c>
+      <c r="E17" t="s">
         <v>274</v>
-      </c>
-      <c r="E17" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -9829,10 +9303,10 @@
         <v>0.75</v>
       </c>
       <c r="D18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -9846,10 +9320,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -9866,10 +9340,10 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D21" t="s">
+        <v>273</v>
+      </c>
+      <c r="E21" t="s">
         <v>274</v>
-      </c>
-      <c r="E21" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -9883,10 +9357,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -9900,10 +9374,10 @@
         <v>0.5625</v>
       </c>
       <c r="D23" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -9917,10 +9391,10 @@
         <v>0.75</v>
       </c>
       <c r="D24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -9934,10 +9408,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -9954,10 +9428,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -9971,10 +9445,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -9988,10 +9462,10 @@
         <v>0.5625</v>
       </c>
       <c r="D29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -10005,10 +9479,10 @@
         <v>0.75</v>
       </c>
       <c r="D30" t="s">
+        <v>273</v>
+      </c>
+      <c r="E30" t="s">
         <v>274</v>
-      </c>
-      <c r="E30" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -10022,10 +9496,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -10042,10 +9516,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D33" t="s">
+        <v>273</v>
+      </c>
+      <c r="E33" t="s">
         <v>274</v>
-      </c>
-      <c r="E33" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -10059,10 +9533,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -10076,10 +9550,10 @@
         <v>0.5625</v>
       </c>
       <c r="D35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -10093,10 +9567,10 @@
         <v>0.75</v>
       </c>
       <c r="D36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -10113,10 +9587,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D38" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -10130,10 +9604,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -10147,10 +9621,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -10164,10 +9638,10 @@
         <v>0.75</v>
       </c>
       <c r="D41" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/AvlZen/App_Data/AvlZen.xlsx
+++ b/AvlZen/App_Data/AvlZen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="-15" windowWidth="15645" windowHeight="12060" tabRatio="907" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="7440" yWindow="-15" windowWidth="15645" windowHeight="12060" tabRatio="907" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Places" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="HotYogAvl" sheetId="7" r:id="rId9"/>
     <sheet name="NrshLifeCtr" sheetId="15" r:id="rId10"/>
     <sheet name="OneCtrYog" sheetId="5" r:id="rId11"/>
-    <sheet name="WstAvlYog" sheetId="6" r:id="rId12"/>
-    <sheet name="YmcaReut" sheetId="14" r:id="rId13"/>
-    <sheet name="YmcaWdfn" sheetId="13" r:id="rId14"/>
+    <sheet name="UrbAshram" sheetId="16" r:id="rId12"/>
+    <sheet name="WstAvlYog" sheetId="6" r:id="rId13"/>
+    <sheet name="YmcaReut" sheetId="14" r:id="rId14"/>
+    <sheet name="YmcaWdfn" sheetId="13" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_cid31" localSheetId="2">AvlHapBod!$J$3</definedName>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="500">
   <si>
     <t>Code</t>
   </si>
@@ -1469,6 +1470,90 @@
   </si>
   <si>
     <t>Jackie Dobrinska</t>
+  </si>
+  <si>
+    <t>UrbAshram</t>
+  </si>
+  <si>
+    <t>Urban Ashram Studio</t>
+  </si>
+  <si>
+    <t>https://clients.mindbodyonline.com/ASP/home.asp?studioid=149266</t>
+  </si>
+  <si>
+    <t>62 Wall St Asheville, North Carolina 28801</t>
+  </si>
+  <si>
+    <t>Rise and Shine Vinyasa Flow - $10 Drop in</t>
+  </si>
+  <si>
+    <t>Lyle Mitchell</t>
+  </si>
+  <si>
+    <t>All Levels Vinyasa Flow</t>
+  </si>
+  <si>
+    <t>Lillian Jacobs</t>
+  </si>
+  <si>
+    <t>Power Hour - $10 Drop in</t>
+  </si>
+  <si>
+    <t>Level 1 Vinyasa Flow - $5 Drop in</t>
+  </si>
+  <si>
+    <t>Julian Albertson</t>
+  </si>
+  <si>
+    <t>Playful Flow</t>
+  </si>
+  <si>
+    <t>Rich Risbridger</t>
+  </si>
+  <si>
+    <t>Vin Yin Blend</t>
+  </si>
+  <si>
+    <t>Lea Mclellan</t>
+  </si>
+  <si>
+    <t>Heated Flow</t>
+  </si>
+  <si>
+    <t>Lia Curtis-Fine</t>
+  </si>
+  <si>
+    <t>All Levels Yoga</t>
+  </si>
+  <si>
+    <t>Eva Rose</t>
+  </si>
+  <si>
+    <t>Kick Your Asana</t>
+  </si>
+  <si>
+    <t>AcroYoga</t>
+  </si>
+  <si>
+    <t>The Roots</t>
+  </si>
+  <si>
+    <t>Emma Salmon</t>
+  </si>
+  <si>
+    <t>AcroYoga: Thai &amp; Fly</t>
+  </si>
+  <si>
+    <t>Level 1-2 Vinyasa Flow - $5 Drop in</t>
+  </si>
+  <si>
+    <t>AcroYoga Conditioning *Cancelled 4/27</t>
+  </si>
+  <si>
+    <t>Yin</t>
+  </si>
+  <si>
+    <t>Cara Mckinney</t>
   </si>
 </sst>
 </file>
@@ -1762,14 +1847,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2073,10 +2158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2243,43 +2328,57 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>472</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>473</v>
       </c>
       <c r="C12" t="s">
-        <v>257</v>
+        <v>474</v>
       </c>
       <c r="D12" t="s">
-        <v>349</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>330</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>331</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>372</v>
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>257</v>
       </c>
       <c r="D13" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B14" t="s">
-        <v>269</v>
+        <v>331</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>372</v>
       </c>
       <c r="D14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="D15" t="s">
         <v>356</v>
       </c>
     </row>
@@ -2304,7 +2403,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3416,10 +3515,667 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.28125</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.53125</v>
+      </c>
+      <c r="D4" t="s">
+        <v>480</v>
+      </c>
+      <c r="E4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="D5" t="s">
+        <v>481</v>
+      </c>
+      <c r="E5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.78125</v>
+      </c>
+      <c r="D6" t="s">
+        <v>483</v>
+      </c>
+      <c r="E6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.84375</v>
+      </c>
+      <c r="D7" t="s">
+        <v>485</v>
+      </c>
+      <c r="E7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D9" t="s">
+        <v>478</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D10" t="s">
+        <v>487</v>
+      </c>
+      <c r="E10" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="D11" t="s">
+        <v>489</v>
+      </c>
+      <c r="E11" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.78125</v>
+      </c>
+      <c r="D12" t="s">
+        <v>491</v>
+      </c>
+      <c r="E12" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D13" t="s">
+        <v>492</v>
+      </c>
+      <c r="E13" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.28125</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D15" t="s">
+        <v>476</v>
+      </c>
+      <c r="E15" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D16" t="s">
+        <v>478</v>
+      </c>
+      <c r="E16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D17" t="s">
+        <v>480</v>
+      </c>
+      <c r="E17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="D18" t="s">
+        <v>481</v>
+      </c>
+      <c r="E18" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.78125</v>
+      </c>
+      <c r="D19" t="s">
+        <v>483</v>
+      </c>
+      <c r="E19" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.84375</v>
+      </c>
+      <c r="D20" t="s">
+        <v>485</v>
+      </c>
+      <c r="E20" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D22" t="s">
+        <v>478</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D23" t="s">
+        <v>487</v>
+      </c>
+      <c r="E23" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="D24" t="s">
+        <v>489</v>
+      </c>
+      <c r="E24" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.78125</v>
+      </c>
+      <c r="D25" t="s">
+        <v>491</v>
+      </c>
+      <c r="E25" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.84375</v>
+      </c>
+      <c r="D26" t="s">
+        <v>493</v>
+      </c>
+      <c r="E26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.28125</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D28" t="s">
+        <v>476</v>
+      </c>
+      <c r="E28" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D29" t="s">
+        <v>478</v>
+      </c>
+      <c r="E29" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D30" t="s">
+        <v>480</v>
+      </c>
+      <c r="E30" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="D31" t="s">
+        <v>481</v>
+      </c>
+      <c r="E31" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.78125</v>
+      </c>
+      <c r="D32" t="s">
+        <v>483</v>
+      </c>
+      <c r="E32" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.84375</v>
+      </c>
+      <c r="D33" t="s">
+        <v>495</v>
+      </c>
+      <c r="E33" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D35" t="s">
+        <v>496</v>
+      </c>
+      <c r="E35" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D36" t="s">
+        <v>478</v>
+      </c>
+      <c r="E36" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D37" t="s">
+        <v>478</v>
+      </c>
+      <c r="E37" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D39" t="s">
+        <v>478</v>
+      </c>
+      <c r="E39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D40" t="s">
+        <v>478</v>
+      </c>
+      <c r="E40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D41" t="s">
+        <v>497</v>
+      </c>
+      <c r="E41" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="D42" t="s">
+        <v>498</v>
+      </c>
+      <c r="E42" t="s">
+        <v>499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3981,12 +4737,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4237,12 +4993,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4611,7 +5367,7 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5952,7 +6708,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6313,7 +7069,7 @@
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7407,7 +8163,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7558,7 +8314,7 @@
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="33">
         <v>0.35416666666666669</v>
       </c>
       <c r="C10" s="7">
@@ -7575,7 +8331,7 @@
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="34">
         <v>0.41666666666666669</v>
       </c>
       <c r="C11" s="7">
@@ -7592,7 +8348,7 @@
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="34">
         <v>0.5</v>
       </c>
       <c r="C12" s="7">
@@ -7609,7 +8365,7 @@
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="34">
         <v>0.58333333333333337</v>
       </c>
       <c r="C13" s="7">
@@ -7626,7 +8382,7 @@
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="34">
         <v>0.67708333333333337</v>
       </c>
       <c r="C14" s="7">
@@ -7643,7 +8399,7 @@
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="34">
         <v>0.73958333333333337</v>
       </c>
       <c r="C15" s="7">
@@ -7660,7 +8416,7 @@
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="34">
         <v>0.8125</v>
       </c>
       <c r="C16" s="7">
@@ -8058,7 +8814,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8148,7 +8904,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:IV1"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8376,7 +9132,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8445,8 +9201,8 @@
       <c r="E3" t="s">
         <v>293</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
@@ -8495,8 +9251,8 @@
     <row r="6" spans="1:10">
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
     </row>
@@ -8558,8 +9314,8 @@
       <c r="E9" t="s">
         <v>291</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
     </row>
@@ -8650,8 +9406,8 @@
       <c r="E14" t="s">
         <v>288</v>
       </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
     </row>
@@ -8742,8 +9498,8 @@
       <c r="E19" t="s">
         <v>294</v>
       </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
     </row>
@@ -8863,8 +9619,8 @@
     <row r="26" spans="1:10">
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
     </row>
@@ -8955,8 +9711,8 @@
       <c r="E31" t="s">
         <v>290</v>
       </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
     </row>
@@ -9017,7 +9773,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/AvlZen/App_Data/AvlZen.xlsx
+++ b/AvlZen/App_Data/AvlZen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="-15" windowWidth="15645" windowHeight="12060" tabRatio="907" activeTab="11"/>
+    <workbookView xWindow="7440" yWindow="-15" windowWidth="15645" windowHeight="12060" tabRatio="907" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Places" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="502">
   <si>
     <t>Code</t>
   </si>
@@ -236,12 +236,6 @@
     <t>Lewis Rothlein</t>
   </si>
   <si>
-    <t>HOT Dynamic Flow 2&amp;3</t>
-  </si>
-  <si>
-    <t>Brooke McDade</t>
-  </si>
-  <si>
     <t>Slow Power Flow Level 1&amp;2</t>
   </si>
   <si>
@@ -272,18 +266,12 @@
     <t>Ryan Conrad</t>
   </si>
   <si>
-    <t>12-Week Beginning Iyengar Yoga</t>
-  </si>
-  <si>
     <t>Lynn Patton</t>
   </si>
   <si>
     <t>6-Week - Iyengar Slow Yoga</t>
   </si>
   <si>
-    <t>Yoga Basics 1 level</t>
-  </si>
-  <si>
     <t>Jacci</t>
   </si>
   <si>
@@ -428,12 +416,6 @@
     <t>Hot Flow Level 1&amp;2</t>
   </si>
   <si>
-    <t>HOT Dynamic Flow Level 1 &amp; 2</t>
-  </si>
-  <si>
-    <t>Brian VanWyngarden</t>
-  </si>
-  <si>
     <t>Align and Slow Flow All Levels</t>
   </si>
   <si>
@@ -530,9 +512,6 @@
     <t>Iyengar Yoga -Level II</t>
   </si>
   <si>
-    <t>8-Week Chakra Yoga - Level I</t>
-  </si>
-  <si>
     <t>Yoga Basics</t>
   </si>
   <si>
@@ -698,9 +677,6 @@
     <t>Anna Ferguson</t>
   </si>
   <si>
-    <t>Living in Alignment Yoga 2 level</t>
-  </si>
-  <si>
     <t>Christie</t>
   </si>
   <si>
@@ -722,9 +698,6 @@
     <t>Meghan</t>
   </si>
   <si>
-    <t>Kimberly Drye</t>
-  </si>
-  <si>
     <t>Rise and Shine Kundalini Yoga all level</t>
   </si>
   <si>
@@ -917,9 +890,6 @@
     <t>Power Flex</t>
   </si>
   <si>
-    <t>Donna</t>
-  </si>
-  <si>
     <t>Cassie</t>
   </si>
   <si>
@@ -929,9 +899,6 @@
     <t>Jonna</t>
   </si>
   <si>
-    <t>Jonna (sub)</t>
-  </si>
-  <si>
     <t>JP</t>
   </si>
   <si>
@@ -1091,9 +1058,6 @@
     <t>Dao Flow Yoga for Women Levels 1 &amp; 2</t>
   </si>
   <si>
-    <t>Dao Flow Yoga for Women Level 2</t>
-  </si>
-  <si>
     <t>8 Brookdale Rd. Suite A Asheville, NC. 28804</t>
   </si>
   <si>
@@ -1178,9 +1142,6 @@
     <t>Silent Class - Teacher Led</t>
   </si>
   <si>
-    <t>Beginner's Workshop</t>
-  </si>
-  <si>
     <t>Healing Qigong</t>
   </si>
   <si>
@@ -1208,9 +1169,6 @@
     <t>Slow Flow</t>
   </si>
   <si>
-    <t>Kundalini Yoga Flow</t>
-  </si>
-  <si>
     <t>Warm Therapeutic Power Flow</t>
   </si>
   <si>
@@ -1259,12 +1217,6 @@
     <t>Women's Kundalini Yoga and Meditation * starts April 13</t>
   </si>
   <si>
-    <t>Yoga Barre</t>
-  </si>
-  <si>
-    <t>Corey B.</t>
-  </si>
-  <si>
     <t>Brook</t>
   </si>
   <si>
@@ -1280,15 +1232,9 @@
     <t>Kimberly Puryear</t>
   </si>
   <si>
-    <t>Jivamukti All Levels</t>
-  </si>
-  <si>
     <t>Kumiko Yamada</t>
   </si>
   <si>
-    <t>HOT Kundalini All Levels</t>
-  </si>
-  <si>
     <t>Alex Ali</t>
   </si>
   <si>
@@ -1319,9 +1265,6 @@
     <t>Yoga Sangha (Level 1 &amp; 2)</t>
   </si>
   <si>
-    <t>HOT Bhakti Vinyasa, Level 1&amp;2</t>
-  </si>
-  <si>
     <t>HOT Flow, Level 1&amp;2</t>
   </si>
   <si>
@@ -1337,36 +1280,15 @@
     <t>Yoga &amp; Body Rolling, All Levels</t>
   </si>
   <si>
-    <t>Paige</t>
-  </si>
-  <si>
     <t>Warm Jivamukti, Level 1&amp;2</t>
   </si>
   <si>
     <t>Vibrant Breath Yoga, All Levels</t>
   </si>
   <si>
-    <t>Beginners’ Yoga, Level 1</t>
-  </si>
-  <si>
-    <t>Kundalini Yoga, All Levels</t>
-  </si>
-  <si>
     <t>Krystal</t>
   </si>
   <si>
-    <t>HOT Flow, Level 1 &amp; 2</t>
-  </si>
-  <si>
-    <t>Tantra Vinyasa, Level 1&amp;2</t>
-  </si>
-  <si>
-    <t>Mindful Alignment, Level 1&amp;2</t>
-  </si>
-  <si>
-    <t>Yoga Nidra, All Levels</t>
-  </si>
-  <si>
     <t>Slow Flow &amp; Deep Stretch Level 1&amp;2</t>
   </si>
   <si>
@@ -1376,9 +1298,6 @@
     <t>Jane-Anne Tager</t>
   </si>
   <si>
-    <t>Tim Burgin</t>
-  </si>
-  <si>
     <t>Vinyasa Flow All Levels</t>
   </si>
   <si>
@@ -1400,9 +1319,6 @@
     <t>Yoga for Women Level 1&amp;2</t>
   </si>
   <si>
-    <t>HOT Align &amp; Flow Level 1&amp;2</t>
-  </si>
-  <si>
     <t>Adam Taylor</t>
   </si>
   <si>
@@ -1460,9 +1376,6 @@
     <t>Warm Kripalu Flow Level 1&amp;2</t>
   </si>
   <si>
-    <t>Meditation in Motion</t>
-  </si>
-  <si>
     <t>Andrea Rich</t>
   </si>
   <si>
@@ -1541,19 +1454,112 @@
     <t>Emma Salmon</t>
   </si>
   <si>
-    <t>AcroYoga: Thai &amp; Fly</t>
-  </si>
-  <si>
     <t>Level 1-2 Vinyasa Flow - $5 Drop in</t>
   </si>
   <si>
-    <t>AcroYoga Conditioning *Cancelled 4/27</t>
-  </si>
-  <si>
     <t>Yin</t>
   </si>
   <si>
     <t>Cara Mckinney</t>
+  </si>
+  <si>
+    <t>Britt</t>
+  </si>
+  <si>
+    <t>Lindsay Fields</t>
+  </si>
+  <si>
+    <t>Beginner Slow Flow</t>
+  </si>
+  <si>
+    <t>12 Steps and Yoga</t>
+  </si>
+  <si>
+    <t>HOT Kundalini All Levels $7</t>
+  </si>
+  <si>
+    <t>HOT Flow Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>Free Meditation and Mindfulness Practice</t>
+  </si>
+  <si>
+    <t>Restore &amp; Renew All Levels</t>
+  </si>
+  <si>
+    <t>Lindsay Munro</t>
+  </si>
+  <si>
+    <t>Bliss Body Flow Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>Therapeutic Yoga for Injuries</t>
+  </si>
+  <si>
+    <t>Meditation in Motion All Levels</t>
+  </si>
+  <si>
+    <t>Gentle Flow Level 1</t>
+  </si>
+  <si>
+    <t>Kundalini Yoga All Levels</t>
+  </si>
+  <si>
+    <t>HOT Deep Core Flow Level 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>Tantra Vinyasa Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>Slow Flow Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>Align &amp; Restore All Levels</t>
+  </si>
+  <si>
+    <t>Yoga Sangha (Level 1 &amp; 2 Donation Based! $5 - $10)</t>
+  </si>
+  <si>
+    <t>Re-Creative Yoga (Reuters Center)</t>
+  </si>
+  <si>
+    <t>Booie Young</t>
+  </si>
+  <si>
+    <t>Family Class Ages 4 and uo with adukt</t>
+  </si>
+  <si>
+    <t>Dao Flow Yoga for Women Level 1</t>
+  </si>
+  <si>
+    <t>Yoga After 50/Level 1</t>
+  </si>
+  <si>
+    <t>Alignment Based Level 1</t>
+  </si>
+  <si>
+    <t>Power to the Playful</t>
+  </si>
+  <si>
+    <t>Rob Lenfestey</t>
+  </si>
+  <si>
+    <t>Liza</t>
+  </si>
+  <si>
+    <t>Living in Alignment Yoga</t>
+  </si>
+  <si>
+    <t>Slow Flow and Deep Stretch</t>
+  </si>
+  <si>
+    <t>Dynamic Flow Yoga</t>
+  </si>
+  <si>
+    <t>Kids in Motion Yoga</t>
+  </si>
+  <si>
+    <t>Jane Anne</t>
   </si>
 </sst>
 </file>
@@ -2183,7 +2189,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2194,24 +2200,24 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D2" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C3" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D3" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2222,10 +2228,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2239,77 +2245,77 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="D6" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D7" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B8" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D8" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B9" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D9" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B10" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="D10" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2323,21 +2329,21 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>472</v>
+        <v>443</v>
       </c>
       <c r="B12" t="s">
-        <v>473</v>
+        <v>444</v>
       </c>
       <c r="C12" t="s">
-        <v>474</v>
+        <v>445</v>
       </c>
       <c r="D12" t="s">
-        <v>475</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2348,38 +2354,38 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D13" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B14" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="D14" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B15" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="D15" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -2400,10 +2406,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2432,7 +2438,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B2" s="7">
         <v>0.66666666666666663</v>
@@ -2441,10 +2447,10 @@
         <v>0.71875</v>
       </c>
       <c r="D2" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="E2" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2458,15 +2464,15 @@
         <v>0.4375</v>
       </c>
       <c r="D4" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="E4" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B6" s="7">
         <v>0.5</v>
@@ -2475,78 +2481,61 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D6" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="E6" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="7">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D7" t="s">
+        <v>491</v>
+      </c>
+      <c r="E7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="7">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="7">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D8" t="s">
-        <v>377</v>
-      </c>
-      <c r="E8" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="7">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.4375</v>
-      </c>
-      <c r="D10" t="s">
-        <v>344</v>
-      </c>
-      <c r="E10" t="s">
-        <v>343</v>
+      <c r="D9" t="s">
+        <v>364</v>
+      </c>
+      <c r="E9" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B11" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C11" s="7">
-        <v>0.71875</v>
+        <v>0.4375</v>
       </c>
       <c r="D11" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E11" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D13" t="s">
-        <v>345</v>
-      </c>
-      <c r="E13" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -2557,10 +2546,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2589,7 +2578,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B2" s="7">
         <v>0.33333333333333331</v>
@@ -2598,24 +2587,24 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B3" s="7">
         <v>0.39583333333333331</v>
@@ -2624,24 +2613,24 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B4" s="7">
         <v>0.41666666666666669</v>
@@ -2650,24 +2639,24 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B5" s="7">
         <v>0.5</v>
@@ -2676,24 +2665,24 @@
         <v>0.5625</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B6" s="7">
         <v>0.65625</v>
@@ -2702,24 +2691,24 @@
         <v>0.71875</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B7" s="7">
         <v>0.66666666666666663</v>
@@ -2728,24 +2717,24 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B8" s="7">
         <v>0.72916666666666663</v>
@@ -2754,24 +2743,24 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D8" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G8" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B9" s="7">
         <v>0.75</v>
@@ -2780,19 +2769,19 @@
         <v>0.8125</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G9" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1"/>
@@ -2807,10 +2796,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>64</v>
+        <v>492</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1">
@@ -2824,10 +2813,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1">
@@ -2841,10 +2830,10 @@
         <v>0.5625</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1">
@@ -2858,10 +2847,10 @@
         <v>0.71875</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1">
@@ -2875,10 +2864,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1">
@@ -2892,10 +2881,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>72</v>
+        <v>493</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1">
@@ -2909,15 +2898,15 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B19" s="7">
         <v>0.33333333333333331</v>
@@ -2926,24 +2915,24 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" t="s">
         <v>138</v>
       </c>
-      <c r="F19" t="s">
-        <v>139</v>
-      </c>
-      <c r="G19" t="s">
-        <v>144</v>
-      </c>
       <c r="H19" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B20" s="7">
         <v>0.39583333333333331</v>
@@ -2952,24 +2941,24 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G20" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H20" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B21" s="7">
         <v>0.40625</v>
@@ -2978,24 +2967,24 @@
         <v>0.46875</v>
       </c>
       <c r="D21" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E21" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F21" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G21" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H21" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B22" s="7">
         <v>0.5</v>
@@ -3004,24 +2993,24 @@
         <v>0.5625</v>
       </c>
       <c r="D22" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F22" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G22" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H22" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B23" s="7">
         <v>0.66666666666666663</v>
@@ -3030,24 +3019,24 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D23" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E23" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F23" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G23" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H23" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B24" s="7">
         <v>0.72916666666666663</v>
@@ -3056,24 +3045,24 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D24" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G24" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H24" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B25" s="7">
         <v>0.73958333333333337</v>
@@ -3082,24 +3071,24 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F25" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G25" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H25" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B27" s="7">
         <v>0.29166666666666669</v>
@@ -3108,403 +3097,377 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F27" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G27" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H27" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B28" s="7">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C28" s="7">
-        <v>0.4375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D28" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="F28" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H28" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B29" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="C29" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.5625</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>352</v>
       </c>
       <c r="F29" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G29" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D30" t="s">
+        <v>368</v>
+      </c>
+      <c r="E30" t="s">
+        <v>369</v>
+      </c>
+      <c r="G30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="D31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0.5625</v>
-      </c>
-      <c r="D30" t="s">
-        <v>159</v>
-      </c>
-      <c r="E30" t="s">
-        <v>364</v>
-      </c>
-      <c r="F30" t="s">
-        <v>139</v>
-      </c>
-      <c r="G30" t="s">
-        <v>144</v>
-      </c>
-      <c r="H30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="7">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="D31" t="s">
-        <v>381</v>
-      </c>
-      <c r="E31" t="s">
-        <v>382</v>
+      <c r="F31" t="s">
+        <v>133</v>
       </c>
       <c r="G31" t="s">
-        <v>140</v>
+        <v>138</v>
+      </c>
+      <c r="H31" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B32" s="7">
-        <v>0.63541666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="C32" s="7">
-        <v>0.69791666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E32" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F32" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G32" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="H32" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B33" s="7">
-        <v>0.64583333333333337</v>
+        <v>0.71875</v>
       </c>
       <c r="C33" s="7">
-        <v>0.70833333333333337</v>
+        <v>0.78125</v>
       </c>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E33" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" t="s">
         <v>138</v>
       </c>
-      <c r="F33" t="s">
-        <v>139</v>
-      </c>
-      <c r="G33" t="s">
-        <v>140</v>
-      </c>
       <c r="H33" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B34" s="7">
-        <v>0.71875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="C34" s="7">
-        <v>0.78125</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D34" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E34" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F34" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G34" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="H34" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="7">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="C35" s="7">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D35" t="s">
-        <v>163</v>
-      </c>
-      <c r="E35" t="s">
-        <v>164</v>
-      </c>
-      <c r="F35" t="s">
-        <v>139</v>
-      </c>
-      <c r="G35" t="s">
-        <v>140</v>
-      </c>
-      <c r="H35" t="s">
-        <v>141</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" t="s">
+        <v>133</v>
+      </c>
+      <c r="G36" t="s">
+        <v>134</v>
+      </c>
+      <c r="H36" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B37" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C37" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D37" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E37" t="s">
-        <v>67</v>
+        <v>352</v>
       </c>
       <c r="F37" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G37" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H37" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B38" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="C38" s="7">
-        <v>0.47916666666666669</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E38" t="s">
-        <v>364</v>
+        <v>144</v>
       </c>
       <c r="F38" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G38" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H38" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B39" s="7">
-        <v>0.5</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C39" s="7">
-        <v>0.54166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D39" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F39" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G39" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H39" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="7">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C40" s="7">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D40" t="s">
-        <v>169</v>
-      </c>
-      <c r="E40" t="s">
-        <v>155</v>
-      </c>
-      <c r="F40" t="s">
-        <v>139</v>
-      </c>
-      <c r="G40" t="s">
-        <v>144</v>
-      </c>
-      <c r="H40" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" s="7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="7">
         <v>0.375</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C41" s="7">
         <v>0.4375</v>
       </c>
-      <c r="D42" t="s">
-        <v>151</v>
-      </c>
-      <c r="E42" t="s">
-        <v>170</v>
-      </c>
-      <c r="F42" t="s">
-        <v>139</v>
-      </c>
-      <c r="G42" t="s">
-        <v>144</v>
-      </c>
-      <c r="H42" t="s">
-        <v>141</v>
+      <c r="D41" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" t="s">
+        <v>163</v>
+      </c>
+      <c r="F41" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" t="s">
+        <v>138</v>
+      </c>
+      <c r="H41" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" t="s">
+        <v>138</v>
+      </c>
+      <c r="H43" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="8" t="s">
-        <v>85</v>
+      <c r="A44" t="s">
+        <v>81</v>
       </c>
       <c r="B44" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C44" s="7">
-        <v>0.47916666666666669</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D44" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="E44" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="F44" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G44" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="H44" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="7">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C45" s="7">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D45" t="s">
-        <v>151</v>
-      </c>
-      <c r="E45" t="s">
-        <v>138</v>
-      </c>
-      <c r="F45" t="s">
-        <v>139</v>
-      </c>
-      <c r="G45" t="s">
-        <v>140</v>
-      </c>
-      <c r="H45" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3515,10 +3478,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3547,7 +3510,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B2" s="7">
         <v>0.28125</v>
@@ -3556,15 +3519,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D2" t="s">
-        <v>476</v>
+        <v>447</v>
       </c>
       <c r="E2" t="s">
-        <v>477</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B3" s="7">
         <v>0.375</v>
@@ -3573,15 +3536,15 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D3" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="E3" t="s">
-        <v>479</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B4" s="7">
         <v>0.5</v>
@@ -3590,15 +3553,15 @@
         <v>0.53125</v>
       </c>
       <c r="D4" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
       <c r="E4" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B5" s="7">
         <v>0.66666666666666663</v>
@@ -3607,15 +3570,15 @@
         <v>0.71875</v>
       </c>
       <c r="D5" t="s">
-        <v>481</v>
+        <v>452</v>
       </c>
       <c r="E5" t="s">
-        <v>482</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B6" s="7">
         <v>0.72916666666666663</v>
@@ -3624,15 +3587,15 @@
         <v>0.78125</v>
       </c>
       <c r="D6" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="E6" t="s">
-        <v>484</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B7" s="7">
         <v>0.79166666666666663</v>
@@ -3641,10 +3604,10 @@
         <v>0.84375</v>
       </c>
       <c r="D7" t="s">
-        <v>485</v>
+        <v>456</v>
       </c>
       <c r="E7" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3663,10 +3626,10 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D9" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3680,10 +3643,10 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D10" t="s">
-        <v>487</v>
+        <v>458</v>
       </c>
       <c r="E10" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3697,10 +3660,10 @@
         <v>0.71875</v>
       </c>
       <c r="D11" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="E11" t="s">
-        <v>490</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3714,10 +3677,10 @@
         <v>0.78125</v>
       </c>
       <c r="D12" t="s">
-        <v>491</v>
+        <v>462</v>
       </c>
       <c r="E12" t="s">
-        <v>479</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3731,10 +3694,10 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D13" t="s">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="E13" t="s">
-        <v>479</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3743,7 +3706,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <v>0.28125</v>
@@ -3752,15 +3715,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D15" t="s">
-        <v>476</v>
+        <v>447</v>
       </c>
       <c r="E15" t="s">
-        <v>477</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B16" s="7">
         <v>0.375</v>
@@ -3769,15 +3732,15 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D16" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="E16" t="s">
-        <v>479</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B17" s="7">
         <v>0.5</v>
@@ -3786,15 +3749,15 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D17" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
       <c r="E17" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B18" s="7">
         <v>0.66666666666666663</v>
@@ -3803,15 +3766,15 @@
         <v>0.71875</v>
       </c>
       <c r="D18" t="s">
-        <v>481</v>
+        <v>452</v>
       </c>
       <c r="E18" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B19" s="7">
         <v>0.72916666666666663</v>
@@ -3820,15 +3783,15 @@
         <v>0.78125</v>
       </c>
       <c r="D19" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="E19" t="s">
-        <v>484</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B20" s="7">
         <v>0.79166666666666663</v>
@@ -3837,10 +3800,10 @@
         <v>0.84375</v>
       </c>
       <c r="D20" t="s">
-        <v>485</v>
+        <v>456</v>
       </c>
       <c r="E20" t="s">
-        <v>479</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3849,7 +3812,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B22" s="7">
         <v>0.375</v>
@@ -3858,15 +3821,15 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D22" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B23" s="7">
         <v>0.4375</v>
@@ -3875,15 +3838,15 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D23" t="s">
-        <v>487</v>
+        <v>458</v>
       </c>
       <c r="E23" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B24" s="7">
         <v>0.66666666666666663</v>
@@ -3892,15 +3855,15 @@
         <v>0.71875</v>
       </c>
       <c r="D24" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="E24" t="s">
-        <v>490</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B25" s="7">
         <v>0.72916666666666663</v>
@@ -3909,15 +3872,15 @@
         <v>0.78125</v>
       </c>
       <c r="D25" t="s">
-        <v>491</v>
+        <v>462</v>
       </c>
       <c r="E25" t="s">
-        <v>479</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B26" s="7">
         <v>0.79166666666666663</v>
@@ -3926,10 +3889,10 @@
         <v>0.84375</v>
       </c>
       <c r="D26" t="s">
-        <v>493</v>
+        <v>464</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3938,24 +3901,24 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B28" s="7">
-        <v>0.28125</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="C28" s="7">
         <v>0.33333333333333331</v>
       </c>
       <c r="D28" t="s">
-        <v>476</v>
+        <v>447</v>
       </c>
       <c r="E28" t="s">
-        <v>477</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B29" s="7">
         <v>0.375</v>
@@ -3964,15 +3927,15 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D29" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="E29" t="s">
-        <v>479</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B30" s="7">
         <v>0.5</v>
@@ -3981,15 +3944,15 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D30" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
       <c r="E30" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B31" s="7">
         <v>0.66666666666666663</v>
@@ -3998,15 +3961,15 @@
         <v>0.71875</v>
       </c>
       <c r="D31" t="s">
-        <v>481</v>
+        <v>452</v>
       </c>
       <c r="E31" t="s">
-        <v>494</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B32" s="7">
         <v>0.72916666666666663</v>
@@ -4015,15 +3978,15 @@
         <v>0.78125</v>
       </c>
       <c r="D32" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="E32" t="s">
-        <v>484</v>
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B33" s="7">
         <v>0.79166666666666663</v>
@@ -4032,10 +3995,10 @@
         <v>0.84375</v>
       </c>
       <c r="D33" t="s">
+        <v>494</v>
+      </c>
+      <c r="E33" t="s">
         <v>495</v>
-      </c>
-      <c r="E33" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4044,7 +4007,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B35" s="7">
         <v>0.33333333333333331</v>
@@ -4053,15 +4016,15 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="D35" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="E35" t="s">
-        <v>494</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B36" s="7">
         <v>0.39583333333333331</v>
@@ -4070,15 +4033,15 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D36" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="E36" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B37" s="7">
         <v>0.45833333333333331</v>
@@ -4087,10 +4050,10 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D37" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="E37" t="s">
-        <v>482</v>
+        <v>453</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4099,7 +4062,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B39" s="7">
         <v>0.39583333333333331</v>
@@ -4108,15 +4071,15 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D39" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="E39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B40" s="7">
         <v>0.45833333333333331</v>
@@ -4125,44 +4088,27 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D40" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="E40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="7" t="s">
-        <v>85</v>
+      <c r="A41" t="s">
+        <v>81</v>
       </c>
       <c r="B41" s="7">
-        <v>0.54166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="C41" s="7">
-        <v>0.58333333333333337</v>
+        <v>0.80208333333333337</v>
       </c>
       <c r="D41" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="E41" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="C42" s="7">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="D42" t="s">
-        <v>498</v>
-      </c>
-      <c r="E42" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -4172,10 +4118,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4204,42 +4150,42 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
-        <v>80</v>
+      <c r="A2" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="B2" s="7">
-        <v>0.38541666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C2" s="7">
-        <v>0.42708333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B3" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="C3" s="7">
-        <v>0.5</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D3" t="s">
-        <v>384</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B4" s="7">
         <v>0.52083333333333337</v>
@@ -4248,15 +4194,15 @@
         <v>0.5625</v>
       </c>
       <c r="D4" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E4" t="s">
-        <v>361</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B5" s="7">
         <v>0.625</v>
@@ -4265,15 +4211,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D5" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="E5" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B6" s="7">
         <v>0.72916666666666663</v>
@@ -4282,15 +4228,15 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D6" t="s">
-        <v>214</v>
+        <v>497</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B7" s="7">
         <v>0.80208333333333337</v>
@@ -4299,10 +4245,10 @@
         <v>0.84375</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1"/>
@@ -4317,10 +4263,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1">
@@ -4334,10 +4280,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1">
@@ -4345,16 +4291,16 @@
         <v>15</v>
       </c>
       <c r="B11" s="5">
-        <v>0.5</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="C11" s="5">
         <v>0.55208333333333337</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
@@ -4368,10 +4314,10 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1">
@@ -4385,10 +4331,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1">
@@ -4402,15 +4348,15 @@
         <v>0.4375</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B16" s="7">
         <v>0.33333333333333331</v>
@@ -4419,7 +4365,7 @@
         <v>0.375</v>
       </c>
       <c r="D16" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>27</v>
@@ -4427,7 +4373,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B17" s="7">
         <v>0.39583333333333331</v>
@@ -4436,15 +4382,15 @@
         <v>0.4375</v>
       </c>
       <c r="D17" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B18" s="7">
         <v>0.45833333333333331</v>
@@ -4453,15 +4399,15 @@
         <v>0.5</v>
       </c>
       <c r="D18" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B19" s="7">
         <v>0.52083333333333337</v>
@@ -4470,15 +4416,15 @@
         <v>0.5625</v>
       </c>
       <c r="D19" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B20" s="7">
         <v>0.625</v>
@@ -4487,32 +4433,32 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D20" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B21" s="7">
-        <v>0.75</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="C21" s="7">
         <v>0.79166666666666663</v>
       </c>
       <c r="D21" t="s">
-        <v>383</v>
+        <v>498</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>222</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B22" s="7">
         <v>0.80208333333333337</v>
@@ -4521,15 +4467,15 @@
         <v>0.84375</v>
       </c>
       <c r="D22" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B24" s="7">
         <v>0.3125</v>
@@ -4538,15 +4484,15 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D24" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B25" s="7">
         <v>0.38541666666666669</v>
@@ -4555,15 +4501,15 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B26" s="7">
         <v>0.44791666666666669</v>
@@ -4572,15 +4518,15 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D26" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B27" s="7">
         <v>0.53125</v>
@@ -4589,15 +4535,15 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D27" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B28" s="7">
         <v>0.73958333333333337</v>
@@ -4606,129 +4552,146 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D28" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="7">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D30" t="s">
-        <v>388</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>219</v>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D29" t="s">
+        <v>385</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B31" s="7">
-        <v>0.4375</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="C31" s="7">
-        <v>0.5</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D31" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>51</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B32" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>383</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="7">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C33" s="7">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D32" t="s">
-        <v>396</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="7">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="C34" s="7">
-        <v>0.4375</v>
-      </c>
-      <c r="D34" t="s">
-        <v>398</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>215</v>
+      <c r="D33" t="s">
+        <v>382</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B35" s="7">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="D35" t="s">
+        <v>384</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="7">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C36" s="7">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D35" t="s">
-        <v>399</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" s="7">
+      <c r="D36" t="s">
+        <v>385</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="7">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C38" s="7">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D37" t="s">
-        <v>383</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="7">
+      <c r="D38" t="s">
+        <v>370</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="7">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C39" s="7">
         <v>0.71875</v>
       </c>
-      <c r="D38" t="s">
-        <v>400</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>217</v>
+      <c r="D39" t="s">
+        <v>386</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -4742,7 +4705,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4769,12 +4732,12 @@
         <v>44</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B2" s="7">
         <v>0.39583333333333331</v>
@@ -4783,18 +4746,18 @@
         <v>0.4375</v>
       </c>
       <c r="D2" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B3" s="7">
         <v>0.4375</v>
@@ -4803,7 +4766,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
@@ -4820,7 +4783,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D5" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
@@ -4837,15 +4800,15 @@
         <v>0.8125</v>
       </c>
       <c r="D6" t="s">
-        <v>401</v>
+        <v>499</v>
       </c>
       <c r="E6" t="s">
-        <v>402</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B8" s="7">
         <v>0.39583333333333331</v>
@@ -4854,15 +4817,15 @@
         <v>0.4375</v>
       </c>
       <c r="D8" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E8" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B10" s="7">
         <v>0.4375</v>
@@ -4871,7 +4834,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D10" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -4879,7 +4842,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B11" s="7">
         <v>0.77083333333333337</v>
@@ -4888,15 +4851,15 @@
         <v>0.8125</v>
       </c>
       <c r="D11" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E11" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B13" s="7">
         <v>0.35416666666666669</v>
@@ -4905,15 +4868,15 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D13" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="E13" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <v>0.45833333333333331</v>
@@ -4922,10 +4885,10 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D14" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E14" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4934,7 +4897,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B16" s="7">
         <v>0.46875</v>
@@ -4943,15 +4906,15 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D16" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E16" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B18" s="7">
         <v>0.5625</v>
@@ -4960,15 +4923,15 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D18" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="E18" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B19" s="7">
         <v>0.625</v>
@@ -4977,10 +4940,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D19" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E19" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -4995,10 +4958,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5026,7 +4989,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B2" s="7">
         <v>0.3125</v>
@@ -5035,20 +4998,20 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="E2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B3" s="7">
         <v>0.66666666666666663</v>
@@ -5057,18 +5020,18 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D3" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E3" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G3" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B4" s="7">
         <v>0.79166666666666663</v>
@@ -5077,10 +5040,10 @@
         <v>0.84375</v>
       </c>
       <c r="D4" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E4" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5094,10 +5057,10 @@
         <v>0.40625</v>
       </c>
       <c r="D6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5111,10 +5074,10 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="D7" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5122,237 +5085,271 @@
         <v>15</v>
       </c>
       <c r="B8" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D8" t="s">
+        <v>500</v>
+      </c>
+      <c r="E8" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="7">
         <v>0.77083333333333337</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="7">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D8" t="s">
-        <v>314</v>
-      </c>
-      <c r="E8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="7">
-        <v>0.46875</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="D10" t="s">
-        <v>316</v>
-      </c>
-      <c r="E10" t="s">
-        <v>317</v>
+      <c r="D9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E9" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B11" s="7">
-        <v>0.5625</v>
+        <v>0.46875</v>
       </c>
       <c r="C11" s="7">
-        <v>0.625</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D11" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E11" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B12" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="D12" t="s">
+        <v>302</v>
+      </c>
+      <c r="E12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="7">
         <v>0.71875</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C13" s="7">
         <v>0.76041666666666663</v>
       </c>
-      <c r="D12" t="s">
-        <v>319</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D13" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="7">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D14" t="s">
-        <v>320</v>
-      </c>
-      <c r="E14" t="s">
-        <v>308</v>
+      <c r="E13" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B15" s="7">
-        <v>0.77083333333333337</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="C15" s="7">
-        <v>0.82291666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D15" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E15" t="s">
-        <v>315</v>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="D16" t="s">
+        <v>500</v>
+      </c>
+      <c r="E16" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B17" s="7">
-        <v>0.3125</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="C17" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="D17" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="E17" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="7">
-        <v>0.5625</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0.625</v>
-      </c>
-      <c r="D18" t="s">
-        <v>312</v>
-      </c>
-      <c r="E18" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B19" s="7">
-        <v>0.78125</v>
+        <v>0.3125</v>
       </c>
       <c r="C19" s="7">
-        <v>0.84375</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="D19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E19" t="s">
-        <v>318</v>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="D20" t="s">
+        <v>301</v>
+      </c>
+      <c r="E20" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B21" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.78125</v>
       </c>
       <c r="C21" s="7">
-        <v>0.40625</v>
+        <v>0.84375</v>
       </c>
       <c r="D21" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E21" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>324</v>
-      </c>
-      <c r="E22" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B23" s="7">
-        <v>0.47916666666666669</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="C23" s="7">
-        <v>0.54166666666666663</v>
+        <v>0.40625</v>
       </c>
       <c r="D23" t="s">
+        <v>311</v>
+      </c>
+      <c r="E23" t="s">
         <v>312</v>
       </c>
-      <c r="E23" t="s">
-        <v>318</v>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>313</v>
+      </c>
+      <c r="E24" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B25" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D25" t="s">
+        <v>301</v>
+      </c>
+      <c r="E25" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="7">
         <v>0.55208333333333337</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C27" s="7">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D25" t="s">
-        <v>325</v>
-      </c>
-      <c r="E25" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="7">
+      <c r="D27" t="s">
+        <v>314</v>
+      </c>
+      <c r="E27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="7">
         <v>0.67708333333333337</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C28" s="7">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D26" t="s">
-        <v>314</v>
-      </c>
-      <c r="E26" t="s">
-        <v>327</v>
+      <c r="D28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E28" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -5364,10 +5361,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5399,7 +5396,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B2" s="7">
         <v>0.28125</v>
@@ -5408,7 +5405,7 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E2" t="s">
         <v>35</v>
@@ -5417,7 +5414,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B3" s="7">
         <v>0.39583333333333331</v>
@@ -5426,15 +5423,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B4" s="7">
         <v>0.41666666666666669</v>
@@ -5451,7 +5448,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B5" s="7">
         <v>0.48958333333333331</v>
@@ -5460,15 +5457,15 @@
         <v>0.53125</v>
       </c>
       <c r="D5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B6" s="7">
         <v>0.5</v>
@@ -5477,148 +5474,147 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E6" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="8" t="s">
-        <v>80</v>
+      <c r="A7" s="32" t="s">
+        <v>76</v>
       </c>
       <c r="B7" s="7">
-        <v>0.59375</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C7" s="7">
-        <v>0.64583333333333337</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E7" t="s">
-        <v>176</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B8" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.59375</v>
       </c>
       <c r="C8" s="7">
-        <v>0.71875</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E8" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B9" s="7">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C9" s="7">
-        <v>0.76041666666666663</v>
+        <v>0.71875</v>
       </c>
       <c r="D9" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E9" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B10" s="7">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C10" s="7">
-        <v>0.8125</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="D10" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B11" s="7">
-        <v>0.77083333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="C11" s="7">
-        <v>0.82291666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="E11" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B12" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="7">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C13" s="7">
         <v>0.88541666666666663</v>
       </c>
-      <c r="D12" t="s">
-        <v>212</v>
-      </c>
-      <c r="E12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A14" s="1" t="s">
+      <c r="D13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2">
         <v>0.28125</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="2">
         <v>0.32291666666666669</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="F14" s="29"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="5">
-        <v>0.34375</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="F15" s="29"/>
     </row>
@@ -5627,16 +5623,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="5">
-        <v>0.375</v>
+        <v>0.34375</v>
       </c>
       <c r="C16" s="5">
-        <v>0.42708333333333331</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F16" s="29"/>
     </row>
@@ -5645,16 +5641,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>0.39583333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="C17" s="5">
-        <v>0.45833333333333331</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F17" s="29"/>
     </row>
@@ -5663,16 +5659,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="5">
-        <v>0.4375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C18" s="5">
-        <v>0.47916666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F18" s="29"/>
     </row>
@@ -5681,16 +5677,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="5">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="C19" s="5">
-        <v>0.54166666666666663</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F19" s="29"/>
     </row>
@@ -5699,16 +5695,16 @@
         <v>15</v>
       </c>
       <c r="B20" s="5">
-        <v>0.51041666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="C20" s="5">
-        <v>0.57291666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F20" s="29"/>
     </row>
@@ -5717,16 +5713,16 @@
         <v>15</v>
       </c>
       <c r="B21" s="5">
-        <v>0.5625</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="C21" s="5">
-        <v>0.60416666666666663</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F21" s="29"/>
     </row>
@@ -5735,966 +5731,1020 @@
         <v>15</v>
       </c>
       <c r="B22" s="5">
-        <v>0.66666666666666663</v>
+        <v>0.5625</v>
       </c>
       <c r="C22" s="5">
-        <v>0.71875</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>366</v>
+        <v>30</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" s="29"/>
     </row>
-    <row r="23" spans="1:6" ht="16.5" thickBot="1">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1">
       <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="5">
-        <v>0.66666666666666663</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="C23" s="5">
-        <v>0.72916666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>33</v>
+        <v>471</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="31"/>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" thickBot="1">
+        <v>17</v>
+      </c>
+      <c r="F23" s="29"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1">
       <c r="A24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="5">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C24" s="5">
-        <v>0.8125</v>
+        <v>0.71875</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="F24" s="31"/>
+        <v>32</v>
+      </c>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" thickBot="1">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="5">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C25" s="5">
-        <v>0.8125</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F25" s="31"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1">
+    <row r="26" spans="1:6" ht="16.5" thickBot="1">
       <c r="A26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.8125</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="31"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.8125</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="31"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="5">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C28" s="5">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="29"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="7">
-        <v>0.28125</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0.32291666666666669</v>
-      </c>
-      <c r="D28" t="s">
-        <v>204</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="7">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="D29" t="s">
-        <v>224</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" s="29"/>
+      <c r="E28" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="F28" s="29"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B30" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.28125</v>
       </c>
       <c r="C30" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="D30" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="F30" s="29"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B31" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C31" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="D31" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="F31" s="29"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B32" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D32" t="s">
+        <v>216</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F32" s="29"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D33" t="s">
+        <v>217</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F33" s="29"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="7">
         <v>0.46875</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C34" s="7">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D32" t="s">
-        <v>227</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="F32" s="29"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75">
-      <c r="A33" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="7">
+      <c r="D34" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="F34" s="29"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75">
+      <c r="A35" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="7">
         <v>0.5</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C35" s="7">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D33" t="s">
-        <v>367</v>
-      </c>
-      <c r="E33" s="32" t="s">
+      <c r="D35" t="s">
+        <v>355</v>
+      </c>
+      <c r="E35" s="32" t="s">
         <v>37</v>
-      </c>
-      <c r="F33" s="31"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75">
-      <c r="A34" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="7">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="C34" s="7">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="D34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F34" s="31"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75">
-      <c r="A35" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="7">
-        <v>0.59375</v>
-      </c>
-      <c r="C35" s="7">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="D35" t="s">
-        <v>228</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>185</v>
       </c>
       <c r="F35" s="31"/>
     </row>
     <row r="36" spans="1:6" ht="15.75">
       <c r="A36" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B36" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F36" s="31"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75">
+      <c r="A37" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="7">
         <v>0.59375</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C37" s="7">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D37" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F37" s="31"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75">
+      <c r="A38" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0.59375</v>
+      </c>
+      <c r="C38" s="7">
         <v>0.63541666666666663</v>
       </c>
-      <c r="D36" t="s">
-        <v>229</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F36" s="31"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="7">
+      <c r="D38" t="s">
+        <v>220</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F38" s="31"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="7">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C39" s="7">
         <v>0.69791666666666663</v>
       </c>
-      <c r="D37" t="s">
-        <v>230</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F37" s="29"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="7">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0.71875</v>
-      </c>
-      <c r="D38" t="s">
-        <v>231</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="F38" s="29"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75">
-      <c r="A39" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="7">
-        <v>0.71875</v>
-      </c>
-      <c r="C39" s="7">
-        <v>0.76041666666666663</v>
-      </c>
       <c r="D39" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F39" s="31"/>
+        <v>180</v>
+      </c>
+      <c r="F39" s="29"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B40" s="7">
-        <v>0.77083333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C40" s="7">
-        <v>0.82291666666666663</v>
+        <v>0.71875</v>
       </c>
       <c r="D40" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="F40" s="29"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" ht="15.75">
       <c r="A41" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B41" s="7">
-        <v>0.82291666666666663</v>
+        <v>0.71875</v>
       </c>
       <c r="C41" s="7">
-        <v>0.875</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="D41" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="F41" s="29"/>
+        <v>168</v>
+      </c>
+      <c r="F41" s="31"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B42" s="7">
-        <v>0.83333333333333337</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="C42" s="7">
-        <v>0.89583333333333337</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="D42" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>186</v>
+        <v>37</v>
       </c>
       <c r="F42" s="29"/>
     </row>
     <row r="43" spans="1:6">
+      <c r="A43" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="D43" t="s">
+        <v>223</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>182</v>
+      </c>
       <c r="F43" s="29"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B44" s="7">
-        <v>0.25</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C44" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="D44" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F44" s="29"/>
     </row>
-    <row r="45" spans="1:6" ht="15.75">
-      <c r="A45" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" s="7">
-        <v>0.30208333333333331</v>
-      </c>
-      <c r="C45" s="7">
-        <v>0.34375</v>
-      </c>
-      <c r="D45" t="s">
-        <v>236</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="F45" s="31"/>
+    <row r="45" spans="1:6">
+      <c r="F45" s="29"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B46" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D46" t="s">
+        <v>226</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="29"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75">
+      <c r="A47" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="7">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.34375</v>
+      </c>
+      <c r="D47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F47" s="31"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="7">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C48" s="7">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D46" t="s">
-        <v>238</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F46" s="29"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" s="7">
-        <v>0.46875</v>
-      </c>
-      <c r="C47" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D47" t="s">
-        <v>237</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F47" s="29"/>
-    </row>
-    <row r="48" spans="1:6" ht="15.75">
-      <c r="A48" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C48" s="7">
-        <v>0.54166666666666663</v>
-      </c>
       <c r="D48" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="F48" s="31"/>
+        <v>168</v>
+      </c>
+      <c r="F48" s="29"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B49" s="7">
-        <v>0.51041666666666663</v>
+        <v>0.46875</v>
       </c>
       <c r="C49" s="7">
-        <v>0.57291666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D49" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="F49" s="29"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" ht="15.75">
       <c r="A50" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B50" s="7">
-        <v>0.59375</v>
+        <v>0.5</v>
       </c>
       <c r="C50" s="7">
-        <v>0.64930555555555558</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D50" t="s">
-        <v>240</v>
+        <v>26</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="F50" s="29"/>
+        <v>184</v>
+      </c>
+      <c r="F50" s="31"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B51" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="C51" s="7">
-        <v>0.70833333333333337</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="D51" t="s">
-        <v>26</v>
+        <v>230</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F51" s="29"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B52" s="7">
-        <v>0.6875</v>
+        <v>0.59375</v>
       </c>
       <c r="C52" s="7">
-        <v>0.72916666666666663</v>
+        <v>0.64930555555555558</v>
       </c>
       <c r="D52" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F52" s="29"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B53" s="7">
-        <v>0.71875</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C53" s="7">
-        <v>0.76041666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D53" t="s">
-        <v>367</v>
+        <v>26</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="F53" s="29"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B54" s="7">
-        <v>0.77083333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="C54" s="7">
-        <v>0.83333333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D54" t="s">
-        <v>26</v>
+        <v>232</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="F54" s="29"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B55" s="7">
-        <v>0.83333333333333337</v>
+        <v>0.71875</v>
       </c>
       <c r="C55" s="7">
-        <v>0.88541666666666663</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="D55" t="s">
-        <v>232</v>
+        <v>355</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>414</v>
+        <v>166</v>
       </c>
       <c r="F55" s="29"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B56" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" s="29"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="D57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="F57" s="29"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" s="7">
         <v>0.84375</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C58" s="7">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D56" t="s">
-        <v>242</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="F56" s="29"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="8"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="E58" s="8"/>
+      <c r="D58" t="s">
+        <v>233</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="F58" s="29"/>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B59" s="7">
+    <row r="60" spans="1:6">
+      <c r="A60" s="8"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="29"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="7">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C61" s="7">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D59" t="s">
-        <v>243</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F59" s="29"/>
-    </row>
-    <row r="60" spans="1:6" ht="15.75">
-      <c r="A60" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B60" s="7">
-        <v>0.46875</v>
-      </c>
-      <c r="C60" s="7">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="D60" t="s">
-        <v>415</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="F60" s="31"/>
-    </row>
-    <row r="61" spans="1:6" ht="15.75">
-      <c r="A61" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B61" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C61" s="7">
-        <v>0.55208333333333337</v>
-      </c>
       <c r="D61" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F61" s="31"/>
+      <c r="F61" s="29"/>
     </row>
     <row r="62" spans="1:6" ht="15.75">
       <c r="A62" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B62" s="7">
-        <v>0.51041666666666663</v>
+        <v>0.46875</v>
       </c>
       <c r="C62" s="7">
-        <v>0.5625</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="D62" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>197</v>
+        <v>398</v>
       </c>
       <c r="F62" s="31"/>
     </row>
     <row r="63" spans="1:6" ht="15.75">
       <c r="A63" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B63" s="7">
-        <v>0.59375</v>
+        <v>0.5</v>
       </c>
       <c r="C63" s="7">
-        <v>0.64930555555555558</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="D63" t="s">
-        <v>369</v>
+        <v>235</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>198</v>
+        <v>37</v>
       </c>
       <c r="F63" s="31"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" ht="15.75">
       <c r="A64" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B64" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="C64" s="7">
-        <v>0.71875</v>
+        <v>0.5625</v>
       </c>
       <c r="D64" t="s">
-        <v>245</v>
+        <v>356</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="F64" s="29"/>
+        <v>190</v>
+      </c>
+      <c r="F64" s="31"/>
     </row>
     <row r="65" spans="1:6" ht="15.75">
       <c r="A65" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B65" s="7">
-        <v>0.67708333333333337</v>
+        <v>0.59375</v>
       </c>
       <c r="C65" s="7">
-        <v>0.71875</v>
+        <v>0.64930555555555558</v>
       </c>
       <c r="D65" t="s">
-        <v>246</v>
+        <v>357</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F65" s="31"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B66" s="7">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C66" s="7">
-        <v>0.79166666666666663</v>
+        <v>0.71875</v>
       </c>
       <c r="D66" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F66" s="29"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.75">
+      <c r="A67" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="7">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C67" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="D67" t="s">
+        <v>237</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F67" s="31"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B68" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.75</v>
       </c>
       <c r="C68" s="7">
-        <v>0.40625</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D68" t="s">
-        <v>26</v>
+        <v>235</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B69" s="7">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="C69" s="7">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="D69" t="s">
-        <v>247</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="F69" s="29"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B70" s="7">
-        <v>0.4375</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="C70" s="7">
-        <v>0.48958333333333331</v>
+        <v>0.40625</v>
       </c>
       <c r="D70" t="s">
-        <v>417</v>
+        <v>26</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F70" s="29"/>
+        <v>193</v>
+      </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B71" s="7">
-        <v>0.51041666666666663</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="C71" s="7">
-        <v>0.57291666666666663</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="D71" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="F71" s="29"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B72" s="7">
-        <v>0.59375</v>
+        <v>0.4375</v>
       </c>
       <c r="C72" s="7">
-        <v>0.63541666666666663</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="D72" t="s">
-        <v>243</v>
+        <v>399</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="F72" s="29"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B73" s="7">
-        <v>0.64583333333333337</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="C73" s="7">
-        <v>0.70833333333333337</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="D73" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="F73" s="29"/>
     </row>
     <row r="74" spans="1:6">
+      <c r="A74" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" s="7">
+        <v>0.59375</v>
+      </c>
+      <c r="C74" s="7">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D74" t="s">
+        <v>234</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>195</v>
+      </c>
       <c r="F74" s="29"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B75" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="C75" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D75" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="F75" s="29"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="8" t="s">
-        <v>85</v>
+      <c r="A76" s="32" t="s">
+        <v>80</v>
       </c>
       <c r="B76" s="7">
-        <v>0.46875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="C76" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D76" t="s">
-        <v>250</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>35</v>
+        <v>472</v>
+      </c>
+      <c r="E76" s="32" t="s">
+        <v>167</v>
       </c>
       <c r="F76" s="29"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B77" s="7">
-        <v>0.53125</v>
-      </c>
-      <c r="C77" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D77" t="s">
-        <v>251</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>193</v>
-      </c>
       <c r="F77" s="29"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B78" s="7">
-        <v>0.59375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C78" s="7">
-        <v>0.64583333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D78" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="F78" s="29"/>
+        <v>172</v>
+      </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B79" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.46875</v>
       </c>
       <c r="C79" s="7">
-        <v>0.72916666666666663</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D79" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F79" s="29"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B80" s="7">
+        <v>0.53125</v>
+      </c>
+      <c r="C80" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D80" t="s">
+        <v>242</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F80" s="29"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="7">
+        <v>0.59375</v>
+      </c>
+      <c r="C81" s="7">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D81" t="s">
+        <v>243</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F81" s="29"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C82" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D82" t="s">
+        <v>244</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F82" s="29"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="7">
         <v>0.75</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C83" s="7">
         <v>0.80208333333333337</v>
       </c>
-      <c r="D80" t="s">
-        <v>254</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F80" s="29"/>
-    </row>
-    <row r="81" spans="6:6">
-      <c r="F81" s="29"/>
+      <c r="D83" t="s">
+        <v>245</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F83" s="29"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="F84" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6708,7 +6758,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6747,17 +6797,17 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D2" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H2" s="18"/>
       <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B3" s="7">
         <v>0.25</v>
@@ -6766,10 +6816,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E3" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="H3" s="20"/>
       <c r="I3" s="15"/>
@@ -6779,7 +6829,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B4" s="7">
         <v>0.25</v>
@@ -6788,10 +6838,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D4" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E4" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="15"/>
@@ -6801,7 +6851,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B5" s="7">
         <v>0.35416666666666669</v>
@@ -6810,10 +6860,10 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D5" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="E5" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="15"/>
@@ -6823,7 +6873,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B6" s="7">
         <v>0.3125</v>
@@ -6832,10 +6882,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D6" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E6" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="15"/>
@@ -6845,7 +6895,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B7" s="7">
         <v>0.39583333333333331</v>
@@ -6854,10 +6904,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="15"/>
@@ -7066,10 +7116,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7099,7 +7149,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B2" s="7">
         <v>0.29166666666666669</v>
@@ -7116,7 +7166,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B3" s="7">
         <v>0.36458333333333331</v>
@@ -7125,15 +7175,15 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B4" s="7">
         <v>0.42708333333333331</v>
@@ -7142,15 +7192,15 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B5" s="7">
         <v>0.51041666666666663</v>
@@ -7159,15 +7209,15 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B6" s="7">
         <v>0.58333333333333337</v>
@@ -7176,15 +7226,15 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B7" s="7">
         <v>0.66666666666666663</v>
@@ -7193,7 +7243,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
         <v>53</v>
@@ -7201,7 +7251,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B8" s="7">
         <v>0.72916666666666663</v>
@@ -7210,15 +7260,15 @@
         <v>0.78125</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B9" s="7">
         <v>0.72916666666666663</v>
@@ -7235,7 +7285,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B10" s="7">
         <v>0.79166666666666663</v>
@@ -7247,12 +7297,12 @@
         <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B11" s="7">
         <v>0.79166666666666663</v>
@@ -7261,10 +7311,10 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1"/>
@@ -7316,7 +7366,7 @@
         <v>49</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1">
@@ -7395,13 +7445,13 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C20" s="5">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1">
@@ -7412,13 +7462,13 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C21" s="5">
-        <v>0.77083333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1">
@@ -7429,13 +7479,13 @@
         <v>0.78125</v>
       </c>
       <c r="C22" s="5">
-        <v>0.84375</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>61</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1">
@@ -7449,15 +7499,15 @@
         <v>0.84375</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B25" s="7">
         <v>0.29166666666666669</v>
@@ -7466,15 +7516,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B26" s="7">
         <v>0.34375</v>
@@ -7491,7 +7541,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B27" s="7">
         <v>0.39583333333333331</v>
@@ -7500,15 +7550,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B28" s="7">
         <v>0.51041666666666663</v>
@@ -7517,7 +7567,7 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s">
         <v>57</v>
@@ -7525,7 +7575,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B29" s="7">
         <v>0.60416666666666663</v>
@@ -7534,15 +7584,15 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B30" s="7">
         <v>0.66666666666666663</v>
@@ -7551,49 +7601,49 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B31" s="7">
         <v>0.72916666666666663</v>
       </c>
       <c r="C31" s="7">
-        <v>0.77083333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B32" s="7">
         <v>0.72916666666666663</v>
       </c>
       <c r="C32" s="7">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B33" s="7">
         <v>0.78125</v>
@@ -7602,7 +7652,7 @@
         <v>0.84375</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E33" t="s">
         <v>51</v>
@@ -7610,7 +7660,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B34" s="7">
         <v>0.80208333333333337</v>
@@ -7619,15 +7669,15 @@
         <v>0.84375</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B36" s="7">
         <v>0.29166666666666669</v>
@@ -7636,15 +7686,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E36" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B37" s="7">
         <v>0.34375</v>
@@ -7653,15 +7703,15 @@
         <v>0.40625</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B38" s="7">
         <v>0.41666666666666669</v>
@@ -7678,7 +7728,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B39" s="7">
         <v>0.51041666666666663</v>
@@ -7695,7 +7745,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B40" s="7">
         <v>0.59375</v>
@@ -7704,15 +7754,15 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E40" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B41" s="7">
         <v>0.64583333333333337</v>
@@ -7721,49 +7771,49 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B42" s="7">
         <v>0.72916666666666663</v>
       </c>
       <c r="C42" s="7">
-        <v>0.78125</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>390</v>
       </c>
       <c r="E42" t="s">
-        <v>53</v>
+        <v>391</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B43" s="7">
         <v>0.72916666666666663</v>
       </c>
       <c r="C43" s="7">
-        <v>0.77083333333333337</v>
+        <v>0.78125</v>
       </c>
       <c r="D43" t="s">
-        <v>406</v>
+        <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>407</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B44" s="7">
         <v>0.78125</v>
@@ -7772,15 +7822,15 @@
         <v>0.84375</v>
       </c>
       <c r="D44" t="s">
-        <v>408</v>
+        <v>98</v>
       </c>
       <c r="E44" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B45" s="7">
         <v>0.79166666666666663</v>
@@ -7789,15 +7839,15 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D45" t="s">
-        <v>410</v>
+        <v>473</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B47" s="7">
         <v>0.29166666666666669</v>
@@ -7806,15 +7856,15 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E47" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B48" s="7">
         <v>0.36458333333333331</v>
@@ -7823,15 +7873,15 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D48" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B49" s="7">
         <v>0.4375</v>
@@ -7840,15 +7890,15 @@
         <v>0.5</v>
       </c>
       <c r="D49" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B50" s="7">
         <v>0.51041666666666663</v>
@@ -7857,7 +7907,7 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D50" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E50" t="s">
         <v>55</v>
@@ -7865,7 +7915,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B51" s="7">
         <v>0.58333333333333337</v>
@@ -7874,15 +7924,15 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D51" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E51" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B52" s="7">
         <v>0.66666666666666663</v>
@@ -7891,7 +7941,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D52" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E52" t="s">
         <v>46</v>
@@ -7899,7 +7949,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B53" s="7">
         <v>0.71875</v>
@@ -7908,15 +7958,15 @@
         <v>0.78125</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E53" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B54" s="7">
         <v>0.79166666666666663</v>
@@ -7925,15 +7975,15 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D54" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E54" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B56" s="7">
         <v>0.32291666666666669</v>
@@ -7942,15 +7992,15 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D56" t="s">
-        <v>124</v>
+        <v>474</v>
       </c>
       <c r="E56" t="s">
-        <v>125</v>
+        <v>419</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B57" s="7">
         <v>0.375</v>
@@ -7967,7 +8017,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B58" s="7">
         <v>0.45833333333333331</v>
@@ -7976,7 +8026,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D58" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E58" t="s">
         <v>51</v>
@@ -7984,7 +8034,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B59" s="7">
         <v>0.54166666666666663</v>
@@ -7993,15 +8043,15 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D59" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E59" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B60" s="7">
         <v>0.59375</v>
@@ -8010,15 +8060,15 @@
         <v>0.65625</v>
       </c>
       <c r="D60" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E60" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B61" s="7">
         <v>0.66666666666666663</v>
@@ -8027,7 +8077,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D61" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E61" t="s">
         <v>55</v>
@@ -8035,7 +8085,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B63" s="7">
         <v>0.33333333333333331</v>
@@ -8044,15 +8094,15 @@
         <v>0.375</v>
       </c>
       <c r="D63" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E63" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B64" s="7">
         <v>0.39583333333333331</v>
@@ -8061,15 +8111,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D64" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E64" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B65" s="7">
         <v>0.46875</v>
@@ -8078,15 +8128,15 @@
         <v>0.53125</v>
       </c>
       <c r="D65" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E65" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B66" s="7">
         <v>0.54166666666666663</v>
@@ -8095,15 +8145,15 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D66" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E66" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B67" s="7">
         <v>0.66666666666666663</v>
@@ -8112,15 +8162,15 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D67" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E67" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B68" s="7">
         <v>0.73958333333333337</v>
@@ -8129,27 +8179,44 @@
         <v>0.78125</v>
       </c>
       <c r="D68" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E68" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="8" t="s">
-        <v>85</v>
+      <c r="A69" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="B69" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="C69" s="7">
+        <v>0.78125</v>
+      </c>
+      <c r="D69" t="s">
+        <v>475</v>
+      </c>
+      <c r="E69" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="7">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C70" s="7">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D69" t="s">
-        <v>136</v>
-      </c>
-      <c r="E69" t="s">
-        <v>98</v>
+      <c r="D70" t="s">
+        <v>130</v>
+      </c>
+      <c r="E70" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -8162,8 +8229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8192,7 +8259,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B2" s="7">
         <v>0.35416666666666669</v>
@@ -8201,32 +8268,32 @@
         <v>0.40625</v>
       </c>
       <c r="D2" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="E2" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B3" s="7">
         <v>0.41666666666666669</v>
       </c>
       <c r="C3" s="7">
-        <v>0.47916666666666669</v>
+        <v>0.46875</v>
       </c>
       <c r="D3" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B4" s="7">
         <v>0.5</v>
@@ -8235,15 +8302,15 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D4" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="E4" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B5" s="7">
         <v>0.5625</v>
@@ -8252,15 +8319,15 @@
         <v>0.625</v>
       </c>
       <c r="D5" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B6" s="7">
         <v>0.66666666666666663</v>
@@ -8269,15 +8336,15 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="D6" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="E6" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B7" s="7">
         <v>0.72916666666666663</v>
@@ -8286,15 +8353,15 @@
         <v>0.78125</v>
       </c>
       <c r="D7" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="E7" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B8" s="7">
         <v>0.79166666666666663</v>
@@ -8303,10 +8370,10 @@
         <v>0.84375</v>
       </c>
       <c r="D8" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="E8" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1"/>
@@ -8321,10 +8388,10 @@
         <v>0.40625</v>
       </c>
       <c r="D10" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="E10" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1">
@@ -8338,10 +8405,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D11" t="s">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="E11" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
@@ -8355,10 +8422,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D12" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1">
@@ -8372,10 +8439,10 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D13" t="s">
-        <v>448</v>
+        <v>479</v>
       </c>
       <c r="E13" t="s">
-        <v>449</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1">
@@ -8389,10 +8456,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D14" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="E14" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1">
@@ -8406,7 +8473,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D15" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="E15" t="s">
         <v>48</v>
@@ -8423,15 +8490,15 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D16" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="E16" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B18" s="7">
         <v>0.375</v>
@@ -8440,15 +8507,15 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D18" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="E18" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B19" s="7">
         <v>0.4375</v>
@@ -8457,15 +8524,15 @@
         <v>0.5</v>
       </c>
       <c r="D19" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="E19" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B20" s="7">
         <v>0.51041666666666663</v>
@@ -8474,15 +8541,15 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D20" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
       <c r="E20" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B21" s="7">
         <v>0.58333333333333337</v>
@@ -8491,15 +8558,15 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D21" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="E21" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B22" s="7">
         <v>0.64583333333333337</v>
@@ -8508,15 +8575,15 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D22" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="E22" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B23" s="7">
         <v>0.71875</v>
@@ -8525,15 +8592,15 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D23" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B24" s="7">
         <v>0.78125</v>
@@ -8542,15 +8609,15 @@
         <v>0.84375</v>
       </c>
       <c r="D24" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="E24" t="s">
-        <v>460</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="32" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B26" s="7">
         <v>0.35416666666666669</v>
@@ -8559,15 +8626,15 @@
         <v>0.40625</v>
       </c>
       <c r="D26" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="E26" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="32" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B27" s="7">
         <v>0.4375</v>
@@ -8576,15 +8643,15 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D27" t="s">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="E27" t="s">
-        <v>427</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="32" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B28" s="7">
         <v>0.5</v>
@@ -8593,15 +8660,15 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D28" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="E28" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="32" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B29" s="7">
         <v>0.57291666666666663</v>
@@ -8610,15 +8677,15 @@
         <v>0.625</v>
       </c>
       <c r="D29" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="E29" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="32" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B30" s="7">
         <v>0.66666666666666663</v>
@@ -8627,15 +8694,15 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D30" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="E30" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="32" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B31" s="7">
         <v>0.71875</v>
@@ -8644,15 +8711,15 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D31" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
       <c r="E31" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="32" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B32" s="7">
         <v>0.77083333333333337</v>
@@ -8661,15 +8728,15 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D32" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="E32" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B34" s="7">
         <v>0.33333333333333331</v>
@@ -8678,15 +8745,15 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D34" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="E34" t="s">
-        <v>469</v>
+        <v>440</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B35" s="7">
         <v>0.375</v>
@@ -8695,15 +8762,15 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D35" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="E35" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B36" s="7">
         <v>0.42708333333333331</v>
@@ -8712,15 +8779,15 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D36" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="E36" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B37" s="7">
         <v>0.5</v>
@@ -8729,15 +8796,15 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D37" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="E37" t="s">
-        <v>470</v>
+        <v>441</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B38" s="7">
         <v>0.5625</v>
@@ -8746,15 +8813,15 @@
         <v>0.625</v>
       </c>
       <c r="D38" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="E38" t="s">
-        <v>471</v>
+        <v>442</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="32" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B40" s="7">
         <v>0.67708333333333337</v>
@@ -8763,15 +8830,15 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="D40" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="E40" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="32" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B41" s="7">
         <v>0.75</v>
@@ -8780,15 +8847,15 @@
         <v>0.8125</v>
       </c>
       <c r="D41" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="E41" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="32" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B42" s="7">
         <v>0.82291666666666663</v>
@@ -8797,10 +8864,10 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="D42" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="E42" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -8814,7 +8881,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8852,15 +8919,15 @@
         <v>0.84375</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B3" s="7">
         <v>0.375</v>
@@ -8869,15 +8936,15 @@
         <v>0.4375</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B4" s="7">
         <v>0.41666666666666669</v>
@@ -8886,10 +8953,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>420</v>
+        <v>487</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -8903,8 +8970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8934,7 +9001,7 @@
     </row>
     <row r="2" spans="1:5" ht="15.75">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B2" s="7">
         <v>0.41666666666666669</v>
@@ -8943,15 +9010,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B3" s="7">
         <v>0.77083333333333337</v>
@@ -8960,10 +9027,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D3" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75">
@@ -8982,10 +9049,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D5" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75">
@@ -8999,10 +9066,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D6" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75">
@@ -9012,7 +9079,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B8" s="7">
         <v>0.41666666666666669</v>
@@ -9021,15 +9088,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D8" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B9" s="7">
         <v>0.58333333333333337</v>
@@ -9038,10 +9105,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D9" t="s">
-        <v>302</v>
+        <v>488</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75">
@@ -9051,7 +9118,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B11" s="7">
         <v>0.41666666666666669</v>
@@ -9060,15 +9127,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D11" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B12" s="7">
         <v>0.77083333333333337</v>
@@ -9077,10 +9144,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75">
@@ -9090,7 +9157,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.75">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <v>0.41666666666666669</v>
@@ -9099,10 +9166,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D14" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75">
@@ -9131,8 +9198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9168,7 +9235,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B2" s="10">
         <v>0.25</v>
@@ -9177,17 +9244,17 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E2" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B3" s="10">
         <v>0.39583333333333331</v>
@@ -9196,10 +9263,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="E3" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
@@ -9208,7 +9275,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B4" s="10">
         <v>0.51041666666666663</v>
@@ -9217,10 +9284,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D4" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
@@ -9229,7 +9296,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B5" s="10">
         <v>0.72916666666666663</v>
@@ -9238,10 +9305,10 @@
         <v>0.78125</v>
       </c>
       <c r="D5" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="E5" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
@@ -9267,10 +9334,10 @@
         <v>0.3125</v>
       </c>
       <c r="D7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="28"/>
@@ -9288,10 +9355,10 @@
         <v>0.46875</v>
       </c>
       <c r="D8" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E8" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="28"/>
@@ -9309,10 +9376,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D9" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E9" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
@@ -9330,10 +9397,10 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D10" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="E10" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="28"/>
@@ -9350,7 +9417,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B12" s="10">
         <v>0.25</v>
@@ -9359,10 +9426,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D12" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E12" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="28"/>
@@ -9371,7 +9438,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B13" s="10">
         <v>0.39583333333333331</v>
@@ -9380,10 +9447,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D13" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="E13" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="28"/>
@@ -9392,7 +9459,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B14" s="10">
         <v>0.51041666666666663</v>
@@ -9401,10 +9468,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D14" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E14" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
@@ -9413,7 +9480,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B15" s="10">
         <v>0.72916666666666663</v>
@@ -9422,10 +9489,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D15" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E15" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="28"/>
@@ -9442,7 +9509,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B17" s="10">
         <v>0.27083333333333331</v>
@@ -9451,10 +9518,10 @@
         <v>0.3125</v>
       </c>
       <c r="D17" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E17" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="28"/>
@@ -9463,7 +9530,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B18" s="10">
         <v>0.41666666666666669</v>
@@ -9472,10 +9539,10 @@
         <v>0.46875</v>
       </c>
       <c r="D18" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="E18" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="28"/>
@@ -9484,7 +9551,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B19" s="10">
         <v>0.6875</v>
@@ -9493,10 +9560,10 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="D19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E19" t="s">
         <v>283</v>
-      </c>
-      <c r="E19" t="s">
-        <v>294</v>
       </c>
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
@@ -9505,7 +9572,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B20" s="10">
         <v>0.75</v>
@@ -9514,10 +9581,10 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D20" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="E20" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G20" s="26"/>
       <c r="H20" s="28"/>
@@ -9534,7 +9601,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B22" s="10">
         <v>0.25</v>
@@ -9543,10 +9610,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D22" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E22" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G22" s="26"/>
       <c r="H22" s="28"/>
@@ -9555,7 +9622,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B23" s="10">
         <v>0.39583333333333331</v>
@@ -9564,10 +9631,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D23" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E23" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="28"/>
@@ -9576,7 +9643,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B24" s="10">
         <v>0.51041666666666663</v>
@@ -9585,10 +9652,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D24" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E24" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="28"/>
@@ -9597,7 +9664,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B25" s="10">
         <v>0.72916666666666663</v>
@@ -9606,10 +9673,10 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D25" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E25" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="28"/>
@@ -9626,7 +9693,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B27" s="10">
         <v>0.41666666666666669</v>
@@ -9635,10 +9702,10 @@
         <v>0.46875</v>
       </c>
       <c r="D27" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="E27" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="G27" s="26"/>
       <c r="H27" s="28"/>
@@ -9647,7 +9714,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B28" s="10">
         <v>0.66666666666666663</v>
@@ -9656,10 +9723,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D28" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E28" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="G28" s="26"/>
       <c r="H28" s="28"/>
@@ -9676,7 +9743,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B30" s="10">
         <v>0.41666666666666669</v>
@@ -9685,10 +9752,10 @@
         <v>0.46875</v>
       </c>
       <c r="D30" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="E30" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="G30" s="26"/>
       <c r="H30" s="28"/>
@@ -9697,19 +9764,19 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B31" s="10">
         <v>0.66666666666666663</v>
       </c>
       <c r="C31" s="10">
-        <v>0.46875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D31" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="E31" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G31" s="35"/>
       <c r="H31" s="35"/>
@@ -9770,10 +9837,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9801,12 +9868,12 @@
         <v>44</v>
       </c>
       <c r="H1" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B2" s="7">
         <v>0.33333333333333331</v>
@@ -9815,15 +9882,15 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" t="s">
         <v>273</v>
-      </c>
-      <c r="E2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B3" s="7">
         <v>0.41666666666666669</v>
@@ -9832,15 +9899,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E3" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B4" s="7">
         <v>0.5</v>
@@ -9849,15 +9916,15 @@
         <v>0.5625</v>
       </c>
       <c r="D4" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E4" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B5" s="7">
         <v>0.58333333333333337</v>
@@ -9866,15 +9933,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D5" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E5" t="s">
-        <v>277</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B6" s="7">
         <v>0.6875</v>
@@ -9883,15 +9950,15 @@
         <v>0.75</v>
       </c>
       <c r="D6" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E6" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B7" s="7">
         <v>0.77083333333333337</v>
@@ -9900,30 +9967,44 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="7"/>
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E8" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="7">
-        <v>0.26041666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C9" s="10">
-        <v>0.32291666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D9" t="s">
-        <v>273</v>
+        <v>361</v>
       </c>
       <c r="E9" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -9931,16 +10012,16 @@
         <v>15</v>
       </c>
       <c r="B10" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C10" s="10">
-        <v>0.39583333333333331</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D10" t="s">
-        <v>373</v>
+        <v>264</v>
       </c>
       <c r="E10" t="s">
-        <v>274</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -9948,16 +10029,16 @@
         <v>15</v>
       </c>
       <c r="B11" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.6875</v>
       </c>
       <c r="C11" s="10">
-        <v>0.47916666666666669</v>
+        <v>0.75</v>
       </c>
       <c r="D11" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -9965,217 +10046,259 @@
         <v>15</v>
       </c>
       <c r="B12" s="7">
-        <v>0.6875</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="C12" s="10">
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E12" t="s">
         <v>273</v>
-      </c>
-      <c r="E12" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="B13" s="7">
-        <v>0.77083333333333337</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C13" s="10">
-        <v>0.83333333333333337</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D13" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E13" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" s="7"/>
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D14" t="s">
+        <v>264</v>
+      </c>
+      <c r="E14" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="C15" s="10">
-        <v>0.39583333333333331</v>
+        <v>0.5625</v>
       </c>
       <c r="D15" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E15" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B16" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.6875</v>
       </c>
       <c r="C16" s="10">
-        <v>0.47916666666666669</v>
+        <v>0.75</v>
       </c>
       <c r="D16" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E16" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B17" s="7">
-        <v>0.5</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="C17" s="10">
-        <v>0.5625</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D17" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E17" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B18" s="7">
-        <v>0.6875</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="C18" s="10">
-        <v>0.75</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="D18" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E18" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B19" s="7">
-        <v>0.77083333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C19" s="10">
-        <v>0.83333333333333337</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D19" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E19" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="7"/>
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>264</v>
+      </c>
+      <c r="E20" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B21" s="7">
-        <v>0.26041666666666669</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="C21" s="10">
-        <v>0.32291666666666669</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D21" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E21" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B22" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C22" s="10">
-        <v>0.47916666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D22" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E22" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B23" s="7">
-        <v>0.5</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C23" s="10">
-        <v>0.5625</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D23" t="s">
-        <v>374</v>
+        <v>264</v>
       </c>
       <c r="E23" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B24" s="7">
-        <v>0.6875</v>
+        <v>0.5</v>
       </c>
       <c r="C24" s="10">
-        <v>0.75</v>
+        <v>0.5625</v>
       </c>
       <c r="D24" t="s">
+        <v>264</v>
+      </c>
+      <c r="E24" t="s">
         <v>273</v>
-      </c>
-      <c r="E24" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B25" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>264</v>
+      </c>
+      <c r="E25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="7">
         <v>0.77083333333333337</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C26" s="10">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D25" t="s">
-        <v>273</v>
-      </c>
-      <c r="E25" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="B26" s="7"/>
+      <c r="D26" t="s">
+        <v>264</v>
+      </c>
+      <c r="E26" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B27" s="7">
         <v>0.33333333333333331</v>
@@ -10184,15 +10307,15 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D27" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E27" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B28" s="7">
         <v>0.41666666666666669</v>
@@ -10201,15 +10324,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D28" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E28" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B29" s="7">
         <v>0.5</v>
@@ -10218,15 +10341,15 @@
         <v>0.5625</v>
       </c>
       <c r="D29" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E29" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B30" s="7">
         <v>0.6875</v>
@@ -10235,169 +10358,78 @@
         <v>0.75</v>
       </c>
       <c r="D30" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E30" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B31" s="7">
-        <v>0.77083333333333337</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C31" s="10">
-        <v>0.83333333333333337</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D31" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E31" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="B32" s="7"/>
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D32" t="s">
+        <v>264</v>
+      </c>
+      <c r="E32" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B33" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="C33" s="10">
-        <v>0.39583333333333331</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="D33" t="s">
-        <v>273</v>
+        <v>490</v>
       </c>
       <c r="E33" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B34" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.6875</v>
       </c>
       <c r="C34" s="10">
-        <v>0.47916666666666669</v>
+        <v>0.75</v>
       </c>
       <c r="D34" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E34" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C35" s="10">
-        <v>0.5625</v>
-      </c>
-      <c r="D35" t="s">
-        <v>273</v>
-      </c>
-      <c r="E35" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="7">
-        <v>0.6875</v>
-      </c>
-      <c r="C36" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="D36" t="s">
-        <v>273</v>
-      </c>
-      <c r="E36" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="B37" s="7"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="7">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C38" s="10">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D38" t="s">
-        <v>273</v>
-      </c>
-      <c r="E38" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39" s="7">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C39" s="10">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="D39" t="s">
-        <v>273</v>
-      </c>
-      <c r="E39" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" s="7">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="C40" s="10">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D40" t="s">
-        <v>273</v>
-      </c>
-      <c r="E40" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" s="7">
-        <v>0.6875</v>
-      </c>
-      <c r="C41" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="D41" t="s">
-        <v>273</v>
-      </c>
-      <c r="E41" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/AvlZen/App_Data/AvlZen.xlsx
+++ b/AvlZen/App_Data/AvlZen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="-15" windowWidth="15645" windowHeight="12060" tabRatio="907" firstSheet="8" activeTab="14"/>
+    <workbookView xWindow="7440" yWindow="-15" windowWidth="15645" windowHeight="12060" tabRatio="907"/>
   </bookViews>
   <sheets>
     <sheet name="Places" sheetId="1" r:id="rId1"/>
@@ -800,9 +800,6 @@
     <t>http://ashevillecommunityyoga.com/class-schedules/</t>
   </si>
   <si>
-    <t>http://westashevilleyoga.com/class-schedule/</t>
-  </si>
-  <si>
     <t>Hot Yoga Asheville</t>
   </si>
   <si>
@@ -1391,9 +1388,6 @@
     <t>Urban Ashram Studio</t>
   </si>
   <si>
-    <t>https://clients.mindbodyonline.com/ASP/home.asp?studioid=149266</t>
-  </si>
-  <si>
     <t>62 Wall St Asheville, North Carolina 28801</t>
   </si>
   <si>
@@ -1560,6 +1554,12 @@
   </si>
   <si>
     <t>Jane Anne</t>
+  </si>
+  <si>
+    <t>http://urbanashramstudio.com/</t>
+  </si>
+  <si>
+    <t>http://westashevilleyoga.com/schedule/</t>
   </si>
 </sst>
 </file>
@@ -2166,8 +2166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2189,7 +2189,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2203,21 +2203,21 @@
         <v>247</v>
       </c>
       <c r="D2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" t="s">
         <v>254</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>255</v>
       </c>
-      <c r="C3" t="s">
-        <v>256</v>
-      </c>
       <c r="D3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2228,10 +2228,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2245,77 +2245,77 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" t="s">
         <v>257</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>258</v>
       </c>
-      <c r="C7" t="s">
-        <v>259</v>
-      </c>
       <c r="D7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>250</v>
-      </c>
       <c r="D9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" t="s">
         <v>327</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>329</v>
-      </c>
       <c r="D10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2329,21 +2329,21 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B12" t="s">
         <v>443</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>500</v>
+      </c>
+      <c r="D12" t="s">
         <v>444</v>
-      </c>
-      <c r="C12" t="s">
-        <v>445</v>
-      </c>
-      <c r="D12" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2353,39 +2353,39 @@
       <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
-        <v>248</v>
+      <c r="C13" s="29" t="s">
+        <v>501</v>
       </c>
       <c r="D13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>318</v>
+      </c>
+      <c r="B14" t="s">
         <v>319</v>
       </c>
-      <c r="B14" t="s">
-        <v>320</v>
-      </c>
       <c r="C14" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -2398,9 +2398,10 @@
     <hyperlink ref="C4" r:id="rId2"/>
     <hyperlink ref="C8" r:id="rId3"/>
     <hyperlink ref="C10" r:id="rId4"/>
+    <hyperlink ref="C13" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -2447,10 +2448,10 @@
         <v>0.71875</v>
       </c>
       <c r="D2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2464,10 +2465,10 @@
         <v>0.4375</v>
       </c>
       <c r="D4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2481,10 +2482,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D6" t="s">
+        <v>361</v>
+      </c>
+      <c r="E6" t="s">
         <v>362</v>
-      </c>
-      <c r="E6" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2498,10 +2499,10 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2515,10 +2516,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D9" t="s">
+        <v>363</v>
+      </c>
+      <c r="E9" t="s">
         <v>364</v>
-      </c>
-      <c r="E9" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2532,10 +2533,10 @@
         <v>0.4375</v>
       </c>
       <c r="D11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -2743,7 +2744,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E8" t="s">
         <v>63</v>
@@ -2796,7 +2797,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>63</v>
@@ -2881,7 +2882,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>144</v>
@@ -3045,7 +3046,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E24" t="s">
         <v>63</v>
@@ -3152,7 +3153,7 @@
         <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F29" t="s">
         <v>133</v>
@@ -3175,10 +3176,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D30" t="s">
+        <v>367</v>
+      </c>
+      <c r="E30" t="s">
         <v>368</v>
-      </c>
-      <c r="E30" t="s">
-        <v>369</v>
       </c>
       <c r="G30" t="s">
         <v>134</v>
@@ -3328,7 +3329,7 @@
         <v>159</v>
       </c>
       <c r="E37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F37" t="s">
         <v>133</v>
@@ -3519,10 +3520,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3536,10 +3537,10 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3553,10 +3554,10 @@
         <v>0.53125</v>
       </c>
       <c r="D4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3570,10 +3571,10 @@
         <v>0.71875</v>
       </c>
       <c r="D5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3587,10 +3588,10 @@
         <v>0.78125</v>
       </c>
       <c r="D6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3604,10 +3605,10 @@
         <v>0.84375</v>
       </c>
       <c r="D7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3626,7 +3627,7 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E9" t="s">
         <v>61</v>
@@ -3643,10 +3644,10 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3660,10 +3661,10 @@
         <v>0.71875</v>
       </c>
       <c r="D11" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3677,10 +3678,10 @@
         <v>0.78125</v>
       </c>
       <c r="D12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3694,10 +3695,10 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D13" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E13" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3715,10 +3716,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D15" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E15" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3732,10 +3733,10 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D16" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E16" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3749,10 +3750,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D17" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3766,10 +3767,10 @@
         <v>0.71875</v>
       </c>
       <c r="D18" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E18" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3783,10 +3784,10 @@
         <v>0.78125</v>
       </c>
       <c r="D19" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E19" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3800,10 +3801,10 @@
         <v>0.84375</v>
       </c>
       <c r="D20" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E20" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3821,7 +3822,7 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D22" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E22" t="s">
         <v>61</v>
@@ -3838,10 +3839,10 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D23" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E23" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3855,10 +3856,10 @@
         <v>0.71875</v>
       </c>
       <c r="D24" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E24" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3872,10 +3873,10 @@
         <v>0.78125</v>
       </c>
       <c r="D25" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E25" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3889,7 +3890,7 @@
         <v>0.84375</v>
       </c>
       <c r="D26" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E26" t="s">
         <v>112</v>
@@ -3910,10 +3911,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D28" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E28" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3927,10 +3928,10 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D29" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E29" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3944,10 +3945,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D30" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E30" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3961,10 +3962,10 @@
         <v>0.71875</v>
       </c>
       <c r="D31" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E31" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3978,10 +3979,10 @@
         <v>0.78125</v>
       </c>
       <c r="D32" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E32" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3995,10 +3996,10 @@
         <v>0.84375</v>
       </c>
       <c r="D33" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E33" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4016,10 +4017,10 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="D35" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E35" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4033,10 +4034,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D36" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E36" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -4050,10 +4051,10 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D37" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E37" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4071,7 +4072,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D39" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E39" t="s">
         <v>61</v>
@@ -4088,7 +4089,7 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D40" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E40" t="s">
         <v>61</v>
@@ -4105,10 +4106,10 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D41" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E41" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -4160,7 +4161,7 @@
         <v>0.375</v>
       </c>
       <c r="D2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E2" t="s">
         <v>73</v>
@@ -4194,10 +4195,10 @@
         <v>0.5625</v>
       </c>
       <c r="D4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4211,7 +4212,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E5" t="s">
         <v>191</v>
@@ -4228,7 +4229,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E6" t="s">
         <v>74</v>
@@ -4263,10 +4264,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1">
@@ -4280,7 +4281,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>74</v>
@@ -4297,7 +4298,7 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>94</v>
@@ -4314,10 +4315,10 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>348</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1">
@@ -4331,7 +4332,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>210</v>
@@ -4348,7 +4349,7 @@
         <v>0.4375</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>210</v>
@@ -4365,7 +4366,7 @@
         <v>0.375</v>
       </c>
       <c r="D16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>27</v>
@@ -4382,7 +4383,7 @@
         <v>0.4375</v>
       </c>
       <c r="D17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>207</v>
@@ -4399,7 +4400,7 @@
         <v>0.5</v>
       </c>
       <c r="D18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>208</v>
@@ -4416,7 +4417,7 @@
         <v>0.5625</v>
       </c>
       <c r="D19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>210</v>
@@ -4433,7 +4434,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>206</v>
@@ -4450,7 +4451,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>32</v>
@@ -4467,7 +4468,7 @@
         <v>0.84375</v>
       </c>
       <c r="D22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>72</v>
@@ -4518,7 +4519,7 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>74</v>
@@ -4535,7 +4536,7 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>210</v>
@@ -4552,10 +4553,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D28" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4569,7 +4570,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E29" s="32" t="s">
         <v>213</v>
@@ -4586,7 +4587,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>211</v>
@@ -4603,7 +4604,7 @@
         <v>0.5</v>
       </c>
       <c r="D32" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>51</v>
@@ -4620,7 +4621,7 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>212</v>
@@ -4637,7 +4638,7 @@
         <v>0.4375</v>
       </c>
       <c r="D35" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>207</v>
@@ -4654,7 +4655,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>213</v>
@@ -4671,7 +4672,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>246</v>
@@ -4688,7 +4689,7 @@
         <v>0.71875</v>
       </c>
       <c r="D39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E39" s="32" t="s">
         <v>209</v>
@@ -4732,7 +4733,7 @@
         <v>44</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4746,13 +4747,13 @@
         <v>0.4375</v>
       </c>
       <c r="D2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4766,7 +4767,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
@@ -4783,7 +4784,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
@@ -4800,7 +4801,7 @@
         <v>0.8125</v>
       </c>
       <c r="D6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
@@ -4817,10 +4818,10 @@
         <v>0.4375</v>
       </c>
       <c r="D8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4834,7 +4835,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -4851,10 +4852,10 @@
         <v>0.8125</v>
       </c>
       <c r="D11" t="s">
+        <v>321</v>
+      </c>
+      <c r="E11" t="s">
         <v>322</v>
-      </c>
-      <c r="E11" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4868,10 +4869,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4885,10 +4886,10 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4906,10 +4907,10 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D16" t="s">
+        <v>321</v>
+      </c>
+      <c r="E16" t="s">
         <v>322</v>
-      </c>
-      <c r="E16" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4923,10 +4924,10 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D18" t="s">
+        <v>324</v>
+      </c>
+      <c r="E18" t="s">
         <v>325</v>
-      </c>
-      <c r="E18" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4940,10 +4941,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -4960,7 +4961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -4998,13 +4999,13 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" t="s">
         <v>296</v>
       </c>
-      <c r="E2" t="s">
-        <v>297</v>
-      </c>
       <c r="G2" s="30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
@@ -5020,13 +5021,13 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E3" t="s">
         <v>298</v>
       </c>
-      <c r="E3" t="s">
-        <v>299</v>
-      </c>
       <c r="G3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5040,10 +5041,10 @@
         <v>0.84375</v>
       </c>
       <c r="D4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5057,7 +5058,7 @@
         <v>0.40625</v>
       </c>
       <c r="D6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E6" t="s">
         <v>177</v>
@@ -5074,10 +5075,10 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="D7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5091,10 +5092,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5108,10 +5109,10 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D9" t="s">
+        <v>302</v>
+      </c>
+      <c r="E9" t="s">
         <v>303</v>
-      </c>
-      <c r="E9" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5125,10 +5126,10 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D11" t="s">
+        <v>304</v>
+      </c>
+      <c r="E11" t="s">
         <v>305</v>
-      </c>
-      <c r="E11" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5142,10 +5143,10 @@
         <v>0.625</v>
       </c>
       <c r="D12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -5159,10 +5160,10 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5176,10 +5177,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -5193,10 +5194,10 @@
         <v>0.6875</v>
       </c>
       <c r="D16" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5210,10 +5211,10 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D17" t="s">
+        <v>302</v>
+      </c>
+      <c r="E17" t="s">
         <v>303</v>
-      </c>
-      <c r="E17" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5227,10 +5228,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5244,10 +5245,10 @@
         <v>0.625</v>
       </c>
       <c r="D20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5261,10 +5262,10 @@
         <v>0.84375</v>
       </c>
       <c r="D21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5278,10 +5279,10 @@
         <v>0.40625</v>
       </c>
       <c r="D23" t="s">
+        <v>310</v>
+      </c>
+      <c r="E23" t="s">
         <v>311</v>
-      </c>
-      <c r="E23" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5295,10 +5296,10 @@
         <v>0.5</v>
       </c>
       <c r="D24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5312,10 +5313,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5329,10 +5330,10 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D27" t="s">
+        <v>313</v>
+      </c>
+      <c r="E27" t="s">
         <v>314</v>
-      </c>
-      <c r="E27" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5346,10 +5347,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -5494,7 +5495,7 @@
         <v>219</v>
       </c>
       <c r="E7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5755,7 +5756,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>17</v>
@@ -5773,7 +5774,7 @@
         <v>0.71875</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>32</v>
@@ -5809,7 +5810,7 @@
         <v>0.8125</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>168</v>
@@ -5848,7 +5849,7 @@
         <v>38</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F28" s="29"/>
     </row>
@@ -5937,7 +5938,7 @@
         <v>218</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F34" s="29"/>
     </row>
@@ -5952,7 +5953,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E35" s="32" t="s">
         <v>37</v>
@@ -6297,7 +6298,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>166</v>
@@ -6336,7 +6337,7 @@
         <v>223</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F57" s="29"/>
     </row>
@@ -6394,10 +6395,10 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D62" t="s">
+        <v>396</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>397</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>398</v>
       </c>
       <c r="F62" s="31"/>
     </row>
@@ -6430,7 +6431,7 @@
         <v>0.5625</v>
       </c>
       <c r="D64" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>190</v>
@@ -6448,7 +6449,7 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="D65" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>191</v>
@@ -6554,7 +6555,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D72" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>32</v>
@@ -6626,7 +6627,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D76" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E76" s="32" t="s">
         <v>167</v>
@@ -6797,7 +6798,7 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E2" t="s">
         <v>165</v>
@@ -6816,10 +6817,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H3" s="20"/>
       <c r="I3" s="15"/>
@@ -6838,10 +6839,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="15"/>
@@ -6860,10 +6861,10 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="15"/>
@@ -6882,10 +6883,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="15"/>
@@ -6904,7 +6905,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E7" t="s">
         <v>165</v>
@@ -7485,7 +7486,7 @@
         <v>98</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1">
@@ -7788,10 +7789,10 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D42" t="s">
+        <v>389</v>
+      </c>
+      <c r="E42" t="s">
         <v>390</v>
-      </c>
-      <c r="E42" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -7825,7 +7826,7 @@
         <v>98</v>
       </c>
       <c r="E44" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -7839,7 +7840,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D45" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E45" t="s">
         <v>85</v>
@@ -7859,7 +7860,7 @@
         <v>113</v>
       </c>
       <c r="E47" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -7992,10 +7993,10 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D56" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E56" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -8148,7 +8149,7 @@
         <v>126</v>
       </c>
       <c r="E66" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -8196,10 +8197,10 @@
         <v>0.78125</v>
       </c>
       <c r="D69" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E69" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -8268,10 +8269,10 @@
         <v>0.40625</v>
       </c>
       <c r="D2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E2" t="s">
         <v>411</v>
-      </c>
-      <c r="E2" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8285,10 +8286,10 @@
         <v>0.46875</v>
       </c>
       <c r="D3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8302,10 +8303,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8319,7 +8320,7 @@
         <v>0.625</v>
       </c>
       <c r="D5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E5" t="s">
         <v>109</v>
@@ -8336,10 +8337,10 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="D6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8353,10 +8354,10 @@
         <v>0.78125</v>
       </c>
       <c r="D7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -8370,10 +8371,10 @@
         <v>0.84375</v>
       </c>
       <c r="D8" t="s">
+        <v>413</v>
+      </c>
+      <c r="E8" t="s">
         <v>414</v>
-      </c>
-      <c r="E8" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1"/>
@@ -8388,10 +8389,10 @@
         <v>0.40625</v>
       </c>
       <c r="D10" t="s">
+        <v>415</v>
+      </c>
+      <c r="E10" t="s">
         <v>416</v>
-      </c>
-      <c r="E10" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1">
@@ -8405,10 +8406,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D11" t="s">
+        <v>417</v>
+      </c>
+      <c r="E11" t="s">
         <v>418</v>
-      </c>
-      <c r="E11" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
@@ -8422,7 +8423,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E12" t="s">
         <v>111</v>
@@ -8439,7 +8440,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D13" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
@@ -8456,10 +8457,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1">
@@ -8473,7 +8474,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E15" t="s">
         <v>48</v>
@@ -8490,10 +8491,10 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D16" t="s">
+        <v>422</v>
+      </c>
+      <c r="E16" t="s">
         <v>423</v>
-      </c>
-      <c r="E16" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8507,10 +8508,10 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D18" t="s">
+        <v>424</v>
+      </c>
+      <c r="E18" t="s">
         <v>425</v>
-      </c>
-      <c r="E18" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8524,10 +8525,10 @@
         <v>0.5</v>
       </c>
       <c r="D19" t="s">
+        <v>426</v>
+      </c>
+      <c r="E19" t="s">
         <v>427</v>
-      </c>
-      <c r="E19" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8541,10 +8542,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D20" t="s">
+        <v>428</v>
+      </c>
+      <c r="E20" t="s">
         <v>429</v>
-      </c>
-      <c r="E20" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8558,10 +8559,10 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -8575,10 +8576,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E22" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -8592,7 +8593,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D23" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E23" t="s">
         <v>121</v>
@@ -8609,10 +8610,10 @@
         <v>0.84375</v>
       </c>
       <c r="D24" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -8626,10 +8627,10 @@
         <v>0.40625</v>
       </c>
       <c r="D26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E26" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -8643,7 +8644,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D27" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E27" t="s">
         <v>83</v>
@@ -8660,10 +8661,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -8677,10 +8678,10 @@
         <v>0.625</v>
       </c>
       <c r="D29" t="s">
+        <v>434</v>
+      </c>
+      <c r="E29" t="s">
         <v>435</v>
-      </c>
-      <c r="E29" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -8694,10 +8695,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -8711,10 +8712,10 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D31" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -8728,10 +8729,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D32" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E32" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -8745,10 +8746,10 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D34" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E34" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -8762,7 +8763,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D35" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E35" t="s">
         <v>83</v>
@@ -8779,10 +8780,10 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D36" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -8796,10 +8797,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D37" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E37" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -8813,10 +8814,10 @@
         <v>0.625</v>
       </c>
       <c r="D38" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E38" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -8830,7 +8831,7 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="D40" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E40" t="s">
         <v>121</v>
@@ -8847,7 +8848,7 @@
         <v>0.8125</v>
       </c>
       <c r="D41" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E41" t="s">
         <v>95</v>
@@ -8864,10 +8865,10 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="D42" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E42" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -8919,7 +8920,7 @@
         <v>0.84375</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E2" t="s">
         <v>141</v>
@@ -8936,7 +8937,7 @@
         <v>0.4375</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E3" t="s">
         <v>141</v>
@@ -8953,7 +8954,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E4" t="s">
         <v>141</v>
@@ -9010,10 +9011,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75">
@@ -9027,10 +9028,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75">
@@ -9049,10 +9050,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75">
@@ -9066,10 +9067,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75">
@@ -9088,10 +9089,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75">
@@ -9105,10 +9106,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75">
@@ -9127,10 +9128,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D11" t="s">
+        <v>290</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>291</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75">
@@ -9147,7 +9148,7 @@
         <v>104</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75">
@@ -9166,10 +9167,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75">
@@ -9244,10 +9245,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" t="s">
         <v>274</v>
-      </c>
-      <c r="E2" t="s">
-        <v>275</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -9263,10 +9264,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
@@ -9284,10 +9285,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
@@ -9305,10 +9306,10 @@
         <v>0.78125</v>
       </c>
       <c r="D5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
@@ -9334,10 +9335,10 @@
         <v>0.3125</v>
       </c>
       <c r="D7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="28"/>
@@ -9355,10 +9356,10 @@
         <v>0.46875</v>
       </c>
       <c r="D8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8" t="s">
         <v>279</v>
-      </c>
-      <c r="E8" t="s">
-        <v>280</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="28"/>
@@ -9376,10 +9377,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
@@ -9397,10 +9398,10 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="28"/>
@@ -9426,10 +9427,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E12" t="s">
         <v>274</v>
-      </c>
-      <c r="E12" t="s">
-        <v>275</v>
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="28"/>
@@ -9447,10 +9448,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="28"/>
@@ -9468,10 +9469,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D14" t="s">
+        <v>276</v>
+      </c>
+      <c r="E14" t="s">
         <v>277</v>
-      </c>
-      <c r="E14" t="s">
-        <v>278</v>
       </c>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
@@ -9489,10 +9490,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="28"/>
@@ -9518,10 +9519,10 @@
         <v>0.3125</v>
       </c>
       <c r="D17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="28"/>
@@ -9539,10 +9540,10 @@
         <v>0.46875</v>
       </c>
       <c r="D18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="28"/>
@@ -9560,10 +9561,10 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="D19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
@@ -9581,10 +9582,10 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G20" s="26"/>
       <c r="H20" s="28"/>
@@ -9610,10 +9611,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D22" t="s">
+        <v>273</v>
+      </c>
+      <c r="E22" t="s">
         <v>274</v>
-      </c>
-      <c r="E22" t="s">
-        <v>275</v>
       </c>
       <c r="G22" s="26"/>
       <c r="H22" s="28"/>
@@ -9631,7 +9632,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E23" t="s">
         <v>165</v>
@@ -9652,10 +9653,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="28"/>
@@ -9673,10 +9674,10 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E25" t="s">
         <v>274</v>
-      </c>
-      <c r="E25" t="s">
-        <v>275</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="28"/>
@@ -9702,10 +9703,10 @@
         <v>0.46875</v>
       </c>
       <c r="D27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G27" s="26"/>
       <c r="H27" s="28"/>
@@ -9723,10 +9724,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G28" s="26"/>
       <c r="H28" s="28"/>
@@ -9752,10 +9753,10 @@
         <v>0.46875</v>
       </c>
       <c r="D30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G30" s="26"/>
       <c r="H30" s="28"/>
@@ -9773,10 +9774,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G31" s="35"/>
       <c r="H31" s="35"/>
@@ -9868,7 +9869,7 @@
         <v>44</v>
       </c>
       <c r="H1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -9882,10 +9883,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -9899,10 +9900,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -9916,10 +9917,10 @@
         <v>0.5625</v>
       </c>
       <c r="D4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" t="s">
         <v>264</v>
-      </c>
-      <c r="E4" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -9933,10 +9934,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -9950,10 +9951,10 @@
         <v>0.75</v>
       </c>
       <c r="D6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6" t="s">
         <v>264</v>
-      </c>
-      <c r="E6" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -9967,10 +9968,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -9984,10 +9985,10 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -10001,10 +10002,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -10018,10 +10019,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -10035,10 +10036,10 @@
         <v>0.75</v>
       </c>
       <c r="D11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -10052,10 +10053,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -10069,10 +10070,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -10086,10 +10087,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -10103,10 +10104,10 @@
         <v>0.5625</v>
       </c>
       <c r="D15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -10120,10 +10121,10 @@
         <v>0.75</v>
       </c>
       <c r="D16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -10137,10 +10138,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -10154,10 +10155,10 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -10171,10 +10172,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -10188,10 +10189,10 @@
         <v>0.75</v>
       </c>
       <c r="D20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -10205,10 +10206,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -10222,10 +10223,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -10239,10 +10240,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -10256,10 +10257,10 @@
         <v>0.5625</v>
       </c>
       <c r="D24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -10273,10 +10274,10 @@
         <v>0.75</v>
       </c>
       <c r="D25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -10290,10 +10291,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -10307,10 +10308,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -10324,10 +10325,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -10341,10 +10342,10 @@
         <v>0.5625</v>
       </c>
       <c r="D29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -10358,10 +10359,10 @@
         <v>0.75</v>
       </c>
       <c r="D30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -10375,10 +10376,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -10392,10 +10393,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -10409,10 +10410,10 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="D33" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -10426,10 +10427,10 @@
         <v>0.75</v>
       </c>
       <c r="D34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/AvlZen/App_Data/AvlZen.xlsx
+++ b/AvlZen/App_Data/AvlZen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="-15" windowWidth="15645" windowHeight="12060" tabRatio="907"/>
+    <workbookView xWindow="7440" yWindow="-15" windowWidth="15645" windowHeight="12060" tabRatio="907" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Places" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="487">
   <si>
     <t>Code</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Tuesday</t>
   </si>
   <si>
-    <t>Vinyasa Flow (All levels)</t>
-  </si>
-  <si>
     <t>Sonya</t>
   </si>
   <si>
@@ -116,12 +113,6 @@
     <t>Jamie</t>
   </si>
   <si>
-    <t>Restorative Yin (Beginners welcome)*</t>
-  </si>
-  <si>
-    <t>Rebecca(Becca)</t>
-  </si>
-  <si>
     <t>Vinyasa Flow (All Levels)*</t>
   </si>
   <si>
@@ -137,21 +128,12 @@
     <t>Vinyasa Flow (Level 1 &amp; 2)</t>
   </si>
   <si>
-    <t>Kumiko</t>
-  </si>
-  <si>
     <t>Therapeutic Yoga for Healthy Backs (Beginners Welcome)*</t>
   </si>
   <si>
     <t>Ann</t>
   </si>
   <si>
-    <t>Inner Body Yoga (All Levels)</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
     <t>Alex</t>
   </si>
   <si>
@@ -236,9 +218,6 @@
     <t>Lewis Rothlein</t>
   </si>
   <si>
-    <t>Slow Power Flow Level 1&amp;2</t>
-  </si>
-  <si>
     <t>Sara Levine</t>
   </si>
   <si>
@@ -272,15 +251,6 @@
     <t>6-Week - Iyengar Slow Yoga</t>
   </si>
   <si>
-    <t>Jacci</t>
-  </si>
-  <si>
-    <t>Jaime</t>
-  </si>
-  <si>
-    <t>Deirdre</t>
-  </si>
-  <si>
     <t>Brian</t>
   </si>
   <si>
@@ -386,9 +356,6 @@
     <t>Anna Levesque</t>
   </si>
   <si>
-    <t>Women's Dao Flow All Levels $7</t>
-  </si>
-  <si>
     <t>Saraswati Markus</t>
   </si>
   <si>
@@ -500,9 +467,6 @@
     <t>Iyengar Yoga - Level II/III</t>
   </si>
   <si>
-    <t>Level 1</t>
-  </si>
-  <si>
     <t>Kim Drye</t>
   </si>
   <si>
@@ -677,27 +641,9 @@
     <t>Anna Ferguson</t>
   </si>
   <si>
-    <t>Christie</t>
-  </si>
-  <si>
-    <t>Christe</t>
-  </si>
-  <si>
-    <t>Danielle</t>
-  </si>
-  <si>
-    <t>Cat</t>
-  </si>
-  <si>
     <t>Stephanie Johnson</t>
   </si>
   <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Meghan</t>
-  </si>
-  <si>
     <t>Rise and Shine Kundalini Yoga all level</t>
   </si>
   <si>
@@ -728,9 +674,6 @@
     <t>Gentle Yoga (Level 1, Beginners Welcome)</t>
   </si>
   <si>
-    <t>Warm Power Flow (level 1 &amp; 2, No Beginners Please)</t>
-  </si>
-  <si>
     <t>Ashtanga Yoga (Level 1 &amp; 2, No Beginners Please)</t>
   </si>
   <si>
@@ -794,9 +737,6 @@
     <t>Gentle Yoga and Live Music (Beginners Welcome)</t>
   </si>
   <si>
-    <t>Izzy</t>
-  </si>
-  <si>
     <t>http://ashevillecommunityyoga.com/class-schedules/</t>
   </si>
   <si>
@@ -911,9 +851,6 @@
     <t>Neva</t>
   </si>
   <si>
-    <t>Sunday Funday</t>
-  </si>
-  <si>
     <t>Candlelight Vinyasa</t>
   </si>
   <si>
@@ -1046,15 +983,9 @@
     <t>Dao Flow All - Levels 1 &amp; 2</t>
   </si>
   <si>
-    <t>Margaret Kirschner</t>
-  </si>
-  <si>
     <t>Dr. Robin Saraswati</t>
   </si>
   <si>
-    <t>Dao Flow Yoga for Women Levels 1 &amp; 2</t>
-  </si>
-  <si>
     <t>8 Brookdale Rd. Suite A Asheville, NC. 28804</t>
   </si>
   <si>
@@ -1097,18 +1028,6 @@
     <t>Yoga Lab</t>
   </si>
   <si>
-    <t>Mommy and Baby Fitness</t>
-  </si>
-  <si>
-    <t>Lizzy</t>
-  </si>
-  <si>
-    <t>Prenatal Yoga with Therapeutics</t>
-  </si>
-  <si>
-    <t>Freedom of Movements w/ Therapeutics</t>
-  </si>
-  <si>
     <t>Mili Perez</t>
   </si>
   <si>
@@ -1127,9 +1046,6 @@
     <t>Yin Yoga (All levels - Beginners Welcome)</t>
   </si>
   <si>
-    <t>MARCH SCHEDULE NOT UPDATED</t>
-  </si>
-  <si>
     <t xml:space="preserve">CHANGE CONTACT LINK TO: </t>
   </si>
   <si>
@@ -1157,48 +1073,21 @@
     <t>Back Care Basics</t>
   </si>
   <si>
-    <t>Yoga On The Go</t>
-  </si>
-  <si>
-    <t>Grace Kandl</t>
-  </si>
-  <si>
     <t>Slow Flow</t>
   </si>
   <si>
-    <t>Warm Therapeutic Power Flow</t>
-  </si>
-  <si>
     <t>Kundalini Yoga</t>
   </si>
   <si>
-    <t>Bob</t>
-  </si>
-  <si>
     <t>Flow and Yin Yoga</t>
   </si>
   <si>
-    <t>Warm Vinyasa Yoga</t>
-  </si>
-  <si>
     <t>Mamas and Movers</t>
   </si>
   <si>
     <t>Baby and Beloved</t>
   </si>
   <si>
-    <t>Warm Slow Flow</t>
-  </si>
-  <si>
-    <t>Women's Yoga</t>
-  </si>
-  <si>
-    <t>Slow Flow and Foam Rollers</t>
-  </si>
-  <si>
-    <t>Josie</t>
-  </si>
-  <si>
     <t>Slow Flow Yoga and Chi Gong</t>
   </si>
   <si>
@@ -1211,9 +1100,6 @@
     <t>Skillful Flow</t>
   </si>
   <si>
-    <t>Women's Kundalini Yoga and Meditation * starts April 13</t>
-  </si>
-  <si>
     <t>Brook</t>
   </si>
   <si>
@@ -1244,9 +1130,6 @@
     <t>Emma</t>
   </si>
   <si>
-    <t>Mindfulness Now Meditation</t>
-  </si>
-  <si>
     <t>Joshua</t>
   </si>
   <si>
@@ -1280,9 +1163,6 @@
     <t>Warm Jivamukti, Level 1&amp;2</t>
   </si>
   <si>
-    <t>Vibrant Breath Yoga, All Levels</t>
-  </si>
-  <si>
     <t>Krystal</t>
   </si>
   <si>
@@ -1328,12 +1208,6 @@
     <t>Brian Winslett</t>
   </si>
   <si>
-    <t>Restorative &amp; Yin, plus Live Music, All Levels</t>
-  </si>
-  <si>
-    <t>Rebecca Odom</t>
-  </si>
-  <si>
     <t>Prenatal Yoga &amp; Meditation All Levels</t>
   </si>
   <si>
@@ -1364,15 +1238,9 @@
     <t>Evan Hart Marsh</t>
   </si>
   <si>
-    <t>Natalie Epstein</t>
-  </si>
-  <si>
     <t>Slow Flow &amp; Yin Level 1</t>
   </si>
   <si>
-    <t>Warm Kripalu Flow Level 1&amp;2</t>
-  </si>
-  <si>
     <t>Andrea Rich</t>
   </si>
   <si>
@@ -1412,9 +1280,6 @@
     <t>Julian Albertson</t>
   </si>
   <si>
-    <t>Playful Flow</t>
-  </si>
-  <si>
     <t>Rich Risbridger</t>
   </si>
   <si>
@@ -1475,9 +1340,6 @@
     <t>HOT Flow Level 1&amp;2</t>
   </si>
   <si>
-    <t>Free Meditation and Mindfulness Practice</t>
-  </si>
-  <si>
     <t>Restore &amp; Renew All Levels</t>
   </si>
   <si>
@@ -1490,9 +1352,6 @@
     <t>Therapeutic Yoga for Injuries</t>
   </si>
   <si>
-    <t>Meditation in Motion All Levels</t>
-  </si>
-  <si>
     <t>Gentle Flow Level 1</t>
   </si>
   <si>
@@ -1520,9 +1379,6 @@
     <t>Booie Young</t>
   </si>
   <si>
-    <t>Family Class Ages 4 and uo with adukt</t>
-  </si>
-  <si>
     <t>Dao Flow Yoga for Women Level 1</t>
   </si>
   <si>
@@ -1538,9 +1394,6 @@
     <t>Rob Lenfestey</t>
   </si>
   <si>
-    <t>Liza</t>
-  </si>
-  <si>
     <t>Living in Alignment Yoga</t>
   </si>
   <si>
@@ -1560,6 +1413,108 @@
   </si>
   <si>
     <t>http://westashevilleyoga.com/schedule/</t>
+  </si>
+  <si>
+    <t>Morning Vinyasa (Level 1&amp;2)</t>
+  </si>
+  <si>
+    <t>Gentle Yoga &amp; Live Music (Beginners Welcome)</t>
+  </si>
+  <si>
+    <t>Gentle Flow (Level 1, Beginners Welcome)</t>
+  </si>
+  <si>
+    <t>Warm Vinyasa Flow (level 1 &amp; 2, No Beginners Please)</t>
+  </si>
+  <si>
+    <t>Gentle Yin Flow (Level 1, Beginners Welcome)</t>
+  </si>
+  <si>
+    <t>Mom &amp; Baby Yoga (babies younger than 1 year please)</t>
+  </si>
+  <si>
+    <t>Paige</t>
+  </si>
+  <si>
+    <t>Mindfulness Now Meditation (All Levels)</t>
+  </si>
+  <si>
+    <t>Slow Flow All Levels</t>
+  </si>
+  <si>
+    <t>Gentle Flow All Levels</t>
+  </si>
+  <si>
+    <t>Vanessa Santucci</t>
+  </si>
+  <si>
+    <t>HOT Flow Level 1&amp;1</t>
+  </si>
+  <si>
+    <t>KB Suarez</t>
+  </si>
+  <si>
+    <t>Yin Flow &amp; Yoga Nidra All Levels</t>
+  </si>
+  <si>
+    <t>Pranayama All Levels</t>
+  </si>
+  <si>
+    <t>Qi-Gong Reiki</t>
+  </si>
+  <si>
+    <t>Dane</t>
+  </si>
+  <si>
+    <t>Meditation Club</t>
+  </si>
+  <si>
+    <t>Dao Flow Yoga for Women - Level 2</t>
+  </si>
+  <si>
+    <t>Alignment - Level 1</t>
+  </si>
+  <si>
+    <t>Jacci Lea</t>
+  </si>
+  <si>
+    <t>Bob Bauer</t>
+  </si>
+  <si>
+    <t>Cat Matlock</t>
+  </si>
+  <si>
+    <t>Therapeutics: Freedom of Movement</t>
+  </si>
+  <si>
+    <t>Prenatal Yoga and Therapeutics: The Sacred Journey to Motherhood</t>
+  </si>
+  <si>
+    <t>Christie Abeling</t>
+  </si>
+  <si>
+    <t>Yinyassa</t>
+  </si>
+  <si>
+    <t>Liza Caloras</t>
+  </si>
+  <si>
+    <t>Josie Moser</t>
+  </si>
+  <si>
+    <t>Meghan Ganser</t>
+  </si>
+  <si>
+    <t>Beginner Yoga Basics for Stress Relief</t>
+  </si>
+  <si>
+    <t>Virginia Rosenberg</t>
+  </si>
+  <si>
+    <t>Women's Kundalini Yoga and Meditation</t>
+  </si>
+  <si>
+    <t>Embodied Mindfulness</t>
   </si>
 </sst>
 </file>
@@ -2166,7 +2121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2189,7 +2144,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2200,24 +2155,24 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="D2" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="C3" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="D3" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2228,10 +2183,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2245,77 +2200,77 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="B6" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="C6" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="D6" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="B7" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="C7" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="D7" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="D8" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B9" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="D9" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="B10" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="D10" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2329,21 +2284,21 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="B12" t="s">
-        <v>443</v>
+        <v>399</v>
       </c>
       <c r="C12" t="s">
-        <v>500</v>
+        <v>451</v>
       </c>
       <c r="D12" t="s">
-        <v>444</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2354,38 +2309,38 @@
         <v>14</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>501</v>
+        <v>452</v>
       </c>
       <c r="D13" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="B14" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="D14" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="B15" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="D15" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -2407,10 +2362,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2422,24 +2377,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B2" s="7">
         <v>0.66666666666666663</v>
@@ -2448,95 +2403,116 @@
         <v>0.71875</v>
       </c>
       <c r="D2" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="E2" t="s">
-        <v>331</v>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E3" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.4375</v>
-      </c>
-      <c r="D4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E4" t="s">
-        <v>330</v>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E5" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B6" s="7">
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C6" s="7">
-        <v>0.54166666666666663</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D6" t="s">
-        <v>361</v>
+        <v>441</v>
       </c>
       <c r="E6" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="7">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D8" t="s">
+        <v>335</v>
+      </c>
+      <c r="E8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="D10" t="s">
+        <v>308</v>
+      </c>
+      <c r="E10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="7">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C12" s="7">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D7" t="s">
-        <v>489</v>
-      </c>
-      <c r="E7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="7">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="D9" t="s">
-        <v>363</v>
-      </c>
-      <c r="E9" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="7">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.4375</v>
-      </c>
-      <c r="D11" t="s">
-        <v>332</v>
-      </c>
-      <c r="E11" t="s">
-        <v>331</v>
+      <c r="D12" t="s">
+        <v>471</v>
+      </c>
+      <c r="E12" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -2547,10 +2523,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2562,24 +2538,24 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B2" s="7">
         <v>0.33333333333333331</v>
@@ -2588,24 +2564,24 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="H2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B3" s="7">
         <v>0.39583333333333331</v>
@@ -2614,24 +2590,24 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G3" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="H3" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B4" s="7">
         <v>0.41666666666666669</v>
@@ -2640,24 +2616,24 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G4" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="H4" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B5" s="7">
         <v>0.5</v>
@@ -2666,24 +2642,24 @@
         <v>0.5625</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G5" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="H5" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B6" s="7">
         <v>0.65625</v>
@@ -2692,24 +2668,24 @@
         <v>0.71875</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G6" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="H6" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B7" s="7">
         <v>0.66666666666666663</v>
@@ -2718,24 +2694,24 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="H7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B8" s="7">
         <v>0.72916666666666663</v>
@@ -2744,24 +2720,24 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D8" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G8" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="H8" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B9" s="7">
         <v>0.75</v>
@@ -2770,19 +2746,19 @@
         <v>0.8125</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G9" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="H9" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1"/>
@@ -2797,10 +2773,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>490</v>
+        <v>442</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1">
@@ -2814,10 +2790,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1">
@@ -2831,10 +2807,10 @@
         <v>0.5625</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1">
@@ -2848,10 +2824,10 @@
         <v>0.71875</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1">
@@ -2865,10 +2841,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1">
@@ -2882,10 +2858,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>491</v>
+        <v>443</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1">
@@ -2899,15 +2875,15 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B19" s="7">
         <v>0.33333333333333331</v>
@@ -2916,24 +2892,24 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F19" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G19" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="H19" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B20" s="7">
         <v>0.39583333333333331</v>
@@ -2942,24 +2918,24 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E20" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F20" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G20" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="H20" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B21" s="7">
         <v>0.40625</v>
@@ -2968,24 +2944,24 @@
         <v>0.46875</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G21" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="H21" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B22" s="7">
         <v>0.5</v>
@@ -2994,24 +2970,24 @@
         <v>0.5625</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G22" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="H22" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B23" s="7">
         <v>0.66666666666666663</v>
@@ -3020,24 +2996,24 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D23" t="s">
-        <v>148</v>
+        <v>472</v>
       </c>
       <c r="E23" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="F23" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G23" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" t="s">
         <v>138</v>
-      </c>
-      <c r="H23" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B24" s="7">
         <v>0.72916666666666663</v>
@@ -3046,24 +3022,24 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D24" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F24" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G24" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="H24" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B25" s="7">
         <v>0.73958333333333337</v>
@@ -3072,24 +3048,24 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D25" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G25" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="H25" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B27" s="7">
         <v>0.29166666666666669</v>
@@ -3098,24 +3074,24 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F27" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G27" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="H27" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B28" s="7">
         <v>0.39583333333333331</v>
@@ -3124,24 +3100,24 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G28" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="H28" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B29" s="7">
         <v>0.5</v>
@@ -3150,325 +3126,305 @@
         <v>0.5625</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E29" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="F29" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G29" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="H29" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="32" t="s">
-        <v>78</v>
+      <c r="A30" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="B30" s="7">
-        <v>0.51041666666666663</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="C30" s="7">
-        <v>0.55208333333333337</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="D30" t="s">
-        <v>367</v>
+        <v>129</v>
       </c>
       <c r="E30" t="s">
-        <v>368</v>
+        <v>130</v>
+      </c>
+      <c r="F30" t="s">
+        <v>122</v>
       </c>
       <c r="G30" t="s">
-        <v>134</v>
+        <v>127</v>
+      </c>
+      <c r="H30" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B31" s="7">
-        <v>0.63541666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="C31" s="7">
-        <v>0.69791666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E31" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="F31" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G31" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="H31" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B32" s="7">
-        <v>0.64583333333333337</v>
+        <v>0.71875</v>
       </c>
       <c r="C32" s="7">
-        <v>0.70833333333333337</v>
+        <v>0.78125</v>
       </c>
       <c r="D32" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E32" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="F32" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G32" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H32" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B33" s="7">
-        <v>0.71875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="C33" s="7">
-        <v>0.78125</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D33" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E33" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F33" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G33" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="H33" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="7">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="C34" s="7">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D34" t="s">
-        <v>156</v>
-      </c>
-      <c r="E34" t="s">
-        <v>157</v>
-      </c>
-      <c r="F34" t="s">
-        <v>133</v>
-      </c>
-      <c r="G34" t="s">
-        <v>134</v>
-      </c>
-      <c r="H34" t="s">
-        <v>135</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D35" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" t="s">
+        <v>123</v>
+      </c>
+      <c r="H35" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B36" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C36" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D36" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E36" t="s">
-        <v>65</v>
+        <v>324</v>
       </c>
       <c r="F36" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G36" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H36" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B37" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="C37" s="7">
-        <v>0.47916666666666669</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D37" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E37" t="s">
-        <v>351</v>
+        <v>133</v>
       </c>
       <c r="F37" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G37" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="H37" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B38" s="7">
-        <v>0.5</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C38" s="7">
-        <v>0.54166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D38" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E38" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F38" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G38" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="H38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="7">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C39" s="7">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D39" t="s">
-        <v>162</v>
-      </c>
-      <c r="E39" t="s">
-        <v>149</v>
-      </c>
-      <c r="F39" t="s">
-        <v>133</v>
-      </c>
-      <c r="G39" t="s">
-        <v>138</v>
-      </c>
-      <c r="H39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="7">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="7">
         <v>0.375</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C40" s="7">
         <v>0.4375</v>
       </c>
-      <c r="D41" t="s">
-        <v>145</v>
-      </c>
-      <c r="E41" t="s">
-        <v>163</v>
-      </c>
-      <c r="F41" t="s">
-        <v>133</v>
-      </c>
-      <c r="G41" t="s">
-        <v>138</v>
-      </c>
-      <c r="H41" t="s">
-        <v>135</v>
+      <c r="D40" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" t="s">
+        <v>122</v>
+      </c>
+      <c r="G40" t="s">
+        <v>127</v>
+      </c>
+      <c r="H40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D42" t="s">
+        <v>152</v>
+      </c>
+      <c r="E42" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" t="s">
+        <v>127</v>
+      </c>
+      <c r="H42" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="8" t="s">
-        <v>81</v>
+      <c r="A43" t="s">
+        <v>71</v>
       </c>
       <c r="B43" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C43" s="7">
-        <v>0.47916666666666669</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D43" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="E43" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="F43" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G43" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="H43" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="7">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C44" s="7">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D44" t="s">
-        <v>145</v>
-      </c>
-      <c r="E44" t="s">
-        <v>132</v>
-      </c>
-      <c r="F44" t="s">
-        <v>133</v>
-      </c>
-      <c r="G44" t="s">
-        <v>134</v>
-      </c>
-      <c r="H44" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3479,10 +3435,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3494,24 +3450,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B2" s="7">
         <v>0.28125</v>
@@ -3520,15 +3476,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D2" t="s">
-        <v>445</v>
+        <v>401</v>
       </c>
       <c r="E2" t="s">
-        <v>446</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B3" s="7">
         <v>0.375</v>
@@ -3537,15 +3493,15 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D3" t="s">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="E3" t="s">
-        <v>448</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B4" s="7">
         <v>0.5</v>
@@ -3554,15 +3510,15 @@
         <v>0.53125</v>
       </c>
       <c r="D4" t="s">
-        <v>449</v>
+        <v>405</v>
       </c>
       <c r="E4" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B5" s="7">
         <v>0.66666666666666663</v>
@@ -3571,15 +3527,15 @@
         <v>0.71875</v>
       </c>
       <c r="D5" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="E5" t="s">
-        <v>451</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B6" s="7">
         <v>0.72916666666666663</v>
@@ -3588,15 +3544,15 @@
         <v>0.78125</v>
       </c>
       <c r="D6" t="s">
-        <v>452</v>
+        <v>403</v>
       </c>
       <c r="E6" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B7" s="7">
         <v>0.79166666666666663</v>
@@ -3605,10 +3561,10 @@
         <v>0.84375</v>
       </c>
       <c r="D7" t="s">
-        <v>454</v>
+        <v>409</v>
       </c>
       <c r="E7" t="s">
-        <v>455</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3627,10 +3583,10 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D9" t="s">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3644,10 +3600,10 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D10" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="E10" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3655,16 +3611,16 @@
         <v>15</v>
       </c>
       <c r="B11" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="C11" s="7">
-        <v>0.71875</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D11" t="s">
-        <v>458</v>
+        <v>253</v>
       </c>
       <c r="E11" t="s">
-        <v>459</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3672,16 +3628,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="7">
-        <v>0.72916666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C12" s="7">
-        <v>0.78125</v>
+        <v>0.71875</v>
       </c>
       <c r="D12" t="s">
-        <v>460</v>
+        <v>413</v>
       </c>
       <c r="E12" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3689,427 +3645,444 @@
         <v>15</v>
       </c>
       <c r="B13" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.78125</v>
+      </c>
+      <c r="D13" t="s">
+        <v>415</v>
+      </c>
+      <c r="E13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="7">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C14" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D13" t="s">
-        <v>461</v>
-      </c>
-      <c r="E13" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="D14" t="s">
+        <v>416</v>
+      </c>
+      <c r="E14" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="7">
-        <v>0.28125</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D15" t="s">
-        <v>445</v>
-      </c>
-      <c r="E15" t="s">
-        <v>446</v>
-      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B16" s="7">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D16" t="s">
+        <v>401</v>
+      </c>
+      <c r="E16" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="7">
         <v>0.375</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C17" s="7">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D16" t="s">
-        <v>447</v>
-      </c>
-      <c r="E16" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="7">
+      <c r="D17" t="s">
+        <v>403</v>
+      </c>
+      <c r="E17" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="7">
         <v>0.5</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C18" s="7">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D17" t="s">
-        <v>449</v>
-      </c>
-      <c r="E17" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="7">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0.71875</v>
-      </c>
       <c r="D18" t="s">
-        <v>450</v>
+        <v>405</v>
       </c>
       <c r="E18" t="s">
-        <v>457</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B19" s="7">
-        <v>0.72916666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C19" s="7">
-        <v>0.78125</v>
+        <v>0.71875</v>
       </c>
       <c r="D19" t="s">
-        <v>452</v>
+        <v>406</v>
       </c>
       <c r="E19" t="s">
-        <v>453</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B20" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.78125</v>
+      </c>
+      <c r="D20" t="s">
+        <v>403</v>
+      </c>
+      <c r="E20" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="7">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C21" s="7">
         <v>0.84375</v>
       </c>
-      <c r="D20" t="s">
-        <v>454</v>
-      </c>
-      <c r="E20" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="D21" t="s">
+        <v>409</v>
+      </c>
+      <c r="E21" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="7">
-        <v>0.375</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="D22" t="s">
-        <v>447</v>
-      </c>
-      <c r="E22" t="s">
-        <v>61</v>
-      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B23" s="7">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="C23" s="7">
-        <v>0.48958333333333331</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D23" t="s">
-        <v>456</v>
+        <v>403</v>
       </c>
       <c r="E23" t="s">
-        <v>457</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B24" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.4375</v>
       </c>
       <c r="C24" s="7">
-        <v>0.71875</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="D24" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="E24" t="s">
-        <v>459</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>78</v>
+      <c r="A25" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="B25" s="7">
-        <v>0.72916666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="C25" s="7">
-        <v>0.78125</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D25" t="s">
-        <v>460</v>
+        <v>405</v>
       </c>
       <c r="E25" t="s">
-        <v>448</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B26" s="7">
-        <v>0.79166666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C26" s="7">
-        <v>0.84375</v>
+        <v>0.71875</v>
       </c>
       <c r="D26" t="s">
-        <v>462</v>
+        <v>413</v>
       </c>
       <c r="E26" t="s">
-        <v>112</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.78125</v>
+      </c>
+      <c r="D27" t="s">
+        <v>415</v>
+      </c>
+      <c r="E27" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B28" s="7">
-        <v>0.29166666666666669</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C28" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.84375</v>
       </c>
       <c r="D28" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="E28" t="s">
-        <v>446</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="7">
-        <v>0.375</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="D29" t="s">
-        <v>447</v>
-      </c>
-      <c r="E29" t="s">
-        <v>448</v>
-      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B30" s="7">
-        <v>0.5</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="C30" s="7">
-        <v>0.54166666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D30" t="s">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="E30" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B31" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="C31" s="7">
-        <v>0.71875</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D31" t="s">
-        <v>450</v>
+        <v>403</v>
       </c>
       <c r="E31" t="s">
-        <v>463</v>
+        <v>404</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B32" s="7">
-        <v>0.72916666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="C32" s="7">
-        <v>0.78125</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D32" t="s">
-        <v>447</v>
+        <v>405</v>
       </c>
       <c r="E32" t="s">
-        <v>453</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B33" s="7">
-        <v>0.79166666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C33" s="7">
-        <v>0.84375</v>
+        <v>0.71875</v>
       </c>
       <c r="D33" t="s">
-        <v>492</v>
+        <v>406</v>
       </c>
       <c r="E33" t="s">
-        <v>493</v>
+        <v>418</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.78125</v>
+      </c>
+      <c r="D34" t="s">
+        <v>403</v>
+      </c>
+      <c r="E34" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B35" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C35" s="7">
-        <v>0.38541666666666669</v>
+        <v>0.84375</v>
       </c>
       <c r="D35" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="E35" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="7">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C36" s="7">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="D36" t="s">
-        <v>447</v>
-      </c>
-      <c r="E36" t="s">
-        <v>455</v>
-      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B37" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C37" s="7">
-        <v>0.51041666666666663</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="D37" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="E37" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D38" t="s">
+        <v>403</v>
+      </c>
+      <c r="E38" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B39" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C39" s="7">
-        <v>0.44791666666666669</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D39" t="s">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="E39" t="s">
-        <v>61</v>
+        <v>407</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C40" s="7">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="D40" t="s">
-        <v>447</v>
-      </c>
-      <c r="E40" t="s">
-        <v>61</v>
-      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B41" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D41" t="s">
+        <v>403</v>
+      </c>
+      <c r="E41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="7">
         <v>0.75</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C42" s="7">
         <v>0.80208333333333337</v>
       </c>
-      <c r="D41" t="s">
-        <v>465</v>
-      </c>
-      <c r="E41" t="s">
-        <v>466</v>
+      <c r="D42" t="s">
+        <v>420</v>
+      </c>
+      <c r="E42" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -4119,10 +4092,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4135,156 +4108,156 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
-        <v>76</v>
+      <c r="A2" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="B2" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="C2" s="7">
-        <v>0.375</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D2" t="s">
-        <v>320</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="8" t="s">
-        <v>76</v>
+      <c r="A3" s="32" t="s">
+        <v>66</v>
       </c>
       <c r="B3" s="7">
-        <v>0.38541666666666669</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="C3" s="7">
-        <v>0.42708333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>341</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="32" t="s">
-        <v>76</v>
+      <c r="A4" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="B4" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="C4" s="7">
-        <v>0.5625</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D4" t="s">
-        <v>374</v>
+        <v>446</v>
       </c>
       <c r="E4" t="s">
-        <v>494</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B5" s="7">
-        <v>0.625</v>
+        <v>0.80208333333333337</v>
       </c>
       <c r="C5" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.84375</v>
       </c>
       <c r="D5" t="s">
-        <v>370</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D6" t="s">
-        <v>495</v>
-      </c>
-      <c r="E6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.84375</v>
-      </c>
-      <c r="D7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1"/>
+        <v>473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.3125</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B9" s="5">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="27" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="5">
-        <v>0.39583333333333331</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="C10" s="5">
-        <v>0.47916666666666669</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>346</v>
+        <v>477</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>74</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1">
@@ -4292,157 +4265,140 @@
         <v>15</v>
       </c>
       <c r="B11" s="5">
-        <v>0.51041666666666663</v>
+        <v>0.80208333333333337</v>
       </c>
       <c r="C11" s="5">
-        <v>0.55208333333333337</v>
+        <v>0.4375</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>373</v>
+        <v>476</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0.5625</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="5">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="D13" t="s">
+        <v>342</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>343</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="7">
         <v>0.73958333333333337</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C15" s="7">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="5">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.4375</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>210</v>
+      <c r="D15" t="s">
+        <v>447</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B16" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.80208333333333337</v>
       </c>
       <c r="C16" s="7">
-        <v>0.375</v>
+        <v>0.84375</v>
       </c>
       <c r="D16" t="s">
-        <v>374</v>
+        <v>283</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="7">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.4375</v>
-      </c>
-      <c r="D17" t="s">
-        <v>375</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="26.25">
       <c r="A18" s="8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B18" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.3125</v>
       </c>
       <c r="C18" s="7">
-        <v>0.5</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="D18" t="s">
-        <v>376</v>
+        <v>196</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>208</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B19" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="C19" s="7">
-        <v>0.5625</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D19" t="s">
-        <v>377</v>
+        <v>140</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>210</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="32" t="s">
-        <v>77</v>
+      <c r="A20" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="B20" s="7">
-        <v>0.625</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="C20" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D20" t="s">
-        <v>370</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>206</v>
+        <v>479</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B21" s="7">
         <v>0.73958333333333337</v>
@@ -4451,248 +4407,180 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D21" t="s">
-        <v>496</v>
+        <v>339</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>32</v>
+        <v>481</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="8" t="s">
-        <v>77</v>
+      <c r="A22" s="32" t="s">
+        <v>68</v>
       </c>
       <c r="B22" s="7">
         <v>0.80208333333333337</v>
       </c>
       <c r="C22" s="7">
-        <v>0.84375</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D22" t="s">
-        <v>304</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>72</v>
+        <v>347</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B24" s="7">
-        <v>0.3125</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="C24" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D24" t="s">
-        <v>214</v>
+        <v>341</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B25" s="7">
-        <v>0.38541666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="C25" s="7">
-        <v>0.42708333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="D25" t="s">
-        <v>152</v>
+        <v>345</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B26" s="7">
-        <v>0.44791666666666669</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="C26" s="7">
-        <v>0.51041666666666663</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="D26" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>74</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="8" t="s">
-        <v>78</v>
+      <c r="A27" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="B27" s="7">
-        <v>0.53125</v>
+        <v>0.75</v>
       </c>
       <c r="C27" s="7">
-        <v>0.57291666666666663</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D27" t="s">
-        <v>379</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="7">
-        <v>0.73958333333333337</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D28" t="s">
-        <v>369</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>380</v>
+        <v>483</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="32" t="s">
-        <v>78</v>
+      <c r="A29" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="B29" s="7">
-        <v>0.80208333333333337</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="C29" s="7">
-        <v>0.85416666666666663</v>
+        <v>0.4375</v>
       </c>
       <c r="D29" t="s">
-        <v>384</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="7">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D31" t="s">
-        <v>373</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>211</v>
+        <v>346</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D30" t="s">
+        <v>347</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B32" s="7">
-        <v>0.4375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C32" s="7">
-        <v>0.5</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="D32" t="s">
-        <v>382</v>
+        <v>339</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="8" t="s">
-        <v>79</v>
+      <c r="A33" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="B33" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C33" s="7">
-        <v>0.57291666666666663</v>
+        <v>0.71875</v>
       </c>
       <c r="D33" t="s">
-        <v>381</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="7">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="C35" s="7">
-        <v>0.4375</v>
-      </c>
-      <c r="D35" t="s">
-        <v>383</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C36" s="7">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D36" t="s">
-        <v>384</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="7">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="D38" t="s">
-        <v>369</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="7">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C39" s="7">
-        <v>0.71875</v>
-      </c>
-      <c r="D39" t="s">
-        <v>385</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>209</v>
+        <v>485</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="D34" t="s">
+        <v>486</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4705,7 +4593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
@@ -4718,27 +4606,27 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B2" s="7">
         <v>0.39583333333333331</v>
@@ -4747,18 +4635,18 @@
         <v>0.4375</v>
       </c>
       <c r="D2" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B3" s="7">
         <v>0.4375</v>
@@ -4767,10 +4655,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4784,10 +4672,10 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D5" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4801,15 +4689,15 @@
         <v>0.8125</v>
       </c>
       <c r="D6" t="s">
-        <v>497</v>
+        <v>448</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B8" s="7">
         <v>0.39583333333333331</v>
@@ -4818,15 +4706,15 @@
         <v>0.4375</v>
       </c>
       <c r="D8" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="E8" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B10" s="7">
         <v>0.4375</v>
@@ -4835,15 +4723,15 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D10" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B11" s="7">
         <v>0.77083333333333337</v>
@@ -4852,15 +4740,15 @@
         <v>0.8125</v>
       </c>
       <c r="D11" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="E11" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B13" s="7">
         <v>0.35416666666666669</v>
@@ -4869,15 +4757,15 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D13" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="E13" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B14" s="7">
         <v>0.45833333333333331</v>
@@ -4886,10 +4774,10 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D14" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="E14" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4898,7 +4786,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B16" s="7">
         <v>0.46875</v>
@@ -4907,15 +4795,15 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D16" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="E16" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B18" s="7">
         <v>0.5625</v>
@@ -4924,15 +4812,15 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D18" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="E18" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B19" s="7">
         <v>0.625</v>
@@ -4941,10 +4829,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D19" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="E19" t="s">
-        <v>388</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -4973,24 +4861,24 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B2" s="7">
         <v>0.3125</v>
@@ -4999,20 +4887,20 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="E2" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B3" s="7">
         <v>0.66666666666666663</v>
@@ -5021,18 +4909,18 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D3" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="E3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="G3" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B4" s="7">
         <v>0.79166666666666663</v>
@@ -5041,10 +4929,10 @@
         <v>0.84375</v>
       </c>
       <c r="D4" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="E4" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5058,10 +4946,10 @@
         <v>0.40625</v>
       </c>
       <c r="D6" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5075,10 +4963,10 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="D7" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="E7" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5092,10 +4980,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D8" t="s">
-        <v>498</v>
+        <v>449</v>
       </c>
       <c r="E8" t="s">
-        <v>499</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5109,15 +4997,15 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D9" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="E9" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B11" s="7">
         <v>0.46875</v>
@@ -5126,15 +5014,15 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D11" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="E11" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B12" s="7">
         <v>0.5625</v>
@@ -5143,15 +5031,15 @@
         <v>0.625</v>
       </c>
       <c r="D12" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="E12" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B13" s="7">
         <v>0.71875</v>
@@ -5160,15 +5048,15 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D13" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="E13" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B15" s="7">
         <v>0.35416666666666669</v>
@@ -5177,15 +5065,15 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D15" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="E15" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B16" s="7">
         <v>0.64583333333333337</v>
@@ -5194,15 +5082,15 @@
         <v>0.6875</v>
       </c>
       <c r="D16" t="s">
-        <v>498</v>
+        <v>449</v>
       </c>
       <c r="E16" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B17" s="7">
         <v>0.77083333333333337</v>
@@ -5211,15 +5099,15 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D17" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="E17" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B19" s="7">
         <v>0.3125</v>
@@ -5228,15 +5116,15 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D19" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="E19" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B20" s="7">
         <v>0.5625</v>
@@ -5245,15 +5133,15 @@
         <v>0.625</v>
       </c>
       <c r="D20" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="E20" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B21" s="7">
         <v>0.78125</v>
@@ -5262,15 +5150,15 @@
         <v>0.84375</v>
       </c>
       <c r="D21" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="E21" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B23" s="7">
         <v>0.35416666666666669</v>
@@ -5279,15 +5167,15 @@
         <v>0.40625</v>
       </c>
       <c r="D23" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="E23" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B24" s="7">
         <v>0.45833333333333331</v>
@@ -5296,15 +5184,15 @@
         <v>0.5</v>
       </c>
       <c r="D24" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="E24" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B25" s="7">
         <v>0.47916666666666669</v>
@@ -5313,15 +5201,15 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D25" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="E25" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B27" s="7">
         <v>0.55208333333333337</v>
@@ -5330,15 +5218,15 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D27" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="E27" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B28" s="7">
         <v>0.67708333333333337</v>
@@ -5347,10 +5235,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D28" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="E28" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -5364,8 +5252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5379,25 +5267,25 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B2" s="7">
         <v>0.28125</v>
@@ -5406,16 +5294,16 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B3" s="7">
         <v>0.39583333333333331</v>
@@ -5424,15 +5312,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B4" s="7">
         <v>0.41666666666666669</v>
@@ -5441,15 +5329,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B5" s="7">
         <v>0.48958333333333331</v>
@@ -5458,15 +5346,15 @@
         <v>0.53125</v>
       </c>
       <c r="D5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B6" s="7">
         <v>0.5</v>
@@ -5475,15 +5363,15 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D6" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="32" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B7" s="7">
         <v>0.54166666666666663</v>
@@ -5492,15 +5380,15 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D7" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="E7" t="s">
-        <v>467</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B8" s="7">
         <v>0.59375</v>
@@ -5509,15 +5397,15 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D8" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B9" s="7">
         <v>0.66666666666666663</v>
@@ -5526,15 +5414,15 @@
         <v>0.71875</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B10" s="7">
         <v>0.70833333333333337</v>
@@ -5543,15 +5431,15 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D10" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B11" s="7">
         <v>0.75</v>
@@ -5560,15 +5448,15 @@
         <v>0.8125</v>
       </c>
       <c r="D11" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B12" s="7">
         <v>0.77083333333333337</v>
@@ -5577,15 +5465,15 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B13" s="7">
         <v>0.83333333333333337</v>
@@ -5594,10 +5482,10 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="D13" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E13" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1"/>
@@ -5612,10 +5500,10 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>16</v>
+        <v>453</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="F15" s="29"/>
     </row>
@@ -5630,10 +5518,10 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="F16" s="29"/>
     </row>
@@ -5648,10 +5536,10 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>20</v>
+        <v>454</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="F17" s="29"/>
     </row>
@@ -5666,10 +5554,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F18" s="29"/>
     </row>
@@ -5684,10 +5572,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F19" s="29"/>
     </row>
@@ -5702,10 +5590,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F20" s="29"/>
     </row>
@@ -5720,10 +5608,10 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F21" s="29"/>
     </row>
@@ -5732,16 +5620,16 @@
         <v>15</v>
       </c>
       <c r="B22" s="5">
-        <v>0.5625</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="C22" s="5">
-        <v>0.60416666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>30</v>
+        <v>424</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F22" s="29"/>
     </row>
@@ -5750,20 +5638,20 @@
         <v>15</v>
       </c>
       <c r="B23" s="5">
-        <v>0.60416666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C23" s="5">
-        <v>0.64583333333333337</v>
+        <v>0.71875</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>469</v>
+        <v>326</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F23" s="29"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1">
+    <row r="24" spans="1:6" ht="16.5" thickBot="1">
       <c r="A24" s="4" t="s">
         <v>15</v>
       </c>
@@ -5771,31 +5659,31 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C24" s="5">
-        <v>0.71875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>353</v>
+        <v>27</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="29"/>
+        <v>28</v>
+      </c>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" thickBot="1">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="5">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="C25" s="5">
-        <v>0.72916666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>33</v>
+        <v>325</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="F25" s="31"/>
     </row>
@@ -5810,378 +5698,378 @@
         <v>0.8125</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>352</v>
+        <v>30</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="F26" s="31"/>
     </row>
-    <row r="27" spans="1:6" ht="16.5" thickBot="1">
+    <row r="27" spans="1:6" ht="15.75" thickBot="1">
       <c r="A27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="5">
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C27" s="5">
-        <v>0.8125</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="31"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="5">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C28" s="5">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="F28" s="29"/>
+        <v>423</v>
+      </c>
+      <c r="F27" s="29"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0.28125</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D29" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B30" s="7">
-        <v>0.28125</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C30" s="7">
-        <v>0.32291666666666669</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="D30" t="s">
         <v>197</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>32</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B31" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C31" s="7">
-        <v>0.38541666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D31" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="F31" s="29"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B32" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C32" s="7">
         <v>0.45833333333333331</v>
       </c>
       <c r="D32" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B33" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.46875</v>
       </c>
       <c r="C33" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="D33" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>174</v>
+        <v>356</v>
       </c>
       <c r="F33" s="29"/>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="8" t="s">
-        <v>77</v>
+    <row r="34" spans="1:6" ht="15.75">
+      <c r="A34" s="32" t="s">
+        <v>67</v>
       </c>
       <c r="B34" s="7">
-        <v>0.46875</v>
+        <v>0.5</v>
       </c>
       <c r="C34" s="7">
-        <v>0.48958333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D34" t="s">
-        <v>218</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="F34" s="29"/>
+        <v>327</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="31"/>
     </row>
     <row r="35" spans="1:6" ht="15.75">
-      <c r="A35" s="32" t="s">
-        <v>77</v>
+      <c r="A35" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="B35" s="7">
-        <v>0.5</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="C35" s="7">
-        <v>0.54166666666666663</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="D35" t="s">
-        <v>354</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>37</v>
+        <v>23</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="F35" s="31"/>
     </row>
     <row r="36" spans="1:6" ht="15.75">
       <c r="A36" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B36" s="7">
-        <v>0.51041666666666663</v>
+        <v>0.59375</v>
       </c>
       <c r="C36" s="7">
-        <v>0.57291666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F36" s="31"/>
     </row>
     <row r="37" spans="1:6" ht="15.75">
       <c r="A37" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B37" s="7">
         <v>0.59375</v>
       </c>
       <c r="C37" s="7">
-        <v>0.64583333333333337</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="D37" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F37" s="31"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75">
+    <row r="38" spans="1:6">
       <c r="A38" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B38" s="7">
-        <v>0.59375</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C38" s="7">
-        <v>0.63541666666666663</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="D38" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="F38" s="31"/>
+        <v>168</v>
+      </c>
+      <c r="F38" s="29"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B39" s="7">
         <v>0.66666666666666663</v>
       </c>
       <c r="C39" s="7">
-        <v>0.69791666666666663</v>
+        <v>0.71875</v>
       </c>
       <c r="D39" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F39" s="29"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="15.75">
       <c r="A40" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B40" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.71875</v>
       </c>
       <c r="C40" s="7">
-        <v>0.71875</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="D40" t="s">
-        <v>222</v>
+        <v>455</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="F40" s="29"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.75">
+        <v>156</v>
+      </c>
+      <c r="F40" s="31"/>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B41" s="7">
-        <v>0.71875</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="C41" s="7">
-        <v>0.76041666666666663</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="D41" t="s">
-        <v>223</v>
+        <v>456</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F41" s="31"/>
+        <v>31</v>
+      </c>
+      <c r="F41" s="29"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B42" s="7">
-        <v>0.77083333333333337</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="C42" s="7">
-        <v>0.82291666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="D42" t="s">
-        <v>224</v>
+        <v>457</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="F42" s="29"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B43" s="7">
-        <v>0.82291666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C43" s="7">
-        <v>0.875</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="D43" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="F43" s="29"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" s="7">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C44" s="7">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="D44" t="s">
-        <v>225</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>179</v>
-      </c>
       <c r="F44" s="29"/>
     </row>
     <row r="45" spans="1:6">
+      <c r="A45" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D45" t="s">
+        <v>207</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="F45" s="29"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" ht="15.75">
       <c r="A46" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B46" s="7">
-        <v>0.25</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="C46" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.34375</v>
       </c>
       <c r="D46" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F46" s="29"/>
-    </row>
-    <row r="47" spans="1:6" ht="15.75">
+        <v>171</v>
+      </c>
+      <c r="F46" s="31"/>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B47" s="7">
-        <v>0.30208333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C47" s="7">
-        <v>0.34375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D47" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F47" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="F47" s="29"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="8" t="s">
-        <v>78</v>
+      <c r="A48" s="32" t="s">
+        <v>68</v>
       </c>
       <c r="B48" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C48" s="7">
         <v>0.45833333333333331</v>
       </c>
       <c r="D48" t="s">
-        <v>229</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>168</v>
+        <v>458</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>459</v>
       </c>
       <c r="F48" s="29"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B49" s="7">
         <v>0.46875</v>
@@ -6190,16 +6078,16 @@
         <v>0.5</v>
       </c>
       <c r="D49" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="F49" s="29"/>
     </row>
     <row r="50" spans="1:6" ht="15.75">
       <c r="A50" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B50" s="7">
         <v>0.5</v>
@@ -6208,16 +6096,16 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="F50" s="31"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B51" s="7">
         <v>0.51041666666666663</v>
@@ -6226,16 +6114,16 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D51" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F51" s="29"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B52" s="7">
         <v>0.59375</v>
@@ -6244,16 +6132,16 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="D52" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F52" s="29"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B53" s="7">
         <v>0.66666666666666663</v>
@@ -6262,16 +6150,16 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D53" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F53" s="29"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B54" s="7">
         <v>0.6875</v>
@@ -6280,16 +6168,16 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D54" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F54" s="29"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B55" s="7">
         <v>0.71875</v>
@@ -6298,16 +6186,16 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D55" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F55" s="29"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B56" s="7">
         <v>0.77083333333333337</v>
@@ -6316,16 +6204,16 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D56" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F56" s="29"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B57" s="7">
         <v>0.83333333333333337</v>
@@ -6334,16 +6222,16 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="D57" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="F57" s="29"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B58" s="7">
         <v>0.84375</v>
@@ -6352,10 +6240,10 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="D58" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F58" s="29"/>
     </row>
@@ -6368,7 +6256,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B61" s="7">
         <v>0.39583333333333331</v>
@@ -6377,16 +6265,16 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D61" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F61" s="29"/>
     </row>
     <row r="62" spans="1:6" ht="15.75">
       <c r="A62" s="8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B62" s="7">
         <v>0.46875</v>
@@ -6395,16 +6283,16 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D62" t="s">
-        <v>396</v>
+        <v>460</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="F62" s="31"/>
     </row>
     <row r="63" spans="1:6" ht="15.75">
       <c r="A63" s="8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B63" s="7">
         <v>0.5</v>
@@ -6413,16 +6301,16 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D63" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F63" s="31"/>
     </row>
     <row r="64" spans="1:6" ht="15.75">
       <c r="A64" s="8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B64" s="7">
         <v>0.51041666666666663</v>
@@ -6431,16 +6319,16 @@
         <v>0.5625</v>
       </c>
       <c r="D64" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F64" s="31"/>
     </row>
     <row r="65" spans="1:6" ht="15.75">
       <c r="A65" s="8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B65" s="7">
         <v>0.59375</v>
@@ -6449,16 +6337,16 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="D65" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F65" s="31"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B66" s="7">
         <v>0.66666666666666663</v>
@@ -6467,16 +6355,16 @@
         <v>0.71875</v>
       </c>
       <c r="D66" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F66" s="29"/>
     </row>
     <row r="67" spans="1:6" ht="15.75">
       <c r="A67" s="8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B67" s="7">
         <v>0.67708333333333337</v>
@@ -6485,16 +6373,16 @@
         <v>0.71875</v>
       </c>
       <c r="D67" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F67" s="31"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B68" s="7">
         <v>0.75</v>
@@ -6503,15 +6391,15 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D68" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="8" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B70" s="7">
         <v>0.35416666666666669</v>
@@ -6520,15 +6408,15 @@
         <v>0.40625</v>
       </c>
       <c r="D70" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="8" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B71" s="7">
         <v>0.42708333333333331</v>
@@ -6537,16 +6425,16 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D71" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="F71" s="29"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="8" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B72" s="7">
         <v>0.4375</v>
@@ -6555,16 +6443,16 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D72" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F72" s="29"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="8" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B73" s="7">
         <v>0.51041666666666663</v>
@@ -6573,16 +6461,16 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D73" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F73" s="29"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="8" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B74" s="7">
         <v>0.59375</v>
@@ -6591,16 +6479,16 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D74" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="F74" s="29"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="8" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B75" s="7">
         <v>0.64583333333333337</v>
@@ -6609,16 +6497,16 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D75" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F75" s="29"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="32" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B76" s="7">
         <v>0.72916666666666663</v>
@@ -6627,10 +6515,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D76" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="E76" s="32" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="F76" s="29"/>
     </row>
@@ -6639,7 +6527,7 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B78" s="7">
         <v>0.39583333333333331</v>
@@ -6648,15 +6536,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D78" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B79" s="7">
         <v>0.46875</v>
@@ -6665,16 +6553,16 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D79" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F79" s="29"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B80" s="7">
         <v>0.53125</v>
@@ -6683,16 +6571,16 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D80" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F80" s="29"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B81" s="7">
         <v>0.59375</v>
@@ -6701,16 +6589,16 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D81" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F81" s="29"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B82" s="7">
         <v>0.66666666666666663</v>
@@ -6719,16 +6607,16 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D82" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F82" s="29"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B83" s="7">
         <v>0.75</v>
@@ -6737,10 +6625,10 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D83" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F83" s="29"/>
     </row>
@@ -6772,19 +6660,19 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -6798,17 +6686,17 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D2" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="H2" s="18"/>
       <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B3" s="7">
         <v>0.25</v>
@@ -6817,10 +6705,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="E3" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="H3" s="20"/>
       <c r="I3" s="15"/>
@@ -6830,7 +6718,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B4" s="7">
         <v>0.25</v>
@@ -6839,10 +6727,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D4" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="E4" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="15"/>
@@ -6852,7 +6740,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B5" s="7">
         <v>0.35416666666666669</v>
@@ -6861,10 +6749,10 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D5" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="E5" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="15"/>
@@ -6874,7 +6762,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B6" s="7">
         <v>0.3125</v>
@@ -6883,10 +6771,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D6" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="E6" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="15"/>
@@ -6896,7 +6784,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B7" s="7">
         <v>0.39583333333333331</v>
@@ -6905,10 +6793,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D7" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="E7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="15"/>
@@ -7117,10 +7005,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7133,24 +7021,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B2" s="7">
         <v>0.29166666666666669</v>
@@ -7159,15 +7047,15 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B3" s="7">
         <v>0.36458333333333331</v>
@@ -7176,15 +7064,15 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B4" s="7">
         <v>0.42708333333333331</v>
@@ -7193,15 +7081,15 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B5" s="7">
         <v>0.51041666666666663</v>
@@ -7210,15 +7098,15 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B6" s="7">
         <v>0.58333333333333337</v>
@@ -7227,15 +7115,15 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B7" s="7">
         <v>0.66666666666666663</v>
@@ -7244,15 +7132,15 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B8" s="7">
         <v>0.72916666666666663</v>
@@ -7261,15 +7149,15 @@
         <v>0.78125</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B9" s="7">
         <v>0.72916666666666663</v>
@@ -7278,15 +7166,15 @@
         <v>0.78125</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B10" s="7">
         <v>0.79166666666666663</v>
@@ -7295,15 +7183,15 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B11" s="7">
         <v>0.79166666666666663</v>
@@ -7312,10 +7200,10 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1"/>
@@ -7330,10 +7218,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1">
@@ -7347,10 +7235,10 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1">
@@ -7364,10 +7252,10 @@
         <v>0.4375</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1">
@@ -7381,10 +7269,10 @@
         <v>0.5</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1">
@@ -7398,10 +7286,10 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1">
@@ -7415,10 +7303,10 @@
         <v>0.65625</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1">
@@ -7432,10 +7320,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1">
@@ -7449,10 +7337,10 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1">
@@ -7466,10 +7354,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1">
@@ -7483,10 +7371,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1">
@@ -7500,15 +7388,15 @@
         <v>0.84375</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>60</v>
+        <v>436</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B25" s="7">
         <v>0.29166666666666669</v>
@@ -7517,15 +7405,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B26" s="7">
         <v>0.34375</v>
@@ -7534,15 +7422,15 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B27" s="7">
         <v>0.39583333333333331</v>
@@ -7551,15 +7439,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B28" s="7">
         <v>0.51041666666666663</v>
@@ -7568,15 +7456,15 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B29" s="7">
         <v>0.60416666666666663</v>
@@ -7585,15 +7473,15 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B30" s="7">
         <v>0.66666666666666663</v>
@@ -7602,49 +7490,49 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B31" s="7">
         <v>0.72916666666666663</v>
       </c>
       <c r="C31" s="7">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E31" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B32" s="7">
         <v>0.72916666666666663</v>
       </c>
       <c r="C32" s="7">
-        <v>0.77083333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B33" s="7">
         <v>0.78125</v>
@@ -7653,15 +7541,15 @@
         <v>0.84375</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B34" s="7">
         <v>0.80208333333333337</v>
@@ -7670,15 +7558,15 @@
         <v>0.84375</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B36" s="7">
         <v>0.29166666666666669</v>
@@ -7687,15 +7575,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B37" s="7">
         <v>0.34375</v>
@@ -7704,15 +7592,15 @@
         <v>0.40625</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E37" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B38" s="7">
         <v>0.41666666666666669</v>
@@ -7721,15 +7609,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B39" s="7">
         <v>0.51041666666666663</v>
@@ -7738,15 +7626,15 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B40" s="7">
         <v>0.59375</v>
@@ -7755,15 +7643,15 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>461</v>
       </c>
       <c r="E40" t="s">
-        <v>111</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B41" s="7">
         <v>0.64583333333333337</v>
@@ -7772,49 +7660,49 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D41" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E41" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B42" s="7">
         <v>0.72916666666666663</v>
       </c>
       <c r="C42" s="7">
-        <v>0.77083333333333337</v>
+        <v>0.78125</v>
       </c>
       <c r="D42" t="s">
-        <v>389</v>
+        <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>390</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B43" s="7">
         <v>0.72916666666666663</v>
       </c>
       <c r="C43" s="7">
-        <v>0.78125</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>351</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>352</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B44" s="7">
         <v>0.78125</v>
@@ -7823,15 +7711,15 @@
         <v>0.84375</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E44" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B45" s="7">
         <v>0.79166666666666663</v>
@@ -7840,15 +7728,15 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D45" t="s">
-        <v>471</v>
+        <v>426</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B47" s="7">
         <v>0.29166666666666669</v>
@@ -7857,15 +7745,15 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D47" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E47" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B48" s="7">
         <v>0.36458333333333331</v>
@@ -7874,15 +7762,15 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E48" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B49" s="7">
         <v>0.4375</v>
@@ -7891,15 +7779,15 @@
         <v>0.5</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B50" s="7">
         <v>0.51041666666666663</v>
@@ -7908,15 +7796,15 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D50" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B51" s="7">
         <v>0.58333333333333337</v>
@@ -7925,15 +7813,15 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D51" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E51" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B52" s="7">
         <v>0.66666666666666663</v>
@@ -7942,15 +7830,15 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D52" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B53" s="7">
         <v>0.71875</v>
@@ -7959,15 +7847,15 @@
         <v>0.78125</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E53" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B54" s="7">
         <v>0.79166666666666663</v>
@@ -7976,15 +7864,15 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D54" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E54" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="8" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B56" s="7">
         <v>0.32291666666666669</v>
@@ -7993,15 +7881,15 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D56" t="s">
-        <v>472</v>
+        <v>427</v>
       </c>
       <c r="E56" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="8" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B57" s="7">
         <v>0.375</v>
@@ -8010,15 +7898,15 @@
         <v>0.4375</v>
       </c>
       <c r="D57" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E57" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="8" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B58" s="7">
         <v>0.45833333333333331</v>
@@ -8027,15 +7915,15 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D58" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E58" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="8" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B59" s="7">
         <v>0.54166666666666663</v>
@@ -8044,15 +7932,15 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D59" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E59" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="8" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B60" s="7">
         <v>0.59375</v>
@@ -8061,15 +7949,15 @@
         <v>0.65625</v>
       </c>
       <c r="D60" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E60" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="8" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B61" s="7">
         <v>0.66666666666666663</v>
@@ -8078,15 +7966,15 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D61" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E61" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B63" s="7">
         <v>0.33333333333333331</v>
@@ -8095,15 +7983,15 @@
         <v>0.375</v>
       </c>
       <c r="D63" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E63" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B64" s="7">
         <v>0.39583333333333331</v>
@@ -8112,15 +8000,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D64" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E64" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B65" s="7">
         <v>0.46875</v>
@@ -8129,15 +8017,15 @@
         <v>0.53125</v>
       </c>
       <c r="D65" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E65" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B66" s="7">
         <v>0.54166666666666663</v>
@@ -8146,15 +8034,15 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D66" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E66" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B67" s="7">
         <v>0.66666666666666663</v>
@@ -8163,15 +8051,15 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D67" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E67" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B68" s="7">
         <v>0.73958333333333337</v>
@@ -8180,44 +8068,27 @@
         <v>0.78125</v>
       </c>
       <c r="D68" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E68" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="32" t="s">
-        <v>81</v>
+      <c r="A69" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="B69" s="7">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C69" s="7">
-        <v>0.78125</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D69" t="s">
-        <v>473</v>
+        <v>119</v>
       </c>
       <c r="E69" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B70" s="7">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="C70" s="7">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D70" t="s">
-        <v>130</v>
-      </c>
-      <c r="E70" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -8230,8 +8101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8243,24 +8114,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="32" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B2" s="7">
         <v>0.35416666666666669</v>
@@ -8269,15 +8140,15 @@
         <v>0.40625</v>
       </c>
       <c r="D2" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="E2" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="32" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B3" s="7">
         <v>0.41666666666666669</v>
@@ -8286,15 +8157,15 @@
         <v>0.46875</v>
       </c>
       <c r="D3" t="s">
-        <v>474</v>
+        <v>428</v>
       </c>
       <c r="E3" t="s">
-        <v>475</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="32" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B4" s="7">
         <v>0.5</v>
@@ -8303,15 +8174,15 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D4" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="E4" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="32" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B5" s="7">
         <v>0.5625</v>
@@ -8320,15 +8191,15 @@
         <v>0.625</v>
       </c>
       <c r="D5" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="32" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B6" s="7">
         <v>0.66666666666666663</v>
@@ -8337,32 +8208,32 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="D6" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="E6" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="32" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B7" s="7">
-        <v>0.72916666666666663</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="C7" s="7">
         <v>0.78125</v>
       </c>
       <c r="D7" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="E7" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="32" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B8" s="7">
         <v>0.79166666666666663</v>
@@ -8371,10 +8242,10 @@
         <v>0.84375</v>
       </c>
       <c r="D8" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="E8" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1"/>
@@ -8389,10 +8260,10 @@
         <v>0.40625</v>
       </c>
       <c r="D10" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="E10" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1">
@@ -8406,10 +8277,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D11" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="E11" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
@@ -8423,10 +8294,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D12" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1">
@@ -8440,10 +8311,10 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D13" t="s">
-        <v>477</v>
+        <v>431</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1">
@@ -8457,10 +8328,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D14" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="E14" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1">
@@ -8474,10 +8345,10 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D15" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1">
@@ -8491,15 +8362,15 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D16" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="E16" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="32" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B18" s="7">
         <v>0.375</v>
@@ -8508,15 +8379,15 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D18" t="s">
-        <v>424</v>
+        <v>462</v>
       </c>
       <c r="E18" t="s">
-        <v>425</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="32" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B19" s="7">
         <v>0.4375</v>
@@ -8525,15 +8396,15 @@
         <v>0.5</v>
       </c>
       <c r="D19" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="E19" t="s">
-        <v>427</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="32" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B20" s="7">
         <v>0.51041666666666663</v>
@@ -8542,15 +8413,15 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D20" t="s">
-        <v>428</v>
+        <v>386</v>
       </c>
       <c r="E20" t="s">
-        <v>429</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="32" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B21" s="7">
         <v>0.58333333333333337</v>
@@ -8559,15 +8430,15 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D21" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="E21" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="32" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B22" s="7">
         <v>0.64583333333333337</v>
@@ -8576,15 +8447,15 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D22" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="E22" t="s">
-        <v>430</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="32" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B23" s="7">
         <v>0.71875</v>
@@ -8593,15 +8464,15 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D23" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="32" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B24" s="7">
         <v>0.78125</v>
@@ -8610,15 +8481,15 @@
         <v>0.84375</v>
       </c>
       <c r="D24" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="E24" t="s">
-        <v>431</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="32" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B26" s="7">
         <v>0.35416666666666669</v>
@@ -8627,15 +8498,15 @@
         <v>0.40625</v>
       </c>
       <c r="D26" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="E26" t="s">
-        <v>432</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="32" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B27" s="7">
         <v>0.4375</v>
@@ -8644,15 +8515,15 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D27" t="s">
-        <v>433</v>
+        <v>391</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="32" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B28" s="7">
         <v>0.5</v>
@@ -8661,15 +8532,15 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D28" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="E28" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="32" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B29" s="7">
         <v>0.57291666666666663</v>
@@ -8678,15 +8549,15 @@
         <v>0.625</v>
       </c>
       <c r="D29" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="E29" t="s">
-        <v>435</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="32" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B30" s="7">
         <v>0.66666666666666663</v>
@@ -8695,15 +8566,15 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D30" t="s">
-        <v>408</v>
+        <v>464</v>
       </c>
       <c r="E30" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="32" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B31" s="7">
         <v>0.71875</v>
@@ -8712,15 +8583,15 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D31" t="s">
-        <v>437</v>
+        <v>394</v>
       </c>
       <c r="E31" t="s">
-        <v>432</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="32" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B32" s="7">
         <v>0.77083333333333337</v>
@@ -8729,15 +8600,15 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D32" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="E32" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="32" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B34" s="7">
         <v>0.33333333333333331</v>
@@ -8746,15 +8617,15 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D34" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="E34" t="s">
-        <v>439</v>
+        <v>395</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="32" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B35" s="7">
         <v>0.375</v>
@@ -8763,15 +8634,15 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D35" t="s">
-        <v>479</v>
+        <v>432</v>
       </c>
       <c r="E35" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="32" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B36" s="7">
         <v>0.42708333333333331</v>
@@ -8780,15 +8651,15 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D36" t="s">
-        <v>480</v>
+        <v>433</v>
       </c>
       <c r="E36" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="32" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B37" s="7">
         <v>0.5</v>
@@ -8797,15 +8668,15 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D37" t="s">
-        <v>481</v>
+        <v>434</v>
       </c>
       <c r="E37" t="s">
-        <v>440</v>
+        <v>396</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="32" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B38" s="7">
         <v>0.5625</v>
@@ -8814,61 +8685,61 @@
         <v>0.625</v>
       </c>
       <c r="D38" t="s">
-        <v>482</v>
+        <v>435</v>
       </c>
       <c r="E38" t="s">
-        <v>441</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="32" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B40" s="7">
         <v>0.67708333333333337</v>
       </c>
       <c r="C40" s="7">
-        <v>0.73958333333333337</v>
+        <v>0.71875</v>
       </c>
       <c r="D40" t="s">
-        <v>483</v>
+        <v>436</v>
       </c>
       <c r="E40" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="32" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B41" s="7">
-        <v>0.75</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="C41" s="7">
-        <v>0.8125</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D41" t="s">
-        <v>472</v>
+        <v>427</v>
       </c>
       <c r="E41" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="32" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B42" s="7">
-        <v>0.82291666666666663</v>
+        <v>0.80208333333333337</v>
       </c>
       <c r="C42" s="7">
         <v>0.86458333333333337</v>
       </c>
       <c r="D42" t="s">
-        <v>484</v>
+        <v>437</v>
       </c>
       <c r="E42" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -8894,19 +8765,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8920,15 +8791,15 @@
         <v>0.84375</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B3" s="7">
         <v>0.375</v>
@@ -8937,15 +8808,15 @@
         <v>0.4375</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B4" s="7">
         <v>0.41666666666666669</v>
@@ -8954,10 +8825,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>485</v>
+        <v>438</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -8971,7 +8842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -8985,24 +8856,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B2" s="7">
         <v>0.41666666666666669</v>
@@ -9011,15 +8882,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B3" s="7">
         <v>0.77083333333333337</v>
@@ -9028,10 +8899,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D3" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75">
@@ -9050,10 +8921,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D5" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75">
@@ -9067,10 +8938,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D6" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75">
@@ -9080,7 +8951,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B8" s="7">
         <v>0.41666666666666669</v>
@@ -9089,15 +8960,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D8" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B9" s="7">
         <v>0.58333333333333337</v>
@@ -9106,10 +8977,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D9" t="s">
-        <v>486</v>
+        <v>439</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75">
@@ -9119,7 +8990,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B11" s="7">
         <v>0.41666666666666669</v>
@@ -9128,15 +8999,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D11" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B12" s="7">
         <v>0.77083333333333337</v>
@@ -9145,10 +9016,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75">
@@ -9158,7 +9029,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.75">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B14" s="7">
         <v>0.41666666666666669</v>
@@ -9167,10 +9038,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D14" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75">
@@ -9197,10 +9068,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9217,26 +9088,26 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H1"/>
       <c r="I1"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B2" s="10">
         <v>0.25</v>
@@ -9245,17 +9116,17 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B3" s="10">
         <v>0.39583333333333331</v>
@@ -9264,10 +9135,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="E3" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
@@ -9276,7 +9147,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B4" s="10">
         <v>0.51041666666666663</v>
@@ -9285,10 +9156,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="E4" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
@@ -9297,7 +9168,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B5" s="10">
         <v>0.72916666666666663</v>
@@ -9306,10 +9177,10 @@
         <v>0.78125</v>
       </c>
       <c r="D5" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="E5" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
@@ -9335,10 +9206,10 @@
         <v>0.3125</v>
       </c>
       <c r="D7" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="E7" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="28"/>
@@ -9356,10 +9227,10 @@
         <v>0.46875</v>
       </c>
       <c r="D8" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="E8" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="28"/>
@@ -9377,10 +9248,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D9" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="E9" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
@@ -9398,10 +9269,10 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D10" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="E10" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="28"/>
@@ -9418,7 +9289,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B12" s="10">
         <v>0.25</v>
@@ -9427,10 +9298,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D12" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="E12" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="28"/>
@@ -9439,7 +9310,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B13" s="10">
         <v>0.39583333333333331</v>
@@ -9448,10 +9319,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D13" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="E13" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="28"/>
@@ -9460,7 +9331,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B14" s="10">
         <v>0.51041666666666663</v>
@@ -9469,10 +9340,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D14" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="E14" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
@@ -9481,7 +9352,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B15" s="10">
         <v>0.72916666666666663</v>
@@ -9490,10 +9361,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D15" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="E15" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="28"/>
@@ -9510,7 +9381,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B17" s="10">
         <v>0.27083333333333331</v>
@@ -9519,10 +9390,10 @@
         <v>0.3125</v>
       </c>
       <c r="D17" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="E17" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="28"/>
@@ -9531,7 +9402,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B18" s="10">
         <v>0.41666666666666669</v>
@@ -9540,10 +9411,10 @@
         <v>0.46875</v>
       </c>
       <c r="D18" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="E18" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="28"/>
@@ -9552,7 +9423,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B19" s="10">
         <v>0.6875</v>
@@ -9561,10 +9432,10 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="D19" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="E19" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
@@ -9573,7 +9444,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B20" s="10">
         <v>0.75</v>
@@ -9582,10 +9453,10 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D20" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="E20" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="G20" s="26"/>
       <c r="H20" s="28"/>
@@ -9602,7 +9473,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B22" s="10">
         <v>0.25</v>
@@ -9611,10 +9482,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D22" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="E22" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="G22" s="26"/>
       <c r="H22" s="28"/>
@@ -9623,7 +9494,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B23" s="10">
         <v>0.39583333333333331</v>
@@ -9632,10 +9503,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D23" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E23" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="28"/>
@@ -9644,7 +9515,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B24" s="10">
         <v>0.51041666666666663</v>
@@ -9653,10 +9524,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D24" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="E24" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="28"/>
@@ -9665,7 +9536,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B25" s="10">
         <v>0.72916666666666663</v>
@@ -9674,10 +9545,10 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D25" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="E25" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="28"/>
@@ -9694,7 +9565,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B27" s="10">
         <v>0.41666666666666669</v>
@@ -9703,10 +9574,10 @@
         <v>0.46875</v>
       </c>
       <c r="D27" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="E27" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="G27" s="26"/>
       <c r="H27" s="28"/>
@@ -9715,7 +9586,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B28" s="10">
         <v>0.66666666666666663</v>
@@ -9724,10 +9595,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D28" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="E28" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="G28" s="26"/>
       <c r="H28" s="28"/>
@@ -9744,45 +9615,45 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B30" s="10">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C30" s="10">
-        <v>0.46875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D30" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="E30" t="s">
-        <v>277</v>
-      </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
+        <v>259</v>
+      </c>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="10">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C31" s="10">
-        <v>0.72916666666666663</v>
+        <v>71</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.8125</v>
       </c>
       <c r="D31" t="s">
-        <v>286</v>
+        <v>468</v>
       </c>
       <c r="E31" t="s">
-        <v>279</v>
-      </c>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
+        <v>469</v>
+      </c>
+      <c r="G31" s="26"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
     </row>
     <row r="32" spans="1:10">
       <c r="G32" s="26"/>
@@ -9814,17 +9685,11 @@
       <c r="I36" s="28"/>
       <c r="J36" s="28"/>
     </row>
-    <row r="37" spans="7:10">
-      <c r="G37" s="26"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G30:H30"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G9:H9"/>
@@ -9838,10 +9703,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9852,29 +9717,26 @@
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B2" s="7">
         <v>0.33333333333333331</v>
@@ -9883,15 +9745,15 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B3" s="7">
         <v>0.41666666666666669</v>
@@ -9900,15 +9762,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B4" s="7">
         <v>0.5</v>
@@ -9917,15 +9779,15 @@
         <v>0.5625</v>
       </c>
       <c r="D4" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B5" s="7">
         <v>0.58333333333333337</v>
@@ -9934,15 +9796,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D5" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="E5" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B6" s="7">
         <v>0.6875</v>
@@ -9951,15 +9813,15 @@
         <v>0.75</v>
       </c>
       <c r="D6" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B7" s="7">
         <v>0.77083333333333337</v>
@@ -9968,13 +9830,13 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D7" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -9985,13 +9847,13 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D8" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -10002,13 +9864,13 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D9" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="E9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -10019,13 +9881,13 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D10" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E10" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -10036,13 +9898,13 @@
         <v>0.75</v>
       </c>
       <c r="D11" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E11" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -10053,15 +9915,15 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D12" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E12" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B13" s="7">
         <v>0.33333333333333331</v>
@@ -10070,15 +9932,15 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D13" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E13" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B14" s="7">
         <v>0.41666666666666669</v>
@@ -10087,15 +9949,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D14" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B15" s="7">
         <v>0.5</v>
@@ -10104,15 +9966,15 @@
         <v>0.5625</v>
       </c>
       <c r="D15" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B16" s="7">
         <v>0.6875</v>
@@ -10121,15 +9983,15 @@
         <v>0.75</v>
       </c>
       <c r="D16" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E16" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B17" s="7">
         <v>0.77083333333333337</v>
@@ -10138,15 +10000,15 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D17" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E17" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B18" s="7">
         <v>0.26041666666666669</v>
@@ -10155,15 +10017,15 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D18" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E18" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B19" s="7">
         <v>0.41666666666666669</v>
@@ -10172,15 +10034,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D19" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E19" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B20" s="7">
         <v>0.6875</v>
@@ -10189,15 +10051,15 @@
         <v>0.75</v>
       </c>
       <c r="D20" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E20" t="s">
-        <v>271</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B21" s="7">
         <v>0.77083333333333337</v>
@@ -10206,15 +10068,15 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D21" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E21" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B22" s="7">
         <v>0.33333333333333331</v>
@@ -10223,15 +10085,15 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D22" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E22" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B23" s="7">
         <v>0.41666666666666669</v>
@@ -10240,15 +10102,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D23" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E23" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B24" s="7">
         <v>0.5</v>
@@ -10257,15 +10119,15 @@
         <v>0.5625</v>
       </c>
       <c r="D24" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E24" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B25" s="7">
         <v>0.6875</v>
@@ -10274,15 +10136,15 @@
         <v>0.75</v>
       </c>
       <c r="D25" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E25" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B26" s="7">
         <v>0.77083333333333337</v>
@@ -10291,15 +10153,15 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D26" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E26" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B27" s="7">
         <v>0.33333333333333331</v>
@@ -10308,15 +10170,15 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D27" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E27" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B28" s="7">
         <v>0.41666666666666669</v>
@@ -10325,15 +10187,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D28" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E28" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B29" s="7">
         <v>0.5</v>
@@ -10342,15 +10204,15 @@
         <v>0.5625</v>
       </c>
       <c r="D29" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E29" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B30" s="7">
         <v>0.6875</v>
@@ -10359,15 +10221,15 @@
         <v>0.75</v>
       </c>
       <c r="D30" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E30" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B31" s="7">
         <v>0.33333333333333331</v>
@@ -10376,15 +10238,15 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D31" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E31" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B32" s="7">
         <v>0.41666666666666669</v>
@@ -10393,44 +10255,27 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D32" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E32" t="s">
-        <v>270</v>
+        <v>440</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B33" s="7">
-        <v>0.58333333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="C33" s="10">
-        <v>0.61458333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="D33" t="s">
-        <v>488</v>
+        <v>243</v>
       </c>
       <c r="E33" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="7">
-        <v>0.6875</v>
-      </c>
-      <c r="C34" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="D34" t="s">
-        <v>263</v>
-      </c>
-      <c r="E34" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/AvlZen/App_Data/AvlZen.xlsx
+++ b/AvlZen/App_Data/AvlZen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="-15" windowWidth="15645" windowHeight="12060" tabRatio="907" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="7440" yWindow="-15" windowWidth="15645" windowHeight="12060" tabRatio="907" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Places" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="479">
   <si>
     <t>Code</t>
   </si>
@@ -452,9 +452,6 @@
     <t>Iyengar Yoga - Level I</t>
   </si>
   <si>
-    <t>Nicole Kintz (1)</t>
-  </si>
-  <si>
     <t>Laura Stone</t>
   </si>
   <si>
@@ -467,9 +464,6 @@
     <t>Iyengar Yoga - Level II/III</t>
   </si>
   <si>
-    <t>Kim Drye</t>
-  </si>
-  <si>
     <t> 1 hour &amp; 20 minutes</t>
   </si>
   <si>
@@ -482,18 +476,6 @@
     <t>Yoga for your Knees</t>
   </si>
   <si>
-    <t>Egg-Centric Yoga</t>
-  </si>
-  <si>
-    <t>Jason Scholder</t>
-  </si>
-  <si>
-    <t>Level I/II</t>
-  </si>
-  <si>
-    <t>Deirdre Smith Gilmer</t>
-  </si>
-  <si>
     <t>Women Over 50-Level 1/11</t>
   </si>
   <si>
@@ -569,9 +551,6 @@
     <t>Lia</t>
   </si>
   <si>
-    <t>Michael Murphy</t>
-  </si>
-  <si>
     <t>Aubrey</t>
   </si>
   <si>
@@ -689,9 +668,6 @@
     <t>Gentle Morning Flow (Beginners Welcome)</t>
   </si>
   <si>
-    <t>Yoga Tune Up (Level 1 &amp; 2)</t>
-  </si>
-  <si>
     <t>Therapeutic Yoga (Beginners Welcome)</t>
   </si>
   <si>
@@ -812,9 +788,6 @@
     <t>Janet Horn</t>
   </si>
   <si>
-    <t>Mary Hill</t>
-  </si>
-  <si>
     <t>Power Hour</t>
   </si>
   <si>
@@ -851,9 +824,6 @@
     <t>Neva</t>
   </si>
   <si>
-    <t>Candlelight Vinyasa</t>
-  </si>
-  <si>
     <t>http://208.131.135.54/~whizzkid/ashevilleyogasangha.com/wordpress/?page_id=7</t>
   </si>
   <si>
@@ -1157,12 +1127,6 @@
     <t>Slow Flow, Level 1&amp;2</t>
   </si>
   <si>
-    <t>Yoga &amp; Body Rolling, All Levels</t>
-  </si>
-  <si>
-    <t>Warm Jivamukti, Level 1&amp;2</t>
-  </si>
-  <si>
     <t>Krystal</t>
   </si>
   <si>
@@ -1187,9 +1151,6 @@
     <t>Gayle Jann</t>
   </si>
   <si>
-    <t>Warm Jivamukti Level 1&amp;2</t>
-  </si>
-  <si>
     <t>Adam Shirley</t>
   </si>
   <si>
@@ -1283,15 +1244,9 @@
     <t>Rich Risbridger</t>
   </si>
   <si>
-    <t>Vin Yin Blend</t>
-  </si>
-  <si>
     <t>Lea Mclellan</t>
   </si>
   <si>
-    <t>Heated Flow</t>
-  </si>
-  <si>
     <t>Lia Curtis-Fine</t>
   </si>
   <si>
@@ -1301,9 +1256,6 @@
     <t>Eva Rose</t>
   </si>
   <si>
-    <t>Kick Your Asana</t>
-  </si>
-  <si>
     <t>AcroYoga</t>
   </si>
   <si>
@@ -1313,15 +1265,6 @@
     <t>Emma Salmon</t>
   </si>
   <si>
-    <t>Level 1-2 Vinyasa Flow - $5 Drop in</t>
-  </si>
-  <si>
-    <t>Yin</t>
-  </si>
-  <si>
-    <t>Cara Mckinney</t>
-  </si>
-  <si>
     <t>Britt</t>
   </si>
   <si>
@@ -1331,9 +1274,6 @@
     <t>Beginner Slow Flow</t>
   </si>
   <si>
-    <t>12 Steps and Yoga</t>
-  </si>
-  <si>
     <t>HOT Kundalini All Levels $7</t>
   </si>
   <si>
@@ -1346,9 +1286,6 @@
     <t>Lindsay Munro</t>
   </si>
   <si>
-    <t>Bliss Body Flow Level 1&amp;2</t>
-  </si>
-  <si>
     <t>Therapeutic Yoga for Injuries</t>
   </si>
   <si>
@@ -1388,12 +1325,6 @@
     <t>Alignment Based Level 1</t>
   </si>
   <si>
-    <t>Power to the Playful</t>
-  </si>
-  <si>
-    <t>Rob Lenfestey</t>
-  </si>
-  <si>
     <t>Living in Alignment Yoga</t>
   </si>
   <si>
@@ -1463,9 +1394,6 @@
     <t>Qi-Gong Reiki</t>
   </si>
   <si>
-    <t>Dane</t>
-  </si>
-  <si>
     <t>Meditation Club</t>
   </si>
   <si>
@@ -1484,9 +1412,6 @@
     <t>Cat Matlock</t>
   </si>
   <si>
-    <t>Therapeutics: Freedom of Movement</t>
-  </si>
-  <si>
     <t>Prenatal Yoga and Therapeutics: The Sacred Journey to Motherhood</t>
   </si>
   <si>
@@ -1514,7 +1439,58 @@
     <t>Women's Kundalini Yoga and Meditation</t>
   </si>
   <si>
-    <t>Embodied Mindfulness</t>
+    <t>Gentle Yoga (Level 1&amp;2)</t>
+  </si>
+  <si>
+    <t>Jivamukti Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>Vinyasa Flow &amp; Meditation Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>Restorative &amp; Yin All Levels</t>
+  </si>
+  <si>
+    <t>Jivamukti, Level 1&amp;2</t>
+  </si>
+  <si>
+    <t>Sunday Funday</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Grace Kandl</t>
+  </si>
+  <si>
+    <t>Ropes Series</t>
+  </si>
+  <si>
+    <t>Advance Your Practice - $5 Drop in</t>
+  </si>
+  <si>
+    <t>Advance Your Practice</t>
+  </si>
+  <si>
+    <t>AcroYoga Therapeutics</t>
+  </si>
+  <si>
+    <t>Katona Yoga</t>
+  </si>
+  <si>
+    <t>Kara Volcano</t>
+  </si>
+  <si>
+    <t>Forrest Yoga - $5 Drop-in</t>
+  </si>
+  <si>
+    <t>Micah Couttet</t>
+  </si>
+  <si>
+    <t>Yoga for Athletes: Therapeutic Series</t>
+  </si>
+  <si>
+    <t>Liz Caloras</t>
   </si>
 </sst>
 </file>
@@ -1728,7 +1704,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -1813,6 +1789,9 @@
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2144,7 +2123,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2155,24 +2134,24 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D2" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C3" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D3" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2183,10 +2162,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2200,77 +2179,77 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C6" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D6" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D8" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D9" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B10" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D10" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2284,21 +2263,21 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="B12" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="C12" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="D12" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2309,38 +2288,38 @@
         <v>14</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="D13" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B14" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D14" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B15" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D15" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -2403,10 +2382,10 @@
         <v>0.71875</v>
       </c>
       <c r="D2" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="E2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2420,10 +2399,10 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D3" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="E3" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2441,10 +2420,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="E5" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2458,10 +2437,10 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D6" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="E6" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2475,10 +2454,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D8" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="E8" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2492,10 +2471,10 @@
         <v>0.71875</v>
       </c>
       <c r="D10" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="E10" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2509,10 +2488,10 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D12" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="E12" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -2523,10 +2502,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView topLeftCell="A16" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2567,7 +2546,7 @@
         <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>468</v>
       </c>
       <c r="F2" t="s">
         <v>122</v>
@@ -2645,7 +2624,7 @@
         <v>128</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="F5" t="s">
         <v>122</v>
@@ -2720,7 +2699,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D8" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="E8" t="s">
         <v>56</v>
@@ -2773,7 +2752,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>56</v>
@@ -2858,10 +2837,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1">
@@ -2921,7 +2900,7 @@
         <v>125</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F20" t="s">
         <v>122</v>
@@ -2944,10 +2923,10 @@
         <v>0.46875</v>
       </c>
       <c r="D21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" t="s">
         <v>134</v>
-      </c>
-      <c r="E21" t="s">
-        <v>135</v>
       </c>
       <c r="F21" t="s">
         <v>122</v>
@@ -2970,7 +2949,7 @@
         <v>0.5625</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E22" t="s">
         <v>58</v>
@@ -2996,7 +2975,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D23" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="E23" t="s">
         <v>130</v>
@@ -3008,7 +2987,7 @@
         <v>127</v>
       </c>
       <c r="H23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3022,7 +3001,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D24" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="E24" t="s">
         <v>56</v>
@@ -3048,7 +3027,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E25" t="s">
         <v>58</v>
@@ -3126,10 +3105,10 @@
         <v>0.5625</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E29" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F29" t="s">
         <v>122</v>
@@ -3178,7 +3157,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E31" t="s">
         <v>121</v>
@@ -3198,50 +3177,50 @@
         <v>68</v>
       </c>
       <c r="B32" s="7">
-        <v>0.71875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="C32" s="7">
-        <v>0.78125</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>469</v>
       </c>
       <c r="E32" t="s">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="F32" t="s">
         <v>122</v>
       </c>
       <c r="G32" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H32" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="7">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="C33" s="7">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D33" t="s">
-        <v>144</v>
-      </c>
-      <c r="E33" t="s">
+    <row r="34" spans="1:8">
+      <c r="A34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" t="s">
         <v>145</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>122</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G34" t="s">
         <v>123</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H34" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3250,22 +3229,22 @@
         <v>69</v>
       </c>
       <c r="B35" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C35" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E35" t="s">
-        <v>58</v>
+        <v>314</v>
       </c>
       <c r="F35" t="s">
         <v>122</v>
       </c>
       <c r="G35" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H35" t="s">
         <v>124</v>
@@ -3276,16 +3255,16 @@
         <v>69</v>
       </c>
       <c r="B36" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="C36" s="7">
-        <v>0.47916666666666669</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D36" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E36" t="s">
-        <v>324</v>
+        <v>132</v>
       </c>
       <c r="F36" t="s">
         <v>122</v>
@@ -3294,7 +3273,7 @@
         <v>127</v>
       </c>
       <c r="H36" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3302,16 +3281,16 @@
         <v>69</v>
       </c>
       <c r="B37" s="7">
-        <v>0.5</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C37" s="7">
-        <v>0.54166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D37" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E37" t="s">
-        <v>133</v>
+        <v>467</v>
       </c>
       <c r="F37" t="s">
         <v>122</v>
@@ -3320,110 +3299,84 @@
         <v>127</v>
       </c>
       <c r="H37" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="7">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D38" t="s">
-        <v>150</v>
-      </c>
-      <c r="E38" t="s">
-        <v>137</v>
-      </c>
-      <c r="F38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="D39" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" t="s">
         <v>122</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>127</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H39" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="7">
-        <v>0.375</v>
-      </c>
-      <c r="C40" s="7">
-        <v>0.4375</v>
-      </c>
-      <c r="D40" t="s">
-        <v>134</v>
-      </c>
-      <c r="E40" t="s">
-        <v>151</v>
-      </c>
-      <c r="F40" t="s">
+    <row r="41" spans="1:8">
+      <c r="A41" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" t="s">
         <v>122</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G41" t="s">
         <v>127</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H41" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="8" t="s">
+      <c r="A42" t="s">
         <v>71</v>
       </c>
       <c r="B42" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C42" s="7">
-        <v>0.47916666666666669</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D42" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="E42" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="F42" t="s">
         <v>122</v>
       </c>
       <c r="G42" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H42" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" s="7">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C43" s="7">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D43" t="s">
-        <v>134</v>
-      </c>
-      <c r="E43" t="s">
-        <v>121</v>
-      </c>
-      <c r="F43" t="s">
-        <v>122</v>
-      </c>
-      <c r="G43" t="s">
-        <v>123</v>
-      </c>
-      <c r="H43" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3435,10 +3388,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD42"/>
+    <sheetView topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3470,16 +3423,16 @@
         <v>66</v>
       </c>
       <c r="B2" s="7">
-        <v>0.28125</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="C2" s="7">
         <v>0.33333333333333331</v>
       </c>
       <c r="D2" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="E2" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3493,10 +3446,10 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D3" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="E3" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3510,10 +3463,10 @@
         <v>0.53125</v>
       </c>
       <c r="D4" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="E4" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3527,10 +3480,10 @@
         <v>0.71875</v>
       </c>
       <c r="D5" t="s">
-        <v>406</v>
+        <v>470</v>
       </c>
       <c r="E5" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3544,10 +3497,10 @@
         <v>0.78125</v>
       </c>
       <c r="D6" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="E6" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3561,10 +3514,10 @@
         <v>0.84375</v>
       </c>
       <c r="D7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E7" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3583,7 +3536,7 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D9" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="E9" t="s">
         <v>54</v>
@@ -3594,16 +3547,16 @@
         <v>15</v>
       </c>
       <c r="B10" s="7">
-        <v>0.4375</v>
+        <v>0.5</v>
       </c>
       <c r="C10" s="7">
-        <v>0.48958333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D10" t="s">
-        <v>411</v>
+        <v>244</v>
       </c>
       <c r="E10" t="s">
-        <v>412</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3611,16 +3564,16 @@
         <v>15</v>
       </c>
       <c r="B11" s="7">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C11" s="7">
-        <v>0.54166666666666663</v>
+        <v>0.71875</v>
       </c>
       <c r="D11" t="s">
-        <v>253</v>
+        <v>398</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3628,71 +3581,71 @@
         <v>15</v>
       </c>
       <c r="B12" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="C12" s="7">
-        <v>0.71875</v>
+        <v>0.78125</v>
       </c>
       <c r="D12" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="E12" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="7">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.78125</v>
-      </c>
-      <c r="D13" t="s">
-        <v>415</v>
-      </c>
-      <c r="E13" t="s">
-        <v>404</v>
-      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="B14" s="7">
-        <v>0.79166666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="C14" s="7">
-        <v>0.91666666666666663</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D14" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="E14" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D15" t="s">
+        <v>392</v>
+      </c>
+      <c r="E15" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>67</v>
       </c>
       <c r="B16" s="7">
-        <v>0.29166666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C16" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.71875</v>
       </c>
       <c r="D16" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E16" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3700,105 +3653,105 @@
         <v>67</v>
       </c>
       <c r="B17" s="7">
-        <v>0.375</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="C17" s="7">
-        <v>0.42708333333333331</v>
+        <v>0.78125</v>
       </c>
       <c r="D17" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="E17" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="7" t="s">
+      <c r="A18" t="s">
         <v>67</v>
       </c>
       <c r="B18" s="7">
-        <v>0.5</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C18" s="7">
-        <v>0.54166666666666663</v>
+        <v>0.84375</v>
       </c>
       <c r="D18" t="s">
-        <v>405</v>
+        <v>472</v>
       </c>
       <c r="E18" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="7">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0.71875</v>
-      </c>
-      <c r="D19" t="s">
-        <v>406</v>
-      </c>
-      <c r="E19" t="s">
-        <v>412</v>
-      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20" s="7">
-        <v>0.72916666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="C20" s="7">
-        <v>0.78125</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D20" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="E20" t="s">
-        <v>408</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>67</v>
+      <c r="A21" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="B21" s="7">
-        <v>0.79166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="C21" s="7">
-        <v>0.84375</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D21" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="E21" t="s">
-        <v>404</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="D22" t="s">
+        <v>398</v>
+      </c>
+      <c r="E22" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="7">
-        <v>0.375</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="C23" s="7">
-        <v>0.42708333333333331</v>
+        <v>0.78125</v>
       </c>
       <c r="D23" t="s">
-        <v>403</v>
+        <v>471</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3806,283 +3759,164 @@
         <v>68</v>
       </c>
       <c r="B24" s="7">
-        <v>0.4375</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C24" s="7">
-        <v>0.48958333333333331</v>
+        <v>0.84375</v>
       </c>
       <c r="D24" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="E24" t="s">
-        <v>412</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D25" t="s">
-        <v>405</v>
-      </c>
-      <c r="E25" t="s">
-        <v>371</v>
-      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B26" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="C26" s="7">
-        <v>0.71875</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D26" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="E26" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B27" s="7">
-        <v>0.72916666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="C27" s="7">
-        <v>0.78125</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D27" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="E27" t="s">
-        <v>404</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B28" s="7">
-        <v>0.79166666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C28" s="7">
-        <v>0.84375</v>
+        <v>0.71875</v>
       </c>
       <c r="D28" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.78125</v>
+      </c>
+      <c r="D29" t="s">
+        <v>390</v>
+      </c>
+      <c r="E29" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="7">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D30" t="s">
-        <v>401</v>
-      </c>
-      <c r="E30" t="s">
-        <v>402</v>
-      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B31" s="7">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C31" s="7">
-        <v>0.42708333333333331</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="D31" t="s">
-        <v>403</v>
+        <v>473</v>
       </c>
       <c r="E31" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B32" s="7">
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C32" s="7">
-        <v>0.54166666666666663</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D32" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="E32" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="7">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C33" s="7">
-        <v>0.71875</v>
-      </c>
-      <c r="D33" t="s">
-        <v>406</v>
-      </c>
-      <c r="E33" t="s">
-        <v>418</v>
-      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B34" s="7">
-        <v>0.72916666666666663</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C34" s="7">
-        <v>0.78125</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="D34" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="E34" t="s">
-        <v>408</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B35" s="7">
-        <v>0.79166666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C35" s="7">
-        <v>0.84375</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D35" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="E35" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="7">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C37" s="7">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="D37" t="s">
-        <v>419</v>
-      </c>
-      <c r="E37" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="7">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="D38" t="s">
-        <v>403</v>
-      </c>
-      <c r="E38" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C39" s="7">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="D39" t="s">
-        <v>403</v>
-      </c>
-      <c r="E39" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="7">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C41" s="7">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="D41" t="s">
-        <v>403</v>
-      </c>
-      <c r="E41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="C42" s="7">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="D42" t="s">
-        <v>420</v>
-      </c>
-      <c r="E42" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -4092,10 +3926,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4134,10 +3968,10 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4151,10 +3985,10 @@
         <v>0.5</v>
       </c>
       <c r="D3" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4168,10 +4002,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D4" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4185,10 +4019,10 @@
         <v>0.84375</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1"/>
@@ -4203,10 +4037,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1">
@@ -4220,7 +4054,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="E8" t="s">
         <v>77</v>
@@ -4237,7 +4071,7 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>84</v>
@@ -4254,10 +4088,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1">
@@ -4271,10 +4105,10 @@
         <v>0.4375</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>475</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4288,10 +4122,10 @@
         <v>0.4375</v>
       </c>
       <c r="D13" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4305,10 +4139,10 @@
         <v>0.5</v>
       </c>
       <c r="D14" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4322,10 +4156,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D15" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4339,10 +4173,10 @@
         <v>0.84375</v>
       </c>
       <c r="D16" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="26.25">
@@ -4356,10 +4190,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D18" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4373,10 +4207,10 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4390,10 +4224,10 @@
         <v>0.5</v>
       </c>
       <c r="D20" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4407,10 +4241,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D21" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4424,10 +4258,10 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D22" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4441,10 +4275,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D24" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4458,7 +4292,7 @@
         <v>0.5</v>
       </c>
       <c r="D25" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>45</v>
@@ -4475,10 +4309,10 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D26" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4492,10 +4326,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D27" t="s">
-        <v>483</v>
+        <v>458</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4509,10 +4343,10 @@
         <v>0.4375</v>
       </c>
       <c r="D29" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4526,10 +4360,10 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D30" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4543,10 +4377,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D32" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>110</v>
+        <v>478</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4560,27 +4394,10 @@
         <v>0.71875</v>
       </c>
       <c r="D33" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="C34" s="7">
-        <v>0.8125</v>
-      </c>
-      <c r="D34" t="s">
-        <v>486</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>195</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -4593,7 +4410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
@@ -4621,7 +4438,7 @@
         <v>38</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4635,13 +4452,13 @@
         <v>0.4375</v>
       </c>
       <c r="D2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4655,7 +4472,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -4672,7 +4489,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D5" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -4689,7 +4506,7 @@
         <v>0.8125</v>
       </c>
       <c r="D6" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -4706,10 +4523,10 @@
         <v>0.4375</v>
       </c>
       <c r="D8" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E8" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4723,7 +4540,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D10" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -4740,10 +4557,10 @@
         <v>0.8125</v>
       </c>
       <c r="D11" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E11" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4757,10 +4574,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D13" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="E13" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4774,10 +4591,10 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D14" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E14" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4795,10 +4612,10 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D16" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E16" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4812,10 +4629,10 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D18" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E18" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4829,10 +4646,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D19" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E19" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -4887,13 +4704,13 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E2" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
@@ -4909,13 +4726,13 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="E3" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="G3" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4929,10 +4746,10 @@
         <v>0.84375</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="E4" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4946,10 +4763,10 @@
         <v>0.40625</v>
       </c>
       <c r="D6" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4963,10 +4780,10 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="D7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4980,10 +4797,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D8" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="E8" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4997,10 +4814,10 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D9" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E9" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5014,10 +4831,10 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D11" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5031,10 +4848,10 @@
         <v>0.625</v>
       </c>
       <c r="D12" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E12" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -5048,10 +4865,10 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D13" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E13" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5065,10 +4882,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D15" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="E15" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -5082,10 +4899,10 @@
         <v>0.6875</v>
       </c>
       <c r="D16" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="E16" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5099,10 +4916,10 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D17" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E17" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5116,10 +4933,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D19" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="E19" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5133,10 +4950,10 @@
         <v>0.625</v>
       </c>
       <c r="D20" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E20" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5150,10 +4967,10 @@
         <v>0.84375</v>
       </c>
       <c r="D21" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E21" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5167,10 +4984,10 @@
         <v>0.40625</v>
       </c>
       <c r="D23" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E23" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5184,10 +5001,10 @@
         <v>0.5</v>
       </c>
       <c r="D24" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E24" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5201,10 +5018,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D25" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E25" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5218,10 +5035,10 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D27" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="E27" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5235,10 +5052,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D28" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E28" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -5250,10 +5067,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView topLeftCell="A58" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5294,7 +5111,7 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
@@ -5312,10 +5129,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5346,10 +5163,10 @@
         <v>0.53125</v>
       </c>
       <c r="D5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5363,10 +5180,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D6" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5380,10 +5197,10 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E7" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5397,10 +5214,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D8" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5414,10 +5231,10 @@
         <v>0.71875</v>
       </c>
       <c r="D9" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5431,10 +5248,10 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D10" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5448,7 +5265,7 @@
         <v>0.8125</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E11" t="s">
         <v>31</v>
@@ -5468,7 +5285,7 @@
         <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5482,10 +5299,10 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="D13" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1"/>
@@ -5500,10 +5317,10 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F15" s="29"/>
     </row>
@@ -5536,10 +5353,10 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F17" s="29"/>
     </row>
@@ -5626,7 +5443,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>16</v>
@@ -5644,7 +5461,7 @@
         <v>0.71875</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>26</v>
@@ -5680,10 +5497,10 @@
         <v>0.8125</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F25" s="31"/>
     </row>
@@ -5719,7 +5536,7 @@
         <v>32</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="F27" s="29"/>
     </row>
@@ -5734,7 +5551,7 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D29" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>26</v>
@@ -5751,7 +5568,7 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="D30" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>65</v>
@@ -5769,10 +5586,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D31" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F31" s="29"/>
     </row>
@@ -5787,10 +5604,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D32" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F32" s="29"/>
     </row>
@@ -5805,10 +5622,10 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D33" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="F33" s="29"/>
     </row>
@@ -5823,7 +5640,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D34" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E34" s="32" t="s">
         <v>31</v>
@@ -5844,7 +5661,7 @@
         <v>23</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F35" s="31"/>
     </row>
@@ -5859,10 +5676,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D36" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F36" s="31"/>
     </row>
@@ -5877,10 +5694,10 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D37" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F37" s="31"/>
     </row>
@@ -5895,10 +5712,10 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="D38" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F38" s="29"/>
     </row>
@@ -5913,10 +5730,10 @@
         <v>0.71875</v>
       </c>
       <c r="D39" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F39" s="29"/>
     </row>
@@ -5931,10 +5748,10 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D40" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F40" s="31"/>
     </row>
@@ -5949,7 +5766,7 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D41" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>31</v>
@@ -5967,10 +5784,10 @@
         <v>0.875</v>
       </c>
       <c r="D42" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F42" s="29"/>
     </row>
@@ -5985,10 +5802,10 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="D43" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F43" s="29"/>
     </row>
@@ -6006,7 +5823,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D45" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>28</v>
@@ -6018,16 +5835,16 @@
         <v>68</v>
       </c>
       <c r="B46" s="7">
-        <v>0.30208333333333331</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C46" s="7">
-        <v>0.34375</v>
+        <v>0.375</v>
       </c>
       <c r="D46" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="F46" s="31"/>
     </row>
@@ -6042,10 +5859,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D47" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F47" s="29"/>
     </row>
@@ -6060,10 +5877,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D48" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="F48" s="29"/>
     </row>
@@ -6078,10 +5895,10 @@
         <v>0.5</v>
       </c>
       <c r="D49" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F49" s="29"/>
     </row>
@@ -6099,7 +5916,7 @@
         <v>23</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F50" s="31"/>
     </row>
@@ -6111,13 +5928,13 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="C51" s="7">
-        <v>0.57291666666666663</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="D51" t="s">
-        <v>211</v>
+        <v>461</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F51" s="29"/>
     </row>
@@ -6132,10 +5949,10 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="D52" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F52" s="29"/>
     </row>
@@ -6153,7 +5970,7 @@
         <v>23</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F53" s="29"/>
     </row>
@@ -6168,10 +5985,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D54" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F54" s="29"/>
     </row>
@@ -6186,10 +6003,10 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D55" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F55" s="29"/>
     </row>
@@ -6222,10 +6039,10 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="D57" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F57" s="29"/>
     </row>
@@ -6240,10 +6057,10 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="D58" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F58" s="29"/>
     </row>
@@ -6265,7 +6082,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D61" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>31</v>
@@ -6283,10 +6100,10 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D62" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="F62" s="31"/>
     </row>
@@ -6301,7 +6118,7 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D63" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>31</v>
@@ -6319,10 +6136,10 @@
         <v>0.5625</v>
       </c>
       <c r="D64" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F64" s="31"/>
     </row>
@@ -6337,10 +6154,10 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="D65" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F65" s="31"/>
     </row>
@@ -6355,10 +6172,10 @@
         <v>0.71875</v>
       </c>
       <c r="D66" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F66" s="29"/>
     </row>
@@ -6373,10 +6190,10 @@
         <v>0.71875</v>
       </c>
       <c r="D67" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F67" s="31"/>
     </row>
@@ -6391,7 +6208,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D68" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>16</v>
@@ -6411,7 +6228,7 @@
         <v>23</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -6425,10 +6242,10 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D71" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F71" s="29"/>
     </row>
@@ -6443,7 +6260,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D72" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>26</v>
@@ -6461,7 +6278,7 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D73" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>33</v>
@@ -6479,10 +6296,10 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D74" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F74" s="29"/>
     </row>
@@ -6497,66 +6314,66 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D75" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F75" s="29"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B76" s="7">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="C76" s="7">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D76" t="s">
-        <v>425</v>
-      </c>
-      <c r="E76" s="32" t="s">
-        <v>155</v>
-      </c>
       <c r="F76" s="29"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="F77" s="29"/>
+      <c r="A77" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C77" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D77" t="s">
+        <v>213</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="8" t="s">
         <v>71</v>
       </c>
       <c r="B78" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.46875</v>
       </c>
       <c r="C78" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D78" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>160</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F78" s="29"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="8" t="s">
         <v>71</v>
       </c>
       <c r="B79" s="7">
-        <v>0.46875</v>
+        <v>0.53125</v>
       </c>
       <c r="C79" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D79" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="F79" s="29"/>
     </row>
@@ -6565,16 +6382,16 @@
         <v>71</v>
       </c>
       <c r="B80" s="7">
-        <v>0.53125</v>
+        <v>0.59375</v>
       </c>
       <c r="C80" s="7">
-        <v>0.58333333333333337</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="D80" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F80" s="29"/>
     </row>
@@ -6583,16 +6400,16 @@
         <v>71</v>
       </c>
       <c r="B81" s="7">
-        <v>0.59375</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C81" s="7">
-        <v>0.64583333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D81" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="F81" s="29"/>
     </row>
@@ -6601,39 +6418,21 @@
         <v>71</v>
       </c>
       <c r="B82" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="C82" s="7">
-        <v>0.72916666666666663</v>
+        <v>0.80208333333333337</v>
       </c>
       <c r="D82" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="F82" s="29"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B83" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="C83" s="7">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="D83" t="s">
-        <v>226</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>184</v>
-      </c>
       <c r="F83" s="29"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="F84" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6686,10 +6485,10 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H2" s="18"/>
       <c r="L2" s="19"/>
@@ -6705,10 +6504,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E3" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="H3" s="20"/>
       <c r="I3" s="15"/>
@@ -6727,10 +6526,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D4" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E4" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="15"/>
@@ -6749,10 +6548,10 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E5" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="15"/>
@@ -6771,10 +6570,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D6" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E6" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="15"/>
@@ -6793,10 +6592,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="15"/>
@@ -7007,8 +6806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView topLeftCell="A52" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7374,7 +7173,7 @@
         <v>88</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1">
@@ -7388,7 +7187,7 @@
         <v>0.84375</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>54</v>
@@ -7504,13 +7303,13 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C31" s="7">
-        <v>0.77083333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -7521,13 +7320,13 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C32" s="7">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -7643,10 +7442,10 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D40" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="E40" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -7694,10 +7493,10 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D43" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="E43" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -7714,7 +7513,7 @@
         <v>88</v>
       </c>
       <c r="E44" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -7728,7 +7527,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D45" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="E45" t="s">
         <v>75</v>
@@ -7748,7 +7547,7 @@
         <v>102</v>
       </c>
       <c r="E47" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -7881,10 +7680,10 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D56" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="E56" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -8037,7 +7836,7 @@
         <v>115</v>
       </c>
       <c r="E66" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -8101,14 +7900,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8140,10 +7940,10 @@
         <v>0.40625</v>
       </c>
       <c r="D2" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="E2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8157,10 +7957,10 @@
         <v>0.46875</v>
       </c>
       <c r="D3" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="E3" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8174,10 +7974,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D4" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="E4" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8191,7 +7991,7 @@
         <v>0.625</v>
       </c>
       <c r="D5" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E5" t="s">
         <v>99</v>
@@ -8208,10 +8008,10 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="D6" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E6" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8225,10 +8025,10 @@
         <v>0.78125</v>
       </c>
       <c r="D7" t="s">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="E7" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -8242,10 +8042,10 @@
         <v>0.84375</v>
       </c>
       <c r="D8" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="E8" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1"/>
@@ -8260,10 +8060,10 @@
         <v>0.40625</v>
       </c>
       <c r="D10" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="E10" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1">
@@ -8277,10 +8077,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D11" t="s">
-        <v>377</v>
+        <v>462</v>
       </c>
       <c r="E11" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
@@ -8294,7 +8094,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D12" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="E12" t="s">
         <v>100</v>
@@ -8311,7 +8111,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D13" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E13" t="s">
         <v>45</v>
@@ -8328,10 +8128,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D14" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="E14" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1">
@@ -8345,7 +8145,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D15" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="E15" t="s">
         <v>42</v>
@@ -8362,10 +8162,10 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D16" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="E16" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8379,10 +8179,10 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D18" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="E18" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8396,10 +8196,10 @@
         <v>0.5</v>
       </c>
       <c r="D19" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="E19" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8413,10 +8213,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D20" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="E20" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8430,10 +8230,10 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D21" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="E21" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -8447,10 +8247,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D22" t="s">
-        <v>373</v>
+        <v>463</v>
       </c>
       <c r="E22" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -8464,7 +8264,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D23" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="E23" t="s">
         <v>110</v>
@@ -8481,10 +8281,10 @@
         <v>0.84375</v>
       </c>
       <c r="D24" t="s">
-        <v>367</v>
+        <v>464</v>
       </c>
       <c r="E24" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -8498,10 +8298,10 @@
         <v>0.40625</v>
       </c>
       <c r="D26" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="E26" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -8515,7 +8315,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D27" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="E27" t="s">
         <v>73</v>
@@ -8532,10 +8332,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D28" t="s">
-        <v>368</v>
+        <v>465</v>
       </c>
       <c r="E28" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -8549,10 +8349,10 @@
         <v>0.625</v>
       </c>
       <c r="D29" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="E29" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -8566,10 +8366,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D30" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="E30" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -8583,10 +8383,10 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D31" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="E31" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -8600,10 +8400,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D32" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="E32" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -8617,10 +8417,10 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D34" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="E34" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -8634,7 +8434,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D35" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="E35" t="s">
         <v>73</v>
@@ -8651,10 +8451,10 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D36" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="E36" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -8668,10 +8468,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D37" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="E37" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -8685,10 +8485,10 @@
         <v>0.625</v>
       </c>
       <c r="D38" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="E38" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -8702,7 +8502,7 @@
         <v>0.71875</v>
       </c>
       <c r="D40" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="E40" t="s">
         <v>110</v>
@@ -8719,7 +8519,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D41" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="E41" t="s">
         <v>85</v>
@@ -8736,10 +8536,10 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="D42" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="E42" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -8791,7 +8591,7 @@
         <v>0.84375</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E2" t="s">
         <v>130</v>
@@ -8808,7 +8608,7 @@
         <v>0.4375</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="E3" t="s">
         <v>130</v>
@@ -8825,7 +8625,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="E4" t="s">
         <v>130</v>
@@ -8882,10 +8682,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75">
@@ -8899,10 +8699,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D3" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75">
@@ -8921,10 +8721,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D5" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75">
@@ -8938,10 +8738,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D6" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75">
@@ -8960,10 +8760,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D8" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75">
@@ -8977,10 +8777,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D9" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75">
@@ -8999,10 +8799,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D11" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75">
@@ -9019,7 +8819,7 @@
         <v>94</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75">
@@ -9038,10 +8838,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D14" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75">
@@ -9068,10 +8868,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9116,10 +8916,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E2" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -9135,13 +8935,13 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E3" t="s">
-        <v>261</v>
-      </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+        <v>252</v>
+      </c>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
@@ -9156,10 +8956,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E4" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
@@ -9177,10 +8977,10 @@
         <v>0.78125</v>
       </c>
       <c r="D5" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E5" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
@@ -9190,8 +8990,8 @@
     <row r="6" spans="1:10">
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
     </row>
@@ -9206,10 +9006,10 @@
         <v>0.3125</v>
       </c>
       <c r="D7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="28"/>
@@ -9227,10 +9027,10 @@
         <v>0.46875</v>
       </c>
       <c r="D8" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E8" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="28"/>
@@ -9248,13 +9048,13 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D9" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E9" t="s">
-        <v>257</v>
-      </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+        <v>248</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
     </row>
@@ -9269,10 +9069,10 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D10" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E10" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="28"/>
@@ -9298,10 +9098,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D12" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E12" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="28"/>
@@ -9319,10 +9119,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D13" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E13" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="28"/>
@@ -9340,13 +9140,13 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D14" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E14" t="s">
-        <v>257</v>
-      </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
+        <v>248</v>
+      </c>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
     </row>
@@ -9361,10 +9161,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D15" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E15" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="28"/>
@@ -9390,10 +9190,10 @@
         <v>0.3125</v>
       </c>
       <c r="D17" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E17" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="28"/>
@@ -9411,10 +9211,10 @@
         <v>0.46875</v>
       </c>
       <c r="D18" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E18" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="28"/>
@@ -9432,13 +9232,13 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="D19" t="s">
+        <v>244</v>
+      </c>
+      <c r="E19" t="s">
         <v>253</v>
       </c>
-      <c r="E19" t="s">
-        <v>262</v>
-      </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
     </row>
@@ -9453,10 +9253,10 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D20" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E20" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="G20" s="26"/>
       <c r="H20" s="28"/>
@@ -9482,10 +9282,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D22" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E22" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="G22" s="26"/>
       <c r="H22" s="28"/>
@@ -9503,10 +9303,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D23" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E23" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="28"/>
@@ -9524,10 +9324,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D24" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E24" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="28"/>
@@ -9545,10 +9345,10 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D25" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E25" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="28"/>
@@ -9558,8 +9358,8 @@
     <row r="26" spans="1:10">
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
     </row>
@@ -9568,37 +9368,37 @@
         <v>70</v>
       </c>
       <c r="B27" s="10">
-        <v>0.41666666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C27" s="10">
-        <v>0.46875</v>
+        <v>0.375</v>
       </c>
       <c r="D27" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="E27" t="s">
-        <v>257</v>
-      </c>
-      <c r="G27" s="26"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
+        <v>253</v>
+      </c>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>70</v>
       </c>
       <c r="B28" s="10">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C28" s="10">
-        <v>0.70833333333333337</v>
+        <v>0.46875</v>
       </c>
       <c r="D28" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E28" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="G28" s="26"/>
       <c r="H28" s="28"/>
@@ -9606,90 +9406,132 @@
       <c r="J28" s="28"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D29" t="s">
+        <v>244</v>
+      </c>
+      <c r="E29" t="s">
+        <v>255</v>
+      </c>
       <c r="G29" s="26"/>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
       <c r="J29" s="28"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="10">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C30" s="10">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D30" t="s">
-        <v>265</v>
-      </c>
-      <c r="E30" t="s">
-        <v>259</v>
-      </c>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="D31" t="s">
+        <v>244</v>
+      </c>
+      <c r="E31" t="s">
+        <v>245</v>
+      </c>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="10">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0.46875</v>
+      </c>
+      <c r="D32" t="s">
+        <v>466</v>
+      </c>
+      <c r="E32" t="s">
+        <v>245</v>
+      </c>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="7">
         <v>0.75</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C33" s="7">
         <v>0.8125</v>
       </c>
-      <c r="D31" t="s">
-        <v>468</v>
-      </c>
-      <c r="E31" t="s">
-        <v>469</v>
-      </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="G32" s="26"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-    </row>
-    <row r="33" spans="7:10">
+      <c r="D33" t="s">
+        <v>445</v>
+      </c>
+      <c r="E33" t="s">
+        <v>250</v>
+      </c>
       <c r="G33" s="26"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
       <c r="J33" s="28"/>
     </row>
-    <row r="34" spans="7:10">
+    <row r="34" spans="1:10">
       <c r="G34" s="26"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
       <c r="J34" s="28"/>
     </row>
-    <row r="35" spans="7:10">
+    <row r="35" spans="1:10">
       <c r="G35" s="26"/>
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
       <c r="J35" s="28"/>
     </row>
-    <row r="36" spans="7:10">
+    <row r="36" spans="1:10">
       <c r="G36" s="26"/>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
       <c r="J36" s="28"/>
     </row>
+    <row r="37" spans="1:10">
+      <c r="G37" s="26"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="G38" s="26"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G32:H32"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G9:H9"/>
@@ -9705,8 +9547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9745,10 +9587,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9762,10 +9604,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E3" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -9779,10 +9621,10 @@
         <v>0.5625</v>
       </c>
       <c r="D4" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E4" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9796,10 +9638,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D5" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9813,10 +9655,10 @@
         <v>0.75</v>
       </c>
       <c r="D6" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9830,10 +9672,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -9847,10 +9689,10 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D8" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E8" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9864,10 +9706,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D9" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E9" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -9881,10 +9723,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D10" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E10" t="s">
-        <v>244</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -9898,10 +9740,10 @@
         <v>0.75</v>
       </c>
       <c r="D11" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E11" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -9915,10 +9757,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D12" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E12" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -9932,10 +9774,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D13" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E13" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -9949,10 +9791,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D14" t="s">
+        <v>235</v>
+      </c>
+      <c r="E14" t="s">
         <v>243</v>
-      </c>
-      <c r="E14" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -9966,10 +9808,10 @@
         <v>0.5625</v>
       </c>
       <c r="D15" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E15" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -9983,10 +9825,10 @@
         <v>0.75</v>
       </c>
       <c r="D16" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E16" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -10000,10 +9842,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D17" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E17" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -10017,10 +9859,10 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D18" t="s">
+        <v>235</v>
+      </c>
+      <c r="E18" t="s">
         <v>243</v>
-      </c>
-      <c r="E18" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -10034,10 +9876,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D19" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E19" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -10051,10 +9893,10 @@
         <v>0.75</v>
       </c>
       <c r="D20" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E20" t="s">
-        <v>440</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -10068,10 +9910,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D21" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -10085,10 +9927,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D22" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E22" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -10102,10 +9944,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D23" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E23" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -10119,10 +9961,10 @@
         <v>0.5625</v>
       </c>
       <c r="D24" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E24" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -10136,10 +9978,10 @@
         <v>0.75</v>
       </c>
       <c r="D25" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E25" t="s">
-        <v>245</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -10153,10 +9995,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D26" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E26" t="s">
-        <v>245</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -10170,10 +10012,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D27" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E27" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -10187,10 +10029,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D28" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E28" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -10204,10 +10046,10 @@
         <v>0.5625</v>
       </c>
       <c r="D29" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E29" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -10221,10 +10063,10 @@
         <v>0.75</v>
       </c>
       <c r="D30" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E30" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -10238,10 +10080,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D31" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E31" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -10255,10 +10097,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D32" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E32" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -10272,10 +10114,10 @@
         <v>0.75</v>
       </c>
       <c r="D33" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E33" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/AvlZen/App_Data/AvlZen.xlsx
+++ b/AvlZen/App_Data/AvlZen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="-15" windowWidth="15645" windowHeight="12060" tabRatio="907" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="7440" yWindow="-15" windowWidth="15645" windowHeight="12060" tabRatio="907" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Places" sheetId="1" r:id="rId1"/>
@@ -24,23 +24,23 @@
     <sheet name="YmcaWdfn" sheetId="13" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_cid31" localSheetId="2">AvlHapBod!$J$3</definedName>
-    <definedName name="_cid33" localSheetId="2">AvlHapBod!$J$19</definedName>
-    <definedName name="_cid39" localSheetId="2">AvlHapBod!$J$12</definedName>
-    <definedName name="_cid56" localSheetId="2">AvlHapBod!$J$13</definedName>
-    <definedName name="_cid60" localSheetId="2">AvlHapBod!$J$29</definedName>
-    <definedName name="_cid72" localSheetId="2">AvlHapBod!$J$10</definedName>
-    <definedName name="_cid75" localSheetId="2">AvlHapBod!$J$9</definedName>
-    <definedName name="_cid76" localSheetId="2">AvlHapBod!$J$35</definedName>
-    <definedName name="_cid8" localSheetId="2">AvlHapBod!$J$17</definedName>
-    <definedName name="bio100000000" localSheetId="2">AvlHapBod!$K$4</definedName>
-    <definedName name="bio100000001" localSheetId="2">AvlHapBod!$K$19</definedName>
-    <definedName name="bio100000002" localSheetId="2">AvlHapBod!$K$3</definedName>
-    <definedName name="bio100000003" localSheetId="2">AvlHapBod!$K$8</definedName>
-    <definedName name="bio100000005" localSheetId="2">AvlHapBod!$K$17</definedName>
-    <definedName name="bio100000014" localSheetId="2">AvlHapBod!$K$29</definedName>
-    <definedName name="bio100000030" localSheetId="2">AvlHapBod!$K$26</definedName>
-    <definedName name="bio100000032" localSheetId="2">AvlHapBod!$K$14</definedName>
+    <definedName name="_cid31" localSheetId="2">AvlHapBod!$J$4</definedName>
+    <definedName name="_cid33" localSheetId="2">AvlHapBod!$J$20</definedName>
+    <definedName name="_cid39" localSheetId="2">AvlHapBod!$J$13</definedName>
+    <definedName name="_cid56" localSheetId="2">AvlHapBod!$J$14</definedName>
+    <definedName name="_cid60" localSheetId="2">AvlHapBod!$J$30</definedName>
+    <definedName name="_cid72" localSheetId="2">AvlHapBod!$J$11</definedName>
+    <definedName name="_cid75" localSheetId="2">AvlHapBod!$J$10</definedName>
+    <definedName name="_cid76" localSheetId="2">AvlHapBod!$J$36</definedName>
+    <definedName name="_cid8" localSheetId="2">AvlHapBod!$J$18</definedName>
+    <definedName name="bio100000000" localSheetId="2">AvlHapBod!$K$5</definedName>
+    <definedName name="bio100000001" localSheetId="2">AvlHapBod!$K$20</definedName>
+    <definedName name="bio100000002" localSheetId="2">AvlHapBod!$K$4</definedName>
+    <definedName name="bio100000003" localSheetId="2">AvlHapBod!$K$9</definedName>
+    <definedName name="bio100000005" localSheetId="2">AvlHapBod!$K$18</definedName>
+    <definedName name="bio100000014" localSheetId="2">AvlHapBod!$K$30</definedName>
+    <definedName name="bio100000030" localSheetId="2">AvlHapBod!$K$27</definedName>
+    <definedName name="bio100000032" localSheetId="2">AvlHapBod!$K$15</definedName>
     <definedName name="Fri" localSheetId="8">HotYogAvl!#REF!</definedName>
     <definedName name="Mon" localSheetId="8">HotYogAvl!#REF!</definedName>
     <definedName name="Sat" localSheetId="8">HotYogAvl!#REF!</definedName>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="458">
   <si>
     <t>Code</t>
   </si>
@@ -107,24 +107,12 @@
     <t>Sonya</t>
   </si>
   <si>
-    <t>Kundalini Yoga (Level 1 &amp; 2)</t>
-  </si>
-  <si>
-    <t>Jamie</t>
-  </si>
-  <si>
     <t>Vinyasa Flow (All Levels)*</t>
   </si>
   <si>
     <t>Jackie</t>
   </si>
   <si>
-    <t>Qi Gong</t>
-  </si>
-  <si>
-    <t>Jeremy</t>
-  </si>
-  <si>
     <t>Vinyasa Flow (Level 1 &amp; 2)</t>
   </si>
   <si>
@@ -152,9 +140,6 @@
     <t>Michael</t>
   </si>
   <si>
-    <t>HOT Core Fields (level 1 &amp; 2)</t>
-  </si>
-  <si>
     <t>Lindsay</t>
   </si>
   <si>
@@ -530,21 +515,9 @@
     <t>Jerome</t>
   </si>
   <si>
-    <t>Kelly G</t>
-  </si>
-  <si>
-    <t>Eric</t>
-  </si>
-  <si>
-    <t>Elle</t>
-  </si>
-  <si>
     <t>Rich</t>
   </si>
   <si>
-    <t>Cara</t>
-  </si>
-  <si>
     <t>Luna</t>
   </si>
   <si>
@@ -599,12 +572,6 @@
     <t>Seniors Rock (Beginners Welcome)*</t>
   </si>
   <si>
-    <t>Vinyasa Flow (Level 1&amp; 2)</t>
-  </si>
-  <si>
-    <t>Fit After Fifty (All Levels)</t>
-  </si>
-  <si>
     <t>Flow (Level 1 &amp; 2)</t>
   </si>
   <si>
@@ -641,18 +608,9 @@
     <t>Yoga Basics for Beginners</t>
   </si>
   <si>
-    <t>Playful Flow (Level 1 &amp; 2)</t>
-  </si>
-  <si>
-    <t>Kids Yoga (Ages 6-10)</t>
-  </si>
-  <si>
     <t>Restorative Yoga and Live Music (All Levels)*</t>
   </si>
   <si>
-    <t>Gentle Yoga (Level 1, Beginners Welcome)</t>
-  </si>
-  <si>
     <t>Ashtanga Yoga (Level 1 &amp; 2, No Beginners Please)</t>
   </si>
   <si>
@@ -764,9 +722,6 @@
     <t>Bikram Yoga</t>
   </si>
   <si>
-    <t>Erin Porter</t>
-  </si>
-  <si>
     <t>Sean Heeney</t>
   </si>
   <si>
@@ -779,9 +734,6 @@
     <t>Camille Schiele</t>
   </si>
   <si>
-    <t>Adi Westerman</t>
-  </si>
-  <si>
     <t>Ross Randall</t>
   </si>
   <si>
@@ -845,72 +797,21 @@
     <t>Dale</t>
   </si>
   <si>
-    <t>Restorative</t>
-  </si>
-  <si>
-    <t>Power Core Yoga</t>
-  </si>
-  <si>
-    <t>Jackaline</t>
-  </si>
-  <si>
-    <t>Flow Yoga (1,2)</t>
-  </si>
-  <si>
-    <t>Stephanie</t>
-  </si>
-  <si>
-    <t>Jamie/Susan</t>
-  </si>
-  <si>
     <t>Yoga</t>
   </si>
   <si>
-    <t>New To Yoga</t>
-  </si>
-  <si>
     <t>Yoga (2)</t>
   </si>
   <si>
-    <t>Shonna</t>
-  </si>
-  <si>
     <t>Gentle Yoga</t>
   </si>
   <si>
-    <t>Amanda</t>
-  </si>
-  <si>
     <t>Wes</t>
   </si>
   <si>
     <t>Gentle Flow Yoga</t>
   </si>
   <si>
-    <t>Yin Yang Yoga</t>
-  </si>
-  <si>
-    <t>Flow Yoga (power style)</t>
-  </si>
-  <si>
-    <t>Restorative Yoga</t>
-  </si>
-  <si>
-    <t>Greta</t>
-  </si>
-  <si>
-    <t>Yoga Synergy</t>
-  </si>
-  <si>
-    <t>Yoga (1)</t>
-  </si>
-  <si>
-    <t>Cynthia</t>
-  </si>
-  <si>
-    <t>Gayle</t>
-  </si>
-  <si>
     <t>YmcaWdfn</t>
   </si>
   <si>
@@ -1052,9 +953,6 @@
     <t>Flow and Yin Yoga</t>
   </si>
   <si>
-    <t>Mamas and Movers</t>
-  </si>
-  <si>
     <t>Baby and Beloved</t>
   </si>
   <si>
@@ -1070,9 +968,6 @@
     <t>Skillful Flow</t>
   </si>
   <si>
-    <t>Brook</t>
-  </si>
-  <si>
     <t>Julie</t>
   </si>
   <si>
@@ -1094,12 +989,6 @@
     <t>Lisa Sherman</t>
   </si>
   <si>
-    <t>Sarah</t>
-  </si>
-  <si>
-    <t>Emma</t>
-  </si>
-  <si>
     <t>Joshua</t>
   </si>
   <si>
@@ -1118,9 +1007,6 @@
     <t>HOT Flow, Level 1&amp;2</t>
   </si>
   <si>
-    <t>Slow Flow &amp; Yin, Level 1&amp;2</t>
-  </si>
-  <si>
     <t>Family Yoga, All Levels</t>
   </si>
   <si>
@@ -1157,9 +1043,6 @@
     <t>Yoga for Women Level 1&amp;2</t>
   </si>
   <si>
-    <t>Adam Taylor</t>
-  </si>
-  <si>
     <t>Nicole Killeen</t>
   </si>
   <si>
@@ -1175,9 +1058,6 @@
     <t>Danielle Marie Goldstein</t>
   </si>
   <si>
-    <t>Innercise Yoga Flow, Level 1&amp;2</t>
-  </si>
-  <si>
     <t>Kelsey Armbruster</t>
   </si>
   <si>
@@ -1199,18 +1079,12 @@
     <t>Evan Hart Marsh</t>
   </si>
   <si>
-    <t>Slow Flow &amp; Yin Level 1</t>
-  </si>
-  <si>
     <t>Andrea Rich</t>
   </si>
   <si>
     <t>Janelle Railey</t>
   </si>
   <si>
-    <t>Jackie Dobrinska</t>
-  </si>
-  <si>
     <t>UrbAshram</t>
   </si>
   <si>
@@ -1220,12 +1094,6 @@
     <t>62 Wall St Asheville, North Carolina 28801</t>
   </si>
   <si>
-    <t>Rise and Shine Vinyasa Flow - $10 Drop in</t>
-  </si>
-  <si>
-    <t>Lyle Mitchell</t>
-  </si>
-  <si>
     <t>All Levels Vinyasa Flow</t>
   </si>
   <si>
@@ -1238,15 +1106,9 @@
     <t>Level 1 Vinyasa Flow - $5 Drop in</t>
   </si>
   <si>
-    <t>Julian Albertson</t>
-  </si>
-  <si>
     <t>Rich Risbridger</t>
   </si>
   <si>
-    <t>Lea Mclellan</t>
-  </si>
-  <si>
     <t>Lia Curtis-Fine</t>
   </si>
   <si>
@@ -1262,18 +1124,12 @@
     <t>The Roots</t>
   </si>
   <si>
-    <t>Emma Salmon</t>
-  </si>
-  <si>
     <t>Britt</t>
   </si>
   <si>
     <t>Lindsay Fields</t>
   </si>
   <si>
-    <t>Beginner Slow Flow</t>
-  </si>
-  <si>
     <t>HOT Kundalini All Levels $7</t>
   </si>
   <si>
@@ -1298,15 +1154,9 @@
     <t>HOT Deep Core Flow Level 1 &amp; 2</t>
   </si>
   <si>
-    <t>Tantra Vinyasa Level 1&amp;2</t>
-  </si>
-  <si>
     <t>Slow Flow Level 1&amp;2</t>
   </si>
   <si>
-    <t>Align &amp; Restore All Levels</t>
-  </si>
-  <si>
     <t>Yoga Sangha (Level 1 &amp; 2 Donation Based! $5 - $10)</t>
   </si>
   <si>
@@ -1334,12 +1184,6 @@
     <t>Dynamic Flow Yoga</t>
   </si>
   <si>
-    <t>Kids in Motion Yoga</t>
-  </si>
-  <si>
-    <t>Jane Anne</t>
-  </si>
-  <si>
     <t>http://urbanashramstudio.com/</t>
   </si>
   <si>
@@ -1391,9 +1235,6 @@
     <t>Pranayama All Levels</t>
   </si>
   <si>
-    <t>Qi-Gong Reiki</t>
-  </si>
-  <si>
     <t>Meditation Club</t>
   </si>
   <si>
@@ -1460,18 +1301,12 @@
     <t>?</t>
   </si>
   <si>
-    <t>Grace Kandl</t>
-  </si>
-  <si>
     <t>Ropes Series</t>
   </si>
   <si>
     <t>Advance Your Practice - $5 Drop in</t>
   </si>
   <si>
-    <t>Advance Your Practice</t>
-  </si>
-  <si>
     <t>AcroYoga Therapeutics</t>
   </si>
   <si>
@@ -1487,10 +1322,112 @@
     <t>Micah Couttet</t>
   </si>
   <si>
-    <t>Yoga for Athletes: Therapeutic Series</t>
-  </si>
-  <si>
-    <t>Liz Caloras</t>
+    <t>Getting to your Core (Level 1&amp;2)</t>
+  </si>
+  <si>
+    <t>Fit After Fifty (Levels 1&amp;2)</t>
+  </si>
+  <si>
+    <t>Beginner Flow</t>
+  </si>
+  <si>
+    <t>HOT Core (level 1 &amp; 2)</t>
+  </si>
+  <si>
+    <t>Elle Jai</t>
+  </si>
+  <si>
+    <t>Slow Flow for Weight Management (Level 1&amp;2)</t>
+  </si>
+  <si>
+    <t>Gentle Slow Flow (Level 1, Beginners Welcome)</t>
+  </si>
+  <si>
+    <t>Natalie</t>
+  </si>
+  <si>
+    <t>Introspective Qi Gong (All Levels)</t>
+  </si>
+  <si>
+    <t>Yoga Therapeutics</t>
+  </si>
+  <si>
+    <t>Evan</t>
+  </si>
+  <si>
+    <t>Slow Flow &amp; Meditation All Levels</t>
+  </si>
+  <si>
+    <t>Flow Align &amp; Unwind All Levels</t>
+  </si>
+  <si>
+    <t>Mindful Flow &amp; Yin All Levels</t>
+  </si>
+  <si>
+    <t>Courtney Reynolds</t>
+  </si>
+  <si>
+    <t>Vinyasa Flow &amp; Pranayama All Levels</t>
+  </si>
+  <si>
+    <t>Slow Flow &amp; Yin All Levels</t>
+  </si>
+  <si>
+    <t>Deep Peace Flow All Levels</t>
+  </si>
+  <si>
+    <t>Rebecca Willman</t>
+  </si>
+  <si>
+    <t>Candlelight Vinyasa</t>
+  </si>
+  <si>
+    <t>Guest Teacher</t>
+  </si>
+  <si>
+    <t>Mary Hill</t>
+  </si>
+  <si>
+    <t>Sound Flow</t>
+  </si>
+  <si>
+    <t>Luna Ray</t>
+  </si>
+  <si>
+    <t>Begin Yoga Now</t>
+  </si>
+  <si>
+    <t>VinYin Blend</t>
+  </si>
+  <si>
+    <t>Level 1-2 Vinyasa Flow - $5 Drop in</t>
+  </si>
+  <si>
+    <t>Evan Rose</t>
+  </si>
+  <si>
+    <t>Mama and Baby Fitness</t>
+  </si>
+  <si>
+    <t>Lizzy Ziogas</t>
+  </si>
+  <si>
+    <t>Rolling Therapeutics</t>
+  </si>
+  <si>
+    <t>Rise and Shine Kundalini Yoga</t>
+  </si>
+  <si>
+    <t>Lizzy Shurte</t>
+  </si>
+  <si>
+    <t>Jenna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook </t>
+  </si>
+  <si>
+    <t>New to Yoga</t>
   </si>
 </sst>
 </file>
@@ -2100,7 +2037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2123,7 +2060,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2134,24 +2071,24 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="D2" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="D3" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2162,10 +2099,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2179,77 +2116,77 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="D6" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D7" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D8" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D9" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="B10" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="D10" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2263,21 +2200,21 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="B12" t="s">
-        <v>386</v>
-      </c>
-      <c r="C12" t="s">
-        <v>428</v>
+        <v>344</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>376</v>
       </c>
       <c r="D12" t="s">
-        <v>387</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2288,38 +2225,38 @@
         <v>14</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>429</v>
+        <v>377</v>
       </c>
       <c r="D13" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="B14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>321</v>
-      </c>
       <c r="D14" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="B15" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="D15" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2333,18 +2270,20 @@
     <hyperlink ref="C8" r:id="rId3"/>
     <hyperlink ref="C10" r:id="rId4"/>
     <hyperlink ref="C13" r:id="rId5"/>
+    <hyperlink ref="C12" r:id="rId6"/>
+    <hyperlink ref="C14" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2356,24 +2295,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="7">
         <v>0.66666666666666663</v>
@@ -2382,15 +2321,15 @@
         <v>0.71875</v>
       </c>
       <c r="D2" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="E2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B3" s="7">
         <v>0.72916666666666663</v>
@@ -2399,53 +2338,66 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D3" t="s">
-        <v>446</v>
+        <v>393</v>
       </c>
       <c r="E3" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E4" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B5" s="7">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="C5" s="7">
-        <v>0.54166666666666663</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D5" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="E5" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B6" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="C6" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D6" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="E6" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B8" s="7">
         <v>0.39583333333333331</v>
@@ -2454,44 +2406,27 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D8" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="E8" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B10" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C10" s="7">
-        <v>0.71875</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D10" t="s">
-        <v>298</v>
+        <v>394</v>
       </c>
       <c r="E10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D12" t="s">
-        <v>447</v>
-      </c>
-      <c r="E12" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2504,8 +2439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A21" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2517,245 +2452,236 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C2" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D2" t="s">
         <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>468</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" t="s">
         <v>122</v>
       </c>
-      <c r="G2" t="s">
-        <v>123</v>
-      </c>
       <c r="H2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B3" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C3" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B4" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="C4" s="7">
-        <v>0.47916666666666669</v>
+        <v>0.5625</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B5" s="7">
-        <v>0.5</v>
+        <v>0.65625</v>
       </c>
       <c r="C5" s="7">
-        <v>0.5625</v>
+        <v>0.71875</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" t="s">
         <v>122</v>
       </c>
-      <c r="G5" t="s">
-        <v>123</v>
-      </c>
       <c r="H5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B6" s="7">
-        <v>0.65625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C6" s="7">
-        <v>0.71875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G6" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B7" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="C7" s="7">
-        <v>0.72916666666666663</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" t="s">
         <v>122</v>
       </c>
-      <c r="G7" t="s">
-        <v>123</v>
-      </c>
       <c r="H7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B8" s="7">
-        <v>0.72916666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="C8" s="7">
-        <v>0.79166666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="D8" t="s">
-        <v>327</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G8" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.8125</v>
-      </c>
-      <c r="D9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>56</v>
+      <c r="B11" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1">
@@ -2763,16 +2689,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="5">
-        <v>0.39583333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="C12" s="5">
-        <v>0.45833333333333331</v>
+        <v>0.5625</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1">
@@ -2780,16 +2706,16 @@
         <v>15</v>
       </c>
       <c r="B13" s="5">
-        <v>0.5</v>
+        <v>0.65625</v>
       </c>
       <c r="C13" s="5">
-        <v>0.5625</v>
+        <v>0.71875</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1">
@@ -2797,16 +2723,16 @@
         <v>15</v>
       </c>
       <c r="B14" s="5">
-        <v>0.65625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C14" s="5">
-        <v>0.71875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1">
@@ -2814,16 +2740,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="5">
-        <v>0.66666666666666663</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="C15" s="5">
-        <v>0.72916666666666663</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1">
@@ -2831,506 +2757,510 @@
         <v>15</v>
       </c>
       <c r="B16" s="5">
-        <v>0.72916666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="C16" s="5">
         <v>0.79166666666666663</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>422</v>
+        <v>59</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B19" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C19" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D19" t="s">
         <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F19" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G19" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B20" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.40625</v>
       </c>
       <c r="C20" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.46875</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F20" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" t="s">
         <v>122</v>
       </c>
-      <c r="G20" t="s">
-        <v>123</v>
-      </c>
       <c r="H20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B21" s="7">
-        <v>0.40625</v>
+        <v>0.5</v>
       </c>
       <c r="C21" s="7">
-        <v>0.46875</v>
+        <v>0.5625</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G21" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H21" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B22" s="7">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C22" s="7">
-        <v>0.5625</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>395</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="F22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" t="s">
         <v>122</v>
       </c>
-      <c r="G22" t="s">
-        <v>123</v>
-      </c>
       <c r="H22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B23" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="C23" s="7">
-        <v>0.72916666666666663</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D23" t="s">
-        <v>448</v>
+        <v>295</v>
       </c>
       <c r="E23" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G23" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H23" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B24" s="7">
-        <v>0.72916666666666663</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="C24" s="7">
-        <v>0.79166666666666663</v>
+        <v>0.80208333333333337</v>
       </c>
       <c r="D24" t="s">
-        <v>328</v>
+        <v>132</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" t="s">
         <v>122</v>
       </c>
-      <c r="G24" t="s">
-        <v>123</v>
-      </c>
       <c r="H24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="7">
-        <v>0.73958333333333337</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="D25" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" t="s">
-        <v>122</v>
-      </c>
-      <c r="G25" t="s">
-        <v>127</v>
-      </c>
-      <c r="H25" t="s">
-        <v>124</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B27" s="7">
-        <v>0.29166666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C27" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="F27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" t="s">
         <v>122</v>
       </c>
-      <c r="G27" t="s">
-        <v>123</v>
-      </c>
       <c r="H27" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B28" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="C28" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.5625</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>281</v>
       </c>
       <c r="F28" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" t="s">
         <v>122</v>
       </c>
-      <c r="G28" t="s">
-        <v>127</v>
-      </c>
       <c r="H28" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B29" s="7">
-        <v>0.5</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="C29" s="7">
-        <v>0.5625</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="D29" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>314</v>
+        <v>125</v>
       </c>
       <c r="F29" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" t="s">
         <v>122</v>
       </c>
-      <c r="G29" t="s">
-        <v>127</v>
-      </c>
       <c r="H29" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B30" s="7">
-        <v>0.63541666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="C30" s="7">
-        <v>0.69791666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E30" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="F30" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G30" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H30" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B31" s="7">
-        <v>0.64583333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="C31" s="7">
-        <v>0.70833333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D31" t="s">
-        <v>139</v>
+        <v>415</v>
       </c>
       <c r="E31" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G31" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="7">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D32" t="s">
-        <v>469</v>
-      </c>
-      <c r="E32" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" t="s">
-        <v>122</v>
-      </c>
-      <c r="G32" t="s">
-        <v>123</v>
-      </c>
-      <c r="H32" t="s">
-        <v>124</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B34" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C34" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E34" t="s">
-        <v>145</v>
+        <v>281</v>
       </c>
       <c r="F34" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" t="s">
         <v>122</v>
       </c>
-      <c r="G34" t="s">
-        <v>123</v>
-      </c>
       <c r="H34" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B35" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="C35" s="7">
-        <v>0.47916666666666669</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E35" t="s">
-        <v>314</v>
+        <v>127</v>
       </c>
       <c r="F35" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" t="s">
         <v>122</v>
       </c>
-      <c r="G35" t="s">
-        <v>127</v>
-      </c>
       <c r="H35" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B36" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D36" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" t="s">
+        <v>414</v>
+      </c>
+      <c r="F36" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="D38" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" t="s">
+        <v>122</v>
+      </c>
+      <c r="H38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C39" s="7">
         <v>0.5</v>
       </c>
-      <c r="C36" s="7">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D36" t="s">
-        <v>142</v>
-      </c>
-      <c r="E36" t="s">
-        <v>132</v>
-      </c>
-      <c r="F36" t="s">
-        <v>122</v>
-      </c>
-      <c r="G36" t="s">
-        <v>127</v>
-      </c>
-      <c r="H36" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="7">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C37" s="7">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D37" t="s">
-        <v>144</v>
-      </c>
-      <c r="E37" t="s">
-        <v>467</v>
-      </c>
-      <c r="F37" t="s">
-        <v>122</v>
-      </c>
-      <c r="G37" t="s">
-        <v>127</v>
-      </c>
-      <c r="H37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="7">
-        <v>0.375</v>
-      </c>
-      <c r="C39" s="7">
-        <v>0.4375</v>
-      </c>
       <c r="D39" t="s">
-        <v>133</v>
+        <v>446</v>
       </c>
       <c r="E39" t="s">
-        <v>145</v>
-      </c>
-      <c r="F39" t="s">
-        <v>122</v>
-      </c>
-      <c r="G39" t="s">
-        <v>127</v>
-      </c>
-      <c r="H39" t="s">
-        <v>124</v>
-      </c>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="32"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B41" s="7">
         <v>0.41666666666666669</v>
@@ -3339,24 +3269,24 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D41" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E41" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F41" t="s">
+        <v>117</v>
+      </c>
+      <c r="G41" t="s">
         <v>122</v>
       </c>
-      <c r="G41" t="s">
-        <v>127</v>
-      </c>
       <c r="H41" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B42" s="7">
         <v>0.66666666666666663</v>
@@ -3365,19 +3295,19 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D42" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E42" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F42" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G42" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H42" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3388,10 +3318,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3403,309 +3333,296 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="7">
-        <v>0.29166666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="C2" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.53125</v>
       </c>
       <c r="D2" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="E2" t="s">
-        <v>389</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B3" s="7">
-        <v>0.375</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C3" s="7">
-        <v>0.42708333333333331</v>
+        <v>0.71875</v>
       </c>
       <c r="D3" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="E3" t="s">
-        <v>391</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B4" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.78125</v>
+      </c>
+      <c r="D4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.84375</v>
+      </c>
+      <c r="D5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D7" t="s">
+        <v>346</v>
+      </c>
+      <c r="E7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="7">
         <v>0.5</v>
       </c>
-      <c r="C4" s="7">
-        <v>0.53125</v>
-      </c>
-      <c r="D4" t="s">
-        <v>392</v>
-      </c>
-      <c r="E4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.71875</v>
-      </c>
-      <c r="D5" t="s">
-        <v>470</v>
-      </c>
-      <c r="E5" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.78125</v>
-      </c>
-      <c r="D6" t="s">
-        <v>390</v>
-      </c>
-      <c r="E6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.84375</v>
-      </c>
-      <c r="D7" t="s">
-        <v>400</v>
-      </c>
-      <c r="E7" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="7">
-        <v>0.375</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C9" s="7">
-        <v>0.42708333333333331</v>
+        <v>0.71875</v>
       </c>
       <c r="D9" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="7">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="7">
         <v>0.5</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C11" s="7">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D10" t="s">
-        <v>244</v>
-      </c>
-      <c r="E10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="7">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.71875</v>
-      </c>
       <c r="D11" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
       <c r="E11" t="s">
-        <v>399</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B12" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="D12" t="s">
+        <v>349</v>
+      </c>
+      <c r="E12" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="7">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C13" s="7">
         <v>0.78125</v>
       </c>
-      <c r="D12" t="s">
-        <v>471</v>
-      </c>
-      <c r="E12" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="D13" t="s">
+        <v>346</v>
+      </c>
+      <c r="E13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B14" s="7">
-        <v>0.375</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C14" s="7">
-        <v>0.42708333333333331</v>
+        <v>0.84375</v>
       </c>
       <c r="D14" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="E14" t="s">
-        <v>391</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D15" t="s">
-        <v>392</v>
-      </c>
-      <c r="E15" t="s">
-        <v>343</v>
-      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B16" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C16" s="7">
-        <v>0.71875</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="D16" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
       <c r="E16" t="s">
-        <v>397</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>67</v>
+      <c r="A17" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="B17" s="7">
-        <v>0.72916666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="C17" s="7">
-        <v>0.78125</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D17" t="s">
-        <v>390</v>
+        <v>348</v>
       </c>
       <c r="E17" t="s">
-        <v>395</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B18" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="D18" t="s">
+        <v>352</v>
+      </c>
+      <c r="E18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="7">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C19" s="7">
         <v>0.84375</v>
       </c>
-      <c r="D18" t="s">
-        <v>472</v>
-      </c>
-      <c r="E18" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="D19" t="s">
+        <v>355</v>
+      </c>
+      <c r="E19" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="7">
-        <v>0.375</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="D20" t="s">
-        <v>390</v>
-      </c>
-      <c r="E20" t="s">
-        <v>54</v>
-      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="7" t="s">
-        <v>68</v>
+      <c r="A21" t="s">
+        <v>64</v>
       </c>
       <c r="B21" s="7">
         <v>0.5</v>
@@ -3714,209 +3631,103 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D21" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="E21" t="s">
-        <v>359</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B22" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="C22" s="7">
-        <v>0.71875</v>
+        <v>0.65625</v>
       </c>
       <c r="D22" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="E22" t="s">
-        <v>399</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="7">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0.78125</v>
-      </c>
-      <c r="D23" t="s">
-        <v>471</v>
-      </c>
-      <c r="E23" t="s">
-        <v>391</v>
-      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B24" s="7">
-        <v>0.79166666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C24" s="7">
-        <v>0.84375</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="D24" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D25" t="s">
+        <v>418</v>
+      </c>
+      <c r="E25" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B26" s="7">
-        <v>0.375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C26" s="7">
-        <v>0.42708333333333331</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D26" t="s">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="E26" t="s">
-        <v>391</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D27" t="s">
-        <v>392</v>
-      </c>
-      <c r="E27" t="s">
-        <v>343</v>
-      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B28" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C28" s="7">
-        <v>0.71875</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D28" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="E28" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="7">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0.78125</v>
-      </c>
-      <c r="D29" t="s">
-        <v>390</v>
-      </c>
-      <c r="E29" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="7">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="D31" t="s">
-        <v>473</v>
-      </c>
-      <c r="E31" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="D32" t="s">
-        <v>390</v>
-      </c>
-      <c r="E32" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="7">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C34" s="7">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="D34" t="s">
-        <v>390</v>
-      </c>
-      <c r="E34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C35" s="7">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="D35" t="s">
-        <v>475</v>
-      </c>
-      <c r="E35" t="s">
-        <v>474</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -3928,8 +3739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3942,24 +3753,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="7">
         <v>0.38541666666666669</v>
@@ -3968,15 +3779,15 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>449</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="32" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B3" s="7">
         <v>0.44791666666666669</v>
@@ -3985,15 +3796,15 @@
         <v>0.5</v>
       </c>
       <c r="D3" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="E3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B4" s="7">
         <v>0.72916666666666663</v>
@@ -4002,15 +3813,15 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D4" t="s">
-        <v>423</v>
+        <v>373</v>
       </c>
       <c r="E4" t="s">
-        <v>476</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B5" s="7">
         <v>0.80208333333333337</v>
@@ -4019,10 +3830,10 @@
         <v>0.84375</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
-        <v>449</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1"/>
@@ -4037,10 +3848,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1">
@@ -4054,10 +3865,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1">
@@ -4071,304 +3882,304 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="27" thickBot="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="5">
-        <v>0.73958333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="C10" s="5">
-        <v>0.79166666666666663</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1">
+    <row r="11" spans="1:5" ht="27" thickBot="1">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="5">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5">
         <v>0.80208333333333337</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C12" s="5">
         <v>0.4375</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="7">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.4375</v>
-      </c>
-      <c r="D13" t="s">
-        <v>332</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="D12" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="26.25">
+      <c r="A14" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.3125</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" s="32" t="s">
         <v>333</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B15" s="7">
-        <v>0.73958333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C15" s="7">
-        <v>0.79166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D15" t="s">
-        <v>424</v>
+        <v>299</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B16" s="7">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D16" t="s">
+        <v>374</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="7">
         <v>0.80208333333333337</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C17" s="7">
         <v>0.84375</v>
       </c>
-      <c r="D16" t="s">
-        <v>273</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="26.25">
-      <c r="A18" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="7">
+      <c r="D17" t="s">
+        <v>249</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="26.25">
+      <c r="A19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="7">
         <v>0.3125</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C19" s="7">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D18" t="s">
-        <v>189</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="7">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0.42708333333333331</v>
-      </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>449</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B20" s="7">
-        <v>0.44791666666666669</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="C20" s="7">
-        <v>0.5</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D20" t="s">
-        <v>454</v>
+        <v>133</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B21" s="7">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>401</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="7">
         <v>0.73958333333333337</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C22" s="7">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D21" t="s">
-        <v>329</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="7">
+      <c r="D22" t="s">
+        <v>296</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="7">
         <v>0.80208333333333337</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C23" s="7">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D22" t="s">
-        <v>337</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="7">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D24" t="s">
-        <v>331</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>188</v>
+      <c r="D23" t="s">
+        <v>303</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B25" s="7">
-        <v>0.4375</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="C25" s="7">
-        <v>0.5</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D25" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>45</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B26" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="7">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C27" s="7">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D26" t="s">
-        <v>334</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="7">
+      <c r="D27" t="s">
+        <v>300</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="7">
         <v>0.75</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C28" s="7">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D27" t="s">
-        <v>458</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="7">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0.4375</v>
-      </c>
-      <c r="D29" t="s">
-        <v>336</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>453</v>
+      <c r="D28" t="s">
+        <v>405</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B30" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="C30" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.4375</v>
       </c>
       <c r="D30" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>457</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B32" s="7">
         <v>0.39583333333333331</v>
@@ -4377,15 +4188,15 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D32" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="26.25">
       <c r="A33" s="32" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B33" s="7">
         <v>0.66666666666666663</v>
@@ -4394,10 +4205,10 @@
         <v>0.71875</v>
       </c>
       <c r="D33" t="s">
-        <v>460</v>
+        <v>407</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>467</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -4408,10 +4219,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4423,27 +4234,27 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="7">
         <v>0.39583333333333331</v>
@@ -4452,18 +4263,18 @@
         <v>0.4375</v>
       </c>
       <c r="D2" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B3" s="7">
         <v>0.4375</v>
@@ -4472,10 +4283,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4489,10 +4300,10 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D5" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4506,15 +4317,15 @@
         <v>0.8125</v>
       </c>
       <c r="D6" t="s">
-        <v>425</v>
+        <v>375</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B8" s="7">
         <v>0.39583333333333331</v>
@@ -4523,15 +4334,15 @@
         <v>0.4375</v>
       </c>
       <c r="D8" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="E8" t="s">
-        <v>338</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B10" s="7">
         <v>0.4375</v>
@@ -4540,7 +4351,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D10" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -4548,7 +4359,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B11" s="7">
         <v>0.77083333333333337</v>
@@ -4557,15 +4368,15 @@
         <v>0.8125</v>
       </c>
       <c r="D11" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="E11" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" s="7">
         <v>0.35416666666666669</v>
@@ -4574,82 +4385,65 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D13" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="E13" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D14" t="s">
-        <v>269</v>
-      </c>
-      <c r="E14" t="s">
-        <v>275</v>
-      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="7">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="7">
         <v>0.46875</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C15" s="7">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D16" t="s">
-        <v>290</v>
-      </c>
-      <c r="E16" t="s">
-        <v>291</v>
+      <c r="D15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E17" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B18" s="7">
-        <v>0.5625</v>
+        <v>0.625</v>
       </c>
       <c r="C18" s="7">
-        <v>0.60416666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D18" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="E18" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="7">
-        <v>0.625</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D19" t="s">
-        <v>269</v>
-      </c>
-      <c r="E19" t="s">
-        <v>340</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -4664,10 +4458,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4676,386 +4470,140 @@
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D8" t="s">
+        <v>457</v>
+      </c>
+      <c r="E8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D12" t="s">
+        <v>457</v>
+      </c>
+      <c r="E12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="7">
-        <v>0.3125</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>320</v>
-      </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="7">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.84375</v>
-      </c>
-      <c r="D4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.40625</v>
-      </c>
-      <c r="D6" t="s">
-        <v>269</v>
-      </c>
-      <c r="E6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.61458333333333337</v>
-      </c>
-      <c r="D7" t="s">
-        <v>270</v>
-      </c>
-      <c r="E7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="7">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D8" t="s">
-        <v>426</v>
-      </c>
-      <c r="E8" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="7">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.82291666666666663</v>
-      </c>
-      <c r="D9" t="s">
-        <v>271</v>
-      </c>
-      <c r="E9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="7">
-        <v>0.46875</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="D11" t="s">
-        <v>273</v>
-      </c>
-      <c r="E11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0.5625</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0.625</v>
-      </c>
-      <c r="D12" t="s">
-        <v>270</v>
-      </c>
-      <c r="E12" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="7">
-        <v>0.71875</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.76041666666666663</v>
-      </c>
-      <c r="D13" t="s">
-        <v>276</v>
-      </c>
-      <c r="E13" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="7">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D15" t="s">
-        <v>277</v>
-      </c>
-      <c r="E15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="7">
+      <c r="B14" s="7">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C14" s="7">
         <v>0.6875</v>
       </c>
-      <c r="D16" t="s">
-        <v>426</v>
-      </c>
-      <c r="E16" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="7">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.82291666666666663</v>
-      </c>
-      <c r="D17" t="s">
-        <v>271</v>
-      </c>
-      <c r="E17" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="7">
-        <v>0.3125</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D19" t="s">
-        <v>278</v>
-      </c>
-      <c r="E19" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="7">
-        <v>0.5625</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0.625</v>
-      </c>
-      <c r="D20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E20" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="7">
-        <v>0.78125</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0.84375</v>
-      </c>
-      <c r="D21" t="s">
-        <v>269</v>
-      </c>
-      <c r="E21" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="7">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0.40625</v>
-      </c>
-      <c r="D23" t="s">
-        <v>279</v>
-      </c>
-      <c r="E23" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>281</v>
-      </c>
-      <c r="E24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="7">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D25" t="s">
-        <v>269</v>
-      </c>
-      <c r="E25" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="7">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="D27" t="s">
-        <v>282</v>
-      </c>
-      <c r="E27" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="7">
-        <v>0.67708333333333337</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D28" t="s">
-        <v>271</v>
-      </c>
-      <c r="E28" t="s">
-        <v>284</v>
+      <c r="D14" t="s">
+        <v>248</v>
+      </c>
+      <c r="E14" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -5067,10 +4615,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:XFD76"/>
+    <sheetView topLeftCell="A69" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5084,25 +4632,25 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="7">
         <v>0.28125</v>
@@ -5111,16 +4659,16 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B3" s="7">
         <v>0.39583333333333331</v>
@@ -5129,15 +4677,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B4" s="7">
         <v>0.41666666666666669</v>
@@ -5146,15 +4694,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B5" s="7">
         <v>0.48958333333333331</v>
@@ -5163,15 +4711,15 @@
         <v>0.53125</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B6" s="7">
         <v>0.5</v>
@@ -5180,15 +4728,15 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>422</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="32" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B7" s="7">
         <v>0.54166666666666663</v>
@@ -5197,15 +4745,15 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E7" t="s">
-        <v>403</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B8" s="7">
         <v>0.59375</v>
@@ -5214,15 +4762,15 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D8" t="s">
-        <v>182</v>
+        <v>423</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B9" s="7">
         <v>0.66666666666666663</v>
@@ -5231,15 +4779,15 @@
         <v>0.71875</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B10" s="7">
         <v>0.70833333333333337</v>
@@ -5248,15 +4796,15 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B11" s="7">
         <v>0.75</v>
@@ -5265,15 +4813,15 @@
         <v>0.8125</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B12" s="7">
         <v>0.77083333333333337</v>
@@ -5282,15 +4830,15 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B13" s="7">
         <v>0.83333333333333337</v>
@@ -5299,10 +4847,10 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="D13" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E13" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1"/>
@@ -5317,10 +4865,10 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>430</v>
+        <v>378</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F15" s="29"/>
     </row>
@@ -5329,16 +4877,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="5">
-        <v>0.34375</v>
+        <v>0.375</v>
       </c>
       <c r="C16" s="5">
-        <v>0.38541666666666669</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>17</v>
+        <v>379</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="F16" s="29"/>
     </row>
@@ -5347,16 +4895,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>0.375</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="C17" s="5">
         <v>0.42708333333333331</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>431</v>
+        <v>17</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="F17" s="29"/>
     </row>
@@ -5365,16 +4913,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="5">
-        <v>0.39583333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="C18" s="5">
-        <v>0.45833333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F18" s="29"/>
     </row>
@@ -5383,16 +4931,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="5">
-        <v>0.4375</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="C19" s="5">
-        <v>0.47916666666666669</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="F19" s="29"/>
     </row>
@@ -5401,16 +4949,16 @@
         <v>15</v>
       </c>
       <c r="B20" s="5">
-        <v>0.5</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="C20" s="5">
-        <v>0.54166666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>23</v>
+        <v>424</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F20" s="29"/>
     </row>
@@ -5419,1020 +4967,984 @@
         <v>15</v>
       </c>
       <c r="B21" s="5">
-        <v>0.51041666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C21" s="5">
-        <v>0.57291666666666663</v>
+        <v>0.71875</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>24</v>
+        <v>283</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F21" s="29"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1">
+    <row r="22" spans="1:6" ht="16.5" thickBot="1">
       <c r="A22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="5">
-        <v>0.60416666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C22" s="5">
-        <v>0.64583333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>405</v>
+        <v>23</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="29"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1">
+        <v>24</v>
+      </c>
+      <c r="F22" s="31"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" thickBot="1">
       <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="5">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="C23" s="5">
-        <v>0.71875</v>
+        <v>0.8125</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="29"/>
+        <v>145</v>
+      </c>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickBot="1">
       <c r="A24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="5">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="C24" s="5">
-        <v>0.72916666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="F24" s="31"/>
     </row>
-    <row r="25" spans="1:6" ht="16.5" thickBot="1">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="5">
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C25" s="5">
-        <v>0.8125</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>315</v>
+        <v>425</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F25" s="31"/>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="C26" s="5">
-        <v>0.8125</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="31"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C27" s="5">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="F27" s="29"/>
+        <v>357</v>
+      </c>
+      <c r="F25" s="29"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0.28125</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D28" t="s">
+        <v>179</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B29" s="7">
-        <v>0.28125</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C29" s="7">
-        <v>0.32291666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D29" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>26</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B30" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C30" s="7">
-        <v>0.38541666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D30" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B31" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.46875</v>
       </c>
       <c r="C31" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="D31" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F31" s="29"/>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="8" t="s">
-        <v>67</v>
+    <row r="32" spans="1:6" ht="15.75">
+      <c r="A32" s="32" t="s">
+        <v>62</v>
       </c>
       <c r="B32" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="C32" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D32" t="s">
-        <v>192</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F32" s="29"/>
-    </row>
-    <row r="33" spans="1:6">
+        <v>284</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="31"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75">
       <c r="A33" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B33" s="7">
-        <v>0.46875</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="C33" s="7">
-        <v>0.48958333333333331</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="D33" t="s">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="F33" s="29"/>
+        <v>16</v>
+      </c>
+      <c r="F33" s="31"/>
     </row>
     <row r="34" spans="1:6" ht="15.75">
-      <c r="A34" s="32" t="s">
-        <v>67</v>
+      <c r="A34" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="B34" s="7">
-        <v>0.5</v>
+        <v>0.59375</v>
       </c>
       <c r="C34" s="7">
-        <v>0.54166666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="D34" t="s">
-        <v>317</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>31</v>
+        <v>183</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>426</v>
       </c>
       <c r="F34" s="31"/>
     </row>
     <row r="35" spans="1:6" ht="15.75">
       <c r="A35" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B35" s="7">
-        <v>0.51041666666666663</v>
+        <v>0.59375</v>
       </c>
       <c r="C35" s="7">
-        <v>0.57291666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>427</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F35" s="31"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75">
+    <row r="36" spans="1:6">
       <c r="A36" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B36" s="7">
-        <v>0.59375</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C36" s="7">
-        <v>0.64583333333333337</v>
+        <v>0.71875</v>
       </c>
       <c r="D36" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F36" s="31"/>
+        <v>154</v>
+      </c>
+      <c r="F36" s="29"/>
     </row>
     <row r="37" spans="1:6" ht="15.75">
       <c r="A37" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B37" s="7">
-        <v>0.59375</v>
+        <v>0.71875</v>
       </c>
       <c r="C37" s="7">
-        <v>0.63541666666666663</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="D37" t="s">
-        <v>195</v>
+        <v>380</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F37" s="31"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B38" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="C38" s="7">
-        <v>0.69791666666666663</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="D38" t="s">
-        <v>196</v>
+        <v>381</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>162</v>
+        <v>27</v>
       </c>
       <c r="F38" s="29"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B39" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="C39" s="7">
-        <v>0.71875</v>
+        <v>0.875</v>
       </c>
       <c r="D39" t="s">
-        <v>197</v>
+        <v>382</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F39" s="29"/>
     </row>
-    <row r="40" spans="1:6" ht="15.75">
+    <row r="40" spans="1:6">
       <c r="A40" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B40" s="7">
-        <v>0.71875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C40" s="7">
-        <v>0.76041666666666663</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="D40" t="s">
-        <v>432</v>
+        <v>185</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F40" s="31"/>
+        <v>153</v>
+      </c>
+      <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="7">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="C41" s="7">
-        <v>0.82291666666666663</v>
-      </c>
-      <c r="D41" t="s">
-        <v>433</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="F41" s="29"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B42" s="7">
-        <v>0.82291666666666663</v>
+        <v>0.25</v>
       </c>
       <c r="C42" s="7">
-        <v>0.875</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D42" t="s">
-        <v>434</v>
+        <v>186</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="F42" s="29"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" ht="15.75">
       <c r="A43" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B43" s="7">
-        <v>0.83333333333333337</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C43" s="7">
-        <v>0.89583333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="D43" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F43" s="29"/>
+        <v>16</v>
+      </c>
+      <c r="F43" s="31"/>
     </row>
     <row r="44" spans="1:6">
+      <c r="A44" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D44" t="s">
+        <v>189</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="F44" s="29"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="8" t="s">
-        <v>68</v>
+      <c r="A45" s="32" t="s">
+        <v>63</v>
       </c>
       <c r="B45" s="7">
-        <v>0.25</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C45" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D45" t="s">
-        <v>200</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>28</v>
+        <v>383</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>384</v>
       </c>
       <c r="F45" s="29"/>
     </row>
-    <row r="46" spans="1:6" ht="15.75">
+    <row r="46" spans="1:6">
       <c r="A46" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B46" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.46875</v>
       </c>
       <c r="C46" s="7">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="D46" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="31"/>
-    </row>
-    <row r="47" spans="1:6">
+        <v>152</v>
+      </c>
+      <c r="F46" s="29"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75">
       <c r="A47" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B47" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="C47" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D47" t="s">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F47" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="F47" s="31"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="32" t="s">
-        <v>68</v>
+      <c r="A48" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="B48" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="C48" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="D48" t="s">
-        <v>435</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>436</v>
+        <v>408</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="F48" s="29"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B49" s="7">
-        <v>0.46875</v>
+        <v>0.59375</v>
       </c>
       <c r="C49" s="7">
-        <v>0.5</v>
+        <v>0.64930555555555558</v>
       </c>
       <c r="D49" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F49" s="29"/>
     </row>
-    <row r="50" spans="1:6" ht="15.75">
+    <row r="50" spans="1:6">
       <c r="A50" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B50" s="7">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C50" s="7">
-        <v>0.54166666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="F50" s="31"/>
+        <v>159</v>
+      </c>
+      <c r="F50" s="29"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B51" s="7">
-        <v>0.51041666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="C51" s="7">
-        <v>0.55208333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D51" t="s">
-        <v>461</v>
+        <v>191</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F51" s="29"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B52" s="7">
-        <v>0.59375</v>
+        <v>0.71875</v>
       </c>
       <c r="C52" s="7">
-        <v>0.64930555555555558</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="D52" t="s">
-        <v>204</v>
+        <v>284</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="F52" s="29"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B53" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="C53" s="7">
-        <v>0.70833333333333337</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D53" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="F53" s="29"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B54" s="7">
-        <v>0.6875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C54" s="7">
-        <v>0.72916666666666663</v>
+        <v>0.88541666666666663</v>
       </c>
       <c r="D54" t="s">
-        <v>205</v>
+        <v>428</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>169</v>
+        <v>429</v>
       </c>
       <c r="F54" s="29"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B55" s="7">
-        <v>0.71875</v>
+        <v>0.84375</v>
       </c>
       <c r="C55" s="7">
-        <v>0.76041666666666663</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="D55" t="s">
-        <v>317</v>
+        <v>192</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="F55" s="29"/>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56" s="7">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="C56" s="7">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D56" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F56" s="29"/>
-    </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57" s="7">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C57" s="7">
-        <v>0.88541666666666663</v>
-      </c>
-      <c r="D57" t="s">
-        <v>198</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>347</v>
-      </c>
+      <c r="A57" s="8"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="E57" s="8"/>
       <c r="F57" s="29"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="8" t="s">
-        <v>68</v>
+      <c r="A58" s="32" t="s">
+        <v>64</v>
       </c>
       <c r="B58" s="7">
-        <v>0.84375</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="C58" s="7">
-        <v>0.89583333333333337</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D58" t="s">
-        <v>206</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>170</v>
+        <v>430</v>
+      </c>
+      <c r="E58" s="32" t="s">
+        <v>237</v>
       </c>
       <c r="F58" s="29"/>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="8"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="29"/>
-    </row>
-    <row r="61" spans="1:6">
+    <row r="59" spans="1:6">
+      <c r="A59" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C59" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D59" t="s">
+        <v>193</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="29"/>
+    </row>
+    <row r="60" spans="1:6" ht="15.75">
+      <c r="A60" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="C60" s="7">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D60" t="s">
+        <v>385</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="F60" s="31"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.75">
       <c r="A61" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B61" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="C61" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="D61" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F61" s="29"/>
+        <v>27</v>
+      </c>
+      <c r="F61" s="31"/>
     </row>
     <row r="62" spans="1:6" ht="15.75">
       <c r="A62" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B62" s="7">
-        <v>0.46875</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="C62" s="7">
-        <v>0.48958333333333331</v>
+        <v>0.5625</v>
       </c>
       <c r="D62" t="s">
-        <v>437</v>
+        <v>285</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>348</v>
+        <v>162</v>
       </c>
       <c r="F62" s="31"/>
     </row>
     <row r="63" spans="1:6" ht="15.75">
       <c r="A63" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B63" s="7">
-        <v>0.5</v>
+        <v>0.59375</v>
       </c>
       <c r="C63" s="7">
-        <v>0.55208333333333337</v>
+        <v>0.64930555555555558</v>
       </c>
       <c r="D63" t="s">
-        <v>208</v>
+        <v>286</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="F63" s="31"/>
     </row>
-    <row r="64" spans="1:6" ht="15.75">
+    <row r="64" spans="1:6">
       <c r="A64" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B64" s="7">
-        <v>0.51041666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C64" s="7">
-        <v>0.5625</v>
+        <v>0.71875</v>
       </c>
       <c r="D64" t="s">
-        <v>318</v>
+        <v>195</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F64" s="31"/>
+        <v>164</v>
+      </c>
+      <c r="F64" s="29"/>
     </row>
     <row r="65" spans="1:6" ht="15.75">
       <c r="A65" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B65" s="7">
-        <v>0.59375</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="C65" s="7">
-        <v>0.64930555555555558</v>
+        <v>0.71875</v>
       </c>
       <c r="D65" t="s">
-        <v>319</v>
+        <v>196</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F65" s="31"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B66" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="C66" s="7">
-        <v>0.71875</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D66" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F66" s="29"/>
-    </row>
-    <row r="67" spans="1:6" ht="15.75">
-      <c r="A67" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" s="7">
-        <v>0.67708333333333337</v>
-      </c>
-      <c r="C67" s="7">
-        <v>0.71875</v>
-      </c>
-      <c r="D67" t="s">
-        <v>210</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F67" s="31"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B68" s="7">
-        <v>0.75</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="C68" s="7">
-        <v>0.79166666666666663</v>
+        <v>0.40625</v>
       </c>
       <c r="D68" t="s">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>16</v>
-      </c>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" s="7">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C69" s="7">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D69" t="s">
+        <v>197</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F69" s="29"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B70" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="C70" s="7">
-        <v>0.40625</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="D70" t="s">
-        <v>23</v>
+        <v>312</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>174</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F70" s="29"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B71" s="7">
-        <v>0.42708333333333331</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="C71" s="7">
-        <v>0.48958333333333331</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="D71" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c r="F71" s="29"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B72" s="7">
-        <v>0.4375</v>
+        <v>0.59375</v>
       </c>
       <c r="C72" s="7">
-        <v>0.48958333333333331</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="D72" t="s">
-        <v>349</v>
+        <v>193</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="F72" s="29"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B73" s="7">
-        <v>0.51041666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="C73" s="7">
-        <v>0.57291666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D73" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="F73" s="29"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B74" s="7">
-        <v>0.59375</v>
-      </c>
-      <c r="C74" s="7">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="D74" t="s">
-        <v>207</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>176</v>
-      </c>
       <c r="F74" s="29"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B75" s="7">
-        <v>0.64583333333333337</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C75" s="7">
-        <v>0.70833333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D75" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F75" s="29"/>
+        <v>149</v>
+      </c>
     </row>
     <row r="76" spans="1:6">
+      <c r="A76" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B76" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="C76" s="7">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D76" t="s">
+        <v>200</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="F76" s="29"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B77" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.53125</v>
       </c>
       <c r="C77" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D77" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>154</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="F77" s="29"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B78" s="7">
-        <v>0.46875</v>
+        <v>0.59375</v>
       </c>
       <c r="C78" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="D78" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="F78" s="29"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B79" s="7">
-        <v>0.53125</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C79" s="7">
-        <v>0.58333333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D79" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="F79" s="29"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B80" s="7">
-        <v>0.59375</v>
+        <v>0.75</v>
       </c>
       <c r="C80" s="7">
-        <v>0.64583333333333337</v>
+        <v>0.80208333333333337</v>
       </c>
       <c r="D80" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>168</v>
       </c>
       <c r="F80" s="29"/>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B81" s="7">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C81" s="7">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D81" t="s">
-        <v>217</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>31</v>
-      </c>
+    <row r="81" spans="6:6">
       <c r="F81" s="29"/>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B82" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="C82" s="7">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="D82" t="s">
-        <v>218</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="F82" s="29"/>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="F83" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6443,10 +5955,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6459,65 +5971,60 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B2" s="7">
         <v>0.77083333333333337</v>
       </c>
       <c r="C2" s="7">
-        <v>0.82291666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="D2" t="s">
-        <v>289</v>
+        <v>431</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="L2" s="19"/>
+        <v>432</v>
+      </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="B3" s="7">
-        <v>0.25</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="C3" s="7">
-        <v>0.29166666666666669</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="D3" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="E3" t="s">
-        <v>261</v>
-      </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="21"/>
+        <v>142</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="L3" s="19"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B4" s="7">
         <v>0.25</v>
@@ -6526,10 +6033,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D4" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="E4" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="15"/>
@@ -6539,19 +6046,19 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B5" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.25</v>
       </c>
       <c r="C5" s="7">
-        <v>0.3923611111111111</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="D5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E5" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="15"/>
@@ -6561,19 +6068,19 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B6" s="7">
-        <v>0.3125</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="C6" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.3923611111111111</v>
       </c>
       <c r="D6" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="E6" t="s">
-        <v>350</v>
+        <v>246</v>
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="15"/>
@@ -6583,19 +6090,19 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B7" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.3125</v>
       </c>
       <c r="C7" s="7">
-        <v>0.44791666666666669</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="D7" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>313</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="15"/>
@@ -6604,6 +6111,21 @@
       <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" t="s">
+        <v>142</v>
+      </c>
       <c r="H8" s="20"/>
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
@@ -6614,7 +6136,7 @@
       <c r="H9" s="20"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
+      <c r="K9" s="16"/>
       <c r="L9" s="21"/>
     </row>
     <row r="10" spans="1:12">
@@ -6625,15 +6147,15 @@
       <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="H11" s="18"/>
-      <c r="L11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="H12" s="20"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="21"/>
+      <c r="H12" s="18"/>
+      <c r="L12" s="19"/>
     </row>
     <row r="13" spans="1:12">
       <c r="H13" s="20"/>
@@ -6653,19 +6175,19 @@
       <c r="H15" s="20"/>
       <c r="I15" s="15"/>
       <c r="J15" s="16"/>
-      <c r="K15" s="15"/>
+      <c r="K15" s="16"/>
       <c r="L15" s="21"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="H16" s="18"/>
-      <c r="L16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="21"/>
     </row>
     <row r="17" spans="8:12">
-      <c r="H17" s="20"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="21"/>
+      <c r="H17" s="18"/>
+      <c r="L17" s="19"/>
     </row>
     <row r="18" spans="8:12">
       <c r="H18" s="20"/>
@@ -6703,15 +6225,15 @@
       <c r="L22" s="21"/>
     </row>
     <row r="23" spans="8:12">
-      <c r="H23" s="18"/>
-      <c r="L23" s="19"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="21"/>
     </row>
     <row r="24" spans="8:12">
-      <c r="H24" s="20"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="21"/>
+      <c r="H24" s="18"/>
+      <c r="L24" s="19"/>
     </row>
     <row r="25" spans="8:12">
       <c r="H25" s="20"/>
@@ -6728,15 +6250,15 @@
       <c r="L26" s="21"/>
     </row>
     <row r="27" spans="8:12">
-      <c r="H27" s="18"/>
-      <c r="L27" s="19"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="21"/>
     </row>
     <row r="28" spans="8:12">
-      <c r="H28" s="20"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="21"/>
+      <c r="H28" s="18"/>
+      <c r="L28" s="19"/>
     </row>
     <row r="29" spans="8:12">
       <c r="H29" s="20"/>
@@ -6767,15 +6289,15 @@
       <c r="L32" s="21"/>
     </row>
     <row r="33" spans="8:12">
-      <c r="H33" s="18"/>
-      <c r="L33" s="19"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="21"/>
     </row>
     <row r="34" spans="8:12">
-      <c r="H34" s="20"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="21"/>
+      <c r="H34" s="18"/>
+      <c r="L34" s="19"/>
     </row>
     <row r="35" spans="8:12">
       <c r="H35" s="20"/>
@@ -6785,15 +6307,22 @@
       <c r="L35" s="21"/>
     </row>
     <row r="36" spans="8:12">
-      <c r="H36" s="18"/>
-      <c r="L36" s="19"/>
-    </row>
-    <row r="37" spans="8:12" ht="15.75" thickBot="1">
-      <c r="H37" s="22"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="25"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="21"/>
+    </row>
+    <row r="37" spans="8:12">
+      <c r="H37" s="18"/>
+      <c r="L37" s="19"/>
+    </row>
+    <row r="38" spans="8:12" ht="15.75" thickBot="1">
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6806,8 +6335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A42" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6820,24 +6349,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="7">
         <v>0.29166666666666669</v>
@@ -6846,15 +6375,15 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B3" s="7">
         <v>0.36458333333333331</v>
@@ -6863,15 +6392,15 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B4" s="7">
         <v>0.42708333333333331</v>
@@ -6880,15 +6409,15 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B5" s="7">
         <v>0.51041666666666663</v>
@@ -6897,15 +6426,15 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B6" s="7">
         <v>0.58333333333333337</v>
@@ -6914,15 +6443,15 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B7" s="7">
         <v>0.66666666666666663</v>
@@ -6931,15 +6460,15 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B8" s="7">
         <v>0.72916666666666663</v>
@@ -6948,15 +6477,15 @@
         <v>0.78125</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B9" s="7">
         <v>0.72916666666666663</v>
@@ -6965,15 +6494,15 @@
         <v>0.78125</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B10" s="7">
         <v>0.79166666666666663</v>
@@ -6982,15 +6511,15 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B11" s="7">
         <v>0.79166666666666663</v>
@@ -6999,10 +6528,10 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1"/>
@@ -7017,10 +6546,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1">
@@ -7034,10 +6563,10 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1">
@@ -7051,10 +6580,10 @@
         <v>0.4375</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1">
@@ -7068,10 +6597,10 @@
         <v>0.5</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1">
@@ -7085,10 +6614,10 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1">
@@ -7102,10 +6631,10 @@
         <v>0.65625</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1">
@@ -7119,10 +6648,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1">
@@ -7136,10 +6665,10 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1">
@@ -7153,10 +6682,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1">
@@ -7170,10 +6699,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1">
@@ -7187,15 +6716,15 @@
         <v>0.84375</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B25" s="7">
         <v>0.29166666666666669</v>
@@ -7204,15 +6733,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B26" s="7">
         <v>0.34375</v>
@@ -7221,15 +6750,15 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B27" s="7">
         <v>0.39583333333333331</v>
@@ -7238,15 +6767,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B28" s="7">
         <v>0.51041666666666663</v>
@@ -7255,15 +6784,15 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B29" s="7">
         <v>0.60416666666666663</v>
@@ -7272,15 +6801,15 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B30" s="7">
         <v>0.66666666666666663</v>
@@ -7289,15 +6818,15 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B31" s="7">
         <v>0.72916666666666663</v>
@@ -7306,15 +6835,15 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B32" s="7">
         <v>0.72916666666666663</v>
@@ -7323,15 +6852,15 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B33" s="7">
         <v>0.78125</v>
@@ -7340,15 +6869,15 @@
         <v>0.84375</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B34" s="7">
         <v>0.80208333333333337</v>
@@ -7357,15 +6886,15 @@
         <v>0.84375</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B36" s="7">
         <v>0.29166666666666669</v>
@@ -7374,15 +6903,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D36" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E36" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B37" s="7">
         <v>0.34375</v>
@@ -7391,15 +6920,15 @@
         <v>0.40625</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B38" s="7">
         <v>0.41666666666666669</v>
@@ -7408,15 +6937,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B39" s="7">
         <v>0.51041666666666663</v>
@@ -7425,15 +6954,15 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B40" s="7">
         <v>0.59375</v>
@@ -7442,15 +6971,15 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D40" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="E40" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B41" s="7">
         <v>0.64583333333333337</v>
@@ -7459,15 +6988,15 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E41" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B42" s="7">
         <v>0.72916666666666663</v>
@@ -7476,15 +7005,15 @@
         <v>0.78125</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B43" s="7">
         <v>0.72916666666666663</v>
@@ -7493,15 +7022,15 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D43" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="E43" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B44" s="7">
         <v>0.78125</v>
@@ -7510,15 +7039,15 @@
         <v>0.84375</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E44" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B45" s="7">
         <v>0.79166666666666663</v>
@@ -7527,15 +7056,15 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D45" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="E45" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B47" s="7">
         <v>0.29166666666666669</v>
@@ -7544,15 +7073,15 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D47" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E47" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B48" s="7">
         <v>0.36458333333333331</v>
@@ -7561,15 +7090,15 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D48" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E48" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B49" s="7">
         <v>0.4375</v>
@@ -7578,15 +7107,15 @@
         <v>0.5</v>
       </c>
       <c r="D49" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E49" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B50" s="7">
         <v>0.51041666666666663</v>
@@ -7595,15 +7124,15 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D50" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E50" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B51" s="7">
         <v>0.58333333333333337</v>
@@ -7612,15 +7141,15 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E51" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B52" s="7">
         <v>0.66666666666666663</v>
@@ -7629,15 +7158,15 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D52" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B53" s="7">
         <v>0.71875</v>
@@ -7646,15 +7175,15 @@
         <v>0.78125</v>
       </c>
       <c r="D53" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E53" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B54" s="7">
         <v>0.79166666666666663</v>
@@ -7663,15 +7192,15 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D54" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E54" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B56" s="7">
         <v>0.32291666666666669</v>
@@ -7680,15 +7209,15 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D56" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="E56" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B57" s="7">
         <v>0.375</v>
@@ -7697,15 +7226,15 @@
         <v>0.4375</v>
       </c>
       <c r="D57" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E57" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B58" s="7">
         <v>0.45833333333333331</v>
@@ -7714,15 +7243,15 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D58" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E58" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B59" s="7">
         <v>0.54166666666666663</v>
@@ -7731,15 +7260,15 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D59" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E59" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B60" s="7">
         <v>0.59375</v>
@@ -7748,15 +7277,15 @@
         <v>0.65625</v>
       </c>
       <c r="D60" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E60" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B61" s="7">
         <v>0.66666666666666663</v>
@@ -7765,15 +7294,15 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E61" t="s">
-        <v>49</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B63" s="7">
         <v>0.33333333333333331</v>
@@ -7782,15 +7311,15 @@
         <v>0.375</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E63" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B64" s="7">
         <v>0.39583333333333331</v>
@@ -7799,15 +7328,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D64" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E64" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B65" s="7">
         <v>0.46875</v>
@@ -7816,15 +7345,15 @@
         <v>0.53125</v>
       </c>
       <c r="D65" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E65" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B66" s="7">
         <v>0.54166666666666663</v>
@@ -7833,15 +7362,15 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D66" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E66" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B67" s="7">
         <v>0.66666666666666663</v>
@@ -7850,15 +7379,15 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D67" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E67" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B68" s="7">
         <v>0.73958333333333337</v>
@@ -7867,15 +7396,15 @@
         <v>0.78125</v>
       </c>
       <c r="D68" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E68" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B69" s="7">
         <v>0.79166666666666663</v>
@@ -7884,10 +7413,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D69" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E69" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -7901,7 +7430,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7914,24 +7443,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="32" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="7">
         <v>0.35416666666666669</v>
@@ -7940,15 +7469,15 @@
         <v>0.40625</v>
       </c>
       <c r="D2" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="E2" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="32" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B3" s="7">
         <v>0.41666666666666669</v>
@@ -7957,15 +7486,15 @@
         <v>0.46875</v>
       </c>
       <c r="D3" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="E3" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="32" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B4" s="7">
         <v>0.5</v>
@@ -7974,15 +7503,15 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D4" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="E4" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="32" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B5" s="7">
         <v>0.5625</v>
@@ -7991,15 +7520,15 @@
         <v>0.625</v>
       </c>
       <c r="D5" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="32" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B6" s="7">
         <v>0.66666666666666663</v>
@@ -8008,15 +7537,15 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="D6" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="E6" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="32" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B7" s="7">
         <v>0.73958333333333337</v>
@@ -8025,15 +7554,15 @@
         <v>0.78125</v>
       </c>
       <c r="D7" t="s">
-        <v>462</v>
+        <v>409</v>
       </c>
       <c r="E7" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="32" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B8" s="7">
         <v>0.79166666666666663</v>
@@ -8042,10 +7571,10 @@
         <v>0.84375</v>
       </c>
       <c r="D8" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="E8" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1"/>
@@ -8060,10 +7589,10 @@
         <v>0.40625</v>
       </c>
       <c r="D10" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="E10" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1">
@@ -8077,10 +7606,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D11" t="s">
-        <v>462</v>
+        <v>409</v>
       </c>
       <c r="E11" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
@@ -8094,10 +7623,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D12" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1">
@@ -8111,10 +7640,10 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D13" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1">
@@ -8122,16 +7651,16 @@
         <v>15</v>
       </c>
       <c r="B14" s="34">
-        <v>0.67708333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="C14" s="7">
         <v>0.72916666666666663</v>
       </c>
       <c r="D14" t="s">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="E14" t="s">
-        <v>368</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1">
@@ -8145,10 +7674,10 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D15" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1">
@@ -8162,15 +7691,15 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D16" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="E16" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="32" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B18" s="7">
         <v>0.375</v>
@@ -8179,15 +7708,15 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D18" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
       <c r="E18" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="32" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B19" s="7">
         <v>0.4375</v>
@@ -8196,15 +7725,15 @@
         <v>0.5</v>
       </c>
       <c r="D19" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="E19" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="32" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B20" s="7">
         <v>0.51041666666666663</v>
@@ -8213,15 +7742,15 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D20" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="E20" t="s">
-        <v>374</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="32" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B21" s="7">
         <v>0.58333333333333337</v>
@@ -8230,15 +7759,15 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D21" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="E21" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="32" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B22" s="7">
         <v>0.64583333333333337</v>
@@ -8247,15 +7776,15 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D22" t="s">
-        <v>463</v>
+        <v>410</v>
       </c>
       <c r="E22" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="32" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B23" s="7">
         <v>0.71875</v>
@@ -8264,15 +7793,15 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D23" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="32" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B24" s="7">
         <v>0.78125</v>
@@ -8281,32 +7810,32 @@
         <v>0.84375</v>
       </c>
       <c r="D24" t="s">
-        <v>464</v>
+        <v>411</v>
       </c>
       <c r="E24" t="s">
-        <v>376</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="32" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B26" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="C26" s="7">
-        <v>0.40625</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D26" t="s">
-        <v>353</v>
+        <v>437</v>
       </c>
       <c r="E26" t="s">
-        <v>377</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="32" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B27" s="7">
         <v>0.4375</v>
@@ -8315,15 +7844,15 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D27" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="32" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B28" s="7">
         <v>0.5</v>
@@ -8332,15 +7861,15 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D28" t="s">
-        <v>465</v>
+        <v>412</v>
       </c>
       <c r="E28" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="32" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B29" s="7">
         <v>0.57291666666666663</v>
@@ -8349,15 +7878,15 @@
         <v>0.625</v>
       </c>
       <c r="D29" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="E29" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="32" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B30" s="7">
         <v>0.66666666666666663</v>
@@ -8366,15 +7895,15 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D30" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="E30" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="32" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B31" s="7">
         <v>0.71875</v>
@@ -8383,15 +7912,15 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D31" t="s">
-        <v>381</v>
+        <v>438</v>
       </c>
       <c r="E31" t="s">
-        <v>377</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="32" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B32" s="7">
         <v>0.77083333333333337</v>
@@ -8400,15 +7929,15 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D32" t="s">
-        <v>443</v>
+        <v>391</v>
       </c>
       <c r="E32" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="32" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B34" s="7">
         <v>0.33333333333333331</v>
@@ -8417,15 +7946,15 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D34" t="s">
-        <v>444</v>
+        <v>392</v>
       </c>
       <c r="E34" t="s">
-        <v>382</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="32" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B35" s="7">
         <v>0.375</v>
@@ -8434,15 +7963,15 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D35" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="E35" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="32" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B36" s="7">
         <v>0.42708333333333331</v>
@@ -8451,15 +7980,15 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D36" t="s">
-        <v>412</v>
+        <v>364</v>
       </c>
       <c r="E36" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="32" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B37" s="7">
         <v>0.5</v>
@@ -8468,15 +7997,15 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D37" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="E37" t="s">
-        <v>383</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="32" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B38" s="7">
         <v>0.5625</v>
@@ -8485,15 +8014,15 @@
         <v>0.625</v>
       </c>
       <c r="D38" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="E38" t="s">
-        <v>384</v>
+        <v>440</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="32" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B40" s="7">
         <v>0.67708333333333337</v>
@@ -8502,15 +8031,15 @@
         <v>0.71875</v>
       </c>
       <c r="D40" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="32" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B41" s="7">
         <v>0.72916666666666663</v>
@@ -8519,15 +8048,15 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D41" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="E41" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="32" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B42" s="7">
         <v>0.80208333333333337</v>
@@ -8536,10 +8065,10 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="D42" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="E42" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -8565,19 +8094,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8591,15 +8120,15 @@
         <v>0.84375</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B3" s="7">
         <v>0.375</v>
@@ -8608,15 +8137,15 @@
         <v>0.4375</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>352</v>
+        <v>315</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B4" s="7">
         <v>0.41666666666666669</v>
@@ -8625,10 +8154,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -8656,24 +8185,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="7">
         <v>0.41666666666666669</v>
@@ -8682,15 +8211,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B3" s="7">
         <v>0.77083333333333337</v>
@@ -8699,10 +8228,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75">
@@ -8721,10 +8250,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D5" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75">
@@ -8738,10 +8267,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D6" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75">
@@ -8751,7 +8280,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B8" s="7">
         <v>0.41666666666666669</v>
@@ -8760,15 +8289,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D8" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B9" s="7">
         <v>0.58333333333333337</v>
@@ -8777,10 +8306,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D9" t="s">
-        <v>418</v>
+        <v>368</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75">
@@ -8790,7 +8319,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B11" s="7">
         <v>0.41666666666666669</v>
@@ -8799,15 +8328,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D11" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B12" s="7">
         <v>0.77083333333333337</v>
@@ -8816,10 +8345,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75">
@@ -8829,7 +8358,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.75">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B14" s="7">
         <v>0.41666666666666669</v>
@@ -8838,10 +8367,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D14" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75">
@@ -8870,8 +8399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8888,26 +8417,26 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H1"/>
       <c r="I1"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="10">
         <v>0.25</v>
@@ -8916,17 +8445,17 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E2" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B3" s="10">
         <v>0.39583333333333331</v>
@@ -8935,10 +8464,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E3" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="G3" s="36"/>
       <c r="H3" s="36"/>
@@ -8947,7 +8476,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B4" s="10">
         <v>0.51041666666666663</v>
@@ -8956,10 +8485,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D4" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
@@ -8968,7 +8497,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B5" s="10">
         <v>0.72916666666666663</v>
@@ -8977,10 +8506,10 @@
         <v>0.78125</v>
       </c>
       <c r="D5" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E5" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
@@ -9006,10 +8535,10 @@
         <v>0.3125</v>
       </c>
       <c r="D7" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E7" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="28"/>
@@ -9027,10 +8556,10 @@
         <v>0.46875</v>
       </c>
       <c r="D8" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="E8" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="28"/>
@@ -9048,10 +8577,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D9" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E9" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
@@ -9069,10 +8598,10 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D10" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E10" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="28"/>
@@ -9089,7 +8618,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B12" s="10">
         <v>0.25</v>
@@ -9098,10 +8627,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D12" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E12" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="28"/>
@@ -9110,7 +8639,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B13" s="10">
         <v>0.39583333333333331</v>
@@ -9119,10 +8648,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D13" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E13" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="28"/>
@@ -9131,7 +8660,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B14" s="10">
         <v>0.51041666666666663</v>
@@ -9140,10 +8669,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D14" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E14" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="G14" s="36"/>
       <c r="H14" s="36"/>
@@ -9152,7 +8681,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B15" s="10">
         <v>0.72916666666666663</v>
@@ -9161,10 +8690,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D15" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="E15" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="28"/>
@@ -9181,7 +8710,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B17" s="10">
         <v>0.27083333333333331</v>
@@ -9190,10 +8719,10 @@
         <v>0.3125</v>
       </c>
       <c r="D17" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E17" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="28"/>
@@ -9202,7 +8731,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B18" s="10">
         <v>0.41666666666666669</v>
@@ -9211,10 +8740,10 @@
         <v>0.46875</v>
       </c>
       <c r="D18" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E18" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="28"/>
@@ -9223,7 +8752,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B19" s="10">
         <v>0.6875</v>
@@ -9232,10 +8761,10 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="D19" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E19" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="G19" s="36"/>
       <c r="H19" s="36"/>
@@ -9244,7 +8773,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B20" s="10">
         <v>0.75</v>
@@ -9253,10 +8782,10 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D20" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E20" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="G20" s="26"/>
       <c r="H20" s="28"/>
@@ -9273,7 +8802,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B22" s="10">
         <v>0.25</v>
@@ -9282,10 +8811,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D22" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E22" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="G22" s="26"/>
       <c r="H22" s="28"/>
@@ -9294,7 +8823,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B23" s="10">
         <v>0.39583333333333331</v>
@@ -9303,10 +8832,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D23" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="28"/>
@@ -9315,7 +8844,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B24" s="10">
         <v>0.51041666666666663</v>
@@ -9324,10 +8853,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D24" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E24" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="28"/>
@@ -9336,7 +8865,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B25" s="10">
         <v>0.72916666666666663</v>
@@ -9345,10 +8874,10 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D25" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E25" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="28"/>
@@ -9365,7 +8894,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B27" s="10">
         <v>0.33333333333333331</v>
@@ -9374,10 +8903,10 @@
         <v>0.375</v>
       </c>
       <c r="D27" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E27" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="G27" s="35"/>
       <c r="H27" s="35"/>
@@ -9386,7 +8915,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B28" s="10">
         <v>0.41666666666666669</v>
@@ -9395,10 +8924,10 @@
         <v>0.46875</v>
       </c>
       <c r="D28" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E28" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="G28" s="26"/>
       <c r="H28" s="28"/>
@@ -9407,7 +8936,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B29" s="10">
         <v>0.66666666666666663</v>
@@ -9416,10 +8945,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D29" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E29" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="G29" s="26"/>
       <c r="H29" s="28"/>
@@ -9436,7 +8965,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B31" s="10">
         <v>0.33333333333333331</v>
@@ -9445,10 +8974,10 @@
         <v>0.375</v>
       </c>
       <c r="D31" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E31" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="G31" s="35"/>
       <c r="H31" s="35"/>
@@ -9457,7 +8986,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B32" s="10">
         <v>0.41666666666666669</v>
@@ -9466,10 +8995,10 @@
         <v>0.46875</v>
       </c>
       <c r="D32" t="s">
-        <v>466</v>
+        <v>413</v>
       </c>
       <c r="E32" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="G32" s="36"/>
       <c r="H32" s="36"/>
@@ -9478,19 +9007,19 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B33" s="7">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C33" s="7">
-        <v>0.8125</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D33" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E33" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G33" s="26"/>
       <c r="H33" s="28"/>
@@ -9545,10 +9074,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9561,24 +9090,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="7">
         <v>0.33333333333333331</v>
@@ -9587,15 +9116,15 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B3" s="7">
         <v>0.41666666666666669</v>
@@ -9604,15 +9133,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B4" s="7">
         <v>0.5</v>
@@ -9621,15 +9150,15 @@
         <v>0.5625</v>
       </c>
       <c r="D4" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E4" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B5" s="7">
         <v>0.58333333333333337</v>
@@ -9638,15 +9167,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D5" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="E5" t="s">
-        <v>419</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B6" s="7">
         <v>0.6875</v>
@@ -9655,15 +9184,15 @@
         <v>0.75</v>
       </c>
       <c r="D6" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E6" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B7" s="7">
         <v>0.77083333333333337</v>
@@ -9672,10 +9201,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D7" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E7" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -9689,10 +9218,10 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E8" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9706,10 +9235,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D9" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="E9" t="s">
-        <v>236</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -9723,10 +9252,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D10" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E10" t="s">
-        <v>419</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -9740,10 +9269,10 @@
         <v>0.75</v>
       </c>
       <c r="D11" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E11" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -9757,15 +9286,15 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D12" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E12" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B13" s="7">
         <v>0.33333333333333331</v>
@@ -9774,15 +9303,15 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D13" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E13" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B14" s="7">
         <v>0.41666666666666669</v>
@@ -9791,15 +9320,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D14" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E14" t="s">
-        <v>243</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B15" s="7">
         <v>0.5</v>
@@ -9808,15 +9337,15 @@
         <v>0.5625</v>
       </c>
       <c r="D15" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E15" t="s">
-        <v>419</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B16" s="7">
         <v>0.6875</v>
@@ -9825,15 +9354,15 @@
         <v>0.75</v>
       </c>
       <c r="D16" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E16" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B17" s="7">
         <v>0.77083333333333337</v>
@@ -9842,15 +9371,15 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D17" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E17" t="s">
-        <v>242</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B18" s="7">
         <v>0.26041666666666669</v>
@@ -9859,15 +9388,15 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D18" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E18" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B19" s="7">
         <v>0.41666666666666669</v>
@@ -9876,15 +9405,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D19" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E19" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B20" s="7">
         <v>0.6875</v>
@@ -9893,15 +9422,15 @@
         <v>0.75</v>
       </c>
       <c r="D20" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E20" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B21" s="7">
         <v>0.77083333333333337</v>
@@ -9910,15 +9439,15 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D21" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E21" t="s">
-        <v>242</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B22" s="7">
         <v>0.33333333333333331</v>
@@ -9927,15 +9456,15 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D22" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E22" t="s">
-        <v>236</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B23" s="7">
         <v>0.41666666666666669</v>
@@ -9944,15 +9473,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D23" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E23" t="s">
-        <v>237</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B24" s="7">
         <v>0.5</v>
@@ -9961,15 +9490,15 @@
         <v>0.5625</v>
       </c>
       <c r="D24" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E24" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B25" s="7">
         <v>0.6875</v>
@@ -9978,15 +9507,15 @@
         <v>0.75</v>
       </c>
       <c r="D25" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E25" t="s">
-        <v>419</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B26" s="7">
         <v>0.77083333333333337</v>
@@ -9995,15 +9524,15 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D26" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E26" t="s">
-        <v>467</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B27" s="7">
         <v>0.33333333333333331</v>
@@ -10012,15 +9541,15 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D27" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E27" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B28" s="7">
         <v>0.41666666666666669</v>
@@ -10029,15 +9558,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D28" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E28" t="s">
-        <v>241</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B29" s="7">
         <v>0.5</v>
@@ -10046,15 +9575,15 @@
         <v>0.5625</v>
       </c>
       <c r="D29" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E29" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B30" s="7">
         <v>0.6875</v>
@@ -10063,15 +9592,15 @@
         <v>0.75</v>
       </c>
       <c r="D30" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E30" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B31" s="7">
         <v>0.33333333333333331</v>
@@ -10080,44 +9609,27 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D31" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E31" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B32" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.6875</v>
       </c>
       <c r="C32" s="10">
-        <v>0.47916666666666669</v>
+        <v>0.75</v>
       </c>
       <c r="D32" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E32" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="7">
-        <v>0.6875</v>
-      </c>
-      <c r="C33" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="D33" t="s">
-        <v>235</v>
-      </c>
-      <c r="E33" t="s">
-        <v>241</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/AvlZen/App_Data/AvlZen.xlsx
+++ b/AvlZen/App_Data/AvlZen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="-15" windowWidth="15645" windowHeight="12060" tabRatio="907" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="7440" yWindow="-15" windowWidth="15645" windowHeight="12060" tabRatio="907" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Places" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="457">
   <si>
     <t>Code</t>
   </si>
@@ -314,12 +314,6 @@
     <t>Yin Level 1 $7</t>
   </si>
   <si>
-    <t>Flow Level 1&amp;2</t>
-  </si>
-  <si>
-    <t>Evaa Whitley</t>
-  </si>
-  <si>
     <t>Bhakti Vinyasa Level 1&amp;2</t>
   </si>
   <si>
@@ -1428,6 +1422,9 @@
   </si>
   <si>
     <t>New to Yoga</t>
+  </si>
+  <si>
+    <t>Flow Level 1&amp;2 $7</t>
   </si>
 </sst>
 </file>
@@ -2060,7 +2057,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2071,24 +2068,24 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" t="s">
         <v>211</v>
       </c>
-      <c r="B3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C3" t="s">
-        <v>213</v>
-      </c>
       <c r="D3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2099,10 +2096,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2116,77 +2113,77 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" t="s">
         <v>214</v>
       </c>
-      <c r="B7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C7" t="s">
-        <v>216</v>
-      </c>
       <c r="D7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="B10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>264</v>
-      </c>
       <c r="D10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2200,21 +2197,21 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>341</v>
+      </c>
+      <c r="B12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="D12" t="s">
         <v>343</v>
-      </c>
-      <c r="B12" t="s">
-        <v>344</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>376</v>
-      </c>
-      <c r="D12" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2225,38 +2222,38 @@
         <v>14</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2321,10 +2318,10 @@
         <v>0.71875</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2338,10 +2335,10 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2355,10 +2352,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2372,10 +2369,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2389,10 +2386,10 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2406,10 +2403,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2423,10 +2420,10 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2478,19 +2475,19 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" t="s">
         <v>120</v>
       </c>
-      <c r="E2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>117</v>
-      </c>
-      <c r="G2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2510,13 +2507,13 @@
         <v>51</v>
       </c>
       <c r="F3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" t="s">
         <v>117</v>
-      </c>
-      <c r="G3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2530,19 +2527,19 @@
         <v>0.5625</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" t="s">
         <v>117</v>
-      </c>
-      <c r="G4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2556,19 +2553,19 @@
         <v>0.71875</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" t="s">
         <v>117</v>
-      </c>
-      <c r="G5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2588,13 +2585,13 @@
         <v>53</v>
       </c>
       <c r="F6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" t="s">
         <v>117</v>
-      </c>
-      <c r="G6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2608,19 +2605,19 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E7" t="s">
         <v>51</v>
       </c>
       <c r="F7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" t="s">
         <v>117</v>
-      </c>
-      <c r="G7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2634,19 +2631,19 @@
         <v>0.8125</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
         <v>53</v>
       </c>
       <c r="F8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" t="s">
         <v>117</v>
-      </c>
-      <c r="G8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H8" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1"/>
@@ -2661,7 +2658,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>51</v>
@@ -2746,10 +2743,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1">
@@ -2780,19 +2777,19 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" t="s">
         <v>115</v>
       </c>
-      <c r="E18" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" t="s">
         <v>117</v>
-      </c>
-      <c r="G18" t="s">
-        <v>122</v>
-      </c>
-      <c r="H18" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2806,19 +2803,19 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" t="s">
         <v>117</v>
-      </c>
-      <c r="G19" t="s">
-        <v>118</v>
-      </c>
-      <c r="H19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2832,19 +2829,19 @@
         <v>0.46875</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" t="s">
         <v>117</v>
-      </c>
-      <c r="G20" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2858,19 +2855,19 @@
         <v>0.5625</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E21" t="s">
         <v>53</v>
       </c>
       <c r="F21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" t="s">
         <v>117</v>
-      </c>
-      <c r="G21" t="s">
-        <v>118</v>
-      </c>
-      <c r="H21" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2884,19 +2881,19 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D22" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2910,19 +2907,19 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E23" t="s">
         <v>51</v>
       </c>
       <c r="F23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" t="s">
         <v>117</v>
-      </c>
-      <c r="G23" t="s">
-        <v>118</v>
-      </c>
-      <c r="H23" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2936,19 +2933,19 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
         <v>53</v>
       </c>
       <c r="F24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" t="s">
         <v>117</v>
-      </c>
-      <c r="G24" t="s">
-        <v>122</v>
-      </c>
-      <c r="H24" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2962,19 +2959,19 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" t="s">
         <v>115</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>116</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
         <v>117</v>
-      </c>
-      <c r="G26" t="s">
-        <v>118</v>
-      </c>
-      <c r="H26" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2994,13 +2991,13 @@
         <v>58</v>
       </c>
       <c r="F27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" t="s">
         <v>117</v>
-      </c>
-      <c r="G27" t="s">
-        <v>122</v>
-      </c>
-      <c r="H27" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3014,19 +3011,19 @@
         <v>0.5625</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E28" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" t="s">
         <v>117</v>
-      </c>
-      <c r="G28" t="s">
-        <v>122</v>
-      </c>
-      <c r="H28" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3040,19 +3037,19 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" t="s">
         <v>117</v>
-      </c>
-      <c r="G29" t="s">
-        <v>122</v>
-      </c>
-      <c r="H29" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3066,19 +3063,19 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E30" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" t="s">
         <v>116</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30" t="s">
         <v>117</v>
-      </c>
-      <c r="G30" t="s">
-        <v>118</v>
-      </c>
-      <c r="H30" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3092,19 +3089,19 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D31" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E31" t="s">
         <v>53</v>
       </c>
       <c r="F31" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31" t="s">
+        <v>116</v>
+      </c>
+      <c r="H31" t="s">
         <v>117</v>
-      </c>
-      <c r="G31" t="s">
-        <v>118</v>
-      </c>
-      <c r="H31" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3118,19 +3115,19 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F33" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H33" t="s">
         <v>117</v>
-      </c>
-      <c r="G33" t="s">
-        <v>118</v>
-      </c>
-      <c r="H33" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3144,19 +3141,19 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E34" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" t="s">
+        <v>120</v>
+      </c>
+      <c r="H34" t="s">
         <v>117</v>
-      </c>
-      <c r="G34" t="s">
-        <v>122</v>
-      </c>
-      <c r="H34" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3170,19 +3167,19 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3196,19 +3193,19 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E36" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F36" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36" t="s">
+        <v>120</v>
+      </c>
+      <c r="H36" t="s">
         <v>117</v>
-      </c>
-      <c r="G36" t="s">
-        <v>122</v>
-      </c>
-      <c r="H36" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3222,19 +3219,19 @@
         <v>0.4375</v>
       </c>
       <c r="D38" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E38" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" t="s">
+        <v>120</v>
+      </c>
+      <c r="H38" t="s">
         <v>117</v>
-      </c>
-      <c r="G38" t="s">
-        <v>122</v>
-      </c>
-      <c r="H38" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3248,7 +3245,7 @@
         <v>0.5</v>
       </c>
       <c r="D39" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E39" t="s">
         <v>53</v>
@@ -3269,19 +3266,19 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D41" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E41" t="s">
         <v>57</v>
       </c>
       <c r="F41" t="s">
+        <v>115</v>
+      </c>
+      <c r="G41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H41" t="s">
         <v>117</v>
-      </c>
-      <c r="G41" t="s">
-        <v>122</v>
-      </c>
-      <c r="H41" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3295,19 +3292,19 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E42" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42" t="s">
         <v>116</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H42" t="s">
         <v>117</v>
-      </c>
-      <c r="G42" t="s">
-        <v>118</v>
-      </c>
-      <c r="H42" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3359,10 +3356,10 @@
         <v>0.53125</v>
       </c>
       <c r="D2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3376,10 +3373,10 @@
         <v>0.71875</v>
       </c>
       <c r="D3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3393,10 +3390,10 @@
         <v>0.78125</v>
       </c>
       <c r="D4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3410,10 +3407,10 @@
         <v>0.84375</v>
       </c>
       <c r="D5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3432,10 +3429,10 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3449,10 +3446,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3466,10 +3463,10 @@
         <v>0.71875</v>
       </c>
       <c r="D9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3487,10 +3484,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3504,10 +3501,10 @@
         <v>0.71875</v>
       </c>
       <c r="D12" t="s">
+        <v>347</v>
+      </c>
+      <c r="E12" t="s">
         <v>349</v>
-      </c>
-      <c r="E12" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3521,10 +3518,10 @@
         <v>0.78125</v>
       </c>
       <c r="D13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3538,10 +3535,10 @@
         <v>0.84375</v>
       </c>
       <c r="D14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3559,10 +3556,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3576,10 +3573,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3593,10 +3590,10 @@
         <v>0.71875</v>
       </c>
       <c r="D18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E18" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3610,10 +3607,10 @@
         <v>0.84375</v>
       </c>
       <c r="D19" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3631,10 +3628,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D21" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3648,10 +3645,10 @@
         <v>0.65625</v>
       </c>
       <c r="D22" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E22" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3669,10 +3666,10 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="D24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E24" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3686,10 +3683,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D25" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E25" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3703,10 +3700,10 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D26" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3724,10 +3721,10 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D28" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E28" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -3779,10 +3776,10 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3796,10 +3793,10 @@
         <v>0.5</v>
       </c>
       <c r="D3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3813,10 +3810,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3830,10 +3827,10 @@
         <v>0.84375</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1"/>
@@ -3848,10 +3845,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1">
@@ -3865,7 +3862,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E8" t="s">
         <v>72</v>
@@ -3882,7 +3879,7 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>79</v>
@@ -3899,10 +3896,10 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="27" thickBot="1">
@@ -3916,10 +3913,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
@@ -3933,10 +3930,10 @@
         <v>0.4375</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="26.25">
@@ -3950,10 +3947,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3967,10 +3964,10 @@
         <v>0.5</v>
       </c>
       <c r="D15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3984,10 +3981,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D16" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4001,10 +3998,10 @@
         <v>0.84375</v>
       </c>
       <c r="D17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="26.25">
@@ -4018,10 +4015,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4035,10 +4032,10 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4052,10 +4049,10 @@
         <v>0.5</v>
       </c>
       <c r="D21" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4069,10 +4066,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D22" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4086,10 +4083,10 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4103,10 +4100,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D25" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4120,7 +4117,7 @@
         <v>0.5</v>
       </c>
       <c r="D26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>40</v>
@@ -4137,10 +4134,10 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D27" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4154,10 +4151,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D28" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4171,10 +4168,10 @@
         <v>0.4375</v>
       </c>
       <c r="D30" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4188,10 +4185,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D32" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="26.25">
@@ -4205,10 +4202,10 @@
         <v>0.71875</v>
       </c>
       <c r="D33" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -4221,7 +4218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -4249,7 +4246,7 @@
         <v>33</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4263,13 +4260,13 @@
         <v>0.4375</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4283,7 +4280,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -4300,10 +4297,10 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4317,10 +4314,10 @@
         <v>0.8125</v>
       </c>
       <c r="D6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4334,10 +4331,10 @@
         <v>0.4375</v>
       </c>
       <c r="D8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4351,7 +4348,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -4368,10 +4365,10 @@
         <v>0.8125</v>
       </c>
       <c r="D11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4385,10 +4382,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4406,10 +4403,10 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4423,10 +4420,10 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4440,10 +4437,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E18" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -4498,10 +4495,10 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4515,10 +4512,10 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4532,10 +4529,10 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4549,10 +4546,10 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4566,7 +4563,7 @@
         <v>0.5</v>
       </c>
       <c r="D10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -4583,10 +4580,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D12" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4600,10 +4597,10 @@
         <v>0.6875</v>
       </c>
       <c r="D14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -4659,7 +4656,7 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -4677,10 +4674,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4711,10 +4708,10 @@
         <v>0.53125</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4728,10 +4725,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4745,10 +4742,10 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4762,10 +4759,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4779,10 +4776,10 @@
         <v>0.71875</v>
       </c>
       <c r="D9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4796,10 +4793,10 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4813,7 +4810,7 @@
         <v>0.8125</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
@@ -4833,7 +4830,7 @@
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4847,10 +4844,10 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="D13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1"/>
@@ -4865,10 +4862,10 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F15" s="29"/>
     </row>
@@ -4883,10 +4880,10 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F16" s="29"/>
     </row>
@@ -4955,7 +4952,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -4973,7 +4970,7 @@
         <v>0.71875</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>22</v>
@@ -5009,10 +5006,10 @@
         <v>0.8125</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F23" s="31"/>
     </row>
@@ -5045,10 +5042,10 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F25" s="29"/>
     </row>
@@ -5063,7 +5060,7 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>22</v>
@@ -5080,7 +5077,7 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="D28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>60</v>
@@ -5098,10 +5095,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D29" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F29" s="29"/>
     </row>
@@ -5116,10 +5113,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F30" s="29"/>
     </row>
@@ -5134,10 +5131,10 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F31" s="29"/>
     </row>
@@ -5152,7 +5149,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D32" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E32" s="32" t="s">
         <v>27</v>
@@ -5188,10 +5185,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F34" s="31"/>
     </row>
@@ -5206,10 +5203,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D35" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F35" s="31"/>
     </row>
@@ -5224,10 +5221,10 @@
         <v>0.71875</v>
       </c>
       <c r="D36" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F36" s="29"/>
     </row>
@@ -5242,10 +5239,10 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D37" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F37" s="31"/>
     </row>
@@ -5260,7 +5257,7 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D38" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>27</v>
@@ -5278,10 +5275,10 @@
         <v>0.875</v>
       </c>
       <c r="D39" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F39" s="29"/>
     </row>
@@ -5296,10 +5293,10 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="D40" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F40" s="29"/>
     </row>
@@ -5317,7 +5314,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D42" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>24</v>
@@ -5335,7 +5332,7 @@
         <v>0.375</v>
       </c>
       <c r="D43" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>16</v>
@@ -5353,10 +5350,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D44" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F44" s="29"/>
     </row>
@@ -5371,10 +5368,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D45" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F45" s="29"/>
     </row>
@@ -5389,10 +5386,10 @@
         <v>0.5</v>
       </c>
       <c r="D46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F46" s="29"/>
     </row>
@@ -5410,7 +5407,7 @@
         <v>19</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F47" s="31"/>
     </row>
@@ -5425,10 +5422,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D48" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F48" s="29"/>
     </row>
@@ -5443,10 +5440,10 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="D49" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F49" s="29"/>
     </row>
@@ -5464,7 +5461,7 @@
         <v>19</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F50" s="29"/>
     </row>
@@ -5479,10 +5476,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D51" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F51" s="29"/>
     </row>
@@ -5497,10 +5494,10 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D52" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F52" s="29"/>
     </row>
@@ -5533,10 +5530,10 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="D54" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F54" s="29"/>
     </row>
@@ -5551,10 +5548,10 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="D55" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F55" s="29"/>
     </row>
@@ -5576,10 +5573,10 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D58" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E58" s="32" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F58" s="29"/>
     </row>
@@ -5594,7 +5591,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D59" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>27</v>
@@ -5612,10 +5609,10 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F60" s="31"/>
     </row>
@@ -5630,7 +5627,7 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D61" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>27</v>
@@ -5648,10 +5645,10 @@
         <v>0.5625</v>
       </c>
       <c r="D62" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F62" s="31"/>
     </row>
@@ -5666,10 +5663,10 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="D63" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F63" s="31"/>
     </row>
@@ -5684,10 +5681,10 @@
         <v>0.71875</v>
       </c>
       <c r="D64" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F64" s="29"/>
     </row>
@@ -5702,10 +5699,10 @@
         <v>0.71875</v>
       </c>
       <c r="D65" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F65" s="31"/>
     </row>
@@ -5720,7 +5717,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D66" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>16</v>
@@ -5740,7 +5737,7 @@
         <v>19</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5754,10 +5751,10 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F69" s="29"/>
     </row>
@@ -5772,7 +5769,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D70" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>22</v>
@@ -5790,7 +5787,7 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D71" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>28</v>
@@ -5808,10 +5805,10 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D72" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F72" s="29"/>
     </row>
@@ -5826,10 +5823,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D73" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F73" s="29"/>
     </row>
@@ -5847,10 +5844,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D75" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5864,7 +5861,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D76" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>25</v>
@@ -5882,10 +5879,10 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D77" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F77" s="29"/>
     </row>
@@ -5900,10 +5897,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D78" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F78" s="29"/>
     </row>
@@ -5918,7 +5915,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D79" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>27</v>
@@ -5936,10 +5933,10 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D80" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F80" s="29"/>
     </row>
@@ -5997,10 +5994,10 @@
         <v>0.8125</v>
       </c>
       <c r="D2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -6014,10 +6011,10 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H3" s="18"/>
       <c r="L3" s="19"/>
@@ -6033,10 +6030,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="15"/>
@@ -6055,10 +6052,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="15"/>
@@ -6077,10 +6074,10 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="15"/>
@@ -6099,10 +6096,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="15"/>
@@ -6121,10 +6118,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="15"/>
@@ -6335,8 +6332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6583,7 +6580,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1">
@@ -6702,7 +6699,7 @@
         <v>83</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1">
@@ -6716,7 +6713,7 @@
         <v>0.84375</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>49</v>
@@ -6818,10 +6815,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>456</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -6835,7 +6832,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E31" t="s">
         <v>79</v>
@@ -6852,7 +6849,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E32" t="s">
         <v>40</v>
@@ -6869,7 +6866,7 @@
         <v>0.84375</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
         <v>40</v>
@@ -6886,10 +6883,10 @@
         <v>0.84375</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -6903,10 +6900,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -6920,7 +6917,7 @@
         <v>0.40625</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E37" t="s">
         <v>79</v>
@@ -6971,10 +6968,10 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D40" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E40" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -6988,7 +6985,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E41" t="s">
         <v>79</v>
@@ -7022,10 +7019,10 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D43" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E43" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -7042,7 +7039,7 @@
         <v>83</v>
       </c>
       <c r="E44" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -7056,7 +7053,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D45" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E45" t="s">
         <v>70</v>
@@ -7073,10 +7070,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E47" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -7090,7 +7087,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D48" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E48" t="s">
         <v>49</v>
@@ -7107,7 +7104,7 @@
         <v>0.5</v>
       </c>
       <c r="D49" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E49" t="s">
         <v>74</v>
@@ -7124,7 +7121,7 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E50" t="s">
         <v>44</v>
@@ -7141,10 +7138,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -7158,7 +7155,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E52" t="s">
         <v>35</v>
@@ -7175,10 +7172,10 @@
         <v>0.78125</v>
       </c>
       <c r="D53" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E53" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -7209,10 +7206,10 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D56" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E56" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -7243,7 +7240,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D58" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E58" t="s">
         <v>40</v>
@@ -7260,10 +7257,10 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D59" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E59" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -7277,10 +7274,10 @@
         <v>0.65625</v>
       </c>
       <c r="D60" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E60" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -7294,10 +7291,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D61" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E61" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -7311,10 +7308,10 @@
         <v>0.375</v>
       </c>
       <c r="D63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E63" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -7328,7 +7325,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D64" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E64" t="s">
         <v>79</v>
@@ -7345,10 +7342,10 @@
         <v>0.53125</v>
       </c>
       <c r="D65" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E65" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -7362,10 +7359,10 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D66" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E66" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -7379,10 +7376,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D67" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E67" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -7396,7 +7393,7 @@
         <v>0.78125</v>
       </c>
       <c r="D68" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E68" t="s">
         <v>68</v>
@@ -7413,7 +7410,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D69" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E69" t="s">
         <v>79</v>
@@ -7469,10 +7466,10 @@
         <v>0.40625</v>
       </c>
       <c r="D2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7486,10 +7483,10 @@
         <v>0.46875</v>
       </c>
       <c r="D3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7503,10 +7500,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7520,10 +7517,10 @@
         <v>0.625</v>
       </c>
       <c r="D5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7537,10 +7534,10 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="D6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7554,10 +7551,10 @@
         <v>0.78125</v>
       </c>
       <c r="D7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7571,10 +7568,10 @@
         <v>0.84375</v>
       </c>
       <c r="D8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1"/>
@@ -7589,10 +7586,10 @@
         <v>0.40625</v>
       </c>
       <c r="D10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1">
@@ -7606,10 +7603,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
@@ -7623,10 +7620,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1">
@@ -7640,7 +7637,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D13" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E13" t="s">
         <v>40</v>
@@ -7657,10 +7654,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1">
@@ -7674,7 +7671,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E15" t="s">
         <v>37</v>
@@ -7691,10 +7688,10 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7708,10 +7705,10 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D18" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E18" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7725,10 +7722,10 @@
         <v>0.5</v>
       </c>
       <c r="D19" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E19" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7742,10 +7739,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7759,10 +7756,10 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -7776,10 +7773,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D22" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E22" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7793,10 +7790,10 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D23" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7810,10 +7807,10 @@
         <v>0.84375</v>
       </c>
       <c r="D24" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E24" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -7827,10 +7824,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D26" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E26" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -7844,7 +7841,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D27" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E27" t="s">
         <v>68</v>
@@ -7861,10 +7858,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D28" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E28" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -7878,10 +7875,10 @@
         <v>0.625</v>
       </c>
       <c r="D29" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E29" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -7895,10 +7892,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D30" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E30" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -7912,10 +7909,10 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D31" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E31" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -7929,10 +7926,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D32" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E32" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -7946,10 +7943,10 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D34" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E34" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -7963,7 +7960,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D35" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E35" t="s">
         <v>68</v>
@@ -7980,10 +7977,10 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D36" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E36" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -7997,10 +7994,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D37" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E37" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -8014,10 +8011,10 @@
         <v>0.625</v>
       </c>
       <c r="D38" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E38" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -8031,10 +8028,10 @@
         <v>0.71875</v>
       </c>
       <c r="D40" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -8048,7 +8045,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D41" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E41" t="s">
         <v>80</v>
@@ -8065,10 +8062,10 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="D42" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E42" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -8120,10 +8117,10 @@
         <v>0.84375</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8137,10 +8134,10 @@
         <v>0.4375</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8154,10 +8151,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -8211,10 +8208,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75">
@@ -8228,10 +8225,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75">
@@ -8250,10 +8247,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>242</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75">
@@ -8267,10 +8264,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75">
@@ -8289,10 +8286,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75">
@@ -8306,10 +8303,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75">
@@ -8328,10 +8325,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75">
@@ -8345,10 +8342,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75">
@@ -8367,10 +8364,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D14" t="s">
+        <v>240</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>242</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75">
@@ -8445,10 +8442,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -8464,10 +8461,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G3" s="36"/>
       <c r="H3" s="36"/>
@@ -8485,10 +8482,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
@@ -8506,10 +8503,10 @@
         <v>0.78125</v>
       </c>
       <c r="D5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" t="s">
         <v>230</v>
-      </c>
-      <c r="E5" t="s">
-        <v>232</v>
       </c>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
@@ -8535,10 +8532,10 @@
         <v>0.3125</v>
       </c>
       <c r="D7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="28"/>
@@ -8556,10 +8553,10 @@
         <v>0.46875</v>
       </c>
       <c r="D8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="28"/>
@@ -8577,10 +8574,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
@@ -8598,10 +8595,10 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="28"/>
@@ -8627,10 +8624,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="28"/>
@@ -8648,10 +8645,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="28"/>
@@ -8669,10 +8666,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G14" s="36"/>
       <c r="H14" s="36"/>
@@ -8690,10 +8687,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D15" t="s">
+        <v>231</v>
+      </c>
+      <c r="E15" t="s">
         <v>233</v>
-      </c>
-      <c r="E15" t="s">
-        <v>235</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="28"/>
@@ -8719,10 +8716,10 @@
         <v>0.3125</v>
       </c>
       <c r="D17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="28"/>
@@ -8740,10 +8737,10 @@
         <v>0.46875</v>
       </c>
       <c r="D18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="28"/>
@@ -8761,10 +8758,10 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="D19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G19" s="36"/>
       <c r="H19" s="36"/>
@@ -8782,10 +8779,10 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G20" s="26"/>
       <c r="H20" s="28"/>
@@ -8811,10 +8808,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G22" s="26"/>
       <c r="H22" s="28"/>
@@ -8832,10 +8829,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="28"/>
@@ -8853,10 +8850,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D24" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="28"/>
@@ -8874,10 +8871,10 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E25" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="28"/>
@@ -8903,10 +8900,10 @@
         <v>0.375</v>
       </c>
       <c r="D27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G27" s="35"/>
       <c r="H27" s="35"/>
@@ -8924,10 +8921,10 @@
         <v>0.46875</v>
       </c>
       <c r="D28" t="s">
+        <v>228</v>
+      </c>
+      <c r="E28" t="s">
         <v>230</v>
-      </c>
-      <c r="E28" t="s">
-        <v>232</v>
       </c>
       <c r="G28" s="26"/>
       <c r="H28" s="28"/>
@@ -8945,10 +8942,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E29" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G29" s="26"/>
       <c r="H29" s="28"/>
@@ -8974,10 +8971,10 @@
         <v>0.375</v>
       </c>
       <c r="D31" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E31" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G31" s="35"/>
       <c r="H31" s="35"/>
@@ -8995,10 +8992,10 @@
         <v>0.46875</v>
       </c>
       <c r="D32" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G32" s="36"/>
       <c r="H32" s="36"/>
@@ -9016,10 +9013,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D33" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G33" s="26"/>
       <c r="H33" s="28"/>
@@ -9116,10 +9113,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9133,10 +9130,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -9150,10 +9147,10 @@
         <v>0.5625</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9167,10 +9164,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9184,10 +9181,10 @@
         <v>0.75</v>
       </c>
       <c r="D6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9201,10 +9198,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -9218,10 +9215,10 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9235,10 +9232,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -9252,10 +9249,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -9269,10 +9266,10 @@
         <v>0.75</v>
       </c>
       <c r="D11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -9286,10 +9283,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -9303,10 +9300,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -9320,10 +9317,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -9337,10 +9334,10 @@
         <v>0.5625</v>
       </c>
       <c r="D15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -9354,10 +9351,10 @@
         <v>0.75</v>
       </c>
       <c r="D16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -9371,10 +9368,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E17" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -9388,10 +9385,10 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -9405,10 +9402,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -9422,10 +9419,10 @@
         <v>0.75</v>
       </c>
       <c r="D20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -9439,10 +9436,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E21" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -9456,10 +9453,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E22" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -9473,10 +9470,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E23" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -9490,10 +9487,10 @@
         <v>0.5625</v>
       </c>
       <c r="D24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E24" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -9507,10 +9504,10 @@
         <v>0.75</v>
       </c>
       <c r="D25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -9524,10 +9521,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -9541,10 +9538,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -9558,10 +9555,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E28" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -9575,10 +9572,10 @@
         <v>0.5625</v>
       </c>
       <c r="D29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -9592,10 +9589,10 @@
         <v>0.75</v>
       </c>
       <c r="D30" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -9609,10 +9606,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -9626,10 +9623,10 @@
         <v>0.75</v>
       </c>
       <c r="D32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E32" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
